--- a/风险管控月出账流程/风险管控出账流程v2.xlsx
+++ b/风险管控月出账流程/风险管控出账流程v2.xlsx
@@ -2281,7 +2281,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C27" authorId="1">
+    <comment ref="C28" authorId="1">
       <text>
         <r>
           <rPr>
@@ -2297,7 +2297,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C30" authorId="1">
+    <comment ref="C31" authorId="1">
       <text>
         <r>
           <rPr>
@@ -2320,30 +2320,6 @@
           </rPr>
           <t xml:space="preserve">
 select count(*),sum(month_amount_total) from  PU_WT.WT_SERV_ADJUST_OWE c where month_no='201705'; </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C31" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Administrator:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-SELECT * FROM  PU_WT.RPT_SERV_SZQ_LIST_201802</t>
         </r>
       </text>
     </comment>
@@ -2367,7 +2343,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-pu_wt.rpt_owe_ssk_list_201802</t>
+SELECT * FROM  PU_WT.RPT_SERV_SZQ_LIST_201802</t>
         </r>
       </text>
     </comment>
@@ -2378,6 +2354,30 @@
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+pu_wt.rpt_owe_ssk_list_201802</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C34" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
@@ -2397,7 +2397,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="E35" authorId="1">
+    <comment ref="C36" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+select count(*),sum(charge)  from  PU_WT.WT_ACCT_ITEM_SP_AGGR_DEL where month_NO='201802';</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E36" authorId="1">
       <text>
         <r>
           <rPr>
@@ -2432,7 +2456,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C46" authorId="0">
+    <comment ref="C37" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2452,55 +2476,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>存过</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>pu_busi_ind.p_bm_accounts_recv_m10)</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>（参数：当月</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>7</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>号）</t>
+select A.MONTH_NO,count(*) from PU_WT.WT_ACCT_ITEM_XNYC_REDUCE_SP A GROUP BY A.MONTH_NO;</t>
         </r>
       </text>
     </comment>
@@ -2530,14 +2506,53 @@
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>存过</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>pu_busi_ind.p_bm_own_fee_age_m</t>
+          <t>pu_busi_ind.p_bm_accounts_recv_m10)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>（参数：当月</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>7</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>号）</t>
         </r>
       </text>
     </comment>
-    <comment ref="C49" authorId="0">
+    <comment ref="C48" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2557,17 +2572,6 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-SELECT * FROM  pu_wt.rpt_owe_ssk_xzq;  --</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">销账前
 </t>
         </r>
         <r>
@@ -2577,17 +2581,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>SELECT * FROM  pu_wt.rpt_owe_ssk_xzh;  --</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>销账后</t>
+          <t>pu_busi_ind.p_bm_own_fee_age_m</t>
         </r>
       </text>
     </comment>
@@ -2611,7 +2605,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-SELECT * FROM  pu_wt.rpt_owe_szq_xzq_201802; --</t>
+SELECT * FROM  pu_wt.rpt_owe_ssk_xzq;  --</t>
         </r>
         <r>
           <rPr>
@@ -2631,7 +2625,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>SELECT * FROM  pu_wt.rpt_owe_szq_xzh_201802;  --</t>
+          <t>SELECT * FROM  pu_wt.rpt_owe_ssk_xzh;  --</t>
         </r>
         <r>
           <rPr>
@@ -2665,7 +2659,37 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
- SELECT * FROM  ly.rpt_owe_flh_201802 </t>
+SELECT * FROM  pu_wt.rpt_owe_szq_xzq_201802; --</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">销账前
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>SELECT * FROM  pu_wt.rpt_owe_szq_xzh_201802;  --</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>销账后</t>
         </r>
       </text>
     </comment>
@@ -2689,11 +2713,35 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-SELECT * FROM  pu_wt.tmp_owe_age_count2  Order By AREA_NAME;</t>
+ SELECT * FROM  ly.rpt_owe_flh_201802 </t>
         </r>
       </text>
     </comment>
-    <comment ref="C56" authorId="1">
+    <comment ref="C53" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+SELECT * FROM  pu_wt.tmp_owe_age_count2  Order By AREA_NAME;</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C57" authorId="1">
       <text>
         <r>
           <rPr>
@@ -2722,7 +2770,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C60" authorId="1">
+    <comment ref="C61" authorId="1">
       <text>
         <r>
           <rPr>
@@ -2749,7 +2797,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C61" authorId="1">
+    <comment ref="C62" authorId="1">
       <text>
         <r>
           <rPr>
@@ -2776,7 +2824,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C62" authorId="1">
+    <comment ref="C63" authorId="1">
       <text>
         <r>
           <rPr>
@@ -2807,7 +2855,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C63" authorId="1">
+    <comment ref="C64" authorId="1">
       <text>
         <r>
           <rPr>
@@ -2834,7 +2882,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C64" authorId="1">
+    <comment ref="C65" authorId="1">
       <text>
         <r>
           <rPr>
@@ -2861,7 +2909,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C67" authorId="1">
+    <comment ref="C68" authorId="1">
       <text>
         <r>
           <rPr>
@@ -2890,7 +2938,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C69" authorId="1">
+    <comment ref="C70" authorId="1">
       <text>
         <r>
           <rPr>
@@ -2916,7 +2964,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C70" authorId="1">
+    <comment ref="C71" authorId="1">
       <text>
         <r>
           <rPr>
@@ -2945,7 +2993,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C72" authorId="1">
+    <comment ref="C73" authorId="1">
       <text>
         <r>
           <rPr>
@@ -2972,7 +3020,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C73" authorId="0">
+    <comment ref="C74" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3022,6 +3070,32 @@
             <charset val="134"/>
           </rPr>
           <t>销账后</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B81" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+select V_MONTH, t.*
+  from ctinter.INTF_DATA_M t
+  where to_char(to_date(id_year || id_period , 'yyyymm'), 'yyyymm')=V_MONTH;</t>
         </r>
       </text>
     </comment>
@@ -3030,7 +3104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="368">
   <si>
     <t>4号/5号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3453,23 +3527,6 @@
   </si>
   <si>
     <t xml:space="preserve">无效用户推送  </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4G机卡匹配率（确认月数4G产品实例中间层入库情况）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（）</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3880,10 +3937,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>当月11号日欠费数据</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>存过（date_no）日账期日欠费数据开始有那天</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4347,11 +4400,6 @@
       </rPr>
       <t>）</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cd /home/yntbas/user/lxs/shell/realrec  --目录
-nohup ./realrec.sh 20180110 &amp;  --执行</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -4687,10 +4735,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>etl:3010006</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">省政企省商客分账龄欠费 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4730,10 +4774,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>etl ： 7001133</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>9号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4743,10 +4783,6 @@
   </si>
   <si>
     <t>实际计提坏账准备月报</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>计提坏账抽取+(日流程)纵向渠道维用户归属/</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -4800,6 +4836,348 @@
   </si>
   <si>
     <t>渠道效益评估月表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cd /home/yntbas/user/lxs/shell/realrec  --目录
+nohup ./realrec.sh 20180110 &amp;  --执行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无效用户推送</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>分账龄欠费（16新口径）（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>报表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）（经分）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础欠费（经分）（经分）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【FXGK】月欠费回收滚动视图_调度流</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 省政企用户清单PU_WT.WT_SERV_SHZ_ALL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">省政企清单  ( </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>报表)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无效用户推送(月处理)</t>
+  </si>
+  <si>
+    <t>700020016（经分）</t>
+  </si>
+  <si>
+    <t>PU_INTF.I_ACCT_ITEM_M ,PU_WT.F_1_SERV_D_JF,
+PU_INTF.I_PRD_SERV,
+PU_WT.WT_BIL_SERV_OWE_D_{Month_No} ,
+PU_WT.WT_OWE_TAB_RESULT_HIS_M</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>指标层清单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分摊后账单抽取</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则号(rule_id)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>etl:7001135</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>etl:2010012</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>库内欠费月统计基础指标(新版)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">用户支局关系月表 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>只看上月账期数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">省政企用户清单 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手工导出报表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> (经分流程)(应收账款依赖数据)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>把经分“省政企省商客分账龄欠费”的数据抽到风险管控</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>700020017（经分）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>etl:300030064</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（经分）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">etl:300030049(经分) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PU_WT.P_WT_OWE_REC_ROLLING_CONTROL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>存过（date_no）日账期日欠费数据开始有那天</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">/home/yntbas/user/lxs/shell/channel/channel_evalution.sh  参数 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>每月10日 14机器</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/yntbas/user/lxs/shell/realrec/realrec.sh 欠费回收截止日(执行脚本前一天) 14机器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PU_BUSI_IND.P_BM_WX_USER_MON 参数:上个月</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>渠道效益评估月表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>etl:3003196</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跑0871会报表空间 错误，需在经分上跑出数据在抽到风险管控上;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑名单渠道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>月报处理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个季度跑一次（3,6,9,12）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个季度跑一
+次（3,6,9,12）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6号欠费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7号/8号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4G机卡匹配率（确认月数4G产品实例中间层入库情况）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4G机卡匹配率（确认月数4G产品实例中间层入库情况）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP用户另库金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPD_IN.I_IN_B_ACCT_ITEM_AGGR_DEL@Dl_Odl_89,
+PU_WT.F_1_SERV_D_JF,
+dsg.A_OWE_SPECIAL_SERV@Dl_Odl_89</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSG.ACCT_ITEM_OWE_{Month_No}@DL_ODL_89 ,
+PU_WT.F_1_SERV_D_JF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>etl：3003190</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>etl：3003211</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>月账单抽取</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>etl：3003208</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CRM重入网 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>etl:3010006</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPD_IN.I_IN_PPM_INPUT_ADJUST_LIS@DL_ODS_JF,
+ 月欠费宽表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>etl ： 7001133</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>计提坏账抽取+(日流程)纵向渠道维用户归属/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>欠费回收日管控业务指标（新版）</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9号</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>省政企省商客分账龄欠费 （经分）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -4831,23 +5209,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>cd /home/yntbas/user/lxs/shell/realrec  --目录
-nohup ./realrec.sh 20180110 &amp;  --执行</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>实收表+无效用户推送</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无效用户推送</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无效用户统计</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>销帐前_欠费待列金额取待列表（</t>
     </r>
@@ -4875,6 +5236,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>201802分摊前后收入、欠费、欠费占收比</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>销账后_分账龄欠费（</t>
     </r>
@@ -4902,207 +5267,70 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>分账龄欠费（16新口径）（</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>报表</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）（经分）</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础欠费（经分）（经分）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>【FXGK】月欠费回收滚动视图_调度流</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 省政企用户清单PU_WT.WT_SERV_SHZ_ALL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">省政企清单  ( </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>报表)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无效用户推送(月处理)</t>
+    <t>当月11号日欠费数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pu_intf.f_business_balance_m
+（该表的数据是手工导入，需要更新areacode）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收账款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【FXGk】更新areacode_调度流</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctinter.INTF_DATA_M （财报推送的数据）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收账款前置_调度流 （经分流程）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【FXGk】更新areacode_调度流+
+应收账款前置_调度流 （经分流程）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收账款调度流</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>经分前台导出报表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>连续三个月虚假</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>etl：5001055</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按月虚假用户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>etl：7001098</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>3003218  3003220</t>
-  </si>
-  <si>
-    <t>700020016（经分）</t>
-  </si>
-  <si>
-    <t>IPD_IN.I_IN_B_ACCT_ITEM_AGGR_DEL@Dl_Odl_89,
-PU_WT.F_1_SERV_D_JF,
-dsg.A_OWE_SPECIAL_SERV@Dl_Odl_89</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PU_INTF.I_ACCT_ITEM_M ,PU_WT.F_1_SERV_D_JF,
-PU_INTF.I_PRD_SERV,
-PU_WT.WT_BIL_SERV_OWE_D_{Month_No} ,
-PU_WT.WT_OWE_TAB_RESULT_HIS_M</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IPD_IN.I_IN_PPM_INPUT_ADJUST_LIS@DL_ODS_JF,
- 月欠费宽表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>指标层清单</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>分摊后账单抽取</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4G机卡匹配率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>规则号(rule_id)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>etl:7001135</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>etl:2010012</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>库内欠费月统计基础指标(新版)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">用户支局关系月表 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>只看上月账期数据</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">省政企用户清单 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>手工导出报表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> (经分流程)(应收账款依赖数据)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>省政企省商客分账龄欠费 （经分）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>把经分“省政企省商客分账龄欠费”的数据抽到风险管控</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>700020017（经分）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>etl:300030064</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（经分）</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">etl:300030049(经分) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>201802分摊前后收入、欠费、欠费占收比</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PU_WT.P_WT_OWE_REC_ROLLING_CONTROL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>存过（date_no）日账期日欠费数据开始有那天</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cd /home/yntbas/user/lxs/shell/realrec  --目录
+ ./realrec.sh 20180110 &amp;  --执行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无效用户统计</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -5110,68 +5338,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">/home/yntbas/user/lxs/shell/channel/channel_evalution.sh  参数 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>每月10日 14机器</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/home/yntbas/user/lxs/shell/realrec/realrec.sh 欠费回收截止日(执行脚本前一天) 14机器</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PU_BUSI_IND.P_BM_WX_USER_MON 参数:上个月</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>渠道效益评估月表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>etl:3003196</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>跑0871会报表空间 错误，需在经分上跑出数据在抽到风险管控上;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑名单渠道</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>月报处理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个季度跑一次（3,6,9,12）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个季度跑一
-次（3,6,9,12）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6号欠费</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7号/8号</t>
+    <t>实收表+无效用户推送</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>月欠费宽表(新版) (7号日欠费依赖该数据)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>月报处理（每月7号下午五点自动调）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当月养卡+次月养卡+（日流程）按天用户发展质量结构</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5179,7 +5358,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="38">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5469,6 +5648,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -5526,7 +5711,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -5597,6 +5782,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -5606,7 +5860,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="203">
+  <cellXfs count="225">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6021,183 +6275,237 @@
     <xf numFmtId="58" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6213,7 +6521,19 @@
     <xf numFmtId="58" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6224,6 +6544,58 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>904875</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1657350</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>687601</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3119" name="Picture 47"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2066925" y="18888075"/>
+          <a:ext cx="8486775" cy="2440201"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6525,8 +6897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6575,7 +6947,7 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="183" t="s">
+      <c r="A4" s="201" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="5"/>
@@ -6587,17 +6959,17 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="183"/>
+      <c r="A5" s="201"/>
       <c r="B5" s="59"/>
       <c r="C5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D5" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="183"/>
+      <c r="A6" s="201"/>
       <c r="B6" s="5"/>
       <c r="C6" t="s">
         <v>87</v>
@@ -6607,28 +6979,28 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="183"/>
+      <c r="A7" s="201"/>
       <c r="B7" s="5"/>
       <c r="C7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D7" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="183"/>
+      <c r="A8" s="201"/>
       <c r="B8" s="20"/>
       <c r="C8" s="32" t="s">
-        <v>110</v>
+        <v>327</v>
       </c>
       <c r="D8" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="26.45" customHeight="1">
-      <c r="A9" s="183" t="s">
-        <v>208</v>
+      <c r="A9" s="201" t="s">
+        <v>206</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>99</v>
@@ -6641,9 +7013,9 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="27">
-      <c r="A10" s="183"/>
+      <c r="A10" s="201"/>
       <c r="B10" s="44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C10" t="s">
         <v>96</v>
@@ -6653,22 +7025,22 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="183"/>
+      <c r="A11" s="201"/>
       <c r="B11" t="s">
         <v>100</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="187" t="s">
+      <c r="E11" s="205" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="183"/>
+      <c r="A12" s="201"/>
       <c r="B12" s="50" t="s">
         <v>21</v>
       </c>
@@ -6678,10 +7050,10 @@
       <c r="D12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="187"/>
+      <c r="E12" s="205"/>
     </row>
     <row r="13" spans="1:5" ht="18.75">
-      <c r="A13" s="183"/>
+      <c r="A13" s="201"/>
       <c r="B13" s="50" t="s">
         <v>66</v>
       </c>
@@ -6691,10 +7063,10 @@
       <c r="D13" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="187"/>
+      <c r="E13" s="205"/>
     </row>
     <row r="14" spans="1:5" s="8" customFormat="1">
-      <c r="A14" s="183"/>
+      <c r="A14" s="201"/>
       <c r="B14" s="50" t="s">
         <v>66</v>
       </c>
@@ -6707,46 +7079,46 @@
       <c r="E14" s="22"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="183"/>
+      <c r="A15" s="201"/>
       <c r="B15" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="183"/>
+      <c r="A16" s="201"/>
       <c r="B16" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D16" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="8" customFormat="1" ht="14.25">
-      <c r="A17" s="183"/>
+      <c r="A17" s="201"/>
       <c r="B17" s="27" t="s">
         <v>85</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="183" t="s">
+      <c r="A18" s="201" t="s">
         <v>69</v>
       </c>
       <c r="B18" s="23"/>
@@ -6758,7 +7130,7 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="183"/>
+      <c r="A19" s="201"/>
       <c r="B19" s="3" t="s">
         <v>80</v>
       </c>
@@ -6770,7 +7142,7 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="183"/>
+      <c r="A20" s="201"/>
       <c r="B20" s="23" t="s">
         <v>28</v>
       </c>
@@ -6782,7 +7154,7 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="183"/>
+      <c r="A21" s="201"/>
       <c r="B21" s="23"/>
       <c r="C21" s="3" t="s">
         <v>75</v>
@@ -6792,7 +7164,7 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="183"/>
+      <c r="A22" s="201"/>
       <c r="B22" s="23"/>
       <c r="C22" s="3" t="s">
         <v>71</v>
@@ -6802,7 +7174,7 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="183"/>
+      <c r="A23" s="201"/>
       <c r="B23" s="24" t="s">
         <v>28</v>
       </c>
@@ -6814,7 +7186,7 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="183"/>
+      <c r="A24" s="201"/>
       <c r="B24" s="23"/>
       <c r="C24" s="3" t="s">
         <v>73</v>
@@ -6824,7 +7196,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" s="8" customFormat="1">
-      <c r="A25" s="183"/>
+      <c r="A25" s="201"/>
       <c r="B25" s="37"/>
       <c r="C25" s="38" t="s">
         <v>74</v>
@@ -6834,21 +7206,21 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="183" t="s">
+      <c r="A26" s="201" t="s">
         <v>4</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>98</v>
       </c>
       <c r="C26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D26" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="18.75">
-      <c r="A27" s="183"/>
+      <c r="A27" s="201"/>
       <c r="B27" s="13" t="s">
         <v>20</v>
       </c>
@@ -6863,7 +7235,7 @@
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="183"/>
+      <c r="A28" s="201"/>
       <c r="B28" s="26" t="s">
         <v>77</v>
       </c>
@@ -6875,7 +7247,7 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="183"/>
+      <c r="A29" s="201"/>
       <c r="B29" s="45" t="s">
         <v>78</v>
       </c>
@@ -6885,75 +7257,75 @@
       <c r="D29" t="s">
         <v>2</v>
       </c>
-      <c r="E29" s="183"/>
+      <c r="E29" s="201"/>
     </row>
     <row r="30" spans="1:6" ht="18.75">
-      <c r="A30" s="183"/>
+      <c r="A30" s="201"/>
       <c r="B30" t="s">
         <v>15</v>
       </c>
       <c r="C30" s="36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D30" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E30" s="183"/>
+      <c r="E30" s="201"/>
     </row>
     <row r="31" spans="1:6" ht="18.75">
-      <c r="A31" s="183"/>
+      <c r="A31" s="201"/>
       <c r="B31" t="s">
         <v>14</v>
       </c>
       <c r="C31" s="36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D31" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="183"/>
+      <c r="E31" s="201"/>
     </row>
     <row r="32" spans="1:6" ht="27">
-      <c r="A32" s="183"/>
+      <c r="A32" s="201"/>
       <c r="B32" s="52" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C32" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="E32" s="183"/>
+        <v>136</v>
+      </c>
+      <c r="E32" s="201"/>
     </row>
     <row r="33" spans="1:5" s="56" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A33" s="183"/>
+      <c r="A33" s="201"/>
       <c r="B33" s="56" t="s">
         <v>79</v>
       </c>
       <c r="C33" s="56" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D33" s="58" t="s">
-        <v>150</v>
-      </c>
-      <c r="E33" s="183"/>
+        <v>148</v>
+      </c>
+      <c r="E33" s="201"/>
     </row>
     <row r="34" spans="1:5" ht="44.45" customHeight="1">
-      <c r="A34" s="183"/>
+      <c r="A34" s="201"/>
       <c r="B34" t="s">
         <v>79</v>
       </c>
       <c r="C34" s="48" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="E34" s="183"/>
+        <v>114</v>
+      </c>
+      <c r="E34" s="201"/>
     </row>
     <row r="35" spans="1:5" s="56" customFormat="1" ht="18.75">
-      <c r="A35" s="183"/>
+      <c r="A35" s="201"/>
       <c r="B35" s="55" t="s">
         <v>86</v>
       </c>
@@ -6961,101 +7333,101 @@
         <v>88</v>
       </c>
       <c r="D35" s="57" t="s">
-        <v>116</v>
-      </c>
-      <c r="E35" s="183"/>
+        <v>115</v>
+      </c>
+      <c r="E35" s="201"/>
     </row>
     <row r="36" spans="1:5" ht="33" customHeight="1">
-      <c r="A36" s="183"/>
+      <c r="A36" s="201"/>
       <c r="B36" s="29" t="s">
         <v>84</v>
       </c>
       <c r="C36" s="50" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D36" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E36" s="183"/>
+      <c r="E36" s="201"/>
     </row>
     <row r="37" spans="1:5" ht="18.75">
-      <c r="A37" s="183"/>
+      <c r="A37" s="201"/>
       <c r="B37" s="12"/>
       <c r="C37" s="40" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D37" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E37" s="183"/>
+      <c r="E37" s="201"/>
     </row>
     <row r="38" spans="1:5" ht="18.75">
-      <c r="A38" s="183"/>
+      <c r="A38" s="201"/>
       <c r="B38" s="12"/>
       <c r="C38" s="40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D38" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E38" s="183"/>
+      <c r="E38" s="201"/>
     </row>
     <row r="39" spans="1:5" ht="18.75">
-      <c r="A39" s="183"/>
+      <c r="A39" s="201"/>
       <c r="B39" s="12"/>
       <c r="C39" s="40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D39" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E39" s="183"/>
+      <c r="E39" s="201"/>
     </row>
     <row r="40" spans="1:5" ht="18.75">
-      <c r="A40" s="183"/>
-      <c r="B40" s="188" t="s">
-        <v>141</v>
+      <c r="A40" s="201"/>
+      <c r="B40" s="206" t="s">
+        <v>347</v>
       </c>
       <c r="C40" s="40" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D40" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E40" s="183"/>
+      <c r="E40" s="201"/>
     </row>
     <row r="41" spans="1:5" ht="18.75">
-      <c r="A41" s="183"/>
-      <c r="B41" s="188"/>
+      <c r="A41" s="201"/>
+      <c r="B41" s="206"/>
       <c r="C41" s="50" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D41" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E41" s="183"/>
+      <c r="E41" s="201"/>
     </row>
     <row r="42" spans="1:5" ht="18.75">
-      <c r="A42" s="183"/>
-      <c r="B42" s="188"/>
+      <c r="A42" s="201"/>
+      <c r="B42" s="206"/>
       <c r="C42" s="54" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D42" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E42" s="183"/>
+      <c r="E42" s="201"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="183"/>
+      <c r="A43" s="201"/>
       <c r="B43" s="12"/>
       <c r="C43" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="E43" s="183"/>
+        <v>134</v>
+      </c>
+      <c r="E43" s="201"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="183"/>
+      <c r="A44" s="201"/>
       <c r="B44" s="12" t="s">
         <v>76</v>
       </c>
@@ -7065,9 +7437,9 @@
       <c r="E44" s="25"/>
     </row>
     <row r="45" spans="1:5" ht="40.5">
-      <c r="A45" s="183"/>
+      <c r="A45" s="201"/>
       <c r="B45" s="46" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C45" s="41" t="s">
         <v>34</v>
@@ -7075,49 +7447,49 @@
       <c r="D45" t="s">
         <v>2</v>
       </c>
-      <c r="E45" s="184" t="s">
+      <c r="E45" s="202" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="27">
-      <c r="A46" s="183"/>
+      <c r="A46" s="201"/>
       <c r="B46" s="47" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C46" s="41" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D46" t="s">
         <v>2</v>
       </c>
-      <c r="E46" s="185"/>
+      <c r="E46" s="203"/>
     </row>
     <row r="47" spans="1:5" ht="54">
-      <c r="A47" s="183"/>
+      <c r="A47" s="201"/>
       <c r="B47" s="44" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C47" s="41" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D47" t="s">
         <v>2</v>
       </c>
-      <c r="E47" s="185"/>
+      <c r="E47" s="203"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="183"/>
+      <c r="A48" s="201"/>
       <c r="B48" s="21"/>
       <c r="C48" s="41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D48" t="s">
         <v>2</v>
       </c>
-      <c r="E48" s="185"/>
+      <c r="E48" s="203"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="183"/>
+      <c r="A49" s="201"/>
       <c r="B49" s="24"/>
       <c r="C49" s="41" t="s">
         <v>5</v>
@@ -7125,56 +7497,56 @@
       <c r="D49" t="s">
         <v>2</v>
       </c>
-      <c r="E49" s="185"/>
+      <c r="E49" s="203"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="183"/>
+      <c r="A50" s="201"/>
       <c r="B50" s="43"/>
       <c r="C50" s="41" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D50" t="s">
         <v>2</v>
       </c>
-      <c r="E50" s="185"/>
+      <c r="E50" s="203"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="183"/>
+      <c r="A51" s="201"/>
       <c r="B51" s="43" t="s">
         <v>67</v>
       </c>
       <c r="C51" s="41" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D51" t="s">
         <v>2</v>
       </c>
-      <c r="E51" s="185"/>
+      <c r="E51" s="203"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="183"/>
+      <c r="A52" s="201"/>
       <c r="B52" s="43"/>
       <c r="C52" s="41" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D52" t="s">
         <v>2</v>
       </c>
-      <c r="E52" s="185"/>
+      <c r="E52" s="203"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="183"/>
+      <c r="A53" s="201"/>
       <c r="B53" s="24"/>
       <c r="C53" s="41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D53" t="s">
         <v>2</v>
       </c>
-      <c r="E53" s="185"/>
+      <c r="E53" s="203"/>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="183"/>
+      <c r="A54" s="201"/>
       <c r="B54" s="24" t="s">
         <v>42</v>
       </c>
@@ -7187,7 +7559,7 @@
       <c r="E54" s="19"/>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="186" t="s">
+      <c r="A55" s="204" t="s">
         <v>6</v>
       </c>
       <c r="B55" s="6"/>
@@ -7199,7 +7571,7 @@
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="186"/>
+      <c r="A56" s="204"/>
       <c r="B56" s="8" t="s">
         <v>17</v>
       </c>
@@ -7211,7 +7583,7 @@
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="186"/>
+      <c r="A57" s="204"/>
       <c r="B57" s="8" t="s">
         <v>7</v>
       </c>
@@ -7223,7 +7595,7 @@
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="186"/>
+      <c r="A58" s="204"/>
       <c r="B58" s="8" t="s">
         <v>17</v>
       </c>
@@ -7235,7 +7607,7 @@
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="186"/>
+      <c r="A59" s="204"/>
       <c r="B59" s="6" t="s">
         <v>18</v>
       </c>
@@ -7247,7 +7619,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" ht="18.75">
-      <c r="A60" s="186"/>
+      <c r="A60" s="204"/>
       <c r="B60" s="11" t="s">
         <v>19</v>
       </c>
@@ -7259,7 +7631,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" ht="18.75">
-      <c r="A61" s="186"/>
+      <c r="A61" s="204"/>
       <c r="B61" s="6"/>
       <c r="C61" s="8" t="s">
         <v>24</v>
@@ -7269,19 +7641,19 @@
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="186"/>
+      <c r="A62" s="204"/>
       <c r="B62" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C62" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="D62" s="143" t="s">
-        <v>334</v>
+      <c r="D62" s="142" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="63" spans="1:5" s="4" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A63" s="186"/>
+      <c r="A63" s="204"/>
       <c r="B63" s="8" t="s">
         <v>25</v>
       </c>
@@ -7289,11 +7661,11 @@
         <v>23</v>
       </c>
       <c r="D63" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="186"/>
+      <c r="A64" s="204"/>
       <c r="B64" s="6"/>
       <c r="C64" s="10" t="s">
         <v>10</v>
@@ -7303,7 +7675,7 @@
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="186"/>
+      <c r="A65" s="204"/>
       <c r="B65" s="6"/>
       <c r="C65" s="10" t="s">
         <v>9</v>
@@ -7317,13 +7689,13 @@
         <v>91</v>
       </c>
       <c r="B66" s="51" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C66" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D66" s="53" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -7356,8 +7728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7372,13 +7744,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="89" customFormat="1" ht="44.25" customHeight="1">
-      <c r="A1" s="189" t="s">
-        <v>180</v>
-      </c>
-      <c r="B1" s="189"/>
-      <c r="C1" s="189"/>
-      <c r="D1" s="189"/>
-      <c r="E1" s="189"/>
+      <c r="A1" s="207" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" s="207"/>
+      <c r="C1" s="207"/>
+      <c r="D1" s="207"/>
+      <c r="E1" s="207"/>
       <c r="F1" s="78"/>
       <c r="G1" s="78"/>
     </row>
@@ -7413,67 +7785,67 @@
       <c r="E3" s="96"/>
     </row>
     <row r="4" spans="1:7" s="89" customFormat="1">
-      <c r="A4" s="190" t="s">
+      <c r="A4" s="208" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="80"/>
       <c r="C4" s="96" t="s">
+        <v>212</v>
+      </c>
+      <c r="D4" s="114" t="s">
         <v>215</v>
-      </c>
-      <c r="D4" s="114" t="s">
-        <v>218</v>
       </c>
       <c r="E4" s="92"/>
       <c r="F4" s="78"/>
       <c r="G4" s="78"/>
     </row>
     <row r="5" spans="1:7" s="89" customFormat="1">
-      <c r="A5" s="190"/>
+      <c r="A5" s="208"/>
       <c r="B5" s="80"/>
       <c r="C5" s="96" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D5" s="77" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E5" s="92"/>
       <c r="F5" s="78"/>
       <c r="G5" s="78"/>
     </row>
     <row r="6" spans="1:7" s="89" customFormat="1">
-      <c r="A6" s="190"/>
+      <c r="A6" s="208"/>
       <c r="B6" s="80"/>
-      <c r="C6" s="96" t="s">
+      <c r="C6" s="157" t="s">
         <v>87</v>
       </c>
       <c r="D6" s="77" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E6" s="92"/>
       <c r="F6" s="78"/>
       <c r="G6" s="78"/>
     </row>
     <row r="7" spans="1:7" s="89" customFormat="1">
-      <c r="A7" s="190"/>
+      <c r="A7" s="208"/>
       <c r="B7" s="80"/>
       <c r="C7" s="96" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D7" s="114" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E7" s="92"/>
       <c r="F7" s="78"/>
       <c r="G7" s="78"/>
     </row>
     <row r="8" spans="1:7" s="89" customFormat="1">
-      <c r="A8" s="190"/>
+      <c r="A8" s="208"/>
       <c r="B8" s="60"/>
       <c r="C8" s="97" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D8" s="113" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E8" s="93"/>
       <c r="F8" s="61"/>
@@ -7489,108 +7861,108 @@
       <c r="G9" s="78"/>
     </row>
     <row r="10" spans="1:7" s="89" customFormat="1">
-      <c r="A10" s="191" t="s">
-        <v>224</v>
+      <c r="A10" s="209" t="s">
+        <v>221</v>
       </c>
       <c r="B10" s="106" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C10" s="62" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D10" s="117" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E10" s="93"/>
       <c r="F10" s="61"/>
       <c r="G10" s="78"/>
     </row>
     <row r="11" spans="1:7" s="89" customFormat="1" ht="27">
-      <c r="A11" s="191"/>
+      <c r="A11" s="209"/>
       <c r="B11" s="107" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C11" s="129" t="s">
         <v>96</v>
       </c>
       <c r="D11" s="80" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E11" s="93"/>
       <c r="F11" s="61"/>
       <c r="G11" s="78"/>
     </row>
     <row r="12" spans="1:7" s="89" customFormat="1">
-      <c r="A12" s="191"/>
+      <c r="A12" s="209"/>
       <c r="B12" s="106" t="s">
         <v>100</v>
       </c>
       <c r="C12" s="60" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D12" s="117" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E12" s="93"/>
       <c r="F12" s="61"/>
       <c r="G12" s="78"/>
     </row>
     <row r="13" spans="1:7" s="89" customFormat="1">
-      <c r="A13" s="191"/>
+      <c r="A13" s="209"/>
       <c r="B13" s="108" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="126" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D13" s="120" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E13" s="92"/>
       <c r="F13" s="78"/>
       <c r="G13" s="78"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="191"/>
+      <c r="A14" s="209"/>
       <c r="B14" s="108"/>
       <c r="C14" s="127" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D14" s="77" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E14" s="92"/>
     </row>
     <row r="15" spans="1:7" s="89" customFormat="1">
-      <c r="A15" s="191"/>
+      <c r="A15" s="209"/>
       <c r="B15" s="108"/>
       <c r="C15" s="126" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D15" s="123" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E15" s="77"/>
       <c r="F15" s="78"/>
       <c r="G15" s="78"/>
     </row>
     <row r="16" spans="1:7" s="82" customFormat="1" ht="15" customHeight="1">
-      <c r="A16" s="191"/>
+      <c r="A16" s="209"/>
       <c r="B16" s="108" t="s">
         <v>26</v>
       </c>
       <c r="C16" s="63" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D16" s="67" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E16" s="92"/>
       <c r="F16" s="78"/>
       <c r="G16" s="89"/>
     </row>
     <row r="17" spans="1:7" s="88" customFormat="1">
-      <c r="A17" s="191"/>
+      <c r="A17" s="209"/>
       <c r="B17" s="108"/>
       <c r="C17" s="116"/>
       <c r="D17" s="92"/>
@@ -7599,74 +7971,74 @@
       <c r="G17" s="82"/>
     </row>
     <row r="18" spans="1:7" s="88" customFormat="1">
-      <c r="A18" s="190" t="s">
+      <c r="A18" s="208" t="s">
         <v>69</v>
       </c>
       <c r="B18" s="106"/>
       <c r="C18" s="99" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D18" s="96" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E18" s="76"/>
       <c r="F18" s="82"/>
     </row>
     <row r="19" spans="1:7" s="82" customFormat="1">
-      <c r="A19" s="190"/>
+      <c r="A19" s="208"/>
       <c r="B19" s="109" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C19" s="99" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D19" s="96" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E19" s="76"/>
     </row>
     <row r="20" spans="1:7" s="88" customFormat="1">
-      <c r="A20" s="190"/>
+      <c r="A20" s="208"/>
       <c r="B20" s="106" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="128" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D20" s="96" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E20" s="76"/>
       <c r="F20" s="82"/>
     </row>
     <row r="21" spans="1:7" s="87" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A21" s="190"/>
+      <c r="A21" s="208"/>
       <c r="B21" s="106" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C21" s="99" t="s">
         <v>75</v>
       </c>
       <c r="D21" s="96" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E21" s="76"/>
       <c r="F21" s="85"/>
     </row>
     <row r="22" spans="1:7" s="86" customFormat="1">
-      <c r="A22" s="190"/>
+      <c r="A22" s="208"/>
       <c r="B22" s="106"/>
       <c r="C22" s="99" t="s">
         <v>71</v>
       </c>
       <c r="D22" s="96" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E22" s="76"/>
       <c r="F22" s="90"/>
     </row>
     <row r="23" spans="1:7" s="82" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A23" s="190"/>
+      <c r="A23" s="208"/>
       <c r="B23" s="106" t="s">
         <v>28</v>
       </c>
@@ -7674,30 +8046,30 @@
         <v>72</v>
       </c>
       <c r="D23" s="96" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E23" s="76"/>
     </row>
     <row r="24" spans="1:7" s="82" customFormat="1">
-      <c r="A24" s="190"/>
+      <c r="A24" s="208"/>
       <c r="B24" s="106"/>
       <c r="C24" s="99" t="s">
         <v>73</v>
       </c>
       <c r="D24" s="96" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E24" s="92"/>
       <c r="F24" s="89"/>
     </row>
     <row r="25" spans="1:7" s="89" customFormat="1">
-      <c r="A25" s="190"/>
+      <c r="A25" s="208"/>
       <c r="B25" s="110"/>
       <c r="C25" s="100" t="s">
         <v>74</v>
       </c>
       <c r="D25" s="96" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E25" s="92"/>
       <c r="F25" s="78"/>
@@ -7711,27 +8083,27 @@
       <c r="F26" s="82"/>
     </row>
     <row r="27" spans="1:7" s="82" customFormat="1">
-      <c r="A27" s="200">
+      <c r="A27" s="218">
         <v>43289</v>
       </c>
       <c r="B27" s="106" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C27" s="96" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D27" s="96" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E27" s="76"/>
     </row>
     <row r="28" spans="1:7" s="82" customFormat="1" ht="18.75">
-      <c r="A28" s="200"/>
+      <c r="A28" s="218"/>
       <c r="B28" s="106" t="s">
         <v>20</v>
       </c>
       <c r="C28" s="125" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D28" s="101" t="s">
         <v>3</v>
@@ -7740,302 +8112,304 @@
       <c r="F28" s="89"/>
     </row>
     <row r="29" spans="1:7" s="89" customFormat="1">
-      <c r="A29" s="200"/>
+      <c r="A29" s="218"/>
       <c r="B29" s="106" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C29" s="96" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D29" s="96" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E29" s="92"/>
       <c r="F29" s="78"/>
     </row>
     <row r="30" spans="1:7" ht="18.75">
-      <c r="A30" s="200"/>
+      <c r="A30" s="218"/>
       <c r="B30" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C30" s="102" t="s">
         <v>68</v>
       </c>
       <c r="D30" s="96" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E30" s="64"/>
       <c r="F30" s="82"/>
     </row>
     <row r="31" spans="1:7" s="91" customFormat="1" ht="18.75">
-      <c r="A31" s="200"/>
+      <c r="A31" s="218"/>
       <c r="B31" s="106" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C31" s="103" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D31" s="101" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E31" s="66"/>
       <c r="F31" s="82"/>
     </row>
     <row r="32" spans="1:7" s="82" customFormat="1" ht="18.75">
-      <c r="A32" s="200"/>
+      <c r="A32" s="218"/>
       <c r="B32" s="106" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C32" s="103" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D32" s="101" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E32" s="92"/>
       <c r="F32" s="89"/>
     </row>
     <row r="33" spans="1:6" ht="27">
-      <c r="A33" s="200"/>
+      <c r="A33" s="218"/>
       <c r="B33" s="111"/>
       <c r="C33" s="96" t="s">
+        <v>256</v>
+      </c>
+      <c r="D33" s="104" t="s">
         <v>259</v>
-      </c>
-      <c r="D33" s="104" t="s">
-        <v>262</v>
       </c>
       <c r="E33" s="67"/>
       <c r="F33" s="61"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="200"/>
+      <c r="A34" s="218"/>
       <c r="B34" s="80"/>
       <c r="C34" s="68" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D34" s="77"/>
       <c r="E34" s="77"/>
     </row>
     <row r="35" spans="1:6" ht="40.5">
-      <c r="A35" s="200"/>
+      <c r="A35" s="218"/>
       <c r="B35" s="69" t="s">
+        <v>162</v>
+      </c>
+      <c r="C35" s="124" t="s">
+        <v>228</v>
+      </c>
+      <c r="D35" s="77" t="s">
+        <v>163</v>
+      </c>
+      <c r="E35" s="210" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="20.25" customHeight="1">
+      <c r="A36" s="218"/>
+      <c r="B36" t="s">
+        <v>246</v>
+      </c>
+      <c r="C36" s="124" t="s">
+        <v>113</v>
+      </c>
+      <c r="D36" s="120" t="s">
+        <v>247</v>
+      </c>
+      <c r="E36" s="211"/>
+    </row>
+    <row r="37" spans="1:6" ht="54">
+      <c r="A37" s="218"/>
+      <c r="B37" s="122" t="s">
+        <v>250</v>
+      </c>
+      <c r="C37" s="124" t="s">
+        <v>186</v>
+      </c>
+      <c r="D37" s="123" t="s">
         <v>164</v>
       </c>
-      <c r="C35" s="124" t="s">
-        <v>231</v>
-      </c>
-      <c r="D35" s="77" t="s">
-        <v>165</v>
-      </c>
-      <c r="E35" s="192" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A36" s="200"/>
-      <c r="B36" t="s">
-        <v>249</v>
-      </c>
-      <c r="C36" s="124" t="s">
-        <v>114</v>
-      </c>
-      <c r="D36" s="120" t="s">
-        <v>250</v>
-      </c>
-      <c r="E36" s="193"/>
-    </row>
-    <row r="37" spans="1:6" ht="54">
-      <c r="A37" s="200"/>
-      <c r="B37" s="122" t="s">
-        <v>253</v>
-      </c>
-      <c r="C37" s="124" t="s">
-        <v>188</v>
-      </c>
-      <c r="D37" s="123" t="s">
-        <v>166</v>
-      </c>
-      <c r="E37" s="193"/>
+      <c r="E37" s="211"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="200"/>
-      <c r="B38" s="77"/>
+      <c r="A38" s="218"/>
+      <c r="B38" s="182" t="s">
+        <v>334</v>
+      </c>
       <c r="C38" s="124" t="s">
-        <v>232</v>
-      </c>
-      <c r="D38" s="123" t="s">
-        <v>167</v>
-      </c>
-      <c r="E38" s="193"/>
+        <v>229</v>
+      </c>
+      <c r="D38" s="182" t="s">
+        <v>333</v>
+      </c>
+      <c r="E38" s="211"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="200"/>
+      <c r="A39" s="218"/>
       <c r="B39" s="77"/>
       <c r="C39" s="124" t="s">
-        <v>189</v>
-      </c>
-      <c r="D39" s="123" t="s">
-        <v>190</v>
-      </c>
-      <c r="E39" s="193"/>
+        <v>187</v>
+      </c>
+      <c r="D39" s="182" t="s">
+        <v>335</v>
+      </c>
+      <c r="E39" s="211"/>
     </row>
     <row r="40" spans="1:6" ht="27">
-      <c r="A40" s="200"/>
+      <c r="A40" s="218"/>
       <c r="B40" s="18" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C40" s="124" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40" s="123" t="s">
-        <v>214</v>
-      </c>
-      <c r="E40" s="193"/>
+        <v>211</v>
+      </c>
+      <c r="E40" s="211"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="200"/>
+      <c r="A41" s="218"/>
       <c r="B41" s="77"/>
       <c r="C41" s="124" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D41" s="123" t="s">
-        <v>213</v>
-      </c>
-      <c r="E41" s="193"/>
+        <v>210</v>
+      </c>
+      <c r="E41" s="211"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="200"/>
+      <c r="A42" s="218"/>
       <c r="B42" s="77" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C42" s="124" t="s">
+        <v>123</v>
+      </c>
+      <c r="D42" s="77" t="s">
+        <v>166</v>
+      </c>
+      <c r="E42" s="211"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="219"/>
+      <c r="B43" s="77" t="s">
+        <v>168</v>
+      </c>
+      <c r="C43" s="124" t="s">
         <v>124</v>
       </c>
-      <c r="D42" s="77" t="s">
-        <v>168</v>
-      </c>
-      <c r="E42" s="193"/>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="201"/>
-      <c r="B43" s="77" t="s">
-        <v>170</v>
-      </c>
-      <c r="C43" s="124" t="s">
-        <v>125</v>
-      </c>
       <c r="D43" s="77" t="s">
-        <v>191</v>
-      </c>
-      <c r="E43" s="193"/>
+        <v>189</v>
+      </c>
+      <c r="E43" s="211"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" customHeight="1"/>
     <row r="45" spans="1:6" ht="32.25" customHeight="1">
-      <c r="A45" s="197" t="s">
-        <v>177</v>
+      <c r="A45" s="215" t="s">
+        <v>175</v>
       </c>
       <c r="B45" s="70" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C45" s="70" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D45" s="70" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E45" s="77"/>
       <c r="F45" s="92"/>
     </row>
     <row r="46" spans="1:6" ht="38.25" customHeight="1">
-      <c r="A46" s="198"/>
+      <c r="A46" s="216"/>
       <c r="B46" s="71" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C46" s="70" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D46" s="72" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E46" s="73" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F46" s="93"/>
     </row>
     <row r="47" spans="1:6" ht="38.25" customHeight="1">
-      <c r="A47" s="198"/>
+      <c r="A47" s="216"/>
       <c r="B47" s="131" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C47" s="60" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D47" s="112" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E47" s="133" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F47" s="93"/>
     </row>
     <row r="48" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A48" s="198"/>
-      <c r="B48" s="193" t="s">
-        <v>260</v>
+      <c r="A48" s="216"/>
+      <c r="B48" s="211" t="s">
+        <v>257</v>
       </c>
       <c r="C48" s="105" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D48" s="64" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E48" s="92"/>
       <c r="F48" s="93"/>
     </row>
     <row r="49" spans="1:6" ht="26.25" customHeight="1">
-      <c r="A49" s="198"/>
-      <c r="B49" s="194"/>
+      <c r="A49" s="216"/>
+      <c r="B49" s="212"/>
       <c r="C49" s="65" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D49" s="64" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E49" s="131"/>
       <c r="F49" s="93"/>
     </row>
     <row r="50" spans="1:6" ht="18.75">
-      <c r="A50" s="198"/>
+      <c r="A50" s="216"/>
       <c r="B50" s="79" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C50" s="60" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D50" s="64" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E50" s="77"/>
       <c r="F50" s="92"/>
     </row>
     <row r="51" spans="1:6" ht="18.75">
-      <c r="A51" s="198"/>
+      <c r="A51" s="216"/>
       <c r="B51" s="80" t="s">
         <v>88</v>
       </c>
       <c r="C51" s="65" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D51" s="64" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E51" s="77"/>
       <c r="F51" s="92"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="198"/>
+      <c r="A52" s="216"/>
       <c r="B52" s="80" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C52" s="62" t="s">
         <v>83</v>
@@ -8047,29 +8421,29 @@
       <c r="F52" s="92"/>
     </row>
     <row r="53" spans="1:6" ht="27">
-      <c r="A53" s="198"/>
+      <c r="A53" s="216"/>
       <c r="B53" s="108" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C53" s="116" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D53" s="92" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E53" s="77"/>
       <c r="F53" s="92"/>
     </row>
     <row r="54" spans="1:6" ht="27">
-      <c r="A54" s="199"/>
+      <c r="A54" s="217"/>
       <c r="B54" s="130" t="s">
-        <v>266</v>
-      </c>
-      <c r="C54" s="147" t="s">
-        <v>330</v>
-      </c>
-      <c r="D54" s="177" t="s">
-        <v>331</v>
+        <v>263</v>
+      </c>
+      <c r="C54" s="146" t="s">
+        <v>313</v>
+      </c>
+      <c r="D54" s="176" t="s">
+        <v>314</v>
       </c>
       <c r="E54" s="118"/>
       <c r="F54" s="92"/>
@@ -8087,13 +8461,13 @@
         <v>91</v>
       </c>
       <c r="B56" s="77" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C56" s="77" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D56" s="77" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E56" s="77"/>
       <c r="F56" s="92"/>
@@ -8107,65 +8481,65 @@
       <c r="F57" s="92"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="196" t="s">
-        <v>207</v>
+      <c r="A58" s="214" t="s">
+        <v>205</v>
       </c>
       <c r="B58" s="65" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C58" s="74" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D58" s="77" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E58" s="77"/>
       <c r="F58" s="92"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="196"/>
+      <c r="A59" s="214"/>
       <c r="B59" s="74" t="s">
         <v>17</v>
       </c>
       <c r="C59" s="74" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D59" s="131" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E59" s="77"/>
       <c r="F59" s="92"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="196"/>
+      <c r="A60" s="214"/>
       <c r="B60" s="74" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C60" s="74" t="s">
         <v>36</v>
       </c>
       <c r="D60" s="81" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E60" s="77"/>
       <c r="F60" s="92"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="196"/>
+      <c r="A61" s="214"/>
       <c r="B61" s="74" t="s">
         <v>17</v>
       </c>
       <c r="C61" s="77" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D61" s="77" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E61" s="77"/>
       <c r="F61" s="92"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="196"/>
+      <c r="A62" s="214"/>
       <c r="B62" s="65" t="s">
         <v>18</v>
       </c>
@@ -8173,84 +8547,84 @@
         <v>81</v>
       </c>
       <c r="D62" s="77" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E62" s="77"/>
       <c r="F62" s="92"/>
     </row>
     <row r="63" spans="1:6" ht="18.75">
-      <c r="A63" s="196"/>
+      <c r="A63" s="214"/>
       <c r="B63" s="60" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C63" s="77" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D63" s="64" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E63" s="77"/>
       <c r="F63" s="92"/>
     </row>
     <row r="64" spans="1:6" ht="18.75">
-      <c r="A64" s="196"/>
+      <c r="A64" s="214"/>
       <c r="B64" s="65"/>
       <c r="C64" s="74" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D64" s="64" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E64" s="77"/>
       <c r="F64" s="92"/>
     </row>
     <row r="65" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A65" s="196"/>
+      <c r="A65" s="214"/>
       <c r="B65" s="74" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C65" s="75" t="s">
-        <v>200</v>
-      </c>
-      <c r="D65" s="176" t="s">
-        <v>332</v>
+        <v>198</v>
+      </c>
+      <c r="D65" s="198" t="s">
+        <v>363</v>
       </c>
       <c r="E65" s="77"/>
-      <c r="F65" s="192" t="s">
-        <v>212</v>
+      <c r="F65" s="210" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="14.25">
-      <c r="A66" s="196"/>
+      <c r="A66" s="214"/>
       <c r="B66" s="74" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C66" s="75" t="s">
-        <v>336</v>
-      </c>
-      <c r="D66" s="176" t="s">
-        <v>333</v>
+        <v>318</v>
+      </c>
+      <c r="D66" s="175" t="s">
+        <v>315</v>
       </c>
       <c r="E66" s="77"/>
-      <c r="F66" s="192"/>
+      <c r="F66" s="210"/>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="196"/>
+      <c r="A67" s="214"/>
       <c r="B67" s="65"/>
       <c r="C67" s="80" t="s">
-        <v>201</v>
-      </c>
-      <c r="D67" s="176" t="s">
-        <v>335</v>
+        <v>199</v>
+      </c>
+      <c r="D67" s="175" t="s">
+        <v>317</v>
       </c>
       <c r="E67" s="77"/>
       <c r="F67" s="92"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="196"/>
+      <c r="A68" s="214"/>
       <c r="B68" s="65"/>
       <c r="C68" s="80" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D68" s="77" t="s">
         <v>38</v>
@@ -8259,39 +8633,39 @@
       <c r="F68" s="92"/>
     </row>
     <row r="69" spans="1:6" ht="18.75">
-      <c r="A69" s="196"/>
-      <c r="B69" s="195" t="s">
-        <v>203</v>
+      <c r="A69" s="214"/>
+      <c r="B69" s="213" t="s">
+        <v>201</v>
       </c>
       <c r="C69" s="65" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D69" s="64" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E69" s="77"/>
       <c r="F69" s="92"/>
     </row>
     <row r="70" spans="1:6" ht="18.75">
-      <c r="A70" s="196"/>
-      <c r="B70" s="194"/>
+      <c r="A70" s="214"/>
+      <c r="B70" s="212"/>
       <c r="C70" s="60" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D70" s="64" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E70" s="77"/>
       <c r="F70" s="92"/>
     </row>
     <row r="71" spans="1:6" ht="18.75">
-      <c r="A71" s="196"/>
-      <c r="B71" s="194"/>
+      <c r="A71" s="214"/>
+      <c r="B71" s="212"/>
       <c r="C71" s="60" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D71" s="64" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E71" s="77"/>
       <c r="F71" s="92"/>
@@ -8319,31 +8693,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G76"/>
+  <dimension ref="A1:G96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15.25" style="89" customWidth="1"/>
-    <col min="2" max="2" width="34.375" style="155" customWidth="1"/>
+    <col min="2" max="2" width="48.125" style="154" customWidth="1"/>
     <col min="3" max="3" width="53.375" style="82" customWidth="1"/>
-    <col min="4" max="4" width="25.625" style="82" customWidth="1"/>
+    <col min="4" max="4" width="38.625" style="82" customWidth="1"/>
     <col min="5" max="5" width="61.25" style="82" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="73.5" style="78" customWidth="1"/>
     <col min="7" max="16384" width="9" style="78"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="89" customFormat="1" ht="20.25">
-      <c r="A1" s="189" t="s">
-        <v>180</v>
-      </c>
-      <c r="B1" s="189"/>
-      <c r="C1" s="189"/>
-      <c r="D1" s="189"/>
-      <c r="E1" s="189"/>
+      <c r="A1" s="207" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" s="207"/>
+      <c r="C1" s="207"/>
+      <c r="D1" s="207"/>
+      <c r="E1" s="207"/>
       <c r="F1" s="78"/>
       <c r="G1" s="78"/>
     </row>
@@ -8351,100 +8725,100 @@
       <c r="A2" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="157" t="s">
+      <c r="B2" s="156" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="94" t="s">
-        <v>301</v>
-      </c>
-      <c r="D2" s="157" t="s">
-        <v>315</v>
-      </c>
-      <c r="E2" s="157" t="s">
-        <v>311</v>
+        <v>290</v>
+      </c>
+      <c r="D2" s="156" t="s">
+        <v>300</v>
+      </c>
+      <c r="E2" s="156" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="84" customFormat="1">
       <c r="A3" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="161" t="s">
+      <c r="B3" s="160" t="s">
         <v>92</v>
       </c>
       <c r="C3" s="96" t="s">
-        <v>302</v>
-      </c>
-      <c r="D3" s="158" t="s">
-        <v>316</v>
+        <v>291</v>
+      </c>
+      <c r="D3" s="157" t="s">
+        <v>301</v>
       </c>
       <c r="E3" s="96"/>
     </row>
     <row r="4" spans="1:7" s="89" customFormat="1">
-      <c r="A4" s="190" t="s">
+      <c r="A4" s="208" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="153"/>
+      <c r="B4" s="152"/>
       <c r="C4" s="96" t="s">
         <v>95</v>
       </c>
-      <c r="D4" s="151" t="s">
-        <v>317</v>
+      <c r="D4" s="150" t="s">
+        <v>302</v>
       </c>
       <c r="E4" s="92"/>
       <c r="F4" s="78"/>
       <c r="G4" s="78"/>
     </row>
     <row r="5" spans="1:7" s="89" customFormat="1">
-      <c r="A5" s="190"/>
-      <c r="B5" s="153"/>
-      <c r="C5" s="158" t="s">
-        <v>319</v>
+      <c r="A5" s="208"/>
+      <c r="B5" s="152"/>
+      <c r="C5" s="157" t="s">
+        <v>304</v>
       </c>
       <c r="D5" s="131" t="s">
-        <v>153</v>
-      </c>
-      <c r="E5" s="156" t="s">
-        <v>320</v>
+        <v>151</v>
+      </c>
+      <c r="E5" s="155" t="s">
+        <v>305</v>
       </c>
       <c r="F5" s="78"/>
       <c r="G5" s="78"/>
     </row>
     <row r="6" spans="1:7" s="89" customFormat="1">
-      <c r="A6" s="190"/>
-      <c r="B6" s="153"/>
+      <c r="A6" s="208"/>
+      <c r="B6" s="152"/>
       <c r="C6" s="96" t="s">
         <v>87</v>
       </c>
       <c r="D6" s="131" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E6" s="92"/>
       <c r="F6" s="78"/>
       <c r="G6" s="78"/>
     </row>
     <row r="7" spans="1:7" s="89" customFormat="1">
-      <c r="A7" s="190"/>
-      <c r="B7" s="153"/>
-      <c r="C7" s="158" t="s">
-        <v>313</v>
+      <c r="A7" s="208"/>
+      <c r="B7" s="152"/>
+      <c r="C7" s="157" t="s">
+        <v>299</v>
       </c>
       <c r="D7" s="131" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E7" s="92"/>
       <c r="F7" s="78"/>
       <c r="G7" s="78"/>
     </row>
     <row r="8" spans="1:7" s="89" customFormat="1">
-      <c r="A8" s="190"/>
-      <c r="B8" s="144"/>
+      <c r="A8" s="208"/>
+      <c r="B8" s="143"/>
       <c r="E8" s="93"/>
       <c r="F8" s="61"/>
       <c r="G8" s="78"/>
     </row>
     <row r="9" spans="1:7" s="89" customFormat="1">
       <c r="A9" s="133"/>
-      <c r="B9" s="144"/>
+      <c r="B9" s="143"/>
       <c r="C9" s="97"/>
       <c r="D9" s="129"/>
       <c r="E9" s="93"/>
@@ -8452,111 +8826,111 @@
       <c r="G9" s="78"/>
     </row>
     <row r="10" spans="1:7" s="89" customFormat="1">
-      <c r="A10" s="191" t="s">
-        <v>343</v>
-      </c>
-      <c r="B10" s="161" t="s">
+      <c r="A10" s="209" t="s">
+        <v>325</v>
+      </c>
+      <c r="B10" s="160" t="s">
         <v>99</v>
       </c>
       <c r="C10" s="62" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D10" s="129" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E10" s="93"/>
       <c r="F10" s="61"/>
       <c r="G10" s="78"/>
     </row>
     <row r="11" spans="1:7" s="89" customFormat="1" ht="27">
-      <c r="A11" s="191"/>
-      <c r="B11" s="162" t="s">
-        <v>226</v>
-      </c>
-      <c r="C11" s="153" t="s">
-        <v>321</v>
+      <c r="A11" s="209"/>
+      <c r="B11" s="161" t="s">
+        <v>223</v>
+      </c>
+      <c r="C11" s="152" t="s">
+        <v>306</v>
       </c>
       <c r="D11" s="129" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E11" s="93"/>
       <c r="F11" s="61"/>
       <c r="G11" s="78"/>
     </row>
     <row r="12" spans="1:7" s="89" customFormat="1">
-      <c r="A12" s="191"/>
-      <c r="B12" s="161" t="s">
+      <c r="A12" s="209"/>
+      <c r="B12" s="160" t="s">
         <v>100</v>
       </c>
-      <c r="C12" s="144" t="s">
-        <v>345</v>
-      </c>
-      <c r="D12" s="179" t="s">
-        <v>337</v>
-      </c>
-      <c r="E12" s="173" t="s">
-        <v>338</v>
+      <c r="C12" s="143" t="s">
+        <v>365</v>
+      </c>
+      <c r="D12" s="178" t="s">
+        <v>319</v>
+      </c>
+      <c r="E12" s="172" t="s">
+        <v>320</v>
       </c>
       <c r="F12" s="61"/>
       <c r="G12" s="78"/>
     </row>
     <row r="13" spans="1:7" s="89" customFormat="1">
-      <c r="A13" s="191"/>
-      <c r="B13" s="163" t="s">
+      <c r="A13" s="209"/>
+      <c r="B13" s="162" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="126" t="s">
-        <v>238</v>
-      </c>
-      <c r="D13" s="178" t="s">
-        <v>248</v>
-      </c>
-      <c r="E13" s="160"/>
+        <v>235</v>
+      </c>
+      <c r="D13" s="177" t="s">
+        <v>245</v>
+      </c>
+      <c r="E13" s="159"/>
       <c r="F13" s="78"/>
       <c r="G13" s="78"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="191"/>
-      <c r="B14" s="163"/>
-      <c r="C14" s="167" t="s">
-        <v>318</v>
+      <c r="A14" s="209"/>
+      <c r="B14" s="162"/>
+      <c r="C14" s="166" t="s">
+        <v>303</v>
       </c>
       <c r="D14" s="131" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E14" s="92"/>
     </row>
     <row r="15" spans="1:7" s="89" customFormat="1">
-      <c r="A15" s="191"/>
-      <c r="B15" s="163"/>
+      <c r="A15" s="209"/>
+      <c r="B15" s="162"/>
       <c r="C15" s="126" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D15" s="131" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E15" s="131"/>
       <c r="F15" s="78"/>
       <c r="G15" s="78"/>
     </row>
     <row r="16" spans="1:7" s="82" customFormat="1">
-      <c r="A16" s="191"/>
-      <c r="B16" s="163" t="s">
+      <c r="A16" s="209"/>
+      <c r="B16" s="162" t="s">
         <v>26</v>
       </c>
       <c r="C16" s="63" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D16" s="67" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="E16" s="92"/>
       <c r="F16" s="78"/>
       <c r="G16" s="89"/>
     </row>
     <row r="17" spans="1:7" s="88" customFormat="1">
-      <c r="A17" s="191"/>
-      <c r="B17" s="163"/>
+      <c r="A17" s="209"/>
+      <c r="B17" s="162"/>
       <c r="C17" s="130"/>
       <c r="D17" s="92"/>
       <c r="E17" s="92"/>
@@ -8564,792 +8938,928 @@
       <c r="G17" s="82"/>
     </row>
     <row r="18" spans="1:7" s="88" customFormat="1">
-      <c r="A18" s="190" t="s">
+      <c r="A18" s="208" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="161"/>
+      <c r="B18" s="160"/>
       <c r="C18" s="99" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D18" s="96" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E18" s="133"/>
       <c r="F18" s="82"/>
     </row>
     <row r="19" spans="1:7" s="82" customFormat="1">
-      <c r="A19" s="190"/>
-      <c r="B19" s="164" t="s">
-        <v>221</v>
+      <c r="A19" s="208"/>
+      <c r="B19" s="163" t="s">
+        <v>218</v>
       </c>
       <c r="C19" s="99" t="s">
         <v>32</v>
       </c>
       <c r="D19" s="96" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E19" s="133"/>
     </row>
     <row r="20" spans="1:7" s="88" customFormat="1">
-      <c r="A20" s="190"/>
-      <c r="B20" s="161" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="202" t="s">
-        <v>263</v>
-      </c>
+      <c r="A20" s="208"/>
+      <c r="B20" s="160"/>
+      <c r="C20" s="183"/>
       <c r="D20" s="96" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E20" s="133"/>
       <c r="F20" s="82"/>
     </row>
     <row r="21" spans="1:7" s="87" customFormat="1">
-      <c r="A21" s="190"/>
-      <c r="B21" s="169" t="s">
-        <v>221</v>
+      <c r="A21" s="208"/>
+      <c r="B21" s="168" t="s">
+        <v>218</v>
       </c>
       <c r="C21" s="99" t="s">
         <v>75</v>
       </c>
       <c r="D21" s="96" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E21" s="133"/>
       <c r="F21" s="85"/>
     </row>
     <row r="22" spans="1:7" s="86" customFormat="1">
-      <c r="A22" s="190"/>
-      <c r="B22" s="161"/>
+      <c r="A22" s="208"/>
+      <c r="B22" s="160"/>
       <c r="C22" s="99" t="s">
         <v>71</v>
       </c>
       <c r="D22" s="96" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E22" s="133"/>
       <c r="F22" s="90"/>
     </row>
     <row r="23" spans="1:7" s="82" customFormat="1">
-      <c r="A23" s="190"/>
-      <c r="B23" s="161" t="s">
+      <c r="A23" s="208"/>
+      <c r="B23" s="160" t="s">
         <v>28</v>
       </c>
       <c r="C23" s="96" t="s">
         <v>72</v>
       </c>
       <c r="D23" s="96" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E23" s="133"/>
     </row>
     <row r="24" spans="1:7" s="82" customFormat="1">
-      <c r="A24" s="190"/>
-      <c r="B24" s="161"/>
+      <c r="A24" s="208"/>
+      <c r="B24" s="160"/>
       <c r="C24" s="99" t="s">
         <v>73</v>
       </c>
       <c r="D24" s="96" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E24" s="92"/>
       <c r="F24" s="89"/>
     </row>
     <row r="25" spans="1:7" s="89" customFormat="1">
-      <c r="A25" s="190"/>
-      <c r="B25" s="165"/>
+      <c r="A25" s="208"/>
+      <c r="B25" s="164"/>
       <c r="C25" s="100" t="s">
         <v>74</v>
       </c>
       <c r="D25" s="96" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E25" s="92"/>
       <c r="F25" s="78"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="121"/>
-      <c r="B26" s="154"/>
+      <c r="B26" s="153"/>
       <c r="C26" s="67"/>
       <c r="D26" s="132"/>
       <c r="E26" s="131"/>
       <c r="F26" s="82"/>
     </row>
-    <row r="27" spans="1:7" s="82" customFormat="1">
-      <c r="A27" s="200" t="s">
-        <v>344</v>
-      </c>
-      <c r="B27" s="161" t="s">
-        <v>245</v>
-      </c>
-      <c r="C27" s="96" t="s">
-        <v>126</v>
-      </c>
-      <c r="D27" s="96" t="s">
+    <row r="27" spans="1:7">
+      <c r="A27" s="224"/>
+      <c r="B27" s="199" t="s">
+        <v>367</v>
+      </c>
+      <c r="C27" s="146" t="s">
+        <v>366</v>
+      </c>
+      <c r="D27" s="145">
+        <v>3003059</v>
+      </c>
+      <c r="E27" s="200"/>
+      <c r="F27" s="154"/>
+    </row>
+    <row r="28" spans="1:7" s="82" customFormat="1">
+      <c r="A28" s="218" t="s">
+        <v>326</v>
+      </c>
+      <c r="B28" s="160" t="s">
+        <v>242</v>
+      </c>
+      <c r="C28" s="157" t="s">
+        <v>336</v>
+      </c>
+      <c r="D28" s="157" t="s">
+        <v>337</v>
+      </c>
+      <c r="E28" s="133"/>
+    </row>
+    <row r="29" spans="1:7" s="82" customFormat="1" ht="14.25">
+      <c r="A29" s="218"/>
+      <c r="B29" s="160" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="141" t="s">
+        <v>294</v>
+      </c>
+      <c r="D29" s="140">
+        <v>3003217</v>
+      </c>
+      <c r="E29" s="133"/>
+      <c r="F29" s="89"/>
+    </row>
+    <row r="30" spans="1:7" s="89" customFormat="1">
+      <c r="A30" s="218"/>
+      <c r="B30" s="160" t="s">
+        <v>243</v>
+      </c>
+      <c r="C30" s="96" t="s">
+        <v>268</v>
+      </c>
+      <c r="D30" s="96" t="s">
+        <v>240</v>
+      </c>
+      <c r="E30" s="92"/>
+      <c r="F30" s="78"/>
+    </row>
+    <row r="31" spans="1:7" ht="27">
+      <c r="A31" s="218"/>
+      <c r="B31" s="185" t="s">
+        <v>338</v>
+      </c>
+      <c r="C31" s="102" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="96" t="s">
+        <v>241</v>
+      </c>
+      <c r="E31" s="64"/>
+      <c r="F31" s="82"/>
+    </row>
+    <row r="32" spans="1:7" s="91" customFormat="1" ht="18.75">
+      <c r="A32" s="218"/>
+      <c r="B32" s="138" t="s">
+        <v>292</v>
+      </c>
+      <c r="C32" s="125" t="s">
+        <v>293</v>
+      </c>
+      <c r="D32" s="169">
+        <v>3003227</v>
+      </c>
+      <c r="E32" s="173" t="s">
+        <v>307</v>
+      </c>
+      <c r="F32" s="82"/>
+    </row>
+    <row r="33" spans="1:6" s="82" customFormat="1" ht="18.75">
+      <c r="A33" s="218"/>
+      <c r="B33" s="139" t="s">
+        <v>238</v>
+      </c>
+      <c r="C33" s="141" t="s">
+        <v>293</v>
+      </c>
+      <c r="D33" s="169">
+        <v>3003224</v>
+      </c>
+      <c r="E33" s="174" t="s">
+        <v>307</v>
+      </c>
+      <c r="F33" s="89"/>
+    </row>
+    <row r="34" spans="1:6" s="154" customFormat="1">
+      <c r="A34" s="218"/>
+      <c r="B34" s="139"/>
+      <c r="C34" s="158" t="s">
+        <v>328</v>
+      </c>
+      <c r="D34" s="129" t="s">
+        <v>216</v>
+      </c>
+      <c r="E34" s="174"/>
+      <c r="F34" s="89"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="218"/>
+      <c r="B35" s="152"/>
+      <c r="C35" s="68" t="s">
+        <v>134</v>
+      </c>
+      <c r="D35" s="131"/>
+      <c r="E35" s="131"/>
+    </row>
+    <row r="36" spans="1:6" ht="40.5">
+      <c r="A36" s="218"/>
+      <c r="B36" s="147" t="s">
+        <v>330</v>
+      </c>
+      <c r="C36" s="124" t="s">
+        <v>329</v>
+      </c>
+      <c r="D36" s="131" t="s">
+        <v>163</v>
+      </c>
+      <c r="E36" s="210" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="27">
+      <c r="A37" s="218"/>
+      <c r="B37" s="185" t="s">
+        <v>331</v>
+      </c>
+      <c r="C37" s="124" t="s">
+        <v>113</v>
+      </c>
+      <c r="D37" s="182" t="s">
+        <v>332</v>
+      </c>
+      <c r="E37" s="211"/>
+    </row>
+    <row r="38" spans="1:6" ht="54">
+      <c r="A38" s="218"/>
+      <c r="B38" s="153" t="s">
+        <v>296</v>
+      </c>
+      <c r="C38" s="124" t="s">
+        <v>186</v>
+      </c>
+      <c r="D38" s="182" t="s">
+        <v>164</v>
+      </c>
+      <c r="E38" s="211"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="218"/>
+      <c r="B39" s="150"/>
+      <c r="C39" s="124" t="s">
+        <v>229</v>
+      </c>
+      <c r="D39" s="131" t="s">
+        <v>165</v>
+      </c>
+      <c r="E39" s="211"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="218"/>
+      <c r="B40" s="150"/>
+      <c r="C40" s="124" t="s">
+        <v>187</v>
+      </c>
+      <c r="D40" s="131" t="s">
+        <v>188</v>
+      </c>
+      <c r="E40" s="211"/>
+    </row>
+    <row r="41" spans="1:6" ht="27">
+      <c r="A41" s="218"/>
+      <c r="B41" s="167" t="s">
+        <v>254</v>
+      </c>
+      <c r="C41" s="124" t="s">
+        <v>122</v>
+      </c>
+      <c r="D41" s="131" t="s">
+        <v>211</v>
+      </c>
+      <c r="E41" s="211"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="218"/>
+      <c r="B42" s="150"/>
+      <c r="C42" s="124" t="s">
+        <v>135</v>
+      </c>
+      <c r="D42" s="182" t="s">
+        <v>210</v>
+      </c>
+      <c r="E42" s="211"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="218"/>
+      <c r="B43" s="150" t="s">
+        <v>167</v>
+      </c>
+      <c r="C43" s="124" t="s">
+        <v>123</v>
+      </c>
+      <c r="D43" s="131" t="s">
+        <v>166</v>
+      </c>
+      <c r="E43" s="211"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="219"/>
+      <c r="B44" s="150" t="s">
+        <v>168</v>
+      </c>
+      <c r="C44" s="124" t="s">
+        <v>124</v>
+      </c>
+      <c r="D44" s="131" t="s">
+        <v>189</v>
+      </c>
+      <c r="E44" s="211"/>
+    </row>
+    <row r="45" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A45" s="137"/>
+      <c r="B45" s="150"/>
+      <c r="C45" s="124"/>
+      <c r="D45" s="131"/>
+      <c r="E45" s="131"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.25">
+      <c r="A46" s="208" t="s">
+        <v>273</v>
+      </c>
+      <c r="B46" s="165"/>
+      <c r="C46" s="157" t="s">
+        <v>289</v>
+      </c>
+      <c r="D46" s="136" t="s">
+        <v>312</v>
+      </c>
+      <c r="E46" s="146" t="s">
+        <v>298</v>
+      </c>
+      <c r="F46" s="61"/>
+    </row>
+    <row r="47" spans="1:6" ht="33.75" customHeight="1">
+      <c r="A47" s="208"/>
+      <c r="B47" s="148" t="s">
+        <v>158</v>
+      </c>
+      <c r="C47" s="148" t="s">
+        <v>147</v>
+      </c>
+      <c r="D47" s="148" t="s">
+        <v>339</v>
+      </c>
+      <c r="E47" s="150"/>
+      <c r="F47" s="92"/>
+    </row>
+    <row r="48" spans="1:6" ht="21" customHeight="1">
+      <c r="A48" s="208"/>
+      <c r="B48" s="150" t="s">
+        <v>271</v>
+      </c>
+      <c r="C48" s="143" t="s">
+        <v>342</v>
+      </c>
+      <c r="D48" s="112" t="s">
+        <v>311</v>
+      </c>
+      <c r="E48" s="145" t="s">
+        <v>308</v>
+      </c>
+      <c r="F48" s="93"/>
+    </row>
+    <row r="49" spans="1:6" ht="21" customHeight="1">
+      <c r="A49" s="208"/>
+      <c r="B49" s="150" t="s">
+        <v>269</v>
+      </c>
+      <c r="C49" s="60" t="s">
         <v>272</v>
       </c>
-      <c r="E27" s="133"/>
-    </row>
-    <row r="28" spans="1:7" s="82" customFormat="1" ht="14.25">
-      <c r="A28" s="200"/>
-      <c r="B28" s="161" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="142" t="s">
-        <v>305</v>
-      </c>
-      <c r="D28" s="141">
-        <v>3003217</v>
-      </c>
-      <c r="E28" s="133"/>
-      <c r="F28" s="89"/>
-    </row>
-    <row r="29" spans="1:7" s="89" customFormat="1">
-      <c r="A29" s="200"/>
-      <c r="B29" s="161" t="s">
-        <v>246</v>
-      </c>
-      <c r="C29" s="96" t="s">
-        <v>271</v>
-      </c>
-      <c r="D29" s="96" t="s">
-        <v>243</v>
-      </c>
-      <c r="E29" s="92"/>
-      <c r="F29" s="78"/>
-    </row>
-    <row r="30" spans="1:7" ht="18.75">
-      <c r="A30" s="200"/>
-      <c r="B30" s="143" t="s">
-        <v>310</v>
-      </c>
-      <c r="C30" s="102" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" s="96" t="s">
-        <v>244</v>
-      </c>
-      <c r="E30" s="64"/>
-      <c r="F30" s="82"/>
-    </row>
-    <row r="31" spans="1:7" s="91" customFormat="1" ht="18.75">
-      <c r="A31" s="200"/>
-      <c r="B31" s="139" t="s">
-        <v>303</v>
-      </c>
-      <c r="C31" s="125" t="s">
-        <v>304</v>
-      </c>
-      <c r="D31" s="170">
-        <v>3003227</v>
-      </c>
-      <c r="E31" s="174" t="s">
-        <v>322</v>
-      </c>
-      <c r="F31" s="82"/>
-    </row>
-    <row r="32" spans="1:7" s="82" customFormat="1" ht="18.75">
-      <c r="A32" s="200"/>
-      <c r="B32" s="140" t="s">
-        <v>241</v>
-      </c>
-      <c r="C32" s="142" t="s">
-        <v>304</v>
-      </c>
-      <c r="D32" s="170">
-        <v>3003224</v>
-      </c>
-      <c r="E32" s="175" t="s">
-        <v>322</v>
-      </c>
-      <c r="F32" s="89"/>
-    </row>
-    <row r="33" spans="1:6" s="155" customFormat="1">
-      <c r="A33" s="200"/>
-      <c r="B33" s="140"/>
-      <c r="C33" s="159" t="s">
-        <v>314</v>
-      </c>
-      <c r="D33" s="129" t="s">
-        <v>219</v>
-      </c>
-      <c r="E33" s="175"/>
-      <c r="F33" s="89"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="200"/>
-      <c r="B34" s="153"/>
-      <c r="C34" s="68" t="s">
-        <v>135</v>
-      </c>
-      <c r="D34" s="131"/>
-      <c r="E34" s="131"/>
-    </row>
-    <row r="35" spans="1:6" ht="54">
-      <c r="A35" s="200"/>
-      <c r="B35" s="148" t="s">
-        <v>308</v>
-      </c>
-      <c r="C35" s="124" t="s">
-        <v>231</v>
-      </c>
-      <c r="D35" s="131" t="s">
-        <v>165</v>
-      </c>
-      <c r="E35" s="192" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="200"/>
-      <c r="B36" s="143" t="s">
-        <v>122</v>
-      </c>
-      <c r="C36" s="124" t="s">
-        <v>114</v>
-      </c>
-      <c r="D36" s="131" t="s">
-        <v>250</v>
-      </c>
-      <c r="E36" s="193"/>
-    </row>
-    <row r="37" spans="1:6" ht="81">
-      <c r="A37" s="200"/>
-      <c r="B37" s="154" t="s">
+      <c r="D49" s="112" t="s">
+        <v>280</v>
+      </c>
+      <c r="E49" s="150" t="s">
         <v>309</v>
       </c>
-      <c r="C37" s="124" t="s">
-        <v>188</v>
-      </c>
-      <c r="D37" s="131" t="s">
-        <v>166</v>
-      </c>
-      <c r="E37" s="193"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="200"/>
-      <c r="B38" s="151"/>
-      <c r="C38" s="124" t="s">
-        <v>232</v>
-      </c>
-      <c r="D38" s="131" t="s">
-        <v>167</v>
-      </c>
-      <c r="E38" s="193"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="200"/>
-      <c r="B39" s="151"/>
-      <c r="C39" s="124" t="s">
-        <v>189</v>
-      </c>
-      <c r="D39" s="131" t="s">
-        <v>190</v>
-      </c>
-      <c r="E39" s="193"/>
-    </row>
-    <row r="40" spans="1:6" ht="40.5">
-      <c r="A40" s="200"/>
-      <c r="B40" s="168" t="s">
-        <v>257</v>
-      </c>
-      <c r="C40" s="124" t="s">
-        <v>123</v>
-      </c>
-      <c r="D40" s="131" t="s">
-        <v>214</v>
-      </c>
-      <c r="E40" s="193"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="200"/>
-      <c r="B41" s="151"/>
-      <c r="C41" s="124" t="s">
-        <v>136</v>
-      </c>
-      <c r="D41" s="131" t="s">
-        <v>213</v>
-      </c>
-      <c r="E41" s="193"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="200"/>
-      <c r="B42" s="151" t="s">
-        <v>169</v>
-      </c>
-      <c r="C42" s="124" t="s">
-        <v>124</v>
-      </c>
-      <c r="D42" s="131" t="s">
-        <v>168</v>
-      </c>
-      <c r="E42" s="193"/>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="201"/>
-      <c r="B43" s="151" t="s">
-        <v>170</v>
-      </c>
-      <c r="C43" s="124" t="s">
-        <v>125</v>
-      </c>
-      <c r="D43" s="131" t="s">
-        <v>191</v>
-      </c>
-      <c r="E43" s="193"/>
-    </row>
-    <row r="44" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A44" s="137"/>
-      <c r="B44" s="151"/>
-      <c r="C44" s="124"/>
-      <c r="D44" s="131"/>
-      <c r="E44" s="131"/>
-    </row>
-    <row r="45" spans="1:6" ht="14.25">
-      <c r="A45" s="190" t="s">
+      <c r="F49" s="93"/>
+    </row>
+    <row r="50" spans="1:6" ht="18.75">
+      <c r="A50" s="208"/>
+      <c r="B50" s="211" t="s">
+        <v>272</v>
+      </c>
+      <c r="C50" s="105" t="s">
+        <v>281</v>
+      </c>
+      <c r="D50" s="64">
+        <v>3003222</v>
+      </c>
+      <c r="E50" s="173" t="s">
+        <v>307</v>
+      </c>
+      <c r="F50" s="93"/>
+    </row>
+    <row r="51" spans="1:6" ht="18.75">
+      <c r="A51" s="208"/>
+      <c r="B51" s="212"/>
+      <c r="C51" s="65" t="s">
+        <v>255</v>
+      </c>
+      <c r="D51" s="64">
+        <v>3003226</v>
+      </c>
+      <c r="E51" s="173" t="s">
+        <v>307</v>
+      </c>
+      <c r="F51" s="93"/>
+    </row>
+    <row r="52" spans="1:6" ht="18.75">
+      <c r="A52" s="208"/>
+      <c r="B52" s="151" t="s">
+        <v>161</v>
+      </c>
+      <c r="C52" s="60" t="s">
+        <v>288</v>
+      </c>
+      <c r="D52" s="144">
+        <v>700020015</v>
+      </c>
+      <c r="E52" s="173" t="s">
+        <v>307</v>
+      </c>
+      <c r="F52" s="92"/>
+    </row>
+    <row r="53" spans="1:6" ht="18.75">
+      <c r="A53" s="208"/>
+      <c r="B53" s="152" t="s">
+        <v>88</v>
+      </c>
+      <c r="C53" s="65" t="s">
+        <v>270</v>
+      </c>
+      <c r="D53" s="64">
+        <v>3003221</v>
+      </c>
+      <c r="E53" s="173" t="s">
+        <v>307</v>
+      </c>
+      <c r="F53" s="92"/>
+    </row>
+    <row r="54" spans="1:6" ht="20.25" customHeight="1">
+      <c r="A54" s="208"/>
+      <c r="B54" s="184" t="s">
+        <v>341</v>
+      </c>
+      <c r="C54" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="D54" s="135" t="s">
+        <v>277</v>
+      </c>
+      <c r="E54" s="131"/>
+      <c r="F54" s="92"/>
+    </row>
+    <row r="55" spans="1:6" ht="26.25" customHeight="1">
+      <c r="A55" s="208"/>
+      <c r="B55" s="184" t="s">
+        <v>340</v>
+      </c>
+      <c r="C55" s="62" t="s">
+        <v>274</v>
+      </c>
+      <c r="D55" s="135" t="s">
         <v>278</v>
       </c>
-      <c r="B45" s="166"/>
-      <c r="C45" s="158" t="s">
-        <v>300</v>
-      </c>
-      <c r="D45" s="136" t="s">
-        <v>328</v>
-      </c>
-      <c r="E45" s="147" t="s">
-        <v>312</v>
-      </c>
-      <c r="F45" s="61"/>
-    </row>
-    <row r="46" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A46" s="190"/>
-      <c r="B46" s="149" t="s">
-        <v>160</v>
-      </c>
-      <c r="C46" s="149" t="s">
-        <v>149</v>
-      </c>
-      <c r="D46" s="70" t="s">
-        <v>277</v>
-      </c>
-      <c r="E46" s="151"/>
-      <c r="F46" s="92"/>
-    </row>
-    <row r="47" spans="1:6" ht="21" customHeight="1">
-      <c r="A47" s="190"/>
-      <c r="B47" s="151" t="s">
+      <c r="E55" s="135"/>
+      <c r="F55" s="92"/>
+    </row>
+    <row r="56" spans="1:6" ht="17.25" customHeight="1">
+      <c r="A56" s="208"/>
+      <c r="B56" s="162" t="s">
+        <v>274</v>
+      </c>
+      <c r="C56" s="134" t="s">
         <v>275</v>
       </c>
-      <c r="C47" s="144" t="s">
-        <v>324</v>
-      </c>
-      <c r="D47" s="112" t="s">
-        <v>327</v>
-      </c>
-      <c r="E47" s="146" t="s">
-        <v>323</v>
-      </c>
-      <c r="F47" s="93"/>
-    </row>
-    <row r="48" spans="1:6" ht="21" customHeight="1">
-      <c r="A48" s="190"/>
-      <c r="B48" s="151" t="s">
-        <v>273</v>
-      </c>
-      <c r="C48" s="60" t="s">
-        <v>276</v>
-      </c>
-      <c r="D48" s="112" t="s">
-        <v>286</v>
-      </c>
-      <c r="E48" s="151" t="s">
-        <v>325</v>
-      </c>
-      <c r="F48" s="93"/>
-    </row>
-    <row r="49" spans="1:6" ht="18.75">
-      <c r="A49" s="190"/>
-      <c r="B49" s="193" t="s">
-        <v>276</v>
-      </c>
-      <c r="C49" s="105" t="s">
-        <v>287</v>
-      </c>
-      <c r="D49" s="64">
-        <v>3003222</v>
-      </c>
-      <c r="E49" s="174" t="s">
-        <v>322</v>
-      </c>
-      <c r="F49" s="93"/>
-    </row>
-    <row r="50" spans="1:6" ht="18.75">
-      <c r="A50" s="190"/>
-      <c r="B50" s="194"/>
-      <c r="C50" s="65" t="s">
-        <v>258</v>
-      </c>
-      <c r="D50" s="64">
-        <v>3003226</v>
-      </c>
-      <c r="E50" s="174" t="s">
-        <v>322</v>
-      </c>
-      <c r="F50" s="93"/>
-    </row>
-    <row r="51" spans="1:6" ht="18.75">
-      <c r="A51" s="190"/>
-      <c r="B51" s="152" t="s">
-        <v>163</v>
-      </c>
-      <c r="C51" s="60" t="s">
-        <v>299</v>
-      </c>
-      <c r="D51" s="145">
-        <v>700020015</v>
-      </c>
-      <c r="E51" s="174" t="s">
-        <v>322</v>
-      </c>
-      <c r="F51" s="92"/>
-    </row>
-    <row r="52" spans="1:6" ht="18.75">
-      <c r="A52" s="190"/>
-      <c r="B52" s="153" t="s">
-        <v>88</v>
-      </c>
-      <c r="C52" s="65" t="s">
-        <v>274</v>
-      </c>
-      <c r="D52" s="64">
-        <v>3003221</v>
-      </c>
-      <c r="E52" s="174" t="s">
-        <v>322</v>
-      </c>
-      <c r="F52" s="92"/>
-    </row>
-    <row r="53" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A53" s="190"/>
-      <c r="B53" s="153" t="s">
-        <v>194</v>
-      </c>
-      <c r="C53" s="60" t="s">
-        <v>83</v>
-      </c>
-      <c r="D53" s="135" t="s">
-        <v>283</v>
-      </c>
-      <c r="E53" s="131"/>
-      <c r="F53" s="92"/>
-    </row>
-    <row r="54" spans="1:6" ht="26.25" customHeight="1">
-      <c r="A54" s="190"/>
-      <c r="B54" s="153" t="s">
-        <v>281</v>
-      </c>
-      <c r="C54" s="62" t="s">
+      <c r="D56" s="92" t="s">
         <v>279</v>
-      </c>
-      <c r="D54" s="135" t="s">
-        <v>284</v>
-      </c>
-      <c r="E54" s="135"/>
-      <c r="F54" s="92"/>
-    </row>
-    <row r="55" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A55" s="190"/>
-      <c r="B55" s="163" t="s">
-        <v>279</v>
-      </c>
-      <c r="C55" s="134" t="s">
-        <v>280</v>
-      </c>
-      <c r="D55" s="92" t="s">
-        <v>285</v>
-      </c>
-      <c r="E55" s="131"/>
-      <c r="F55" s="92"/>
-    </row>
-    <row r="56" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A56" s="190"/>
-      <c r="B56" s="154" t="s">
-        <v>282</v>
-      </c>
-      <c r="C56" s="67" t="s">
-        <v>289</v>
-      </c>
-      <c r="D56" s="65" t="s">
-        <v>290</v>
       </c>
       <c r="E56" s="131"/>
       <c r="F56" s="92"/>
     </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="133"/>
-      <c r="B57" s="154"/>
-      <c r="C57" s="67"/>
-      <c r="D57" s="132"/>
+    <row r="57" spans="1:6" ht="22.5" customHeight="1">
+      <c r="A57" s="208"/>
+      <c r="B57" s="153" t="s">
+        <v>276</v>
+      </c>
+      <c r="C57" s="67" t="s">
+        <v>283</v>
+      </c>
+      <c r="D57" s="65" t="s">
+        <v>284</v>
+      </c>
       <c r="E57" s="131"/>
       <c r="F57" s="92"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="133" t="s">
-        <v>91</v>
-      </c>
-      <c r="B58" s="151" t="s">
-        <v>145</v>
-      </c>
-      <c r="C58" s="131" t="s">
-        <v>143</v>
-      </c>
-      <c r="D58" s="131" t="s">
-        <v>144</v>
-      </c>
+      <c r="A58" s="133"/>
+      <c r="B58" s="153"/>
+      <c r="C58" s="67"/>
+      <c r="D58" s="132"/>
       <c r="E58" s="131"/>
       <c r="F58" s="92"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="133"/>
-      <c r="B59" s="151"/>
-      <c r="C59" s="131"/>
-      <c r="D59" s="131"/>
+      <c r="A59" s="133" t="s">
+        <v>91</v>
+      </c>
+      <c r="B59" s="150" t="s">
+        <v>143</v>
+      </c>
+      <c r="C59" s="131" t="s">
+        <v>141</v>
+      </c>
+      <c r="D59" s="131" t="s">
+        <v>142</v>
+      </c>
       <c r="E59" s="131"/>
       <c r="F59" s="92"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="196" t="s">
-        <v>207</v>
-      </c>
-      <c r="B60" s="146" t="s">
-        <v>172</v>
-      </c>
-      <c r="C60" s="74" t="s">
-        <v>195</v>
-      </c>
-      <c r="D60" s="131" t="s">
-        <v>171</v>
-      </c>
+      <c r="A60" s="133"/>
+      <c r="B60" s="150"/>
+      <c r="C60" s="131"/>
+      <c r="D60" s="131"/>
       <c r="E60" s="131"/>
       <c r="F60" s="92"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="196"/>
-      <c r="B61" s="150" t="s">
-        <v>17</v>
-      </c>
-      <c r="C61" s="74" t="s">
-        <v>7</v>
-      </c>
-      <c r="D61" s="131" t="s">
-        <v>174</v>
+      <c r="A61" s="214" t="s">
+        <v>205</v>
+      </c>
+      <c r="B61" s="145" t="s">
+        <v>170</v>
+      </c>
+      <c r="C61" s="149" t="s">
+        <v>358</v>
+      </c>
+      <c r="D61" s="200" t="s">
+        <v>169</v>
       </c>
       <c r="E61" s="131"/>
       <c r="F61" s="92"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="196"/>
-      <c r="B62" s="150" t="s">
+      <c r="A62" s="214"/>
+      <c r="B62" s="149" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="C62" s="74" t="s">
-        <v>36</v>
-      </c>
-      <c r="D62" s="130" t="s">
-        <v>176</v>
+      <c r="D62" s="187" t="s">
+        <v>357</v>
       </c>
       <c r="E62" s="131"/>
       <c r="F62" s="92"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="196"/>
-      <c r="B63" s="150" t="s">
-        <v>17</v>
-      </c>
-      <c r="C63" s="131" t="s">
-        <v>197</v>
-      </c>
-      <c r="D63" s="135" t="s">
-        <v>175</v>
+      <c r="A63" s="214"/>
+      <c r="B63" s="149" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" s="74" t="s">
+        <v>36</v>
+      </c>
+      <c r="D63" s="186" t="s">
+        <v>359</v>
       </c>
       <c r="E63" s="131"/>
       <c r="F63" s="92"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="196"/>
-      <c r="B64" s="146" t="s">
-        <v>18</v>
-      </c>
-      <c r="C64" s="131" t="s">
-        <v>81</v>
-      </c>
-      <c r="D64" s="135" t="s">
+      <c r="A64" s="214"/>
+      <c r="B64" s="149" t="s">
+        <v>17</v>
+      </c>
+      <c r="C64" s="187" t="s">
+        <v>356</v>
+      </c>
+      <c r="D64" s="187" t="s">
         <v>173</v>
       </c>
       <c r="E64" s="131"/>
       <c r="F64" s="92"/>
     </row>
-    <row r="65" spans="1:6" ht="14.25">
-      <c r="A65" s="196"/>
-      <c r="B65" s="144" t="s">
-        <v>178</v>
+    <row r="65" spans="1:6">
+      <c r="A65" s="214"/>
+      <c r="B65" s="145" t="s">
+        <v>18</v>
       </c>
       <c r="C65" s="131" t="s">
-        <v>198</v>
-      </c>
-      <c r="D65" s="171">
-        <v>3003219</v>
+        <v>81</v>
+      </c>
+      <c r="D65" s="135" t="s">
+        <v>171</v>
       </c>
       <c r="E65" s="131"/>
       <c r="F65" s="92"/>
     </row>
     <row r="66" spans="1:6" ht="14.25">
-      <c r="A66" s="196"/>
-      <c r="B66" s="146"/>
-      <c r="C66" s="74" t="s">
-        <v>199</v>
-      </c>
-      <c r="D66" s="171" t="s">
-        <v>306</v>
+      <c r="A66" s="214"/>
+      <c r="B66" s="143" t="s">
+        <v>176</v>
+      </c>
+      <c r="C66" s="131" t="s">
+        <v>196</v>
+      </c>
+      <c r="D66" s="170">
+        <v>3003219</v>
       </c>
       <c r="E66" s="131"/>
       <c r="F66" s="92"/>
     </row>
     <row r="67" spans="1:6" ht="14.25">
-      <c r="A67" s="196"/>
-      <c r="B67" s="150" t="s">
-        <v>199</v>
-      </c>
-      <c r="C67" s="75" t="s">
+      <c r="A67" s="214"/>
+      <c r="B67" s="145"/>
+      <c r="C67" s="74" t="s">
+        <v>197</v>
+      </c>
+      <c r="D67" s="170" t="s">
+        <v>360</v>
+      </c>
+      <c r="E67" s="131"/>
+      <c r="F67" s="92"/>
+    </row>
+    <row r="68" spans="1:6" ht="14.25">
+      <c r="A68" s="214"/>
+      <c r="B68" s="149" t="s">
+        <v>197</v>
+      </c>
+      <c r="C68" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="D67" s="172">
+      <c r="D68" s="171">
         <v>3003228</v>
       </c>
-      <c r="E67" s="131"/>
-      <c r="F67" s="192" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="14.25">
-      <c r="A68" s="196"/>
-      <c r="B68" s="150" t="s">
+      <c r="E68" s="131"/>
+      <c r="F68" s="210" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="14.25">
+      <c r="A69" s="214"/>
+      <c r="B69" s="149" t="s">
         <v>25</v>
       </c>
-      <c r="C68" s="75" t="s">
-        <v>291</v>
-      </c>
-      <c r="D68" s="172">
+      <c r="C69" s="75" t="s">
+        <v>285</v>
+      </c>
+      <c r="D69" s="171">
         <v>3003229</v>
       </c>
-      <c r="E68" s="131"/>
-      <c r="F68" s="192"/>
-    </row>
-    <row r="69" spans="1:6" ht="14.25">
-      <c r="A69" s="196"/>
-      <c r="B69" s="146" t="s">
-        <v>294</v>
-      </c>
-      <c r="C69" s="138" t="s">
-        <v>296</v>
-      </c>
-      <c r="D69" s="172">
+      <c r="E69" s="131"/>
+      <c r="F69" s="210"/>
+    </row>
+    <row r="70" spans="1:6" ht="14.25">
+      <c r="A70" s="214"/>
+      <c r="B70" s="145" t="s">
+        <v>364</v>
+      </c>
+      <c r="C70" s="188" t="s">
+        <v>362</v>
+      </c>
+      <c r="D70" s="171">
         <v>3003230</v>
-      </c>
-      <c r="E69" s="131"/>
-      <c r="F69" s="92"/>
-    </row>
-    <row r="70" spans="1:6" ht="14.25">
-      <c r="A70" s="196"/>
-      <c r="B70" s="146" t="s">
-        <v>295</v>
-      </c>
-      <c r="C70" s="129" t="s">
-        <v>202</v>
-      </c>
-      <c r="D70" s="172">
-        <v>3003231</v>
       </c>
       <c r="E70" s="131"/>
       <c r="F70" s="92"/>
     </row>
     <row r="71" spans="1:6" ht="14.25">
-      <c r="A71" s="196"/>
-      <c r="B71" s="195" t="s">
-        <v>292</v>
-      </c>
-      <c r="C71" s="146" t="s">
-        <v>329</v>
+      <c r="A71" s="214"/>
+      <c r="B71" s="145" t="s">
+        <v>287</v>
+      </c>
+      <c r="C71" s="129" t="s">
+        <v>200</v>
       </c>
       <c r="D71" s="171">
+        <v>3003231</v>
+      </c>
+      <c r="E71" s="131"/>
+      <c r="F71" s="92"/>
+    </row>
+    <row r="72" spans="1:6" ht="14.25">
+      <c r="A72" s="214"/>
+      <c r="B72" s="213" t="s">
+        <v>343</v>
+      </c>
+      <c r="C72" s="145" t="s">
+        <v>345</v>
+      </c>
+      <c r="D72" s="170">
         <v>3003223</v>
       </c>
-      <c r="E71" s="174" t="s">
+      <c r="E72" s="173" t="s">
+        <v>307</v>
+      </c>
+      <c r="F72" s="92"/>
+    </row>
+    <row r="73" spans="1:6" ht="14.25">
+      <c r="A73" s="214"/>
+      <c r="B73" s="212"/>
+      <c r="C73" s="143" t="s">
+        <v>344</v>
+      </c>
+      <c r="D73" s="170" t="s">
+        <v>295</v>
+      </c>
+      <c r="E73" s="173" t="s">
+        <v>307</v>
+      </c>
+      <c r="F73" s="92"/>
+    </row>
+    <row r="74" spans="1:6" ht="14.25">
+      <c r="A74" s="214"/>
+      <c r="B74" s="212"/>
+      <c r="C74" s="143" t="s">
+        <v>346</v>
+      </c>
+      <c r="D74" s="170" t="s">
+        <v>310</v>
+      </c>
+      <c r="E74" s="173" t="s">
+        <v>307</v>
+      </c>
+      <c r="F74" s="92"/>
+    </row>
+    <row r="77" spans="1:6" s="180" customFormat="1" ht="60" customHeight="1">
+      <c r="A77" s="181" t="s">
+        <v>324</v>
+      </c>
+      <c r="B77" s="179" t="s">
         <v>322</v>
       </c>
-      <c r="F71" s="92"/>
-    </row>
-    <row r="72" spans="1:6" ht="14.25">
-      <c r="A72" s="196"/>
-      <c r="B72" s="194"/>
-      <c r="C72" s="60" t="s">
-        <v>297</v>
-      </c>
-      <c r="D72" s="171" t="s">
-        <v>307</v>
-      </c>
-      <c r="E72" s="174" t="s">
-        <v>322</v>
-      </c>
-      <c r="F72" s="92"/>
-    </row>
-    <row r="73" spans="1:6" ht="14.25">
-      <c r="A73" s="196"/>
-      <c r="B73" s="194"/>
-      <c r="C73" s="60" t="s">
-        <v>298</v>
-      </c>
-      <c r="D73" s="171" t="s">
-        <v>326</v>
-      </c>
-      <c r="E73" s="174" t="s">
-        <v>322</v>
-      </c>
-      <c r="F73" s="92"/>
-    </row>
-    <row r="76" spans="1:6" s="181" customFormat="1" ht="60" customHeight="1">
-      <c r="A76" s="182" t="s">
-        <v>342</v>
-      </c>
-      <c r="B76" s="180" t="s">
-        <v>340</v>
-      </c>
-      <c r="C76" s="180" t="s">
-        <v>339</v>
-      </c>
-      <c r="D76" s="180"/>
-      <c r="E76" s="180" t="s">
-        <v>341</v>
-      </c>
+      <c r="C77" s="179" t="s">
+        <v>321</v>
+      </c>
+      <c r="D77" s="179"/>
+      <c r="E77" s="179" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="C79" s="194"/>
+      <c r="D79" s="194"/>
+    </row>
+    <row r="80" spans="1:6" ht="40.5" customHeight="1">
+      <c r="A80" s="222" t="s">
+        <v>349</v>
+      </c>
+      <c r="B80" s="192" t="s">
+        <v>348</v>
+      </c>
+      <c r="C80" s="190" t="s">
+        <v>350</v>
+      </c>
+      <c r="D80" s="190">
+        <v>4001003</v>
+      </c>
+      <c r="E80" s="197"/>
+    </row>
+    <row r="81" spans="1:5" ht="27" customHeight="1">
+      <c r="A81" s="223"/>
+      <c r="B81" s="190" t="s">
+        <v>351</v>
+      </c>
+      <c r="C81" s="190" t="s">
+        <v>352</v>
+      </c>
+      <c r="D81" s="190">
+        <v>700020029</v>
+      </c>
+      <c r="E81" s="195"/>
+    </row>
+    <row r="82" spans="1:5" ht="42.75" customHeight="1">
+      <c r="A82" s="223"/>
+      <c r="B82" s="191" t="s">
+        <v>353</v>
+      </c>
+      <c r="C82" s="190" t="s">
+        <v>354</v>
+      </c>
+      <c r="D82" s="190"/>
+      <c r="E82" s="196"/>
+    </row>
+    <row r="83" spans="1:5" ht="26.25" customHeight="1">
+      <c r="A83" s="223"/>
+      <c r="B83" s="190"/>
+      <c r="C83" s="190" t="s">
+        <v>355</v>
+      </c>
+      <c r="D83" s="190"/>
+      <c r="E83" s="195"/>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="193"/>
+      <c r="B84" s="220"/>
+      <c r="C84" s="220"/>
+      <c r="D84" s="220"/>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="B85" s="221"/>
+      <c r="C85" s="221"/>
+      <c r="D85" s="221"/>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="B86" s="221"/>
+      <c r="C86" s="221"/>
+      <c r="D86" s="221"/>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="B87" s="221"/>
+      <c r="C87" s="221"/>
+      <c r="D87" s="221"/>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="B88" s="221"/>
+      <c r="C88" s="221"/>
+      <c r="D88" s="221"/>
+      <c r="E88" s="154"/>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="B89" s="221"/>
+      <c r="C89" s="221"/>
+      <c r="D89" s="221"/>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="B90" s="221"/>
+      <c r="C90" s="221"/>
+      <c r="D90" s="221"/>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="B91" s="221"/>
+      <c r="C91" s="221"/>
+      <c r="D91" s="221"/>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="B92" s="221"/>
+      <c r="C92" s="221"/>
+      <c r="D92" s="221"/>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="B93" s="221"/>
+      <c r="C93" s="221"/>
+      <c r="D93" s="221"/>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="B94" s="221"/>
+      <c r="C94" s="221"/>
+      <c r="D94" s="221"/>
+    </row>
+    <row r="95" spans="1:5" ht="57.75" customHeight="1">
+      <c r="B95" s="221"/>
+      <c r="C95" s="221"/>
+      <c r="D95" s="221"/>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="B96" s="189"/>
+      <c r="C96" s="189"/>
+      <c r="D96" s="154"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="A45:A56"/>
-    <mergeCell ref="A27:A43"/>
-    <mergeCell ref="E35:E43"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="A60:A73"/>
+  <mergeCells count="13">
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="A46:A57"/>
+    <mergeCell ref="A28:A44"/>
+    <mergeCell ref="E36:E44"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A61:A74"/>
+    <mergeCell ref="B84:D95"/>
+    <mergeCell ref="A80:A83"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="A10:A17"/>
     <mergeCell ref="A18:A25"/>
-    <mergeCell ref="F67:F68"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B37" r:id="rId1"/>
+    <hyperlink ref="B31" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
+  <legacyDrawing r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -9491,7 +10001,7 @@
         <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D6" t="s">
         <v>45</v>

--- a/风险管控月出账流程/风险管控出账流程v2.xlsx
+++ b/风险管控月出账流程/风险管控出账流程v2.xlsx
@@ -10,7 +10,6 @@
     <sheet name="出账流程V2" sheetId="1" r:id="rId1"/>
     <sheet name="出账流程V3" sheetId="2" r:id="rId2"/>
     <sheet name="出账流程V4" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -1449,7 +1448,33 @@
         </r>
       </text>
     </comment>
-    <comment ref="C54" authorId="1">
+    <comment ref="C45" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>WANGRM:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+修改产品口径</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C57" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1478,7 +1503,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C58" authorId="1">
+    <comment ref="C61" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1505,7 +1530,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C59" authorId="1">
+    <comment ref="C62" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1532,7 +1557,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C60" authorId="1">
+    <comment ref="C63" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1563,7 +1588,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C61" authorId="1">
+    <comment ref="C64" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1590,7 +1615,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C62" authorId="1">
+    <comment ref="C65" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1617,7 +1642,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C65" authorId="1">
+    <comment ref="C68" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1646,7 +1671,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C67" authorId="1">
+    <comment ref="C70" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1672,7 +1697,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C68" authorId="1">
+    <comment ref="C71" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1698,32 +1723,6 @@
  sum(dev_user ),sum(dev_user_zc ),sum(user_cm )
 from  PU_BUSI_IND.BM_VALID_USER_BUSINESS_MON
 group by month_no</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C70" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>WANGRM:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-修改产品口径</t>
         </r>
       </text>
     </comment>
@@ -2138,40 +2137,12 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-select count(*),sum(pay_amount ),sum(charge ),sum(pay_csh_amount ) 
-from pu_wt.wt_half_serv_201706       select count(*),sum(dev_num),sum(ycyh_num)
- from pu_busi_ind.bm_serv_c_cl_ycyh_201705      select count(*),sum(c.dev_num),sum(c.dev_num),sum(c.hey_num),sum(c.fhey_num) from  pu_busi_ind.bm_c_cl_serv_201705 c</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C21" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>WANGRM:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
 select month_no,count(*),sum(keep_flag ),sum(cnt)from PU_BASE_IND.DM_SUSPECT_KEEP_CUR_M
 group by month_no; </t>
         </r>
       </text>
     </comment>
-    <comment ref="C22" authorId="1">
+    <comment ref="C21" authorId="1">
       <text>
         <r>
           <rPr>
@@ -2198,7 +2169,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C24" authorId="1">
+    <comment ref="C23" authorId="1">
       <text>
         <r>
           <rPr>
@@ -2225,7 +2196,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C25" authorId="1">
+    <comment ref="C24" authorId="1">
       <text>
         <r>
           <rPr>
@@ -2252,7 +2223,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C26" authorId="1">
+    <comment ref="C25" authorId="1">
       <text>
         <r>
           <rPr>
@@ -2281,7 +2252,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C28" authorId="1">
+    <comment ref="C27" authorId="1">
       <text>
         <r>
           <rPr>
@@ -2297,7 +2268,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C31" authorId="1">
+    <comment ref="C30" authorId="1">
       <text>
         <r>
           <rPr>
@@ -2323,7 +2294,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C32" authorId="0">
+    <comment ref="C31" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2347,7 +2318,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C33" authorId="0">
+    <comment ref="C32" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2371,7 +2342,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C34" authorId="0">
+    <comment ref="C33" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2397,7 +2368,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C36" authorId="0">
+    <comment ref="C35" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2421,7 +2392,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E36" authorId="1">
+    <comment ref="E35" authorId="1">
       <text>
         <r>
           <rPr>
@@ -2456,7 +2427,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C37" authorId="0">
+    <comment ref="C36" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2480,7 +2451,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C47" authorId="0">
+    <comment ref="C44" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2500,36 +2471,49 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
+SELECT * FROM  pu_wt.rpt_owe_ftqh_201803 order by area_name;
 </t>
         </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>存过</t>
-        </r>
-        <r>
-          <rPr>
+      </text>
+    </comment>
+    <comment ref="C45" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>WANGRM:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+SELECT * FROM  TBAS.RPT_OWE_XZQ_DL@DL_EDW_YN order by 欠费账期；---销账前
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C46" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>pu_busi_ind.p_bm_accounts_recv_m10)</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>（参数：当月</t>
+          <t>Administrator:</t>
         </r>
         <r>
           <rPr>
@@ -2538,41 +2522,51 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>7</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>号）</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C48" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
+          <t xml:space="preserve">
+SELECT * FROM  TBAS.RPT_OWE_XZH_201802@DL_EDW_YN order by </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>欠费账期</t>
+        </r>
+        <r>
+          <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Administrator:</t>
-        </r>
-        <r>
-          <rPr>
+          <t>;  ---</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>销账后</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C49" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">
-</t>
+          <t>Administrator:</t>
         </r>
         <r>
           <rPr>
@@ -2581,21 +2575,37 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>pu_busi_ind.p_bm_own_fee_age_m</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C50" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>存过</t>
+        </r>
+        <r>
+          <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Administrator:</t>
+          <t>pu_busi_ind.p_bm_accounts_recv_m10)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>（参数：当月</t>
         </r>
         <r>
           <rPr>
@@ -2604,6 +2614,72 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>7</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>号）</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C50" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>pu_busi_ind.p_bm_own_fee_age_m</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C52" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t xml:space="preserve">
 SELECT * FROM  pu_wt.rpt_owe_ssk_xzq;  --</t>
         </r>
@@ -2639,7 +2715,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C51" authorId="0">
+    <comment ref="C53" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2693,7 +2769,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C52" authorId="0">
+    <comment ref="C54" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2717,7 +2793,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C53" authorId="0">
+    <comment ref="C55" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2741,7 +2817,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C57" authorId="1">
+    <comment ref="C59" authorId="1">
       <text>
         <r>
           <rPr>
@@ -2770,7 +2846,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C61" authorId="1">
+    <comment ref="C63" authorId="1">
       <text>
         <r>
           <rPr>
@@ -2797,7 +2873,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C62" authorId="1">
+    <comment ref="C64" authorId="1">
       <text>
         <r>
           <rPr>
@@ -2824,7 +2900,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C63" authorId="1">
+    <comment ref="C65" authorId="1">
       <text>
         <r>
           <rPr>
@@ -2855,7 +2931,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C64" authorId="1">
+    <comment ref="C66" authorId="1">
       <text>
         <r>
           <rPr>
@@ -2882,7 +2958,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C65" authorId="1">
+    <comment ref="C67" authorId="1">
       <text>
         <r>
           <rPr>
@@ -2909,7 +2985,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C68" authorId="1">
+    <comment ref="C70" authorId="1">
       <text>
         <r>
           <rPr>
@@ -2938,7 +3014,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C70" authorId="1">
+    <comment ref="C72" authorId="1">
       <text>
         <r>
           <rPr>
@@ -2964,7 +3040,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C71" authorId="1">
+    <comment ref="C73" authorId="1">
       <text>
         <r>
           <rPr>
@@ -2993,87 +3069,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C73" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>WANGRM:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-SELECT * FROM  TBAS.RPT_OWE_XZQ_DL@DL_EDW_YN order by 欠费账期；---销账前
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C74" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Administrator:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-SELECT * FROM  TBAS.RPT_OWE_XZH_201802@DL_EDW_YN order by </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>欠费账期</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>;  ---</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>销账后</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B81" authorId="0">
+    <comment ref="B80" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3104,7 +3100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="345">
   <si>
     <t>4号/5号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3280,73 +3276,6 @@
   </si>
   <si>
     <t xml:space="preserve">基于当天日欠费每月跑一次 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PU_WT</t>
-  </si>
-  <si>
-    <t>WT_SERV_C_CL_201505</t>
-  </si>
-  <si>
-    <t>TABLE</t>
-  </si>
-  <si>
-    <t>WT_SERV_C_CL_201506</t>
-  </si>
-  <si>
-    <t>WT_SERV_C_CL_201507</t>
-  </si>
-  <si>
-    <t>WT_SERV_C_CL_201508</t>
-  </si>
-  <si>
-    <t>WT_SERV_C_CL_201509</t>
-  </si>
-  <si>
-    <t>WT_SERV_C_CL_201510</t>
-  </si>
-  <si>
-    <t>WT_SERV_C_CL_201511</t>
-  </si>
-  <si>
-    <t>WT_SERV_C_CL_201512</t>
-  </si>
-  <si>
-    <t>WT_SERV_C_CL_2015</t>
-  </si>
-  <si>
-    <t>TABLE PARTITION</t>
-  </si>
-  <si>
-    <t>WT_SERV_C_CL_201503</t>
-  </si>
-  <si>
-    <t>WT_SERV_C_CL_201504</t>
-  </si>
-  <si>
-    <t>WT_SERV_C_CL_201406</t>
-  </si>
-  <si>
-    <t>WT_SERV_C_CL_201407</t>
-  </si>
-  <si>
-    <t>WT_SERV_C_CL_201408</t>
-  </si>
-  <si>
-    <t>WT_SERV_C_CL_201409</t>
-  </si>
-  <si>
-    <t>WT_SERV_C_CL_201410</t>
-  </si>
-  <si>
-    <t>WT_SERV_C_CL_201411</t>
-  </si>
-  <si>
-    <t>WT_SERV_C_CL_201412</t>
-  </si>
-  <si>
-    <t>WT_SERV_C_CL_201508</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -4101,10 +4030,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>WT_SERV_C_CL_201510</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>建议出完流程后核对一下结果表数据</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4248,34 +4173,6 @@
   </si>
   <si>
     <t>有效用户活跃及缴费</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>当月</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>11号</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日欠费回收清单 流程跑完
-（PU_WT.WT_BIL_OWE_LIST_D_NEW Partition(P20180210)）</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -4739,6 +4636,545 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>基础欠费（经分）+省政企用户清单+库内欠费分析表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7001125_省政企、省商客欠费账龄_调度流</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际计提坏账准备用户清单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际计提坏账准备月报</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际计提坏账准备月报</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>etl:7001137</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETL:3003207</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>etl: 7001136</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>etl:7001125 (fxgk)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>etl:3003216</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大额月欠费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>etl:3003225</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>渠道效益评估月表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cd /home/yntbas/user/lxs/shell/realrec  --目录
+nohup ./realrec.sh 20180110 &amp;  --执行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无效用户推送</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础欠费（经分）（经分）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 省政企用户清单PU_WT.WT_SERV_SHZ_ALL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">省政企清单  ( </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>报表)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无效用户推送(月处理)</t>
+  </si>
+  <si>
+    <t>PU_INTF.I_ACCT_ITEM_M ,PU_WT.F_1_SERV_D_JF,
+PU_INTF.I_PRD_SERV,
+PU_WT.WT_BIL_SERV_OWE_D_{Month_No} ,
+PU_WT.WT_OWE_TAB_RESULT_HIS_M</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>指标层清单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分摊后账单抽取</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则号(rule_id)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>etl:7001135</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>etl:2010012</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>库内欠费月统计基础指标(新版)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">用户支局关系月表 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>只看上月账期数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">省政企用户清单 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手工导出报表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> (经分流程)(应收账款依赖数据)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>把经分“省政企省商客分账龄欠费”的数据抽到风险管控</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>700020017（经分）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>etl:300030064</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（经分）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">etl:300030049(经分) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PU_WT.P_WT_OWE_REC_ROLLING_CONTROL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>存过（date_no）日账期日欠费数据开始有那天</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">/home/yntbas/user/lxs/shell/channel/channel_evalution.sh  参数 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>每月10日 14机器</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/yntbas/user/lxs/shell/realrec/realrec.sh 欠费回收截止日(执行脚本前一天) 14机器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PU_BUSI_IND.P_BM_WX_USER_MON 参数:上个月</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>渠道效益评估月表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>etl:3003196</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跑0871会报表空间 错误，需在经分上跑出数据在抽到风险管控上;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>月报处理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6号欠费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7号/8号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4G机卡匹配率（确认月数4G产品实例中间层入库情况）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4G机卡匹配率（确认月数4G产品实例中间层入库情况）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP用户另库金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPD_IN.I_IN_B_ACCT_ITEM_AGGR_DEL@Dl_Odl_89,
+PU_WT.F_1_SERV_D_JF,
+dsg.A_OWE_SPECIAL_SERV@Dl_Odl_89</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSG.ACCT_ITEM_OWE_{Month_No}@DL_ODL_89 ,
+PU_WT.F_1_SERV_D_JF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>etl：3003190</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>etl：3003211</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>月账单抽取</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>etl：3003208</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CRM重入网 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>etl:3010006</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPD_IN.I_IN_PPM_INPUT_ADJUST_LIS@DL_ODS_JF,
+ 月欠费宽表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>etl ： 7001133</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>计提坏账抽取+(日流程)纵向渠道维用户归属/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>欠费回收日管控业务指标（新版）</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9号</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>省政企省商客分账龄欠费 （经分）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当月11号日欠费数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pu_intf.f_business_balance_m
+（该表的数据是手工导入，需要更新areacode）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收账款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【FXGk】更新areacode_调度流</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctinter.INTF_DATA_M （财报推送的数据）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收账款前置_调度流 （经分流程）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【FXGk】更新areacode_调度流+
+应收账款前置_调度流 （经分流程）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收账款调度流</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>经分前台导出报表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>连续三个月虚假</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>etl：5001055</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按月虚假用户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>etl：7001098</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3003218  3003220</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cd /home/yntbas/user/lxs/shell/realrec  --目录
+ ./realrec.sh 20180110 &amp;  --执行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无效用户统计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/yntbas/user/lxs/shell/realrec/realrec.sh   参数  每月10日 14机器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实收表+无效用户推送</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>月欠费宽表(新版) (7号日欠费依赖该数据)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>月报处理（每月7号下午五点自动调）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当月养卡+次月养卡+（日流程7号）按天用户发展质量结构</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增值业务第四月欠费（4个月前的数据）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>销账后_分账龄欠费（报表）（经分）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>201802分摊前后收入、欠费、欠费占收比</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>700020016（经分）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当天日欠费回收清单 流程跑完</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+（PU_WT.WT_BIL_OWE_LIST_D_NEW）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">省商客欠费账龄表 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（报表）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>省政企客户部直管客户欠费账龄表 （</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>报表）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>分账龄欠费（16新口径）（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>报表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）（经分）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>欠费统计-I类客户(16新口径)（</t>
     </r>
@@ -4766,449 +5202,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>基础欠费（经分）+省政企用户清单+库内欠费分析表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7001125_省政企、省商客欠费账龄_调度流</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际计提坏账准备用户清单</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际计提坏账准备月报</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际计提坏账准备月报</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>etl:7001137</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ETL:3003207</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>etl: 7001136</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>etl:7001125 (fxgk)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">省商客欠费账龄表 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（报表）</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>etl:3003216</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大额月欠费</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>etl:3003225</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>渠道效益评估月表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cd /home/yntbas/user/lxs/shell/realrec  --目录
-nohup ./realrec.sh 20180110 &amp;  --执行</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无效用户推送</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>分账龄欠费（16新口径）（</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>报表</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）（经分）</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础欠费（经分）（经分）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>【FXGK】月欠费回收滚动视图_调度流</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 省政企用户清单PU_WT.WT_SERV_SHZ_ALL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">省政企清单  ( </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>报表)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无效用户推送(月处理)</t>
-  </si>
-  <si>
-    <t>700020016（经分）</t>
-  </si>
-  <si>
-    <t>PU_INTF.I_ACCT_ITEM_M ,PU_WT.F_1_SERV_D_JF,
-PU_INTF.I_PRD_SERV,
-PU_WT.WT_BIL_SERV_OWE_D_{Month_No} ,
-PU_WT.WT_OWE_TAB_RESULT_HIS_M</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>指标层清单</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>分摊后账单抽取</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>规则号(rule_id)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>etl:7001135</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>etl:2010012</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>库内欠费月统计基础指标(新版)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">用户支局关系月表 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>只看上月账期数据</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">省政企用户清单 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>手工导出报表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> (经分流程)(应收账款依赖数据)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>把经分“省政企省商客分账龄欠费”的数据抽到风险管控</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>700020017（经分）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>etl:300030064</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（经分）</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">etl:300030049(经分) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PU_WT.P_WT_OWE_REC_ROLLING_CONTROL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>存过（date_no）日账期日欠费数据开始有那天</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">/home/yntbas/user/lxs/shell/channel/channel_evalution.sh  参数 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>每月10日 14机器</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/home/yntbas/user/lxs/shell/realrec/realrec.sh 欠费回收截止日(执行脚本前一天) 14机器</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PU_BUSI_IND.P_BM_WX_USER_MON 参数:上个月</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>渠道效益评估月表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>etl:3003196</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>跑0871会报表空间 错误，需在经分上跑出数据在抽到风险管控上;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑名单渠道</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>月报处理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个季度跑一次（3,6,9,12）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个季度跑一
-次（3,6,9,12）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6号欠费</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7号/8号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4G机卡匹配率（确认月数4G产品实例中间层入库情况）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（）</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4G机卡匹配率（确认月数4G产品实例中间层入库情况）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SP用户另库金额</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IPD_IN.I_IN_B_ACCT_ITEM_AGGR_DEL@Dl_Odl_89,
-PU_WT.F_1_SERV_D_JF,
-dsg.A_OWE_SPECIAL_SERV@Dl_Odl_89</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DSG.ACCT_ITEM_OWE_{Month_No}@DL_ODL_89 ,
-PU_WT.F_1_SERV_D_JF</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>etl：3003190</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>etl：3003211</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>月账单抽取</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>etl：3003208</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CRM重入网 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>etl:3010006</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IPD_IN.I_IN_PPM_INPUT_ADJUST_LIS@DL_ODS_JF,
- 月欠费宽表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>etl ： 7001133</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>计提坏账抽取+(日流程)纵向渠道维用户归属/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>欠费回收日管控业务指标（新版）</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>9号</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>省政企省商客分账龄欠费 （经分）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>当月</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>11号</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日欠费回收清单 流程跑完
-（PU_WT.WT_BIL_OWE_LIST_D_NEW Partition(P20180210)）</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>销帐前_欠费待列金额取待列表（</t>
     </r>
@@ -5236,23 +5229,8 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>201802分摊前后收入、欠费、欠费占收比</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
-      <t>销账后_分账龄欠费（</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>报表</t>
+      <t xml:space="preserve">终端补贴台账信息模板 </t>
     </r>
     <r>
       <rPr>
@@ -5262,95 +5240,16 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>）（经分）</t>
+      <t>（自动调）</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>当月11号日欠费数据</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pu_intf.f_business_balance_m
-（该表的数据是手工导入，需要更新areacode）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>应收账款</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>【FXGk】更新areacode_调度流</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ctinter.INTF_DATA_M （财报推送的数据）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>应收账款前置_调度流 （经分流程）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>【FXGk】更新areacode_调度流+
-应收账款前置_调度流 （经分流程）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>应收账款调度流</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>经分前台导出报表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>连续三个月虚假</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>etl：5001055</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>按月虚假用户</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>etl：7001098</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3003218  3003220</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cd /home/yntbas/user/lxs/shell/realrec  --目录
- ./realrec.sh 20180110 &amp;  --执行</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无效用户统计</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/home/yntbas/user/lxs/shell/realrec/realrec.sh   参数  每月10日 14机器</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>实收表+无效用户推送</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>月欠费宽表(新版) (7号日欠费依赖该数据)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>月报处理（每月7号下午五点自动调）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>当月养卡+次月养卡+（日流程）按天用户发展质量结构</t>
+    <t>黑名单渠道  （自动调 每月11号  早上8点）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【FXGK】月欠费回收滚动视图_调度流（自动调 每月1号 13:00）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5358,7 +5257,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="39">
+  <fonts count="38">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5641,14 +5540,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="16"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -5711,7 +5602,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -5851,6 +5742,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -5860,7 +5769,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="225">
+  <cellXfs count="228">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5912,9 +5821,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -6404,15 +6310,9 @@
     <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -6459,11 +6359,20 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6503,9 +6412,6 @@
     <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6515,26 +6421,38 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="19" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6552,13 +6470,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>904875</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1657350</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>687601</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6897,8 +6815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6916,17 +6834,17 @@
       </c>
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="31" t="s">
-        <v>107</v>
+      <c r="D2" s="30" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="22.9" customHeight="1">
@@ -6934,16 +6852,16 @@
         <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="D3" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="E3" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -6952,58 +6870,58 @@
       </c>
       <c r="B4" s="5"/>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="D4" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="201"/>
-      <c r="B5" s="59"/>
+      <c r="B5" s="58"/>
       <c r="C5" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="D5" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="201"/>
       <c r="B6" s="5"/>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="201"/>
       <c r="B7" s="5"/>
       <c r="C7" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="D7" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="201"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="32" t="s">
-        <v>327</v>
+      <c r="B8" s="19"/>
+      <c r="C8" s="31" t="s">
+        <v>295</v>
       </c>
       <c r="D8" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="26.45" customHeight="1">
       <c r="A9" s="201" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s">
         <v>29</v>
@@ -7014,11 +6932,11 @@
     </row>
     <row r="10" spans="1:5" ht="27">
       <c r="A10" s="201"/>
-      <c r="B10" s="44" t="s">
-        <v>118</v>
+      <c r="B10" s="43" t="s">
+        <v>96</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="D10" t="s">
         <v>2</v>
@@ -7027,21 +6945,21 @@
     <row r="11" spans="1:5">
       <c r="A11" s="201"/>
       <c r="B11" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E11" s="205" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="201"/>
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="49" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -7054,21 +6972,21 @@
     </row>
     <row r="13" spans="1:5" ht="18.75">
       <c r="A13" s="201"/>
-      <c r="B13" s="50" t="s">
-        <v>66</v>
+      <c r="B13" s="49" t="s">
+        <v>44</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="32" t="s">
         <v>3</v>
       </c>
       <c r="E13" s="205"/>
     </row>
     <row r="14" spans="1:5" s="8" customFormat="1">
       <c r="A14" s="201"/>
-      <c r="B14" s="50" t="s">
-        <v>66</v>
+      <c r="B14" s="49" t="s">
+        <v>44</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>1</v>
@@ -7076,7 +6994,7 @@
       <c r="D14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="22"/>
+      <c r="E14" s="21"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="201"/>
@@ -7084,7 +7002,7 @@
         <v>26</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="D15" t="s">
         <v>2</v>
@@ -7093,10 +7011,10 @@
     <row r="16" spans="1:5">
       <c r="A16" s="201"/>
       <c r="B16" s="1" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="D16" t="s">
         <v>2</v>
@@ -7104,105 +7022,105 @@
     </row>
     <row r="17" spans="1:6" s="8" customFormat="1" ht="14.25">
       <c r="A17" s="201"/>
-      <c r="B17" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="C17" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="D17" s="34" t="s">
-        <v>140</v>
+      <c r="B17" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>118</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="201" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" s="23"/>
+        <v>47</v>
+      </c>
+      <c r="B18" s="22"/>
       <c r="C18" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="201"/>
       <c r="B19" s="3" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D19" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="201"/>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="39" t="s">
+      <c r="C20" s="38" t="s">
         <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="201"/>
-      <c r="B21" s="23"/>
+      <c r="B21" s="22"/>
       <c r="C21" s="3" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="D21" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="201"/>
-      <c r="B22" s="23"/>
+      <c r="B22" s="22"/>
       <c r="C22" s="3" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="D22" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="201"/>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="23" t="s">
         <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="D23" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="201"/>
-      <c r="B24" s="23"/>
+      <c r="B24" s="22"/>
       <c r="C24" s="3" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="D24" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="8" customFormat="1">
       <c r="A25" s="201"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="38" t="s">
-        <v>74</v>
+      <c r="B25" s="36"/>
+      <c r="C25" s="37" t="s">
+        <v>52</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7210,10 +7128,10 @@
         <v>4</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="C26" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="D26" t="s">
         <v>2</v>
@@ -7225,9 +7143,9 @@
         <v>20</v>
       </c>
       <c r="C27" t="s">
-        <v>109</v>
-      </c>
-      <c r="D27" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="34" t="s">
         <v>3</v>
       </c>
       <c r="F27">
@@ -7236,11 +7154,11 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="201"/>
-      <c r="B28" s="26" t="s">
-        <v>77</v>
+      <c r="B28" s="25" t="s">
+        <v>55</v>
       </c>
       <c r="C28" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="D28" t="s">
         <v>2</v>
@@ -7248,11 +7166,11 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="201"/>
-      <c r="B29" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="C29" s="41" t="s">
-        <v>68</v>
+      <c r="B29" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="40" t="s">
+        <v>46</v>
       </c>
       <c r="D29" t="s">
         <v>2</v>
@@ -7264,10 +7182,10 @@
       <c r="B30" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="36" t="s">
-        <v>126</v>
-      </c>
-      <c r="D30" s="35" t="s">
+      <c r="C30" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" s="34" t="s">
         <v>3</v>
       </c>
       <c r="E30" s="201"/>
@@ -7277,75 +7195,75 @@
       <c r="B31" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="36" t="s">
-        <v>127</v>
-      </c>
-      <c r="D31" s="35" t="s">
+      <c r="C31" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="D31" s="34" t="s">
         <v>3</v>
       </c>
       <c r="E31" s="201"/>
     </row>
     <row r="32" spans="1:6" ht="27">
       <c r="A32" s="201"/>
-      <c r="B32" s="52" t="s">
-        <v>145</v>
+      <c r="B32" s="51" t="s">
+        <v>123</v>
       </c>
       <c r="C32" t="s">
-        <v>144</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>136</v>
+        <v>122</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>114</v>
       </c>
       <c r="E32" s="201"/>
     </row>
-    <row r="33" spans="1:5" s="56" customFormat="1" ht="31.15" customHeight="1">
+    <row r="33" spans="1:5" s="55" customFormat="1" ht="31.15" customHeight="1">
       <c r="A33" s="201"/>
-      <c r="B33" s="56" t="s">
-        <v>79</v>
-      </c>
-      <c r="C33" s="56" t="s">
-        <v>147</v>
-      </c>
-      <c r="D33" s="58" t="s">
-        <v>148</v>
+      <c r="B33" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="D33" s="57" t="s">
+        <v>126</v>
       </c>
       <c r="E33" s="201"/>
     </row>
     <row r="34" spans="1:5" ht="44.45" customHeight="1">
       <c r="A34" s="201"/>
       <c r="B34" t="s">
-        <v>79</v>
-      </c>
-      <c r="C34" s="48" t="s">
-        <v>112</v>
-      </c>
-      <c r="D34" s="18" t="s">
-        <v>114</v>
+        <v>57</v>
+      </c>
+      <c r="C34" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="E34" s="201"/>
     </row>
-    <row r="35" spans="1:5" s="56" customFormat="1" ht="18.75">
+    <row r="35" spans="1:5" s="55" customFormat="1" ht="18.75">
       <c r="A35" s="201"/>
-      <c r="B35" s="55" t="s">
-        <v>86</v>
-      </c>
-      <c r="C35" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="D35" s="57" t="s">
-        <v>115</v>
+      <c r="B35" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" s="56" t="s">
+        <v>93</v>
       </c>
       <c r="E35" s="201"/>
     </row>
     <row r="36" spans="1:5" ht="33" customHeight="1">
       <c r="A36" s="201"/>
-      <c r="B36" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C36" s="50" t="s">
-        <v>128</v>
-      </c>
-      <c r="D36" s="35" t="s">
+      <c r="B36" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" s="34" t="s">
         <v>3</v>
       </c>
       <c r="E36" s="201"/>
@@ -7353,10 +7271,10 @@
     <row r="37" spans="1:5" ht="18.75">
       <c r="A37" s="201"/>
       <c r="B37" s="12"/>
-      <c r="C37" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="D37" s="35" t="s">
+      <c r="C37" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="D37" s="34" t="s">
         <v>3</v>
       </c>
       <c r="E37" s="201"/>
@@ -7364,10 +7282,10 @@
     <row r="38" spans="1:5" ht="18.75">
       <c r="A38" s="201"/>
       <c r="B38" s="12"/>
-      <c r="C38" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="D38" s="35" t="s">
+      <c r="C38" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="D38" s="34" t="s">
         <v>3</v>
       </c>
       <c r="E38" s="201"/>
@@ -7375,10 +7293,10 @@
     <row r="39" spans="1:5" ht="18.75">
       <c r="A39" s="201"/>
       <c r="B39" s="12"/>
-      <c r="C39" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="D39" s="35" t="s">
+      <c r="C39" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="D39" s="34" t="s">
         <v>3</v>
       </c>
       <c r="E39" s="201"/>
@@ -7386,12 +7304,12 @@
     <row r="40" spans="1:5" ht="18.75">
       <c r="A40" s="201"/>
       <c r="B40" s="206" t="s">
-        <v>347</v>
-      </c>
-      <c r="C40" s="40" t="s">
-        <v>131</v>
-      </c>
-      <c r="D40" s="35" t="s">
+        <v>311</v>
+      </c>
+      <c r="C40" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="D40" s="34" t="s">
         <v>3</v>
       </c>
       <c r="E40" s="201"/>
@@ -7399,10 +7317,10 @@
     <row r="41" spans="1:5" ht="18.75">
       <c r="A41" s="201"/>
       <c r="B41" s="206"/>
-      <c r="C41" s="50" t="s">
-        <v>130</v>
-      </c>
-      <c r="D41" s="35" t="s">
+      <c r="C41" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="D41" s="34" t="s">
         <v>3</v>
       </c>
       <c r="E41" s="201"/>
@@ -7410,10 +7328,10 @@
     <row r="42" spans="1:5" ht="18.75">
       <c r="A42" s="201"/>
       <c r="B42" s="206"/>
-      <c r="C42" s="54" t="s">
-        <v>139</v>
-      </c>
-      <c r="D42" s="35" t="s">
+      <c r="C42" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="D42" s="34" t="s">
         <v>3</v>
       </c>
       <c r="E42" s="201"/>
@@ -7421,27 +7339,27 @@
     <row r="43" spans="1:5">
       <c r="A43" s="201"/>
       <c r="B43" s="12"/>
-      <c r="C43" s="28" t="s">
-        <v>134</v>
+      <c r="C43" s="27" t="s">
+        <v>112</v>
       </c>
       <c r="E43" s="201"/>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="201"/>
       <c r="B44" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C44" s="49" t="s">
-        <v>83</v>
-      </c>
-      <c r="E44" s="25"/>
+        <v>54</v>
+      </c>
+      <c r="C44" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="E44" s="24"/>
     </row>
     <row r="45" spans="1:5" ht="40.5">
       <c r="A45" s="201"/>
-      <c r="B45" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="C45" s="41" t="s">
+      <c r="B45" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45" s="40" t="s">
         <v>34</v>
       </c>
       <c r="D45" t="s">
@@ -7453,11 +7371,11 @@
     </row>
     <row r="46" spans="1:5" ht="27">
       <c r="A46" s="201"/>
-      <c r="B46" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="C46" s="41" t="s">
-        <v>113</v>
+      <c r="B46" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" s="40" t="s">
+        <v>91</v>
       </c>
       <c r="D46" t="s">
         <v>2</v>
@@ -7466,11 +7384,11 @@
     </row>
     <row r="47" spans="1:5" ht="54">
       <c r="A47" s="201"/>
-      <c r="B47" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="C47" s="41" t="s">
-        <v>110</v>
+      <c r="B47" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" s="40" t="s">
+        <v>88</v>
       </c>
       <c r="D47" t="s">
         <v>2</v>
@@ -7479,9 +7397,9 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="201"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="41" t="s">
-        <v>111</v>
+      <c r="B48" s="20"/>
+      <c r="C48" s="40" t="s">
+        <v>89</v>
       </c>
       <c r="D48" t="s">
         <v>2</v>
@@ -7490,8 +7408,8 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="201"/>
-      <c r="B49" s="24"/>
-      <c r="C49" s="41" t="s">
+      <c r="B49" s="23"/>
+      <c r="C49" s="40" t="s">
         <v>5</v>
       </c>
       <c r="D49" t="s">
@@ -7501,9 +7419,9 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="201"/>
-      <c r="B50" s="43"/>
-      <c r="C50" s="41" t="s">
-        <v>122</v>
+      <c r="B50" s="42"/>
+      <c r="C50" s="40" t="s">
+        <v>100</v>
       </c>
       <c r="D50" t="s">
         <v>2</v>
@@ -7512,11 +7430,11 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="201"/>
-      <c r="B51" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C51" s="41" t="s">
-        <v>135</v>
+      <c r="B51" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C51" s="40" t="s">
+        <v>113</v>
       </c>
       <c r="D51" t="s">
         <v>2</v>
@@ -7525,9 +7443,9 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="201"/>
-      <c r="B52" s="43"/>
-      <c r="C52" s="41" t="s">
-        <v>123</v>
+      <c r="B52" s="42"/>
+      <c r="C52" s="40" t="s">
+        <v>101</v>
       </c>
       <c r="D52" t="s">
         <v>2</v>
@@ -7536,9 +7454,9 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="201"/>
-      <c r="B53" s="24"/>
-      <c r="C53" s="41" t="s">
-        <v>124</v>
+      <c r="B53" s="23"/>
+      <c r="C53" s="40" t="s">
+        <v>102</v>
       </c>
       <c r="D53" t="s">
         <v>2</v>
@@ -7547,7 +7465,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="201"/>
-      <c r="B54" s="24" t="s">
+      <c r="B54" s="23" t="s">
         <v>42</v>
       </c>
       <c r="C54" t="s">
@@ -7556,7 +7474,7 @@
       <c r="D54" t="s">
         <v>2</v>
       </c>
-      <c r="E54" s="19"/>
+      <c r="E54" s="18"/>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="204" t="s">
@@ -7612,7 +7530,7 @@
         <v>18</v>
       </c>
       <c r="C59" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="D59" t="s">
         <v>8</v>
@@ -7624,9 +7542,9 @@
         <v>19</v>
       </c>
       <c r="C60" t="s">
-        <v>82</v>
-      </c>
-      <c r="D60" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="D60" s="34" t="s">
         <v>3</v>
       </c>
     </row>
@@ -7636,7 +7554,7 @@
       <c r="C61" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D61" s="35" t="s">
+      <c r="D61" s="34" t="s">
         <v>3</v>
       </c>
     </row>
@@ -7645,11 +7563,11 @@
       <c r="B62" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C62" s="42" t="s">
+      <c r="C62" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="D62" s="142" t="s">
-        <v>316</v>
+      <c r="D62" s="141" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="63" spans="1:5" s="4" customFormat="1" ht="18.75" customHeight="1">
@@ -7661,7 +7579,7 @@
         <v>23</v>
       </c>
       <c r="D63" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -7671,7 +7589,7 @@
         <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -7686,20 +7604,20 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>91</v>
-      </c>
-      <c r="B66" s="51" t="s">
-        <v>143</v>
+        <v>69</v>
+      </c>
+      <c r="B66" s="50" t="s">
+        <v>121</v>
       </c>
       <c r="C66" t="s">
-        <v>141</v>
-      </c>
-      <c r="D66" s="53" t="s">
-        <v>142</v>
+        <v>119</v>
+      </c>
+      <c r="D66" s="52" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="B67" s="30"/>
+      <c r="B67" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -7728,961 +7646,961 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.75" style="89" customWidth="1"/>
-    <col min="2" max="2" width="45.125" style="82" customWidth="1"/>
-    <col min="3" max="3" width="49.25" style="82" customWidth="1"/>
-    <col min="4" max="4" width="48.125" style="82" customWidth="1"/>
-    <col min="5" max="5" width="23" style="82" customWidth="1"/>
-    <col min="6" max="6" width="73.5" style="78" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="78"/>
+    <col min="1" max="1" width="12.75" style="88" customWidth="1"/>
+    <col min="2" max="2" width="45.125" style="81" customWidth="1"/>
+    <col min="3" max="3" width="49.25" style="81" customWidth="1"/>
+    <col min="4" max="4" width="48.125" style="81" customWidth="1"/>
+    <col min="5" max="5" width="23" style="81" customWidth="1"/>
+    <col min="6" max="6" width="73.5" style="77" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="77"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="89" customFormat="1" ht="44.25" customHeight="1">
+    <row r="1" spans="1:7" s="88" customFormat="1" ht="44.25" customHeight="1">
       <c r="A1" s="207" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="B1" s="207"/>
       <c r="C1" s="207"/>
       <c r="D1" s="207"/>
       <c r="E1" s="207"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-    </row>
-    <row r="2" spans="1:7" s="83" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A2" s="94" t="s">
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+    </row>
+    <row r="2" spans="1:7" s="82" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A2" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="94" t="s">
+      <c r="B2" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="94" t="s">
+      <c r="C2" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="94" t="s">
-        <v>107</v>
-      </c>
-      <c r="E2" s="95"/>
-    </row>
-    <row r="3" spans="1:7" s="84" customFormat="1" ht="22.9" customHeight="1">
-      <c r="A3" s="98" t="s">
+      <c r="D2" s="93" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="94"/>
+    </row>
+    <row r="3" spans="1:7" s="83" customFormat="1" ht="22.9" customHeight="1">
+      <c r="A3" s="97" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="106" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="96" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" s="96" t="s">
-        <v>101</v>
-      </c>
-      <c r="E3" s="96"/>
-    </row>
-    <row r="4" spans="1:7" s="89" customFormat="1">
+      <c r="B3" s="105" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="95" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="95" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="95"/>
+    </row>
+    <row r="4" spans="1:7" s="88" customFormat="1">
       <c r="A4" s="208" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="96" t="s">
-        <v>212</v>
-      </c>
-      <c r="D4" s="114" t="s">
+      <c r="B4" s="79"/>
+      <c r="C4" s="95" t="s">
+        <v>188</v>
+      </c>
+      <c r="D4" s="113" t="s">
+        <v>191</v>
+      </c>
+      <c r="E4" s="91"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+    </row>
+    <row r="5" spans="1:7" s="88" customFormat="1">
+      <c r="A5" s="208"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="95" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="76" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" s="91"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+    </row>
+    <row r="6" spans="1:7" s="88" customFormat="1">
+      <c r="A6" s="208"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="156" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="76" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" s="91"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+    </row>
+    <row r="7" spans="1:7" s="88" customFormat="1">
+      <c r="A7" s="208"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="95" t="s">
+        <v>189</v>
+      </c>
+      <c r="D7" s="113" t="s">
+        <v>156</v>
+      </c>
+      <c r="E7" s="91"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+    </row>
+    <row r="8" spans="1:7" s="88" customFormat="1">
+      <c r="A8" s="208"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="96" t="s">
+        <v>203</v>
+      </c>
+      <c r="D8" s="112" t="s">
+        <v>192</v>
+      </c>
+      <c r="E8" s="92"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="77"/>
+    </row>
+    <row r="9" spans="1:7" s="88" customFormat="1">
+      <c r="A9" s="75"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="77"/>
+    </row>
+    <row r="10" spans="1:7" s="88" customFormat="1">
+      <c r="A10" s="209" t="s">
+        <v>197</v>
+      </c>
+      <c r="B10" s="105" t="s">
+        <v>193</v>
+      </c>
+      <c r="C10" s="61" t="s">
+        <v>157</v>
+      </c>
+      <c r="D10" s="116" t="s">
+        <v>158</v>
+      </c>
+      <c r="E10" s="92"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="77"/>
+    </row>
+    <row r="11" spans="1:7" s="88" customFormat="1" ht="27">
+      <c r="A11" s="209"/>
+      <c r="B11" s="106" t="s">
+        <v>199</v>
+      </c>
+      <c r="C11" s="128" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="79" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11" s="92"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="77"/>
+    </row>
+    <row r="12" spans="1:7" s="88" customFormat="1">
+      <c r="A12" s="209"/>
+      <c r="B12" s="105" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="59" t="s">
         <v>215</v>
       </c>
-      <c r="E4" s="92"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-    </row>
-    <row r="5" spans="1:7" s="89" customFormat="1">
-      <c r="A5" s="208"/>
-      <c r="B5" s="80"/>
-      <c r="C5" s="96" t="s">
-        <v>138</v>
-      </c>
-      <c r="D5" s="77" t="s">
-        <v>151</v>
-      </c>
-      <c r="E5" s="92"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-    </row>
-    <row r="6" spans="1:7" s="89" customFormat="1">
-      <c r="A6" s="208"/>
-      <c r="B6" s="80"/>
-      <c r="C6" s="157" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="77" t="s">
-        <v>152</v>
-      </c>
-      <c r="E6" s="92"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-    </row>
-    <row r="7" spans="1:7" s="89" customFormat="1">
-      <c r="A7" s="208"/>
-      <c r="B7" s="80"/>
-      <c r="C7" s="96" t="s">
-        <v>213</v>
-      </c>
-      <c r="D7" s="114" t="s">
-        <v>179</v>
-      </c>
-      <c r="E7" s="92"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
-    </row>
-    <row r="8" spans="1:7" s="89" customFormat="1">
-      <c r="A8" s="208"/>
-      <c r="B8" s="60"/>
-      <c r="C8" s="97" t="s">
-        <v>227</v>
-      </c>
-      <c r="D8" s="113" t="s">
-        <v>216</v>
-      </c>
-      <c r="E8" s="93"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="78"/>
-    </row>
-    <row r="9" spans="1:7" s="89" customFormat="1">
-      <c r="A9" s="76"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="97"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="78"/>
-    </row>
-    <row r="10" spans="1:7" s="89" customFormat="1">
-      <c r="A10" s="209" t="s">
+      <c r="D12" s="116" t="s">
+        <v>200</v>
+      </c>
+      <c r="E12" s="92"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="77"/>
+    </row>
+    <row r="13" spans="1:7" s="88" customFormat="1">
+      <c r="A13" s="209"/>
+      <c r="B13" s="107" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="125" t="s">
+        <v>211</v>
+      </c>
+      <c r="D13" s="119" t="s">
         <v>221</v>
       </c>
-      <c r="B10" s="106" t="s">
-        <v>217</v>
-      </c>
-      <c r="C10" s="62" t="s">
-        <v>180</v>
-      </c>
-      <c r="D10" s="117" t="s">
-        <v>181</v>
-      </c>
-      <c r="E10" s="93"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="78"/>
-    </row>
-    <row r="11" spans="1:7" s="89" customFormat="1" ht="27">
-      <c r="A11" s="209"/>
-      <c r="B11" s="107" t="s">
-        <v>223</v>
-      </c>
-      <c r="C11" s="129" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11" s="80" t="s">
-        <v>149</v>
-      </c>
-      <c r="E11" s="93"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="78"/>
-    </row>
-    <row r="12" spans="1:7" s="89" customFormat="1">
-      <c r="A12" s="209"/>
-      <c r="B12" s="106" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" s="60" t="s">
-        <v>239</v>
-      </c>
-      <c r="D12" s="117" t="s">
-        <v>224</v>
-      </c>
-      <c r="E12" s="93"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="78"/>
-    </row>
-    <row r="13" spans="1:7" s="89" customFormat="1">
-      <c r="A13" s="209"/>
-      <c r="B13" s="108" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="126" t="s">
-        <v>235</v>
-      </c>
-      <c r="D13" s="120" t="s">
-        <v>245</v>
-      </c>
-      <c r="E13" s="92"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="78"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="209"/>
-      <c r="B14" s="108"/>
-      <c r="C14" s="127" t="s">
+      <c r="B14" s="107"/>
+      <c r="C14" s="126" t="s">
+        <v>212</v>
+      </c>
+      <c r="D14" s="76" t="s">
+        <v>128</v>
+      </c>
+      <c r="E14" s="91"/>
+    </row>
+    <row r="15" spans="1:7" s="88" customFormat="1">
+      <c r="A15" s="209"/>
+      <c r="B15" s="107"/>
+      <c r="C15" s="125" t="s">
+        <v>132</v>
+      </c>
+      <c r="D15" s="122" t="s">
+        <v>133</v>
+      </c>
+      <c r="E15" s="76"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="77"/>
+    </row>
+    <row r="16" spans="1:7" s="81" customFormat="1" ht="15" customHeight="1">
+      <c r="A16" s="209"/>
+      <c r="B16" s="107" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="62" t="s">
+        <v>228</v>
+      </c>
+      <c r="D16" s="66" t="s">
+        <v>229</v>
+      </c>
+      <c r="E16" s="91"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="88"/>
+    </row>
+    <row r="17" spans="1:7" s="87" customFormat="1">
+      <c r="A17" s="209"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="115"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="81"/>
+    </row>
+    <row r="18" spans="1:7" s="87" customFormat="1">
+      <c r="A18" s="208" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="105"/>
+      <c r="C18" s="98" t="s">
+        <v>195</v>
+      </c>
+      <c r="D18" s="95" t="s">
+        <v>238</v>
+      </c>
+      <c r="E18" s="75"/>
+      <c r="F18" s="81"/>
+    </row>
+    <row r="19" spans="1:7" s="81" customFormat="1">
+      <c r="A19" s="208"/>
+      <c r="B19" s="108" t="s">
+        <v>194</v>
+      </c>
+      <c r="C19" s="98" t="s">
+        <v>225</v>
+      </c>
+      <c r="D19" s="95" t="s">
+        <v>198</v>
+      </c>
+      <c r="E19" s="75"/>
+    </row>
+    <row r="20" spans="1:7" s="87" customFormat="1">
+      <c r="A20" s="208"/>
+      <c r="B20" s="105" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="127" t="s">
         <v>236</v>
       </c>
-      <c r="D14" s="77" t="s">
+      <c r="D20" s="95" t="s">
+        <v>206</v>
+      </c>
+      <c r="E20" s="75"/>
+      <c r="F20" s="81"/>
+    </row>
+    <row r="21" spans="1:7" s="86" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A21" s="208"/>
+      <c r="B21" s="105" t="s">
+        <v>201</v>
+      </c>
+      <c r="C21" s="98" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="95" t="s">
+        <v>207</v>
+      </c>
+      <c r="E21" s="75"/>
+      <c r="F21" s="84"/>
+    </row>
+    <row r="22" spans="1:7" s="85" customFormat="1">
+      <c r="A22" s="208"/>
+      <c r="B22" s="105"/>
+      <c r="C22" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="95" t="s">
+        <v>208</v>
+      </c>
+      <c r="E22" s="75"/>
+      <c r="F22" s="89"/>
+    </row>
+    <row r="23" spans="1:7" s="81" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A23" s="208"/>
+      <c r="B23" s="105" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="95" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="95" t="s">
+        <v>237</v>
+      </c>
+      <c r="E23" s="75"/>
+    </row>
+    <row r="24" spans="1:7" s="81" customFormat="1">
+      <c r="A24" s="208"/>
+      <c r="B24" s="105"/>
+      <c r="C24" s="98" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="95" t="s">
+        <v>210</v>
+      </c>
+      <c r="E24" s="91"/>
+      <c r="F24" s="88"/>
+    </row>
+    <row r="25" spans="1:7" s="88" customFormat="1">
+      <c r="A25" s="208"/>
+      <c r="B25" s="109"/>
+      <c r="C25" s="99" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="95" t="s">
+        <v>209</v>
+      </c>
+      <c r="E25" s="91"/>
+      <c r="F25" s="77"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="120"/>
+      <c r="B26" s="115"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="118"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="81"/>
+    </row>
+    <row r="27" spans="1:7" s="81" customFormat="1">
+      <c r="A27" s="225">
+        <v>43289</v>
+      </c>
+      <c r="B27" s="105" t="s">
+        <v>218</v>
+      </c>
+      <c r="C27" s="95" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" s="95" t="s">
+        <v>234</v>
+      </c>
+      <c r="E27" s="75"/>
+    </row>
+    <row r="28" spans="1:7" s="81" customFormat="1" ht="18.75">
+      <c r="A28" s="225"/>
+      <c r="B28" s="105" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="124" t="s">
+        <v>213</v>
+      </c>
+      <c r="D28" s="100" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="75"/>
+      <c r="F28" s="88"/>
+    </row>
+    <row r="29" spans="1:7" s="88" customFormat="1">
+      <c r="A29" s="225"/>
+      <c r="B29" s="105" t="s">
+        <v>219</v>
+      </c>
+      <c r="C29" s="95" t="s">
+        <v>227</v>
+      </c>
+      <c r="D29" s="95" t="s">
+        <v>216</v>
+      </c>
+      <c r="E29" s="91"/>
+      <c r="F29" s="77"/>
+    </row>
+    <row r="30" spans="1:7" ht="18.75">
+      <c r="A30" s="225"/>
+      <c r="B30" t="s">
+        <v>220</v>
+      </c>
+      <c r="C30" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="95" t="s">
+        <v>217</v>
+      </c>
+      <c r="E30" s="63"/>
+      <c r="F30" s="81"/>
+    </row>
+    <row r="31" spans="1:7" s="90" customFormat="1" ht="18.75">
+      <c r="A31" s="225"/>
+      <c r="B31" s="105" t="s">
+        <v>224</v>
+      </c>
+      <c r="C31" s="102" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" s="100" t="s">
+        <v>160</v>
+      </c>
+      <c r="E31" s="65"/>
+      <c r="F31" s="81"/>
+    </row>
+    <row r="32" spans="1:7" s="81" customFormat="1" ht="18.75">
+      <c r="A32" s="225"/>
+      <c r="B32" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="C32" s="102" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" s="100" t="s">
+        <v>160</v>
+      </c>
+      <c r="E32" s="91"/>
+      <c r="F32" s="88"/>
+    </row>
+    <row r="33" spans="1:6" ht="27">
+      <c r="A33" s="225"/>
+      <c r="B33" s="110"/>
+      <c r="C33" s="95" t="s">
+        <v>232</v>
+      </c>
+      <c r="D33" s="103" t="s">
+        <v>235</v>
+      </c>
+      <c r="E33" s="66"/>
+      <c r="F33" s="60"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="225"/>
+      <c r="B34" s="79"/>
+      <c r="C34" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34" s="76"/>
+      <c r="E34" s="76"/>
+    </row>
+    <row r="35" spans="1:6" ht="40.5">
+      <c r="A35" s="225"/>
+      <c r="B35" s="68" t="s">
+        <v>140</v>
+      </c>
+      <c r="C35" s="123" t="s">
+        <v>204</v>
+      </c>
+      <c r="D35" s="76" t="s">
+        <v>141</v>
+      </c>
+      <c r="E35" s="210" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="20.25" customHeight="1">
+      <c r="A36" s="225"/>
+      <c r="B36" t="s">
+        <v>222</v>
+      </c>
+      <c r="C36" s="123" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" s="119" t="s">
+        <v>223</v>
+      </c>
+      <c r="E36" s="211"/>
+    </row>
+    <row r="37" spans="1:6" ht="54">
+      <c r="A37" s="225"/>
+      <c r="B37" s="121" t="s">
+        <v>226</v>
+      </c>
+      <c r="C37" s="123" t="s">
+        <v>163</v>
+      </c>
+      <c r="D37" s="122" t="s">
+        <v>142</v>
+      </c>
+      <c r="E37" s="211"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="225"/>
+      <c r="B38" s="180" t="s">
+        <v>302</v>
+      </c>
+      <c r="C38" s="123" t="s">
+        <v>205</v>
+      </c>
+      <c r="D38" s="180" t="s">
+        <v>301</v>
+      </c>
+      <c r="E38" s="211"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="225"/>
+      <c r="B39" s="76"/>
+      <c r="C39" s="123" t="s">
+        <v>164</v>
+      </c>
+      <c r="D39" s="180" t="s">
+        <v>303</v>
+      </c>
+      <c r="E39" s="211"/>
+    </row>
+    <row r="40" spans="1:6" ht="27">
+      <c r="A40" s="225"/>
+      <c r="B40" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="C40" s="123" t="s">
+        <v>100</v>
+      </c>
+      <c r="D40" s="122" t="s">
+        <v>187</v>
+      </c>
+      <c r="E40" s="211"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="225"/>
+      <c r="B41" s="76"/>
+      <c r="C41" s="123" t="s">
+        <v>113</v>
+      </c>
+      <c r="D41" s="122" t="s">
+        <v>186</v>
+      </c>
+      <c r="E41" s="211"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="225"/>
+      <c r="B42" s="76" t="s">
+        <v>145</v>
+      </c>
+      <c r="C42" s="123" t="s">
+        <v>101</v>
+      </c>
+      <c r="D42" s="76" t="s">
+        <v>144</v>
+      </c>
+      <c r="E42" s="211"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="225"/>
+      <c r="B43" s="76" t="s">
+        <v>146</v>
+      </c>
+      <c r="C43" s="123" t="s">
+        <v>102</v>
+      </c>
+      <c r="D43" s="76" t="s">
+        <v>166</v>
+      </c>
+      <c r="E43" s="211"/>
+    </row>
+    <row r="44" spans="1:6" ht="18.75">
+      <c r="A44" s="225"/>
+      <c r="B44" s="213" t="s">
+        <v>336</v>
+      </c>
+      <c r="C44" s="144" t="s">
+        <v>178</v>
+      </c>
+      <c r="D44" s="143" t="s">
+        <v>160</v>
+      </c>
+      <c r="E44" s="200"/>
+      <c r="F44" s="154"/>
+    </row>
+    <row r="45" spans="1:6" ht="18.75">
+      <c r="A45" s="225"/>
+      <c r="B45" s="212"/>
+      <c r="C45" s="142" t="s">
+        <v>179</v>
+      </c>
+      <c r="D45" s="143" t="s">
+        <v>160</v>
+      </c>
+      <c r="E45" s="200"/>
+      <c r="F45" s="154"/>
+    </row>
+    <row r="46" spans="1:6" ht="18.75">
+      <c r="A46" s="225"/>
+      <c r="B46" s="212"/>
+      <c r="C46" s="142" t="s">
+        <v>180</v>
+      </c>
+      <c r="D46" s="143" t="s">
+        <v>160</v>
+      </c>
+      <c r="E46" s="200"/>
+      <c r="F46" s="154"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="48" spans="1:6" ht="32.25" customHeight="1">
+      <c r="A48" s="214" t="s">
+        <v>153</v>
+      </c>
+      <c r="B48" s="69" t="s">
+        <v>136</v>
+      </c>
+      <c r="C48" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="D48" s="69" t="s">
+        <v>135</v>
+      </c>
+      <c r="E48" s="76"/>
+      <c r="F48" s="91"/>
+    </row>
+    <row r="49" spans="1:6" ht="38.25" customHeight="1">
+      <c r="A49" s="215"/>
+      <c r="B49" s="70" t="s">
+        <v>167</v>
+      </c>
+      <c r="C49" s="69" t="s">
+        <v>243</v>
+      </c>
+      <c r="D49" s="71" t="s">
+        <v>240</v>
+      </c>
+      <c r="E49" s="72" t="s">
+        <v>137</v>
+      </c>
+      <c r="F49" s="92"/>
+    </row>
+    <row r="50" spans="1:6" ht="38.25" customHeight="1">
+      <c r="A50" s="215"/>
+      <c r="B50" s="130" t="s">
+        <v>241</v>
+      </c>
+      <c r="C50" s="59" t="s">
+        <v>184</v>
+      </c>
+      <c r="D50" s="111" t="s">
+        <v>242</v>
+      </c>
+      <c r="E50" s="132" t="s">
+        <v>137</v>
+      </c>
+      <c r="F50" s="92"/>
+    </row>
+    <row r="51" spans="1:6" ht="22.5" customHeight="1">
+      <c r="A51" s="215"/>
+      <c r="B51" s="211" t="s">
+        <v>233</v>
+      </c>
+      <c r="C51" s="104" t="s">
+        <v>161</v>
+      </c>
+      <c r="D51" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="E51" s="91"/>
+      <c r="F51" s="92"/>
+    </row>
+    <row r="52" spans="1:6" ht="26.25" customHeight="1">
+      <c r="A52" s="215"/>
+      <c r="B52" s="212"/>
+      <c r="C52" s="64" t="s">
+        <v>231</v>
+      </c>
+      <c r="D52" s="63" t="s">
+        <v>160</v>
+      </c>
+      <c r="E52" s="130"/>
+      <c r="F52" s="92"/>
+    </row>
+    <row r="53" spans="1:6" ht="18.75">
+      <c r="A53" s="215"/>
+      <c r="B53" s="78" t="s">
+        <v>139</v>
+      </c>
+      <c r="C53" s="59" t="s">
+        <v>185</v>
+      </c>
+      <c r="D53" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="E53" s="76"/>
+      <c r="F53" s="91"/>
+    </row>
+    <row r="54" spans="1:6" ht="18.75">
+      <c r="A54" s="215"/>
+      <c r="B54" s="79" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54" s="64" t="s">
+        <v>168</v>
+      </c>
+      <c r="D54" s="63" t="s">
+        <v>160</v>
+      </c>
+      <c r="E54" s="76"/>
+      <c r="F54" s="91"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="215"/>
+      <c r="B55" s="79" t="s">
+        <v>169</v>
+      </c>
+      <c r="C55" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="D55" s="76">
+        <v>7001137</v>
+      </c>
+      <c r="E55" s="76"/>
+      <c r="F55" s="91"/>
+    </row>
+    <row r="56" spans="1:6" ht="27">
+      <c r="A56" s="215"/>
+      <c r="B56" s="107" t="s">
+        <v>202</v>
+      </c>
+      <c r="C56" s="115" t="s">
+        <v>196</v>
+      </c>
+      <c r="D56" s="91" t="s">
+        <v>131</v>
+      </c>
+      <c r="E56" s="76"/>
+      <c r="F56" s="91"/>
+    </row>
+    <row r="57" spans="1:6" ht="27">
+      <c r="A57" s="216"/>
+      <c r="B57" s="129" t="s">
+        <v>239</v>
+      </c>
+      <c r="C57" s="145" t="s">
+        <v>284</v>
+      </c>
+      <c r="D57" s="175" t="s">
+        <v>285</v>
+      </c>
+      <c r="E57" s="117"/>
+      <c r="F57" s="91"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="114"/>
+      <c r="B58" s="115"/>
+      <c r="C58" s="66"/>
+      <c r="D58" s="118"/>
+      <c r="E58" s="117"/>
+      <c r="F58" s="91"/>
+    </row>
+    <row r="59" spans="1:6" ht="17.25" customHeight="1">
+      <c r="A59" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="B59" s="76" t="s">
+        <v>121</v>
+      </c>
+      <c r="C59" s="76" t="s">
+        <v>119</v>
+      </c>
+      <c r="D59" s="76" t="s">
+        <v>120</v>
+      </c>
+      <c r="E59" s="76"/>
+      <c r="F59" s="91"/>
+    </row>
+    <row r="60" spans="1:6" ht="17.25" customHeight="1">
+      <c r="A60" s="75"/>
+      <c r="B60" s="76"/>
+      <c r="C60" s="76"/>
+      <c r="D60" s="76"/>
+      <c r="E60" s="76"/>
+      <c r="F60" s="91"/>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="223" t="s">
+        <v>181</v>
+      </c>
+      <c r="B61" s="64" t="s">
+        <v>148</v>
+      </c>
+      <c r="C61" s="73" t="s">
+        <v>170</v>
+      </c>
+      <c r="D61" s="76" t="s">
+        <v>147</v>
+      </c>
+      <c r="E61" s="76"/>
+      <c r="F61" s="91"/>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="224"/>
+      <c r="B62" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62" s="73" t="s">
+        <v>171</v>
+      </c>
+      <c r="D62" s="130" t="s">
         <v>150</v>
       </c>
-      <c r="E14" s="92"/>
-    </row>
-    <row r="15" spans="1:7" s="89" customFormat="1">
-      <c r="A15" s="209"/>
-      <c r="B15" s="108"/>
-      <c r="C15" s="126" t="s">
+      <c r="E62" s="76"/>
+      <c r="F62" s="91"/>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="224"/>
+      <c r="B63" s="73" t="s">
+        <v>171</v>
+      </c>
+      <c r="C63" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="D63" s="80" t="s">
+        <v>152</v>
+      </c>
+      <c r="E63" s="76"/>
+      <c r="F63" s="91"/>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="224"/>
+      <c r="B64" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="C64" s="76" t="s">
+        <v>172</v>
+      </c>
+      <c r="D64" s="76" t="s">
+        <v>151</v>
+      </c>
+      <c r="E64" s="76"/>
+      <c r="F64" s="91"/>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="224"/>
+      <c r="B65" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="D65" s="76" t="s">
+        <v>149</v>
+      </c>
+      <c r="E65" s="76"/>
+      <c r="F65" s="91"/>
+    </row>
+    <row r="66" spans="1:6" ht="18.75">
+      <c r="A66" s="224"/>
+      <c r="B66" s="59" t="s">
         <v>154</v>
       </c>
-      <c r="D15" s="123" t="s">
-        <v>155</v>
-      </c>
-      <c r="E15" s="77"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="78"/>
-    </row>
-    <row r="16" spans="1:7" s="82" customFormat="1" ht="15" customHeight="1">
-      <c r="A16" s="209"/>
-      <c r="B16" s="108" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="63" t="s">
-        <v>252</v>
-      </c>
-      <c r="D16" s="67" t="s">
-        <v>253</v>
-      </c>
-      <c r="E16" s="92"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="89"/>
-    </row>
-    <row r="17" spans="1:7" s="88" customFormat="1">
-      <c r="A17" s="209"/>
-      <c r="B17" s="108"/>
-      <c r="C17" s="116"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="82"/>
-    </row>
-    <row r="18" spans="1:7" s="88" customFormat="1">
-      <c r="A18" s="208" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" s="106"/>
-      <c r="C18" s="99" t="s">
-        <v>219</v>
-      </c>
-      <c r="D18" s="96" t="s">
-        <v>262</v>
-      </c>
-      <c r="E18" s="76"/>
-      <c r="F18" s="82"/>
-    </row>
-    <row r="19" spans="1:7" s="82" customFormat="1">
-      <c r="A19" s="208"/>
-      <c r="B19" s="109" t="s">
-        <v>218</v>
-      </c>
-      <c r="C19" s="99" t="s">
-        <v>249</v>
-      </c>
-      <c r="D19" s="96" t="s">
-        <v>222</v>
-      </c>
-      <c r="E19" s="76"/>
-    </row>
-    <row r="20" spans="1:7" s="88" customFormat="1">
-      <c r="A20" s="208"/>
-      <c r="B20" s="106" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="128" t="s">
-        <v>260</v>
-      </c>
-      <c r="D20" s="96" t="s">
-        <v>230</v>
-      </c>
-      <c r="E20" s="76"/>
-      <c r="F20" s="82"/>
-    </row>
-    <row r="21" spans="1:7" s="87" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A21" s="208"/>
-      <c r="B21" s="106" t="s">
-        <v>225</v>
-      </c>
-      <c r="C21" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" s="96" t="s">
-        <v>231</v>
-      </c>
-      <c r="E21" s="76"/>
-      <c r="F21" s="85"/>
-    </row>
-    <row r="22" spans="1:7" s="86" customFormat="1">
-      <c r="A22" s="208"/>
-      <c r="B22" s="106"/>
-      <c r="C22" s="99" t="s">
-        <v>71</v>
-      </c>
-      <c r="D22" s="96" t="s">
-        <v>232</v>
-      </c>
-      <c r="E22" s="76"/>
-      <c r="F22" s="90"/>
-    </row>
-    <row r="23" spans="1:7" s="82" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A23" s="208"/>
-      <c r="B23" s="106" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="96" t="s">
-        <v>72</v>
-      </c>
-      <c r="D23" s="96" t="s">
-        <v>261</v>
-      </c>
-      <c r="E23" s="76"/>
-    </row>
-    <row r="24" spans="1:7" s="82" customFormat="1">
-      <c r="A24" s="208"/>
-      <c r="B24" s="106"/>
-      <c r="C24" s="99" t="s">
-        <v>73</v>
-      </c>
-      <c r="D24" s="96" t="s">
-        <v>234</v>
-      </c>
-      <c r="E24" s="92"/>
-      <c r="F24" s="89"/>
-    </row>
-    <row r="25" spans="1:7" s="89" customFormat="1">
-      <c r="A25" s="208"/>
-      <c r="B25" s="110"/>
-      <c r="C25" s="100" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" s="96" t="s">
-        <v>233</v>
-      </c>
-      <c r="E25" s="92"/>
-      <c r="F25" s="78"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="121"/>
-      <c r="B26" s="116"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="119"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="82"/>
-    </row>
-    <row r="27" spans="1:7" s="82" customFormat="1">
-      <c r="A27" s="218">
-        <v>43289</v>
-      </c>
-      <c r="B27" s="106" t="s">
-        <v>242</v>
-      </c>
-      <c r="C27" s="96" t="s">
-        <v>125</v>
-      </c>
-      <c r="D27" s="96" t="s">
-        <v>258</v>
-      </c>
-      <c r="E27" s="76"/>
-    </row>
-    <row r="28" spans="1:7" s="82" customFormat="1" ht="18.75">
-      <c r="A28" s="218"/>
-      <c r="B28" s="106" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="125" t="s">
-        <v>237</v>
-      </c>
-      <c r="D28" s="101" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28" s="76"/>
-      <c r="F28" s="89"/>
-    </row>
-    <row r="29" spans="1:7" s="89" customFormat="1">
-      <c r="A29" s="218"/>
-      <c r="B29" s="106" t="s">
-        <v>243</v>
-      </c>
-      <c r="C29" s="96" t="s">
-        <v>251</v>
-      </c>
-      <c r="D29" s="96" t="s">
-        <v>240</v>
-      </c>
-      <c r="E29" s="92"/>
-      <c r="F29" s="78"/>
-    </row>
-    <row r="30" spans="1:7" ht="18.75">
-      <c r="A30" s="218"/>
-      <c r="B30" t="s">
-        <v>244</v>
-      </c>
-      <c r="C30" s="102" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" s="96" t="s">
-        <v>241</v>
-      </c>
-      <c r="E30" s="64"/>
-      <c r="F30" s="82"/>
-    </row>
-    <row r="31" spans="1:7" s="91" customFormat="1" ht="18.75">
-      <c r="A31" s="218"/>
-      <c r="B31" s="106" t="s">
-        <v>248</v>
-      </c>
-      <c r="C31" s="103" t="s">
-        <v>126</v>
-      </c>
-      <c r="D31" s="101" t="s">
-        <v>183</v>
-      </c>
-      <c r="E31" s="66"/>
-      <c r="F31" s="82"/>
-    </row>
-    <row r="32" spans="1:7" s="82" customFormat="1" ht="18.75">
-      <c r="A32" s="218"/>
-      <c r="B32" s="106" t="s">
-        <v>238</v>
-      </c>
-      <c r="C32" s="103" t="s">
-        <v>127</v>
-      </c>
-      <c r="D32" s="101" t="s">
-        <v>183</v>
-      </c>
-      <c r="E32" s="92"/>
-      <c r="F32" s="89"/>
-    </row>
-    <row r="33" spans="1:6" ht="27">
-      <c r="A33" s="218"/>
-      <c r="B33" s="111"/>
-      <c r="C33" s="96" t="s">
-        <v>256</v>
-      </c>
-      <c r="D33" s="104" t="s">
-        <v>259</v>
-      </c>
-      <c r="E33" s="67"/>
-      <c r="F33" s="61"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="218"/>
-      <c r="B34" s="80"/>
-      <c r="C34" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="D34" s="77"/>
-      <c r="E34" s="77"/>
-    </row>
-    <row r="35" spans="1:6" ht="40.5">
-      <c r="A35" s="218"/>
-      <c r="B35" s="69" t="s">
-        <v>162</v>
-      </c>
-      <c r="C35" s="124" t="s">
-        <v>228</v>
-      </c>
-      <c r="D35" s="77" t="s">
-        <v>163</v>
-      </c>
-      <c r="E35" s="210" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A36" s="218"/>
-      <c r="B36" t="s">
-        <v>246</v>
-      </c>
-      <c r="C36" s="124" t="s">
-        <v>113</v>
-      </c>
-      <c r="D36" s="120" t="s">
-        <v>247</v>
-      </c>
-      <c r="E36" s="211"/>
-    </row>
-    <row r="37" spans="1:6" ht="54">
-      <c r="A37" s="218"/>
-      <c r="B37" s="122" t="s">
-        <v>250</v>
-      </c>
-      <c r="C37" s="124" t="s">
-        <v>186</v>
-      </c>
-      <c r="D37" s="123" t="s">
-        <v>164</v>
-      </c>
-      <c r="E37" s="211"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="218"/>
-      <c r="B38" s="182" t="s">
-        <v>334</v>
-      </c>
-      <c r="C38" s="124" t="s">
-        <v>229</v>
-      </c>
-      <c r="D38" s="182" t="s">
-        <v>333</v>
-      </c>
-      <c r="E38" s="211"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="218"/>
-      <c r="B39" s="77"/>
-      <c r="C39" s="124" t="s">
-        <v>187</v>
-      </c>
-      <c r="D39" s="182" t="s">
-        <v>335</v>
-      </c>
-      <c r="E39" s="211"/>
-    </row>
-    <row r="40" spans="1:6" ht="27">
-      <c r="A40" s="218"/>
-      <c r="B40" s="18" t="s">
-        <v>254</v>
-      </c>
-      <c r="C40" s="124" t="s">
-        <v>122</v>
-      </c>
-      <c r="D40" s="123" t="s">
-        <v>211</v>
-      </c>
-      <c r="E40" s="211"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="218"/>
-      <c r="B41" s="77"/>
-      <c r="C41" s="124" t="s">
-        <v>135</v>
-      </c>
-      <c r="D41" s="123" t="s">
-        <v>210</v>
-      </c>
-      <c r="E41" s="211"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="218"/>
-      <c r="B42" s="77" t="s">
-        <v>167</v>
-      </c>
-      <c r="C42" s="124" t="s">
-        <v>123</v>
-      </c>
-      <c r="D42" s="77" t="s">
-        <v>166</v>
-      </c>
-      <c r="E42" s="211"/>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="219"/>
-      <c r="B43" s="77" t="s">
-        <v>168</v>
-      </c>
-      <c r="C43" s="124" t="s">
-        <v>124</v>
-      </c>
-      <c r="D43" s="77" t="s">
-        <v>189</v>
-      </c>
-      <c r="E43" s="211"/>
-    </row>
-    <row r="44" spans="1:6" ht="14.25" customHeight="1"/>
-    <row r="45" spans="1:6" ht="32.25" customHeight="1">
-      <c r="A45" s="215" t="s">
+      <c r="C66" s="76" t="s">
+        <v>173</v>
+      </c>
+      <c r="D66" s="63" t="s">
+        <v>160</v>
+      </c>
+      <c r="E66" s="76"/>
+      <c r="F66" s="91"/>
+    </row>
+    <row r="67" spans="1:6" ht="18.75">
+      <c r="A67" s="224"/>
+      <c r="B67" s="64"/>
+      <c r="C67" s="73" t="s">
+        <v>174</v>
+      </c>
+      <c r="D67" s="63" t="s">
+        <v>160</v>
+      </c>
+      <c r="E67" s="76"/>
+      <c r="F67" s="91"/>
+    </row>
+    <row r="68" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A68" s="224"/>
+      <c r="B68" s="73" t="s">
+        <v>174</v>
+      </c>
+      <c r="C68" s="74" t="s">
         <v>175</v>
       </c>
-      <c r="B45" s="70" t="s">
-        <v>158</v>
-      </c>
-      <c r="C45" s="70" t="s">
-        <v>156</v>
-      </c>
-      <c r="D45" s="70" t="s">
-        <v>157</v>
-      </c>
-      <c r="E45" s="77"/>
-      <c r="F45" s="92"/>
-    </row>
-    <row r="46" spans="1:6" ht="38.25" customHeight="1">
-      <c r="A46" s="216"/>
-      <c r="B46" s="71" t="s">
-        <v>190</v>
-      </c>
-      <c r="C46" s="70" t="s">
-        <v>267</v>
-      </c>
-      <c r="D46" s="72" t="s">
-        <v>264</v>
-      </c>
-      <c r="E46" s="73" t="s">
-        <v>159</v>
-      </c>
-      <c r="F46" s="93"/>
-    </row>
-    <row r="47" spans="1:6" ht="38.25" customHeight="1">
-      <c r="A47" s="216"/>
-      <c r="B47" s="131" t="s">
-        <v>265</v>
-      </c>
-      <c r="C47" s="60" t="s">
-        <v>208</v>
-      </c>
-      <c r="D47" s="112" t="s">
-        <v>266</v>
-      </c>
-      <c r="E47" s="133" t="s">
-        <v>159</v>
-      </c>
-      <c r="F47" s="93"/>
-    </row>
-    <row r="48" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A48" s="216"/>
-      <c r="B48" s="211" t="s">
-        <v>257</v>
-      </c>
-      <c r="C48" s="105" t="s">
-        <v>184</v>
-      </c>
-      <c r="D48" s="64" t="s">
-        <v>207</v>
-      </c>
-      <c r="E48" s="92"/>
-      <c r="F48" s="93"/>
-    </row>
-    <row r="49" spans="1:6" ht="26.25" customHeight="1">
-      <c r="A49" s="216"/>
-      <c r="B49" s="212"/>
-      <c r="C49" s="65" t="s">
-        <v>255</v>
-      </c>
-      <c r="D49" s="64" t="s">
-        <v>183</v>
-      </c>
-      <c r="E49" s="131"/>
-      <c r="F49" s="93"/>
-    </row>
-    <row r="50" spans="1:6" ht="18.75">
-      <c r="A50" s="216"/>
-      <c r="B50" s="79" t="s">
-        <v>161</v>
-      </c>
-      <c r="C50" s="60" t="s">
-        <v>209</v>
-      </c>
-      <c r="D50" s="64" t="s">
-        <v>160</v>
-      </c>
-      <c r="E50" s="77"/>
-      <c r="F50" s="92"/>
-    </row>
-    <row r="51" spans="1:6" ht="18.75">
-      <c r="A51" s="216"/>
-      <c r="B51" s="80" t="s">
-        <v>88</v>
-      </c>
-      <c r="C51" s="65" t="s">
-        <v>191</v>
-      </c>
-      <c r="D51" s="64" t="s">
-        <v>183</v>
-      </c>
-      <c r="E51" s="77"/>
-      <c r="F51" s="92"/>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="216"/>
-      <c r="B52" s="80" t="s">
-        <v>192</v>
-      </c>
-      <c r="C52" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="D52" s="77">
-        <v>7001137</v>
-      </c>
-      <c r="E52" s="77"/>
-      <c r="F52" s="92"/>
-    </row>
-    <row r="53" spans="1:6" ht="27">
-      <c r="A53" s="216"/>
-      <c r="B53" s="108" t="s">
-        <v>226</v>
-      </c>
-      <c r="C53" s="116" t="s">
-        <v>220</v>
-      </c>
-      <c r="D53" s="92" t="s">
-        <v>153</v>
-      </c>
-      <c r="E53" s="77"/>
-      <c r="F53" s="92"/>
-    </row>
-    <row r="54" spans="1:6" ht="27">
-      <c r="A54" s="217"/>
-      <c r="B54" s="130" t="s">
-        <v>263</v>
-      </c>
-      <c r="C54" s="146" t="s">
-        <v>313</v>
-      </c>
-      <c r="D54" s="176" t="s">
-        <v>314</v>
-      </c>
-      <c r="E54" s="118"/>
-      <c r="F54" s="92"/>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="115"/>
-      <c r="B55" s="116"/>
-      <c r="C55" s="67"/>
-      <c r="D55" s="119"/>
-      <c r="E55" s="118"/>
-      <c r="F55" s="92"/>
-    </row>
-    <row r="56" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A56" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="B56" s="77" t="s">
-        <v>143</v>
-      </c>
-      <c r="C56" s="77" t="s">
-        <v>141</v>
-      </c>
-      <c r="D56" s="77" t="s">
-        <v>142</v>
-      </c>
-      <c r="E56" s="77"/>
-      <c r="F56" s="92"/>
-    </row>
-    <row r="57" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A57" s="76"/>
-      <c r="B57" s="77"/>
-      <c r="C57" s="77"/>
-      <c r="D57" s="77"/>
-      <c r="E57" s="77"/>
-      <c r="F57" s="92"/>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="214" t="s">
-        <v>205</v>
-      </c>
-      <c r="B58" s="65" t="s">
-        <v>170</v>
-      </c>
-      <c r="C58" s="74" t="s">
-        <v>193</v>
-      </c>
-      <c r="D58" s="77" t="s">
-        <v>169</v>
-      </c>
-      <c r="E58" s="77"/>
-      <c r="F58" s="92"/>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="214"/>
-      <c r="B59" s="74" t="s">
-        <v>17</v>
-      </c>
-      <c r="C59" s="74" t="s">
-        <v>194</v>
-      </c>
-      <c r="D59" s="131" t="s">
-        <v>172</v>
-      </c>
-      <c r="E59" s="77"/>
-      <c r="F59" s="92"/>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="214"/>
-      <c r="B60" s="74" t="s">
-        <v>194</v>
-      </c>
-      <c r="C60" s="74" t="s">
-        <v>36</v>
-      </c>
-      <c r="D60" s="81" t="s">
-        <v>174</v>
-      </c>
-      <c r="E60" s="77"/>
-      <c r="F60" s="92"/>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="214"/>
-      <c r="B61" s="74" t="s">
-        <v>17</v>
-      </c>
-      <c r="C61" s="77" t="s">
-        <v>195</v>
-      </c>
-      <c r="D61" s="77" t="s">
-        <v>173</v>
-      </c>
-      <c r="E61" s="77"/>
-      <c r="F61" s="92"/>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="214"/>
-      <c r="B62" s="65" t="s">
-        <v>18</v>
-      </c>
-      <c r="C62" s="77" t="s">
-        <v>81</v>
-      </c>
-      <c r="D62" s="77" t="s">
-        <v>171</v>
-      </c>
-      <c r="E62" s="77"/>
-      <c r="F62" s="92"/>
-    </row>
-    <row r="63" spans="1:6" ht="18.75">
-      <c r="A63" s="214"/>
-      <c r="B63" s="60" t="s">
+      <c r="D68" s="195" t="s">
+        <v>327</v>
+      </c>
+      <c r="E68" s="76"/>
+      <c r="F68" s="221" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="14.25">
+      <c r="A69" s="224"/>
+      <c r="B69" s="73" t="s">
+        <v>175</v>
+      </c>
+      <c r="C69" s="74" t="s">
+        <v>289</v>
+      </c>
+      <c r="D69" s="174" t="s">
+        <v>286</v>
+      </c>
+      <c r="E69" s="76"/>
+      <c r="F69" s="222"/>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="224"/>
+      <c r="B70" s="64"/>
+      <c r="C70" s="79" t="s">
         <v>176</v>
       </c>
-      <c r="C63" s="77" t="s">
-        <v>196</v>
-      </c>
-      <c r="D63" s="64" t="s">
-        <v>183</v>
-      </c>
-      <c r="E63" s="77"/>
-      <c r="F63" s="92"/>
-    </row>
-    <row r="64" spans="1:6" ht="18.75">
-      <c r="A64" s="214"/>
-      <c r="B64" s="65"/>
-      <c r="C64" s="74" t="s">
-        <v>197</v>
-      </c>
-      <c r="D64" s="64" t="s">
-        <v>183</v>
-      </c>
-      <c r="E64" s="77"/>
-      <c r="F64" s="92"/>
-    </row>
-    <row r="65" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A65" s="214"/>
-      <c r="B65" s="74" t="s">
-        <v>197</v>
-      </c>
-      <c r="C65" s="75" t="s">
-        <v>198</v>
-      </c>
-      <c r="D65" s="198" t="s">
-        <v>363</v>
-      </c>
-      <c r="E65" s="77"/>
-      <c r="F65" s="210" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="14.25">
-      <c r="A66" s="214"/>
-      <c r="B66" s="74" t="s">
-        <v>198</v>
-      </c>
-      <c r="C66" s="75" t="s">
-        <v>318</v>
-      </c>
-      <c r="D66" s="175" t="s">
-        <v>315</v>
-      </c>
-      <c r="E66" s="77"/>
-      <c r="F66" s="210"/>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="214"/>
-      <c r="B67" s="65"/>
-      <c r="C67" s="80" t="s">
-        <v>199</v>
-      </c>
-      <c r="D67" s="175" t="s">
-        <v>317</v>
-      </c>
-      <c r="E67" s="77"/>
-      <c r="F67" s="92"/>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="214"/>
-      <c r="B68" s="65"/>
-      <c r="C68" s="80" t="s">
-        <v>200</v>
-      </c>
-      <c r="D68" s="77" t="s">
+      <c r="D70" s="174" t="s">
+        <v>288</v>
+      </c>
+      <c r="E70" s="76"/>
+      <c r="F70" s="91"/>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="224"/>
+      <c r="B71" s="64"/>
+      <c r="C71" s="79" t="s">
+        <v>177</v>
+      </c>
+      <c r="D71" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="E68" s="77"/>
-      <c r="F68" s="92"/>
-    </row>
-    <row r="69" spans="1:6" ht="18.75">
-      <c r="A69" s="214"/>
-      <c r="B69" s="213" t="s">
-        <v>201</v>
-      </c>
-      <c r="C69" s="65" t="s">
-        <v>202</v>
-      </c>
-      <c r="D69" s="64" t="s">
-        <v>183</v>
-      </c>
-      <c r="E69" s="77"/>
-      <c r="F69" s="92"/>
-    </row>
-    <row r="70" spans="1:6" ht="18.75">
-      <c r="A70" s="214"/>
-      <c r="B70" s="212"/>
-      <c r="C70" s="60" t="s">
-        <v>203</v>
-      </c>
-      <c r="D70" s="64" t="s">
-        <v>183</v>
-      </c>
-      <c r="E70" s="77"/>
-      <c r="F70" s="92"/>
-    </row>
-    <row r="71" spans="1:6" ht="18.75">
-      <c r="A71" s="214"/>
-      <c r="B71" s="212"/>
-      <c r="C71" s="60" t="s">
-        <v>204</v>
-      </c>
-      <c r="D71" s="64" t="s">
-        <v>183</v>
-      </c>
-      <c r="E71" s="77"/>
-      <c r="F71" s="92"/>
+      <c r="E71" s="76"/>
+      <c r="F71" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="A27:A46"/>
     <mergeCell ref="E35:E43"/>
-    <mergeCell ref="A58:A71"/>
-    <mergeCell ref="A45:A54"/>
-    <mergeCell ref="A27:A43"/>
+    <mergeCell ref="A61:A71"/>
+    <mergeCell ref="A48:A57"/>
+    <mergeCell ref="B44:B46"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="A18:A25"/>
     <mergeCell ref="A10:A17"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B51:B52"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8693,1684 +8611,1161 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G96"/>
+  <dimension ref="A1:G95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="15.25" style="89" customWidth="1"/>
-    <col min="2" max="2" width="48.125" style="154" customWidth="1"/>
-    <col min="3" max="3" width="53.375" style="82" customWidth="1"/>
-    <col min="4" max="4" width="38.625" style="82" customWidth="1"/>
-    <col min="5" max="5" width="61.25" style="82" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="73.5" style="78" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="78"/>
+    <col min="1" max="1" width="15.25" style="88" customWidth="1"/>
+    <col min="2" max="2" width="48.125" style="153" customWidth="1"/>
+    <col min="3" max="3" width="53.375" style="81" customWidth="1"/>
+    <col min="4" max="4" width="38.625" style="81" customWidth="1"/>
+    <col min="5" max="5" width="61.25" style="81" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="73.5" style="77" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="77"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="89" customFormat="1" ht="20.25">
+    <row r="1" spans="1:7" s="88" customFormat="1" ht="20.25">
       <c r="A1" s="207" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="B1" s="207"/>
       <c r="C1" s="207"/>
       <c r="D1" s="207"/>
       <c r="E1" s="207"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-    </row>
-    <row r="2" spans="1:7" s="83" customFormat="1">
-      <c r="A2" s="94" t="s">
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+    </row>
+    <row r="2" spans="1:7" s="82" customFormat="1">
+      <c r="A2" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="156" t="s">
+      <c r="B2" s="155" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="94" t="s">
-        <v>290</v>
-      </c>
-      <c r="D2" s="156" t="s">
-        <v>300</v>
-      </c>
-      <c r="E2" s="156" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="84" customFormat="1">
-      <c r="A3" s="98" t="s">
+      <c r="C2" s="93" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2" s="155" t="s">
+        <v>271</v>
+      </c>
+      <c r="E2" s="155" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="83" customFormat="1">
+      <c r="A3" s="97" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="160" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="96" t="s">
-        <v>291</v>
-      </c>
-      <c r="D3" s="157" t="s">
-        <v>301</v>
-      </c>
-      <c r="E3" s="96"/>
-    </row>
-    <row r="4" spans="1:7" s="89" customFormat="1">
+      <c r="B3" s="159" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="156" t="s">
+        <v>344</v>
+      </c>
+      <c r="D3" s="156" t="s">
+        <v>272</v>
+      </c>
+      <c r="E3" s="95"/>
+    </row>
+    <row r="4" spans="1:7" s="88" customFormat="1">
       <c r="A4" s="208" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="152"/>
-      <c r="C4" s="96" t="s">
-        <v>95</v>
-      </c>
-      <c r="D4" s="150" t="s">
-        <v>302</v>
-      </c>
-      <c r="E4" s="92"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-    </row>
-    <row r="5" spans="1:7" s="89" customFormat="1">
+      <c r="B4" s="151"/>
+      <c r="C4" s="95" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="149" t="s">
+        <v>273</v>
+      </c>
+      <c r="E4" s="91"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+    </row>
+    <row r="5" spans="1:7" s="88" customFormat="1">
       <c r="A5" s="208"/>
-      <c r="B5" s="152"/>
-      <c r="C5" s="157" t="s">
-        <v>304</v>
-      </c>
-      <c r="D5" s="131" t="s">
-        <v>151</v>
-      </c>
-      <c r="E5" s="155" t="s">
-        <v>305</v>
-      </c>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-    </row>
-    <row r="6" spans="1:7" s="89" customFormat="1">
+      <c r="B5" s="151"/>
+      <c r="C5" s="156" t="s">
+        <v>275</v>
+      </c>
+      <c r="D5" s="130" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" s="154" t="s">
+        <v>276</v>
+      </c>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+    </row>
+    <row r="6" spans="1:7" s="88" customFormat="1">
       <c r="A6" s="208"/>
-      <c r="B6" s="152"/>
-      <c r="C6" s="96" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="131" t="s">
-        <v>152</v>
-      </c>
-      <c r="E6" s="92"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-    </row>
-    <row r="7" spans="1:7" s="89" customFormat="1">
+      <c r="B6" s="151"/>
+      <c r="C6" s="95" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="130" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" s="91"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+    </row>
+    <row r="7" spans="1:7" s="88" customFormat="1">
       <c r="A7" s="208"/>
-      <c r="B7" s="152"/>
-      <c r="C7" s="157" t="s">
-        <v>299</v>
-      </c>
-      <c r="D7" s="131" t="s">
-        <v>179</v>
-      </c>
-      <c r="E7" s="92"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
-    </row>
-    <row r="8" spans="1:7" s="89" customFormat="1">
+      <c r="B7" s="151"/>
+      <c r="C7" s="156" t="s">
+        <v>270</v>
+      </c>
+      <c r="D7" s="130" t="s">
+        <v>156</v>
+      </c>
+      <c r="E7" s="91"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+    </row>
+    <row r="8" spans="1:7" s="88" customFormat="1">
       <c r="A8" s="208"/>
-      <c r="B8" s="143"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="78"/>
-    </row>
-    <row r="9" spans="1:7" s="89" customFormat="1">
-      <c r="A9" s="133"/>
-      <c r="B9" s="143"/>
-      <c r="C9" s="97"/>
-      <c r="D9" s="129"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="78"/>
-    </row>
-    <row r="10" spans="1:7" s="89" customFormat="1">
+      <c r="B8" s="142"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="77"/>
+    </row>
+    <row r="9" spans="1:7" s="88" customFormat="1">
+      <c r="A9" s="132"/>
+      <c r="B9" s="142"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="128"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="77"/>
+    </row>
+    <row r="10" spans="1:7" s="88" customFormat="1">
       <c r="A10" s="209" t="s">
-        <v>325</v>
-      </c>
-      <c r="B10" s="160" t="s">
-        <v>99</v>
-      </c>
-      <c r="C10" s="62" t="s">
-        <v>180</v>
-      </c>
-      <c r="D10" s="129" t="s">
-        <v>181</v>
-      </c>
-      <c r="E10" s="93"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="78"/>
-    </row>
-    <row r="11" spans="1:7" s="89" customFormat="1" ht="27">
+        <v>293</v>
+      </c>
+      <c r="B10" s="159" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="61" t="s">
+        <v>157</v>
+      </c>
+      <c r="D10" s="128" t="s">
+        <v>158</v>
+      </c>
+      <c r="E10" s="92"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="77"/>
+    </row>
+    <row r="11" spans="1:7" s="88" customFormat="1" ht="27">
       <c r="A11" s="209"/>
-      <c r="B11" s="161" t="s">
-        <v>223</v>
-      </c>
-      <c r="C11" s="152" t="s">
-        <v>306</v>
-      </c>
-      <c r="D11" s="129" t="s">
-        <v>149</v>
-      </c>
-      <c r="E11" s="93"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="78"/>
-    </row>
-    <row r="12" spans="1:7" s="89" customFormat="1">
+      <c r="B11" s="160" t="s">
+        <v>199</v>
+      </c>
+      <c r="C11" s="151" t="s">
+        <v>277</v>
+      </c>
+      <c r="D11" s="128" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11" s="92"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="77"/>
+    </row>
+    <row r="12" spans="1:7" s="88" customFormat="1">
       <c r="A12" s="209"/>
-      <c r="B12" s="160" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" s="143" t="s">
-        <v>365</v>
-      </c>
-      <c r="D12" s="178" t="s">
-        <v>319</v>
-      </c>
-      <c r="E12" s="172" t="s">
-        <v>320</v>
-      </c>
-      <c r="F12" s="61"/>
-      <c r="G12" s="78"/>
-    </row>
-    <row r="13" spans="1:7" s="89" customFormat="1">
+      <c r="B12" s="159" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="142" t="s">
+        <v>329</v>
+      </c>
+      <c r="D12" s="177" t="s">
+        <v>290</v>
+      </c>
+      <c r="E12" s="171" t="s">
+        <v>291</v>
+      </c>
+      <c r="F12" s="60"/>
+      <c r="G12" s="77"/>
+    </row>
+    <row r="13" spans="1:7" s="88" customFormat="1">
       <c r="A13" s="209"/>
-      <c r="B13" s="162" t="s">
+      <c r="B13" s="161" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="126" t="s">
-        <v>235</v>
-      </c>
-      <c r="D13" s="177" t="s">
-        <v>245</v>
-      </c>
-      <c r="E13" s="159"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="78"/>
+      <c r="C13" s="125" t="s">
+        <v>211</v>
+      </c>
+      <c r="D13" s="176" t="s">
+        <v>221</v>
+      </c>
+      <c r="E13" s="158"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="209"/>
-      <c r="B14" s="162"/>
-      <c r="C14" s="166" t="s">
-        <v>303</v>
-      </c>
-      <c r="D14" s="131" t="s">
-        <v>150</v>
-      </c>
-      <c r="E14" s="92"/>
-    </row>
-    <row r="15" spans="1:7" s="89" customFormat="1">
+      <c r="B14" s="161"/>
+      <c r="C14" s="165" t="s">
+        <v>274</v>
+      </c>
+      <c r="D14" s="130" t="s">
+        <v>128</v>
+      </c>
+      <c r="E14" s="91"/>
+    </row>
+    <row r="15" spans="1:7" s="88" customFormat="1">
       <c r="A15" s="209"/>
-      <c r="B15" s="162"/>
-      <c r="C15" s="126" t="s">
-        <v>154</v>
-      </c>
-      <c r="D15" s="131" t="s">
-        <v>155</v>
-      </c>
-      <c r="E15" s="131"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="78"/>
-    </row>
-    <row r="16" spans="1:7" s="82" customFormat="1">
+      <c r="B15" s="161"/>
+      <c r="C15" s="125" t="s">
+        <v>132</v>
+      </c>
+      <c r="D15" s="130" t="s">
+        <v>133</v>
+      </c>
+      <c r="E15" s="130"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="77"/>
+    </row>
+    <row r="16" spans="1:7" s="81" customFormat="1">
       <c r="A16" s="209"/>
-      <c r="B16" s="162" t="s">
+      <c r="B16" s="161" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="63" t="s">
-        <v>252</v>
-      </c>
-      <c r="D16" s="67" t="s">
+      <c r="C16" s="62" t="s">
+        <v>228</v>
+      </c>
+      <c r="D16" s="66" t="s">
+        <v>256</v>
+      </c>
+      <c r="E16" s="91"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="88"/>
+    </row>
+    <row r="17" spans="1:7" s="87" customFormat="1">
+      <c r="A17" s="209"/>
+      <c r="B17" s="161"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="81"/>
+    </row>
+    <row r="18" spans="1:7" s="87" customFormat="1">
+      <c r="A18" s="208" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="159"/>
+      <c r="C18" s="98" t="s">
+        <v>194</v>
+      </c>
+      <c r="D18" s="95" t="s">
+        <v>238</v>
+      </c>
+      <c r="E18" s="132"/>
+      <c r="F18" s="81"/>
+    </row>
+    <row r="19" spans="1:7" s="81" customFormat="1">
+      <c r="A19" s="208"/>
+      <c r="B19" s="162" t="s">
+        <v>194</v>
+      </c>
+      <c r="C19" s="98" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="95" t="s">
+        <v>198</v>
+      </c>
+      <c r="E19" s="132"/>
+    </row>
+    <row r="20" spans="1:7" s="86" customFormat="1">
+      <c r="A20" s="208"/>
+      <c r="B20" s="167" t="s">
+        <v>194</v>
+      </c>
+      <c r="C20" s="98" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="95" t="s">
+        <v>207</v>
+      </c>
+      <c r="E20" s="132"/>
+      <c r="F20" s="84"/>
+    </row>
+    <row r="21" spans="1:7" s="85" customFormat="1">
+      <c r="A21" s="208"/>
+      <c r="B21" s="159"/>
+      <c r="C21" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="95" t="s">
+        <v>208</v>
+      </c>
+      <c r="E21" s="132"/>
+      <c r="F21" s="89"/>
+    </row>
+    <row r="22" spans="1:7" s="81" customFormat="1">
+      <c r="A22" s="208"/>
+      <c r="B22" s="159" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="95" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="95" t="s">
+        <v>237</v>
+      </c>
+      <c r="E22" s="132"/>
+    </row>
+    <row r="23" spans="1:7" s="81" customFormat="1">
+      <c r="A23" s="208"/>
+      <c r="B23" s="159"/>
+      <c r="C23" s="98" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="95" t="s">
+        <v>210</v>
+      </c>
+      <c r="E23" s="91"/>
+      <c r="F23" s="88"/>
+    </row>
+    <row r="24" spans="1:7" s="88" customFormat="1">
+      <c r="A24" s="208"/>
+      <c r="B24" s="163"/>
+      <c r="C24" s="99" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="95" t="s">
+        <v>209</v>
+      </c>
+      <c r="E24" s="91"/>
+      <c r="F24" s="77"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="120"/>
+      <c r="B25" s="152"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="131"/>
+      <c r="E25" s="130"/>
+      <c r="F25" s="81"/>
+    </row>
+    <row r="26" spans="1:7" ht="27">
+      <c r="A26" s="199"/>
+      <c r="B26" s="197" t="s">
+        <v>331</v>
+      </c>
+      <c r="C26" s="145" t="s">
+        <v>330</v>
+      </c>
+      <c r="D26" s="144">
+        <v>3003059</v>
+      </c>
+      <c r="E26" s="196"/>
+      <c r="F26" s="153"/>
+    </row>
+    <row r="27" spans="1:7" s="81" customFormat="1">
+      <c r="A27" s="225" t="s">
+        <v>294</v>
+      </c>
+      <c r="B27" s="159" t="s">
+        <v>218</v>
+      </c>
+      <c r="C27" s="156" t="s">
+        <v>304</v>
+      </c>
+      <c r="D27" s="156" t="s">
+        <v>305</v>
+      </c>
+      <c r="E27" s="132"/>
+    </row>
+    <row r="28" spans="1:7" s="81" customFormat="1" ht="14.25">
+      <c r="A28" s="225"/>
+      <c r="B28" s="159" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="140" t="s">
+        <v>266</v>
+      </c>
+      <c r="D28" s="139">
+        <v>3003217</v>
+      </c>
+      <c r="E28" s="132"/>
+      <c r="F28" s="88"/>
+    </row>
+    <row r="29" spans="1:7" s="88" customFormat="1">
+      <c r="A29" s="225"/>
+      <c r="B29" s="159" t="s">
+        <v>219</v>
+      </c>
+      <c r="C29" s="95" t="s">
+        <v>244</v>
+      </c>
+      <c r="D29" s="95" t="s">
+        <v>216</v>
+      </c>
+      <c r="E29" s="91"/>
+      <c r="F29" s="77"/>
+    </row>
+    <row r="30" spans="1:7" ht="27">
+      <c r="A30" s="225"/>
+      <c r="B30" s="182" t="s">
+        <v>306</v>
+      </c>
+      <c r="C30" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="95" t="s">
+        <v>217</v>
+      </c>
+      <c r="E30" s="63"/>
+      <c r="F30" s="81"/>
+    </row>
+    <row r="31" spans="1:7" s="90" customFormat="1" ht="18.75">
+      <c r="A31" s="225"/>
+      <c r="B31" s="137" t="s">
+        <v>264</v>
+      </c>
+      <c r="C31" s="124" t="s">
+        <v>265</v>
+      </c>
+      <c r="D31" s="168">
+        <v>3003227</v>
+      </c>
+      <c r="E31" s="172" t="s">
+        <v>278</v>
+      </c>
+      <c r="F31" s="81"/>
+    </row>
+    <row r="32" spans="1:7" s="81" customFormat="1" ht="18.75">
+      <c r="A32" s="225"/>
+      <c r="B32" s="138" t="s">
+        <v>214</v>
+      </c>
+      <c r="C32" s="140" t="s">
+        <v>265</v>
+      </c>
+      <c r="D32" s="168">
+        <v>3003224</v>
+      </c>
+      <c r="E32" s="173" t="s">
+        <v>278</v>
+      </c>
+      <c r="F32" s="88"/>
+    </row>
+    <row r="33" spans="1:6" s="153" customFormat="1">
+      <c r="A33" s="225"/>
+      <c r="B33" s="138"/>
+      <c r="C33" s="157" t="s">
+        <v>296</v>
+      </c>
+      <c r="D33" s="128" t="s">
+        <v>192</v>
+      </c>
+      <c r="E33" s="173"/>
+      <c r="F33" s="88"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="225"/>
+      <c r="B34" s="151"/>
+      <c r="C34" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34" s="130"/>
+      <c r="E34" s="130"/>
+    </row>
+    <row r="35" spans="1:6" ht="40.5">
+      <c r="A35" s="225"/>
+      <c r="B35" s="146" t="s">
+        <v>298</v>
+      </c>
+      <c r="C35" s="123" t="s">
+        <v>297</v>
+      </c>
+      <c r="D35" s="130" t="s">
+        <v>141</v>
+      </c>
+      <c r="E35" s="210" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="27">
+      <c r="A36" s="225"/>
+      <c r="B36" s="182" t="s">
+        <v>299</v>
+      </c>
+      <c r="C36" s="123" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" s="180" t="s">
+        <v>300</v>
+      </c>
+      <c r="E36" s="211"/>
+    </row>
+    <row r="37" spans="1:6" ht="54">
+      <c r="A37" s="225"/>
+      <c r="B37" s="152" t="s">
+        <v>267</v>
+      </c>
+      <c r="C37" s="123" t="s">
+        <v>163</v>
+      </c>
+      <c r="D37" s="180" t="s">
+        <v>142</v>
+      </c>
+      <c r="E37" s="211"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="225"/>
+      <c r="B38" s="149"/>
+      <c r="C38" s="123" t="s">
+        <v>205</v>
+      </c>
+      <c r="D38" s="130" t="s">
+        <v>143</v>
+      </c>
+      <c r="E38" s="211"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="225"/>
+      <c r="B39" s="149"/>
+      <c r="C39" s="123" t="s">
+        <v>164</v>
+      </c>
+      <c r="D39" s="130" t="s">
+        <v>165</v>
+      </c>
+      <c r="E39" s="211"/>
+    </row>
+    <row r="40" spans="1:6" ht="27">
+      <c r="A40" s="225"/>
+      <c r="B40" s="166" t="s">
+        <v>230</v>
+      </c>
+      <c r="C40" s="123" t="s">
+        <v>100</v>
+      </c>
+      <c r="D40" s="130" t="s">
+        <v>187</v>
+      </c>
+      <c r="E40" s="211"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="225"/>
+      <c r="B41" s="149"/>
+      <c r="C41" s="123" t="s">
+        <v>332</v>
+      </c>
+      <c r="D41" s="198" t="s">
+        <v>186</v>
+      </c>
+      <c r="E41" s="211"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="225"/>
+      <c r="B42" s="149" t="s">
+        <v>145</v>
+      </c>
+      <c r="C42" s="123" t="s">
+        <v>101</v>
+      </c>
+      <c r="D42" s="130" t="s">
+        <v>144</v>
+      </c>
+      <c r="E42" s="211"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="225"/>
+      <c r="B43" s="149" t="s">
+        <v>146</v>
+      </c>
+      <c r="C43" s="123" t="s">
+        <v>102</v>
+      </c>
+      <c r="D43" s="130" t="s">
+        <v>166</v>
+      </c>
+      <c r="E43" s="211"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25">
+      <c r="A44" s="225"/>
+      <c r="B44" s="213" t="s">
+        <v>336</v>
+      </c>
+      <c r="C44" s="144" t="s">
+        <v>334</v>
+      </c>
+      <c r="D44" s="169">
+        <v>3003223</v>
+      </c>
+      <c r="E44" s="172" t="s">
+        <v>278</v>
+      </c>
+      <c r="F44" s="154"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.25">
+      <c r="A45" s="225"/>
+      <c r="B45" s="212"/>
+      <c r="C45" s="142" t="s">
+        <v>341</v>
+      </c>
+      <c r="D45" s="169" t="s">
+        <v>335</v>
+      </c>
+      <c r="E45" s="172" t="s">
+        <v>278</v>
+      </c>
+      <c r="F45" s="154"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.25">
+      <c r="A46" s="225"/>
+      <c r="B46" s="212"/>
+      <c r="C46" s="142" t="s">
+        <v>333</v>
+      </c>
+      <c r="D46" s="169" t="s">
+        <v>281</v>
+      </c>
+      <c r="E46" s="172" t="s">
+        <v>278</v>
+      </c>
+      <c r="F46" s="154"/>
+    </row>
+    <row r="47" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A47" s="136"/>
+      <c r="B47" s="149"/>
+      <c r="C47" s="123"/>
+      <c r="D47" s="130"/>
+      <c r="E47" s="130"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25">
+      <c r="A48" s="208" t="s">
+        <v>248</v>
+      </c>
+      <c r="B48" s="164"/>
+      <c r="C48" s="156" t="s">
+        <v>262</v>
+      </c>
+      <c r="D48" s="135" t="s">
+        <v>283</v>
+      </c>
+      <c r="E48" s="145" t="s">
+        <v>269</v>
+      </c>
+      <c r="F48" s="60"/>
+    </row>
+    <row r="49" spans="1:6" ht="33.75" customHeight="1">
+      <c r="A49" s="208"/>
+      <c r="B49" s="147" t="s">
+        <v>136</v>
+      </c>
+      <c r="C49" s="147" t="s">
+        <v>125</v>
+      </c>
+      <c r="D49" s="147" t="s">
+        <v>307</v>
+      </c>
+      <c r="E49" s="149"/>
+      <c r="F49" s="91"/>
+    </row>
+    <row r="50" spans="1:6" ht="21" customHeight="1">
+      <c r="A50" s="208"/>
+      <c r="B50" s="149" t="s">
+        <v>246</v>
+      </c>
+      <c r="C50" s="142" t="s">
+        <v>310</v>
+      </c>
+      <c r="D50" s="111" t="s">
         <v>282</v>
       </c>
-      <c r="E16" s="92"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="89"/>
-    </row>
-    <row r="17" spans="1:7" s="88" customFormat="1">
-      <c r="A17" s="209"/>
-      <c r="B17" s="162"/>
-      <c r="C17" s="130"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="82"/>
-    </row>
-    <row r="18" spans="1:7" s="88" customFormat="1">
-      <c r="A18" s="208" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" s="160"/>
-      <c r="C18" s="99" t="s">
-        <v>218</v>
-      </c>
-      <c r="D18" s="96" t="s">
-        <v>262</v>
-      </c>
-      <c r="E18" s="133"/>
-      <c r="F18" s="82"/>
-    </row>
-    <row r="19" spans="1:7" s="82" customFormat="1">
-      <c r="A19" s="208"/>
-      <c r="B19" s="163" t="s">
-        <v>218</v>
-      </c>
-      <c r="C19" s="99" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="96" t="s">
-        <v>222</v>
-      </c>
-      <c r="E19" s="133"/>
-    </row>
-    <row r="20" spans="1:7" s="88" customFormat="1">
-      <c r="A20" s="208"/>
-      <c r="B20" s="160"/>
-      <c r="C20" s="183"/>
-      <c r="D20" s="96" t="s">
-        <v>230</v>
-      </c>
-      <c r="E20" s="133"/>
-      <c r="F20" s="82"/>
-    </row>
-    <row r="21" spans="1:7" s="87" customFormat="1">
-      <c r="A21" s="208"/>
-      <c r="B21" s="168" t="s">
-        <v>218</v>
-      </c>
-      <c r="C21" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" s="96" t="s">
-        <v>231</v>
-      </c>
-      <c r="E21" s="133"/>
-      <c r="F21" s="85"/>
-    </row>
-    <row r="22" spans="1:7" s="86" customFormat="1">
-      <c r="A22" s="208"/>
-      <c r="B22" s="160"/>
-      <c r="C22" s="99" t="s">
-        <v>71</v>
-      </c>
-      <c r="D22" s="96" t="s">
-        <v>232</v>
-      </c>
-      <c r="E22" s="133"/>
-      <c r="F22" s="90"/>
-    </row>
-    <row r="23" spans="1:7" s="82" customFormat="1">
-      <c r="A23" s="208"/>
-      <c r="B23" s="160" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="96" t="s">
-        <v>72</v>
-      </c>
-      <c r="D23" s="96" t="s">
-        <v>261</v>
-      </c>
-      <c r="E23" s="133"/>
-    </row>
-    <row r="24" spans="1:7" s="82" customFormat="1">
-      <c r="A24" s="208"/>
-      <c r="B24" s="160"/>
-      <c r="C24" s="99" t="s">
-        <v>73</v>
-      </c>
-      <c r="D24" s="96" t="s">
-        <v>234</v>
-      </c>
-      <c r="E24" s="92"/>
-      <c r="F24" s="89"/>
-    </row>
-    <row r="25" spans="1:7" s="89" customFormat="1">
-      <c r="A25" s="208"/>
-      <c r="B25" s="164"/>
-      <c r="C25" s="100" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" s="96" t="s">
-        <v>233</v>
-      </c>
-      <c r="E25" s="92"/>
-      <c r="F25" s="78"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="121"/>
-      <c r="B26" s="153"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="132"/>
-      <c r="E26" s="131"/>
-      <c r="F26" s="82"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="224"/>
-      <c r="B27" s="199" t="s">
-        <v>367</v>
-      </c>
-      <c r="C27" s="146" t="s">
-        <v>366</v>
-      </c>
-      <c r="D27" s="145">
-        <v>3003059</v>
-      </c>
-      <c r="E27" s="200"/>
-      <c r="F27" s="154"/>
-    </row>
-    <row r="28" spans="1:7" s="82" customFormat="1">
-      <c r="A28" s="218" t="s">
-        <v>326</v>
-      </c>
-      <c r="B28" s="160" t="s">
-        <v>242</v>
-      </c>
-      <c r="C28" s="157" t="s">
-        <v>336</v>
-      </c>
-      <c r="D28" s="157" t="s">
-        <v>337</v>
-      </c>
-      <c r="E28" s="133"/>
-    </row>
-    <row r="29" spans="1:7" s="82" customFormat="1" ht="14.25">
-      <c r="A29" s="218"/>
-      <c r="B29" s="160" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="141" t="s">
-        <v>294</v>
-      </c>
-      <c r="D29" s="140">
-        <v>3003217</v>
-      </c>
-      <c r="E29" s="133"/>
-      <c r="F29" s="89"/>
-    </row>
-    <row r="30" spans="1:7" s="89" customFormat="1">
-      <c r="A30" s="218"/>
-      <c r="B30" s="160" t="s">
-        <v>243</v>
-      </c>
-      <c r="C30" s="96" t="s">
-        <v>268</v>
-      </c>
-      <c r="D30" s="96" t="s">
-        <v>240</v>
-      </c>
-      <c r="E30" s="92"/>
-      <c r="F30" s="78"/>
-    </row>
-    <row r="31" spans="1:7" ht="27">
-      <c r="A31" s="218"/>
-      <c r="B31" s="185" t="s">
-        <v>338</v>
-      </c>
-      <c r="C31" s="102" t="s">
-        <v>68</v>
-      </c>
-      <c r="D31" s="96" t="s">
-        <v>241</v>
-      </c>
-      <c r="E31" s="64"/>
-      <c r="F31" s="82"/>
-    </row>
-    <row r="32" spans="1:7" s="91" customFormat="1" ht="18.75">
-      <c r="A32" s="218"/>
-      <c r="B32" s="138" t="s">
-        <v>292</v>
-      </c>
-      <c r="C32" s="125" t="s">
-        <v>293</v>
-      </c>
-      <c r="D32" s="169">
-        <v>3003227</v>
-      </c>
-      <c r="E32" s="173" t="s">
-        <v>307</v>
-      </c>
-      <c r="F32" s="82"/>
-    </row>
-    <row r="33" spans="1:6" s="82" customFormat="1" ht="18.75">
-      <c r="A33" s="218"/>
-      <c r="B33" s="139" t="s">
-        <v>238</v>
-      </c>
-      <c r="C33" s="141" t="s">
-        <v>293</v>
-      </c>
-      <c r="D33" s="169">
-        <v>3003224</v>
-      </c>
-      <c r="E33" s="174" t="s">
-        <v>307</v>
-      </c>
-      <c r="F33" s="89"/>
-    </row>
-    <row r="34" spans="1:6" s="154" customFormat="1">
-      <c r="A34" s="218"/>
-      <c r="B34" s="139"/>
-      <c r="C34" s="158" t="s">
-        <v>328</v>
-      </c>
-      <c r="D34" s="129" t="s">
-        <v>216</v>
-      </c>
-      <c r="E34" s="174"/>
-      <c r="F34" s="89"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="218"/>
-      <c r="B35" s="152"/>
-      <c r="C35" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="D35" s="131"/>
-      <c r="E35" s="131"/>
-    </row>
-    <row r="36" spans="1:6" ht="40.5">
-      <c r="A36" s="218"/>
-      <c r="B36" s="147" t="s">
-        <v>330</v>
-      </c>
-      <c r="C36" s="124" t="s">
-        <v>329</v>
-      </c>
-      <c r="D36" s="131" t="s">
-        <v>163</v>
-      </c>
-      <c r="E36" s="210" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="27">
-      <c r="A37" s="218"/>
-      <c r="B37" s="185" t="s">
-        <v>331</v>
-      </c>
-      <c r="C37" s="124" t="s">
-        <v>113</v>
-      </c>
-      <c r="D37" s="182" t="s">
-        <v>332</v>
-      </c>
-      <c r="E37" s="211"/>
-    </row>
-    <row r="38" spans="1:6" ht="54">
-      <c r="A38" s="218"/>
-      <c r="B38" s="153" t="s">
-        <v>296</v>
-      </c>
-      <c r="C38" s="124" t="s">
-        <v>186</v>
-      </c>
-      <c r="D38" s="182" t="s">
-        <v>164</v>
-      </c>
-      <c r="E38" s="211"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="218"/>
-      <c r="B39" s="150"/>
-      <c r="C39" s="124" t="s">
-        <v>229</v>
-      </c>
-      <c r="D39" s="131" t="s">
-        <v>165</v>
-      </c>
-      <c r="E39" s="211"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="218"/>
-      <c r="B40" s="150"/>
-      <c r="C40" s="124" t="s">
-        <v>187</v>
-      </c>
-      <c r="D40" s="131" t="s">
-        <v>188</v>
-      </c>
-      <c r="E40" s="211"/>
-    </row>
-    <row r="41" spans="1:6" ht="27">
-      <c r="A41" s="218"/>
-      <c r="B41" s="167" t="s">
-        <v>254</v>
-      </c>
-      <c r="C41" s="124" t="s">
-        <v>122</v>
-      </c>
-      <c r="D41" s="131" t="s">
-        <v>211</v>
-      </c>
-      <c r="E41" s="211"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="218"/>
-      <c r="B42" s="150"/>
-      <c r="C42" s="124" t="s">
-        <v>135</v>
-      </c>
-      <c r="D42" s="182" t="s">
-        <v>210</v>
-      </c>
-      <c r="E42" s="211"/>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="218"/>
-      <c r="B43" s="150" t="s">
-        <v>167</v>
-      </c>
-      <c r="C43" s="124" t="s">
-        <v>123</v>
-      </c>
-      <c r="D43" s="131" t="s">
-        <v>166</v>
-      </c>
-      <c r="E43" s="211"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="219"/>
-      <c r="B44" s="150" t="s">
-        <v>168</v>
-      </c>
-      <c r="C44" s="124" t="s">
-        <v>124</v>
-      </c>
-      <c r="D44" s="131" t="s">
-        <v>189</v>
-      </c>
-      <c r="E44" s="211"/>
-    </row>
-    <row r="45" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A45" s="137"/>
-      <c r="B45" s="150"/>
-      <c r="C45" s="124"/>
-      <c r="D45" s="131"/>
-      <c r="E45" s="131"/>
-    </row>
-    <row r="46" spans="1:6" ht="14.25">
-      <c r="A46" s="208" t="s">
-        <v>273</v>
-      </c>
-      <c r="B46" s="165"/>
-      <c r="C46" s="157" t="s">
-        <v>289</v>
-      </c>
-      <c r="D46" s="136" t="s">
-        <v>312</v>
-      </c>
-      <c r="E46" s="146" t="s">
-        <v>298</v>
-      </c>
-      <c r="F46" s="61"/>
-    </row>
-    <row r="47" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A47" s="208"/>
-      <c r="B47" s="148" t="s">
-        <v>158</v>
-      </c>
-      <c r="C47" s="148" t="s">
-        <v>147</v>
-      </c>
-      <c r="D47" s="148" t="s">
-        <v>339</v>
-      </c>
-      <c r="E47" s="150"/>
-      <c r="F47" s="92"/>
-    </row>
-    <row r="48" spans="1:6" ht="21" customHeight="1">
-      <c r="A48" s="208"/>
-      <c r="B48" s="150" t="s">
-        <v>271</v>
-      </c>
-      <c r="C48" s="143" t="s">
-        <v>342</v>
-      </c>
-      <c r="D48" s="112" t="s">
-        <v>311</v>
-      </c>
-      <c r="E48" s="145" t="s">
-        <v>308</v>
-      </c>
-      <c r="F48" s="93"/>
-    </row>
-    <row r="49" spans="1:6" ht="21" customHeight="1">
-      <c r="A49" s="208"/>
-      <c r="B49" s="150" t="s">
-        <v>269</v>
-      </c>
-      <c r="C49" s="60" t="s">
-        <v>272</v>
-      </c>
-      <c r="D49" s="112" t="s">
+      <c r="E50" s="144" t="s">
+        <v>279</v>
+      </c>
+      <c r="F50" s="92"/>
+    </row>
+    <row r="51" spans="1:6" ht="21" customHeight="1">
+      <c r="A51" s="208"/>
+      <c r="B51" s="149" t="s">
+        <v>245</v>
+      </c>
+      <c r="C51" s="59" t="s">
+        <v>247</v>
+      </c>
+      <c r="D51" s="111" t="s">
+        <v>255</v>
+      </c>
+      <c r="E51" s="149" t="s">
         <v>280</v>
       </c>
-      <c r="E49" s="150" t="s">
-        <v>309</v>
-      </c>
-      <c r="F49" s="93"/>
-    </row>
-    <row r="50" spans="1:6" ht="18.75">
-      <c r="A50" s="208"/>
-      <c r="B50" s="211" t="s">
-        <v>272</v>
-      </c>
-      <c r="C50" s="105" t="s">
-        <v>281</v>
-      </c>
-      <c r="D50" s="64">
-        <v>3003222</v>
-      </c>
-      <c r="E50" s="173" t="s">
-        <v>307</v>
-      </c>
-      <c r="F50" s="93"/>
-    </row>
-    <row r="51" spans="1:6" ht="18.75">
-      <c r="A51" s="208"/>
-      <c r="B51" s="212"/>
-      <c r="C51" s="65" t="s">
-        <v>255</v>
-      </c>
-      <c r="D51" s="64">
-        <v>3003226</v>
-      </c>
-      <c r="E51" s="173" t="s">
-        <v>307</v>
-      </c>
-      <c r="F51" s="93"/>
+      <c r="F51" s="92"/>
     </row>
     <row r="52" spans="1:6" ht="18.75">
       <c r="A52" s="208"/>
-      <c r="B52" s="151" t="s">
-        <v>161</v>
-      </c>
-      <c r="C52" s="60" t="s">
-        <v>288</v>
-      </c>
-      <c r="D52" s="144">
-        <v>700020015</v>
-      </c>
-      <c r="E52" s="173" t="s">
-        <v>307</v>
+      <c r="B52" s="211" t="s">
+        <v>247</v>
+      </c>
+      <c r="C52" s="158" t="s">
+        <v>337</v>
+      </c>
+      <c r="D52" s="63">
+        <v>3003222</v>
+      </c>
+      <c r="E52" s="172" t="s">
+        <v>278</v>
       </c>
       <c r="F52" s="92"/>
     </row>
     <row r="53" spans="1:6" ht="18.75">
       <c r="A53" s="208"/>
-      <c r="B53" s="152" t="s">
-        <v>88</v>
-      </c>
-      <c r="C53" s="65" t="s">
-        <v>270</v>
-      </c>
-      <c r="D53" s="64">
+      <c r="B53" s="212"/>
+      <c r="C53" s="144" t="s">
+        <v>338</v>
+      </c>
+      <c r="D53" s="63">
+        <v>3003226</v>
+      </c>
+      <c r="E53" s="172" t="s">
+        <v>278</v>
+      </c>
+      <c r="F53" s="92"/>
+    </row>
+    <row r="54" spans="1:6" ht="18.75">
+      <c r="A54" s="208"/>
+      <c r="B54" s="150" t="s">
+        <v>139</v>
+      </c>
+      <c r="C54" s="142" t="s">
+        <v>339</v>
+      </c>
+      <c r="D54" s="143">
+        <v>700020015</v>
+      </c>
+      <c r="E54" s="172" t="s">
+        <v>278</v>
+      </c>
+      <c r="F54" s="91"/>
+    </row>
+    <row r="55" spans="1:6" ht="18.75">
+      <c r="A55" s="208"/>
+      <c r="B55" s="151" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55" s="144" t="s">
+        <v>340</v>
+      </c>
+      <c r="D55" s="63">
         <v>3003221</v>
       </c>
-      <c r="E53" s="173" t="s">
-        <v>307</v>
-      </c>
-      <c r="F53" s="92"/>
-    </row>
-    <row r="54" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A54" s="208"/>
-      <c r="B54" s="184" t="s">
-        <v>341</v>
-      </c>
-      <c r="C54" s="60" t="s">
-        <v>83</v>
-      </c>
-      <c r="D54" s="135" t="s">
-        <v>277</v>
-      </c>
-      <c r="E54" s="131"/>
-      <c r="F54" s="92"/>
-    </row>
-    <row r="55" spans="1:6" ht="26.25" customHeight="1">
-      <c r="A55" s="208"/>
-      <c r="B55" s="184" t="s">
-        <v>340</v>
-      </c>
-      <c r="C55" s="62" t="s">
-        <v>274</v>
-      </c>
-      <c r="D55" s="135" t="s">
+      <c r="E55" s="172" t="s">
         <v>278</v>
       </c>
-      <c r="E55" s="135"/>
-      <c r="F55" s="92"/>
-    </row>
-    <row r="56" spans="1:6" ht="17.25" customHeight="1">
+      <c r="F55" s="91"/>
+    </row>
+    <row r="56" spans="1:6" ht="20.25" customHeight="1">
       <c r="A56" s="208"/>
-      <c r="B56" s="162" t="s">
-        <v>274</v>
-      </c>
-      <c r="C56" s="134" t="s">
-        <v>275</v>
-      </c>
-      <c r="D56" s="92" t="s">
-        <v>279</v>
-      </c>
-      <c r="E56" s="131"/>
-      <c r="F56" s="92"/>
-    </row>
-    <row r="57" spans="1:6" ht="22.5" customHeight="1">
+      <c r="B56" s="181" t="s">
+        <v>309</v>
+      </c>
+      <c r="C56" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="D56" s="134" t="s">
+        <v>252</v>
+      </c>
+      <c r="E56" s="130"/>
+      <c r="F56" s="91"/>
+    </row>
+    <row r="57" spans="1:6" ht="26.25" customHeight="1">
       <c r="A57" s="208"/>
-      <c r="B57" s="153" t="s">
-        <v>276</v>
-      </c>
-      <c r="C57" s="67" t="s">
-        <v>283</v>
-      </c>
-      <c r="D57" s="65" t="s">
-        <v>284</v>
-      </c>
-      <c r="E57" s="131"/>
-      <c r="F57" s="92"/>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="133"/>
-      <c r="B58" s="153"/>
-      <c r="C58" s="67"/>
-      <c r="D58" s="132"/>
-      <c r="E58" s="131"/>
-      <c r="F58" s="92"/>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="133" t="s">
-        <v>91</v>
-      </c>
-      <c r="B59" s="150" t="s">
-        <v>143</v>
-      </c>
-      <c r="C59" s="131" t="s">
-        <v>141</v>
-      </c>
-      <c r="D59" s="131" t="s">
-        <v>142</v>
-      </c>
-      <c r="E59" s="131"/>
-      <c r="F59" s="92"/>
+      <c r="B57" s="181" t="s">
+        <v>308</v>
+      </c>
+      <c r="C57" s="61" t="s">
+        <v>249</v>
+      </c>
+      <c r="D57" s="134" t="s">
+        <v>253</v>
+      </c>
+      <c r="E57" s="134"/>
+      <c r="F57" s="91"/>
+    </row>
+    <row r="58" spans="1:6" ht="17.25" customHeight="1">
+      <c r="A58" s="208"/>
+      <c r="B58" s="161" t="s">
+        <v>249</v>
+      </c>
+      <c r="C58" s="133" t="s">
+        <v>250</v>
+      </c>
+      <c r="D58" s="91" t="s">
+        <v>254</v>
+      </c>
+      <c r="E58" s="130"/>
+      <c r="F58" s="91"/>
+    </row>
+    <row r="59" spans="1:6" ht="22.5" customHeight="1">
+      <c r="A59" s="208"/>
+      <c r="B59" s="152" t="s">
+        <v>251</v>
+      </c>
+      <c r="C59" s="66" t="s">
+        <v>257</v>
+      </c>
+      <c r="D59" s="64" t="s">
+        <v>258</v>
+      </c>
+      <c r="E59" s="130"/>
+      <c r="F59" s="91"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="133"/>
-      <c r="B60" s="150"/>
-      <c r="C60" s="131"/>
+      <c r="A60" s="132"/>
+      <c r="B60" s="152"/>
+      <c r="C60" s="66"/>
       <c r="D60" s="131"/>
-      <c r="E60" s="131"/>
-      <c r="F60" s="92"/>
+      <c r="E60" s="130"/>
+      <c r="F60" s="91"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="214" t="s">
-        <v>205</v>
-      </c>
-      <c r="B61" s="145" t="s">
-        <v>170</v>
-      </c>
-      <c r="C61" s="149" t="s">
-        <v>358</v>
-      </c>
-      <c r="D61" s="200" t="s">
-        <v>169</v>
-      </c>
-      <c r="E61" s="131"/>
-      <c r="F61" s="92"/>
+      <c r="A61" s="132" t="s">
+        <v>69</v>
+      </c>
+      <c r="B61" s="149" t="s">
+        <v>121</v>
+      </c>
+      <c r="C61" s="200" t="s">
+        <v>342</v>
+      </c>
+      <c r="D61" s="130" t="s">
+        <v>120</v>
+      </c>
+      <c r="E61" s="130"/>
+      <c r="F61" s="91"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="214"/>
-      <c r="B62" s="149" t="s">
+      <c r="A62" s="132"/>
+      <c r="B62" s="149"/>
+      <c r="C62" s="130"/>
+      <c r="D62" s="130"/>
+      <c r="E62" s="130"/>
+      <c r="F62" s="91"/>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="226" t="s">
+        <v>181</v>
+      </c>
+      <c r="B63" s="144" t="s">
+        <v>148</v>
+      </c>
+      <c r="C63" s="148" t="s">
+        <v>322</v>
+      </c>
+      <c r="D63" s="196" t="s">
+        <v>147</v>
+      </c>
+      <c r="E63" s="130"/>
+      <c r="F63" s="91"/>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="227"/>
+      <c r="B64" s="148" t="s">
         <v>17</v>
       </c>
-      <c r="C62" s="74" t="s">
+      <c r="C64" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="D62" s="187" t="s">
-        <v>357</v>
-      </c>
-      <c r="E62" s="131"/>
-      <c r="F62" s="92"/>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="214"/>
-      <c r="B63" s="149" t="s">
+      <c r="D64" s="184" t="s">
+        <v>321</v>
+      </c>
+      <c r="E64" s="130"/>
+      <c r="F64" s="91"/>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="227"/>
+      <c r="B65" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="C63" s="74" t="s">
+      <c r="C65" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="D63" s="186" t="s">
-        <v>359</v>
-      </c>
-      <c r="E63" s="131"/>
-      <c r="F63" s="92"/>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="214"/>
-      <c r="B64" s="149" t="s">
+      <c r="D65" s="183" t="s">
+        <v>323</v>
+      </c>
+      <c r="E65" s="130"/>
+      <c r="F65" s="91"/>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="227"/>
+      <c r="B66" s="148" t="s">
         <v>17</v>
       </c>
-      <c r="C64" s="187" t="s">
-        <v>356</v>
-      </c>
-      <c r="D64" s="187" t="s">
+      <c r="C66" s="184" t="s">
+        <v>320</v>
+      </c>
+      <c r="D66" s="184" t="s">
+        <v>151</v>
+      </c>
+      <c r="E66" s="130"/>
+      <c r="F66" s="91"/>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="227"/>
+      <c r="B67" s="144" t="s">
+        <v>18</v>
+      </c>
+      <c r="C67" s="130" t="s">
+        <v>59</v>
+      </c>
+      <c r="D67" s="134" t="s">
+        <v>149</v>
+      </c>
+      <c r="E67" s="130"/>
+      <c r="F67" s="91"/>
+    </row>
+    <row r="68" spans="1:6" ht="14.25">
+      <c r="A68" s="227"/>
+      <c r="B68" s="142" t="s">
+        <v>154</v>
+      </c>
+      <c r="C68" s="130" t="s">
         <v>173</v>
       </c>
-      <c r="E64" s="131"/>
-      <c r="F64" s="92"/>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="214"/>
-      <c r="B65" s="145" t="s">
-        <v>18</v>
-      </c>
-      <c r="C65" s="131" t="s">
-        <v>81</v>
-      </c>
-      <c r="D65" s="135" t="s">
-        <v>171</v>
-      </c>
-      <c r="E65" s="131"/>
-      <c r="F65" s="92"/>
-    </row>
-    <row r="66" spans="1:6" ht="14.25">
-      <c r="A66" s="214"/>
-      <c r="B66" s="143" t="s">
-        <v>176</v>
-      </c>
-      <c r="C66" s="131" t="s">
-        <v>196</v>
-      </c>
-      <c r="D66" s="170">
+      <c r="D68" s="169">
         <v>3003219</v>
       </c>
-      <c r="E66" s="131"/>
-      <c r="F66" s="92"/>
-    </row>
-    <row r="67" spans="1:6" ht="14.25">
-      <c r="A67" s="214"/>
-      <c r="B67" s="145"/>
-      <c r="C67" s="74" t="s">
-        <v>197</v>
-      </c>
-      <c r="D67" s="170" t="s">
-        <v>360</v>
-      </c>
-      <c r="E67" s="131"/>
-      <c r="F67" s="92"/>
-    </row>
-    <row r="68" spans="1:6" ht="14.25">
-      <c r="A68" s="214"/>
-      <c r="B68" s="149" t="s">
-        <v>197</v>
-      </c>
-      <c r="C68" s="75" t="s">
+      <c r="E68" s="130"/>
+      <c r="F68" s="91"/>
+    </row>
+    <row r="69" spans="1:6" ht="14.25">
+      <c r="A69" s="227"/>
+      <c r="B69" s="144"/>
+      <c r="C69" s="73" t="s">
+        <v>174</v>
+      </c>
+      <c r="D69" s="169" t="s">
+        <v>324</v>
+      </c>
+      <c r="E69" s="130"/>
+      <c r="F69" s="91"/>
+    </row>
+    <row r="70" spans="1:6" ht="14.25">
+      <c r="A70" s="227"/>
+      <c r="B70" s="148" t="s">
+        <v>174</v>
+      </c>
+      <c r="C70" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="D68" s="171">
+      <c r="D70" s="170">
         <v>3003228</v>
       </c>
-      <c r="E68" s="131"/>
-      <c r="F68" s="210" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="14.25">
-      <c r="A69" s="214"/>
-      <c r="B69" s="149" t="s">
+      <c r="E70" s="130"/>
+      <c r="F70" s="210" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="14.25">
+      <c r="A71" s="227"/>
+      <c r="B71" s="148" t="s">
         <v>25</v>
       </c>
-      <c r="C69" s="75" t="s">
-        <v>285</v>
-      </c>
-      <c r="D69" s="171">
+      <c r="C71" s="74" t="s">
+        <v>259</v>
+      </c>
+      <c r="D71" s="170">
         <v>3003229</v>
       </c>
-      <c r="E69" s="131"/>
-      <c r="F69" s="210"/>
-    </row>
-    <row r="70" spans="1:6" ht="14.25">
-      <c r="A70" s="214"/>
-      <c r="B70" s="145" t="s">
-        <v>364</v>
-      </c>
-      <c r="C70" s="188" t="s">
-        <v>362</v>
-      </c>
-      <c r="D70" s="171">
+      <c r="E71" s="130"/>
+      <c r="F71" s="210"/>
+    </row>
+    <row r="72" spans="1:6" ht="14.25">
+      <c r="A72" s="227"/>
+      <c r="B72" s="144" t="s">
+        <v>328</v>
+      </c>
+      <c r="C72" s="185" t="s">
+        <v>326</v>
+      </c>
+      <c r="D72" s="170">
         <v>3003230</v>
       </c>
-      <c r="E70" s="131"/>
-      <c r="F70" s="92"/>
-    </row>
-    <row r="71" spans="1:6" ht="14.25">
-      <c r="A71" s="214"/>
-      <c r="B71" s="145" t="s">
-        <v>287</v>
-      </c>
-      <c r="C71" s="129" t="s">
-        <v>200</v>
-      </c>
-      <c r="D71" s="171">
+      <c r="E72" s="130"/>
+      <c r="F72" s="91"/>
+    </row>
+    <row r="73" spans="1:6" ht="14.25">
+      <c r="A73" s="227"/>
+      <c r="B73" s="144" t="s">
+        <v>261</v>
+      </c>
+      <c r="C73" s="128" t="s">
+        <v>177</v>
+      </c>
+      <c r="D73" s="170">
         <v>3003231</v>
       </c>
-      <c r="E71" s="131"/>
-      <c r="F71" s="92"/>
-    </row>
-    <row r="72" spans="1:6" ht="14.25">
-      <c r="A72" s="214"/>
-      <c r="B72" s="213" t="s">
+      <c r="E73" s="130"/>
+      <c r="F73" s="91"/>
+    </row>
+    <row r="74" spans="1:6" s="179" customFormat="1" ht="21" customHeight="1">
+      <c r="A74" s="227"/>
+      <c r="B74" s="85" t="s">
+        <v>292</v>
+      </c>
+      <c r="C74" s="85" t="s">
         <v>343</v>
       </c>
-      <c r="C72" s="145" t="s">
-        <v>345</v>
-      </c>
-      <c r="D72" s="170">
-        <v>3003223</v>
-      </c>
-      <c r="E72" s="173" t="s">
-        <v>307</v>
-      </c>
-      <c r="F72" s="92"/>
-    </row>
-    <row r="73" spans="1:6" ht="14.25">
-      <c r="A73" s="214"/>
-      <c r="B73" s="212"/>
-      <c r="C73" s="143" t="s">
-        <v>344</v>
-      </c>
-      <c r="D73" s="170" t="s">
-        <v>295</v>
-      </c>
-      <c r="E73" s="173" t="s">
-        <v>307</v>
-      </c>
-      <c r="F73" s="92"/>
-    </row>
-    <row r="74" spans="1:6" ht="14.25">
-      <c r="A74" s="214"/>
-      <c r="B74" s="212"/>
-      <c r="C74" s="143" t="s">
-        <v>346</v>
-      </c>
-      <c r="D74" s="170" t="s">
-        <v>310</v>
-      </c>
-      <c r="E74" s="173" t="s">
-        <v>307</v>
-      </c>
-      <c r="F74" s="92"/>
-    </row>
-    <row r="77" spans="1:6" s="180" customFormat="1" ht="60" customHeight="1">
-      <c r="A77" s="181" t="s">
-        <v>324</v>
-      </c>
-      <c r="B77" s="179" t="s">
-        <v>322</v>
-      </c>
-      <c r="C77" s="179" t="s">
-        <v>321</v>
-      </c>
-      <c r="D77" s="179"/>
-      <c r="E77" s="179" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="C79" s="194"/>
-      <c r="D79" s="194"/>
-    </row>
-    <row r="80" spans="1:6" ht="40.5" customHeight="1">
-      <c r="A80" s="222" t="s">
-        <v>349</v>
-      </c>
-      <c r="B80" s="192" t="s">
-        <v>348</v>
-      </c>
-      <c r="C80" s="190" t="s">
-        <v>350</v>
-      </c>
-      <c r="D80" s="190">
+      <c r="D74" s="85">
+        <v>4001002</v>
+      </c>
+      <c r="E74" s="178"/>
+    </row>
+    <row r="75" spans="1:6" ht="21.75" customHeight="1"/>
+    <row r="78" spans="1:6">
+      <c r="C78" s="191"/>
+      <c r="D78" s="191"/>
+    </row>
+    <row r="79" spans="1:6" ht="40.5" customHeight="1">
+      <c r="A79" s="219" t="s">
+        <v>313</v>
+      </c>
+      <c r="B79" s="189" t="s">
+        <v>312</v>
+      </c>
+      <c r="C79" s="187" t="s">
+        <v>314</v>
+      </c>
+      <c r="D79" s="187">
         <v>4001003</v>
       </c>
-      <c r="E80" s="197"/>
-    </row>
-    <row r="81" spans="1:5" ht="27" customHeight="1">
-      <c r="A81" s="223"/>
-      <c r="B81" s="190" t="s">
-        <v>351</v>
-      </c>
-      <c r="C81" s="190" t="s">
-        <v>352</v>
-      </c>
-      <c r="D81" s="190">
+      <c r="E79" s="194"/>
+    </row>
+    <row r="80" spans="1:6" ht="27" customHeight="1">
+      <c r="A80" s="220"/>
+      <c r="B80" s="187" t="s">
+        <v>315</v>
+      </c>
+      <c r="C80" s="187" t="s">
+        <v>316</v>
+      </c>
+      <c r="D80" s="187">
         <v>700020029</v>
       </c>
-      <c r="E81" s="195"/>
-    </row>
-    <row r="82" spans="1:5" ht="42.75" customHeight="1">
-      <c r="A82" s="223"/>
-      <c r="B82" s="191" t="s">
-        <v>353</v>
-      </c>
-      <c r="C82" s="190" t="s">
-        <v>354</v>
-      </c>
-      <c r="D82" s="190"/>
-      <c r="E82" s="196"/>
-    </row>
-    <row r="83" spans="1:5" ht="26.25" customHeight="1">
-      <c r="A83" s="223"/>
-      <c r="B83" s="190"/>
-      <c r="C83" s="190" t="s">
-        <v>355</v>
-      </c>
-      <c r="D83" s="190"/>
-      <c r="E83" s="195"/>
+      <c r="E80" s="192"/>
+    </row>
+    <row r="81" spans="1:5" ht="42.75" customHeight="1">
+      <c r="A81" s="220"/>
+      <c r="B81" s="188" t="s">
+        <v>317</v>
+      </c>
+      <c r="C81" s="187" t="s">
+        <v>318</v>
+      </c>
+      <c r="D81" s="187"/>
+      <c r="E81" s="193"/>
+    </row>
+    <row r="82" spans="1:5" ht="26.25" customHeight="1">
+      <c r="A82" s="220"/>
+      <c r="B82" s="187"/>
+      <c r="C82" s="187" t="s">
+        <v>319</v>
+      </c>
+      <c r="D82" s="187"/>
+      <c r="E82" s="192"/>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="190"/>
+      <c r="B83" s="217"/>
+      <c r="C83" s="217"/>
+      <c r="D83" s="217"/>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="193"/>
-      <c r="B84" s="220"/>
-      <c r="C84" s="220"/>
-      <c r="D84" s="220"/>
+      <c r="B84" s="218"/>
+      <c r="C84" s="218"/>
+      <c r="D84" s="218"/>
     </row>
     <row r="85" spans="1:5">
-      <c r="B85" s="221"/>
-      <c r="C85" s="221"/>
-      <c r="D85" s="221"/>
+      <c r="B85" s="218"/>
+      <c r="C85" s="218"/>
+      <c r="D85" s="218"/>
     </row>
     <row r="86" spans="1:5">
-      <c r="B86" s="221"/>
-      <c r="C86" s="221"/>
-      <c r="D86" s="221"/>
+      <c r="B86" s="218"/>
+      <c r="C86" s="218"/>
+      <c r="D86" s="218"/>
     </row>
     <row r="87" spans="1:5">
-      <c r="B87" s="221"/>
-      <c r="C87" s="221"/>
-      <c r="D87" s="221"/>
+      <c r="B87" s="218"/>
+      <c r="C87" s="218"/>
+      <c r="D87" s="218"/>
+      <c r="E87" s="153"/>
     </row>
     <row r="88" spans="1:5">
-      <c r="B88" s="221"/>
-      <c r="C88" s="221"/>
-      <c r="D88" s="221"/>
-      <c r="E88" s="154"/>
+      <c r="B88" s="218"/>
+      <c r="C88" s="218"/>
+      <c r="D88" s="218"/>
     </row>
     <row r="89" spans="1:5">
-      <c r="B89" s="221"/>
-      <c r="C89" s="221"/>
-      <c r="D89" s="221"/>
+      <c r="B89" s="218"/>
+      <c r="C89" s="218"/>
+      <c r="D89" s="218"/>
     </row>
     <row r="90" spans="1:5">
-      <c r="B90" s="221"/>
-      <c r="C90" s="221"/>
-      <c r="D90" s="221"/>
+      <c r="B90" s="218"/>
+      <c r="C90" s="218"/>
+      <c r="D90" s="218"/>
     </row>
     <row r="91" spans="1:5">
-      <c r="B91" s="221"/>
-      <c r="C91" s="221"/>
-      <c r="D91" s="221"/>
+      <c r="B91" s="218"/>
+      <c r="C91" s="218"/>
+      <c r="D91" s="218"/>
     </row>
     <row r="92" spans="1:5">
-      <c r="B92" s="221"/>
-      <c r="C92" s="221"/>
-      <c r="D92" s="221"/>
+      <c r="B92" s="218"/>
+      <c r="C92" s="218"/>
+      <c r="D92" s="218"/>
     </row>
     <row r="93" spans="1:5">
-      <c r="B93" s="221"/>
-      <c r="C93" s="221"/>
-      <c r="D93" s="221"/>
-    </row>
-    <row r="94" spans="1:5">
-      <c r="B94" s="221"/>
-      <c r="C94" s="221"/>
-      <c r="D94" s="221"/>
-    </row>
-    <row r="95" spans="1:5" ht="57.75" customHeight="1">
-      <c r="B95" s="221"/>
-      <c r="C95" s="221"/>
-      <c r="D95" s="221"/>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="B96" s="189"/>
-      <c r="C96" s="189"/>
-      <c r="D96" s="154"/>
+      <c r="B93" s="218"/>
+      <c r="C93" s="218"/>
+      <c r="D93" s="218"/>
+    </row>
+    <row r="94" spans="1:5" ht="57.75" customHeight="1">
+      <c r="B94" s="218"/>
+      <c r="C94" s="218"/>
+      <c r="D94" s="218"/>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="B95" s="186"/>
+      <c r="C95" s="186"/>
+      <c r="D95" s="153"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="A46:A57"/>
-    <mergeCell ref="A28:A44"/>
-    <mergeCell ref="E36:E44"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="A61:A74"/>
-    <mergeCell ref="B84:D95"/>
-    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="A48:A59"/>
+    <mergeCell ref="E35:E43"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="A27:A46"/>
+    <mergeCell ref="A63:A74"/>
+    <mergeCell ref="B83:D94"/>
+    <mergeCell ref="A79:A82"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="A10:A17"/>
-    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="A18:A24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B37" r:id="rId1"/>
-    <hyperlink ref="B31" r:id="rId2"/>
+    <hyperlink ref="B36" r:id="rId1"/>
+    <hyperlink ref="B30" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
   <drawing r:id="rId4"/>
   <legacyDrawing r:id="rId5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G42"/>
-  <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="3" max="3" width="30.625" customWidth="1"/>
-    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1">
-        <v>22</v>
-      </c>
-      <c r="B1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1">
-        <v>5810421760</v>
-      </c>
-      <c r="F1">
-        <v>5.411376953125</v>
-      </c>
-      <c r="G1" s="17">
-        <v>42241.626226851855</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>26</v>
-      </c>
-      <c r="B2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2">
-        <v>5045420032</v>
-      </c>
-      <c r="F2">
-        <v>4.69891357421875</v>
-      </c>
-      <c r="G2" s="17">
-        <v>42272.454479166663</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>24</v>
-      </c>
-      <c r="B3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3">
-        <v>5427298304</v>
-      </c>
-      <c r="F3">
-        <v>5.0545654296875</v>
-      </c>
-      <c r="G3" s="17">
-        <v>42272.451261574075</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4">
-        <v>6188826624</v>
-      </c>
-      <c r="F4">
-        <v>5.7637939453125</v>
-      </c>
-      <c r="G4" s="17">
-        <v>42272.449097222219</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>32</v>
-      </c>
-      <c r="B5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5">
-        <v>2849046528</v>
-      </c>
-      <c r="F5">
-        <v>2.65338134765625</v>
-      </c>
-      <c r="G5" s="17">
-        <v>42284.80804398148</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" t="s">
-        <v>177</v>
-      </c>
-      <c r="D6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6">
-        <v>23058710528</v>
-      </c>
-      <c r="F6">
-        <v>21.47509765625</v>
-      </c>
-      <c r="G6" s="17">
-        <v>42315.864016203705</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7">
-        <v>23374594048</v>
-      </c>
-      <c r="F7">
-        <v>21.769287109375</v>
-      </c>
-      <c r="G7" s="17">
-        <v>42346.488321759258</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8">
-        <v>24072880128</v>
-      </c>
-      <c r="F8">
-        <v>22.4196166992188</v>
-      </c>
-      <c r="G8" s="17">
-        <v>42375.784525462965</v>
-      </c>
-    </row>
-    <row r="17" spans="3:7">
-      <c r="C17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17">
-        <v>19759366144</v>
-      </c>
-      <c r="F17">
-        <v>18.40234375</v>
-      </c>
-      <c r="G17" s="17">
-        <v>42923.416921296295</v>
-      </c>
-    </row>
-    <row r="18" spans="3:7">
-      <c r="C18" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18">
-        <v>19100860416</v>
-      </c>
-      <c r="F18">
-        <v>17.7890625</v>
-      </c>
-      <c r="G18" s="17">
-        <v>42923.416921296295</v>
-      </c>
-    </row>
-    <row r="19" spans="3:7">
-      <c r="C19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19">
-        <v>5376311296</v>
-      </c>
-      <c r="F19">
-        <v>5.007080078125</v>
-      </c>
-      <c r="G19" s="17">
-        <v>42241.639722222222</v>
-      </c>
-    </row>
-    <row r="20" spans="3:7">
-      <c r="C20" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20">
-        <v>5762383872</v>
-      </c>
-      <c r="F20">
-        <v>5.36663818359375</v>
-      </c>
-      <c r="G20" s="17">
-        <v>42241.632754629631</v>
-      </c>
-    </row>
-    <row r="21" spans="3:7">
-      <c r="C21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21">
-        <v>5810421760</v>
-      </c>
-      <c r="F21">
-        <v>5.411376953125</v>
-      </c>
-      <c r="G21" s="17">
-        <v>42241.626226851855</v>
-      </c>
-    </row>
-    <row r="22" spans="3:7">
-      <c r="C22" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22">
-        <v>5045420032</v>
-      </c>
-      <c r="F22">
-        <v>4.69891357421875</v>
-      </c>
-      <c r="G22" s="17">
-        <v>42272.454479166663</v>
-      </c>
-    </row>
-    <row r="23" spans="3:7">
-      <c r="C23" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23">
-        <v>5427298304</v>
-      </c>
-      <c r="F23">
-        <v>5.0545654296875</v>
-      </c>
-      <c r="G23" s="17">
-        <v>42272.451261574075</v>
-      </c>
-    </row>
-    <row r="24" spans="3:7">
-      <c r="C24" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24">
-        <v>6188826624</v>
-      </c>
-      <c r="F24">
-        <v>5.7637939453125</v>
-      </c>
-      <c r="G24" s="17">
-        <v>42272.449097222219</v>
-      </c>
-    </row>
-    <row r="25" spans="3:7">
-      <c r="C25" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25">
-        <v>2849046528</v>
-      </c>
-      <c r="F25">
-        <v>2.65338134765625</v>
-      </c>
-      <c r="G25" s="17">
-        <v>42284.80804398148</v>
-      </c>
-    </row>
-    <row r="26" spans="3:7">
-      <c r="C26" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" t="s">
-        <v>45</v>
-      </c>
-      <c r="E26">
-        <v>23058710528</v>
-      </c>
-      <c r="F26">
-        <v>21.47509765625</v>
-      </c>
-      <c r="G26" s="17">
-        <v>42315.864016203705</v>
-      </c>
-    </row>
-    <row r="27" spans="3:7">
-      <c r="C27" t="s">
-        <v>51</v>
-      </c>
-      <c r="D27" t="s">
-        <v>45</v>
-      </c>
-      <c r="E27">
-        <v>23374594048</v>
-      </c>
-      <c r="F27">
-        <v>21.769287109375</v>
-      </c>
-      <c r="G27" s="17">
-        <v>42346.488321759258</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6">
-      <c r="B36" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" t="s">
-        <v>57</v>
-      </c>
-      <c r="D36" t="s">
-        <v>45</v>
-      </c>
-      <c r="E36">
-        <v>2091909120</v>
-      </c>
-      <c r="F36">
-        <v>1.9482421875</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6">
-      <c r="B37" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37" t="s">
-        <v>58</v>
-      </c>
-      <c r="D37" t="s">
-        <v>45</v>
-      </c>
-      <c r="E37">
-        <v>5812453376</v>
-      </c>
-      <c r="F37">
-        <v>5.41326904296875</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6">
-      <c r="B38" t="s">
-        <v>43</v>
-      </c>
-      <c r="C38" t="s">
-        <v>59</v>
-      </c>
-      <c r="D38" t="s">
-        <v>45</v>
-      </c>
-      <c r="E38">
-        <v>2920284160</v>
-      </c>
-      <c r="F38">
-        <v>2.7197265625</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6">
-      <c r="B39" t="s">
-        <v>43</v>
-      </c>
-      <c r="C39" t="s">
-        <v>60</v>
-      </c>
-      <c r="D39" t="s">
-        <v>45</v>
-      </c>
-      <c r="E39">
-        <v>3493855232</v>
-      </c>
-      <c r="F39">
-        <v>3.25390625</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6">
-      <c r="B40" t="s">
-        <v>43</v>
-      </c>
-      <c r="C40" t="s">
-        <v>61</v>
-      </c>
-      <c r="D40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E40">
-        <v>3783262208</v>
-      </c>
-      <c r="F40">
-        <v>3.5234375</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6">
-      <c r="B41" t="s">
-        <v>43</v>
-      </c>
-      <c r="C41" t="s">
-        <v>62</v>
-      </c>
-      <c r="D41" t="s">
-        <v>45</v>
-      </c>
-      <c r="E41">
-        <v>4091543552</v>
-      </c>
-      <c r="F41">
-        <v>3.810546875</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6">
-      <c r="B42" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42" t="s">
-        <v>63</v>
-      </c>
-      <c r="D42" t="s">
-        <v>45</v>
-      </c>
-      <c r="E42">
-        <v>4424990720</v>
-      </c>
-      <c r="F42">
-        <v>4.12109375</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/风险管控月出账流程/风险管控出账流程v2.xlsx
+++ b/风险管控月出账流程/风险管控出账流程v2.xlsx
@@ -3100,7 +3100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="346">
   <si>
     <t>4号/5号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -4792,10 +4792,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>700020017（经分）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>etl:300030064</t>
     </r>
@@ -5004,10 +5000,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ctinter.INTF_DATA_M （财报推送的数据）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>应收账款前置_调度流 （经分流程）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -5071,10 +5063,6 @@
   </si>
   <si>
     <t>当月养卡+次月养卡+（日流程7号）按天用户发展质量结构</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>增值业务第四月欠费（4个月前的数据）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -5145,6 +5133,92 @@
       </rPr>
       <t>报表）</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>欠费统计-I类客户(16新口径)（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>报表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>销帐前_欠费待列金额取待列表（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>报表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）（经分）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">终端补贴台账信息模板 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（自动调）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑名单渠道  （自动调 每月11号  早上8点）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【FXGK】月欠费回收滚动视图_调度流（自动调 每月1号 13:00）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础欠费（经分）+库内欠费分析表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>佣金数据抽取</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -5175,81 +5249,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>欠费统计-I类客户(16新口径)（</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>报表</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>销帐前_欠费待列金额取待列表（</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>报表</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）（经分）</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">终端补贴台账信息模板 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（自动调）</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑名单渠道  （自动调 每月11号  早上8点）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>【FXGK】月欠费回收滚动视图_调度流（自动调 每月1号 13:00）</t>
+    <t>700020017（经分）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctinter.INTF_DATA_M （财报推送的数据）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -6221,209 +6225,224 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="19" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6431,21 +6450,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="19" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6469,15 +6473,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>904875</xdr:colOff>
+      <xdr:colOff>588552</xdr:colOff>
       <xdr:row>82</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1657350</xdr:colOff>
+      <xdr:colOff>1533525</xdr:colOff>
       <xdr:row>93</xdr:row>
-      <xdr:rowOff>687601</xdr:rowOff>
+      <xdr:rowOff>704850</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6495,8 +6499,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2066925" y="18888075"/>
-          <a:ext cx="8486775" cy="2440201"/>
+          <a:off x="1750602" y="18745200"/>
+          <a:ext cx="8679273" cy="2495550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6910,7 +6914,7 @@
       <c r="A8" s="201"/>
       <c r="B8" s="19"/>
       <c r="C8" s="31" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D8" t="s">
         <v>84</v>
@@ -7304,7 +7308,7 @@
     <row r="40" spans="1:5" ht="18.75">
       <c r="A40" s="201"/>
       <c r="B40" s="206" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C40" s="39" t="s">
         <v>109</v>
@@ -7567,7 +7571,7 @@
         <v>25</v>
       </c>
       <c r="D62" s="141" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="63" spans="1:5" s="4" customFormat="1" ht="18.75" customHeight="1">
@@ -7646,7 +7650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -7733,7 +7737,7 @@
     <row r="6" spans="1:7" s="88" customFormat="1">
       <c r="A6" s="208"/>
       <c r="B6" s="79"/>
-      <c r="C6" s="156" t="s">
+      <c r="C6" s="155" t="s">
         <v>65</v>
       </c>
       <c r="D6" s="76" t="s">
@@ -8001,7 +8005,7 @@
       <c r="F26" s="81"/>
     </row>
     <row r="27" spans="1:7" s="81" customFormat="1">
-      <c r="A27" s="225">
+      <c r="A27" s="214">
         <v>43289</v>
       </c>
       <c r="B27" s="105" t="s">
@@ -8016,7 +8020,7 @@
       <c r="E27" s="75"/>
     </row>
     <row r="28" spans="1:7" s="81" customFormat="1" ht="18.75">
-      <c r="A28" s="225"/>
+      <c r="A28" s="214"/>
       <c r="B28" s="105" t="s">
         <v>20</v>
       </c>
@@ -8030,7 +8034,7 @@
       <c r="F28" s="88"/>
     </row>
     <row r="29" spans="1:7" s="88" customFormat="1">
-      <c r="A29" s="225"/>
+      <c r="A29" s="214"/>
       <c r="B29" s="105" t="s">
         <v>219</v>
       </c>
@@ -8044,7 +8048,7 @@
       <c r="F29" s="77"/>
     </row>
     <row r="30" spans="1:7" ht="18.75">
-      <c r="A30" s="225"/>
+      <c r="A30" s="214"/>
       <c r="B30" t="s">
         <v>220</v>
       </c>
@@ -8058,7 +8062,7 @@
       <c r="F30" s="81"/>
     </row>
     <row r="31" spans="1:7" s="90" customFormat="1" ht="18.75">
-      <c r="A31" s="225"/>
+      <c r="A31" s="214"/>
       <c r="B31" s="105" t="s">
         <v>224</v>
       </c>
@@ -8072,7 +8076,7 @@
       <c r="F31" s="81"/>
     </row>
     <row r="32" spans="1:7" s="81" customFormat="1" ht="18.75">
-      <c r="A32" s="225"/>
+      <c r="A32" s="214"/>
       <c r="B32" s="105" t="s">
         <v>214</v>
       </c>
@@ -8086,7 +8090,7 @@
       <c r="F32" s="88"/>
     </row>
     <row r="33" spans="1:6" ht="27">
-      <c r="A33" s="225"/>
+      <c r="A33" s="214"/>
       <c r="B33" s="110"/>
       <c r="C33" s="95" t="s">
         <v>232</v>
@@ -8098,7 +8102,7 @@
       <c r="F33" s="60"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="225"/>
+      <c r="A34" s="214"/>
       <c r="B34" s="79"/>
       <c r="C34" s="67" t="s">
         <v>112</v>
@@ -8107,7 +8111,7 @@
       <c r="E34" s="76"/>
     </row>
     <row r="35" spans="1:6" ht="40.5">
-      <c r="A35" s="225"/>
+      <c r="A35" s="214"/>
       <c r="B35" s="68" t="s">
         <v>140</v>
       </c>
@@ -8117,12 +8121,12 @@
       <c r="D35" s="76" t="s">
         <v>141</v>
       </c>
-      <c r="E35" s="210" t="s">
+      <c r="E35" s="215" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A36" s="225"/>
+      <c r="A36" s="214"/>
       <c r="B36" t="s">
         <v>222</v>
       </c>
@@ -8132,10 +8136,10 @@
       <c r="D36" s="119" t="s">
         <v>223</v>
       </c>
-      <c r="E36" s="211"/>
+      <c r="E36" s="210"/>
     </row>
     <row r="37" spans="1:6" ht="54">
-      <c r="A37" s="225"/>
+      <c r="A37" s="214"/>
       <c r="B37" s="121" t="s">
         <v>226</v>
       </c>
@@ -8145,34 +8149,34 @@
       <c r="D37" s="122" t="s">
         <v>142</v>
       </c>
-      <c r="E37" s="211"/>
+      <c r="E37" s="210"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="225"/>
-      <c r="B38" s="180" t="s">
-        <v>302</v>
+      <c r="A38" s="214"/>
+      <c r="B38" s="179" t="s">
+        <v>301</v>
       </c>
       <c r="C38" s="123" t="s">
         <v>205</v>
       </c>
-      <c r="D38" s="180" t="s">
-        <v>301</v>
-      </c>
-      <c r="E38" s="211"/>
+      <c r="D38" s="179" t="s">
+        <v>300</v>
+      </c>
+      <c r="E38" s="210"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="225"/>
+      <c r="A39" s="214"/>
       <c r="B39" s="76"/>
       <c r="C39" s="123" t="s">
         <v>164</v>
       </c>
-      <c r="D39" s="180" t="s">
-        <v>303</v>
-      </c>
-      <c r="E39" s="211"/>
+      <c r="D39" s="179" t="s">
+        <v>302</v>
+      </c>
+      <c r="E39" s="210"/>
     </row>
     <row r="40" spans="1:6" ht="27">
-      <c r="A40" s="225"/>
+      <c r="A40" s="214"/>
       <c r="B40" s="17" t="s">
         <v>230</v>
       </c>
@@ -8182,10 +8186,10 @@
       <c r="D40" s="122" t="s">
         <v>187</v>
       </c>
-      <c r="E40" s="211"/>
+      <c r="E40" s="210"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="225"/>
+      <c r="A41" s="214"/>
       <c r="B41" s="76"/>
       <c r="C41" s="123" t="s">
         <v>113</v>
@@ -8193,10 +8197,10 @@
       <c r="D41" s="122" t="s">
         <v>186</v>
       </c>
-      <c r="E41" s="211"/>
+      <c r="E41" s="210"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="225"/>
+      <c r="A42" s="214"/>
       <c r="B42" s="76" t="s">
         <v>145</v>
       </c>
@@ -8206,10 +8210,10 @@
       <c r="D42" s="76" t="s">
         <v>144</v>
       </c>
-      <c r="E42" s="211"/>
+      <c r="E42" s="210"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="225"/>
+      <c r="A43" s="214"/>
       <c r="B43" s="76" t="s">
         <v>146</v>
       </c>
@@ -8219,12 +8223,12 @@
       <c r="D43" s="76" t="s">
         <v>166</v>
       </c>
-      <c r="E43" s="211"/>
+      <c r="E43" s="210"/>
     </row>
     <row r="44" spans="1:6" ht="18.75">
-      <c r="A44" s="225"/>
-      <c r="B44" s="213" t="s">
-        <v>336</v>
+      <c r="A44" s="214"/>
+      <c r="B44" s="221" t="s">
+        <v>333</v>
       </c>
       <c r="C44" s="144" t="s">
         <v>178</v>
@@ -8232,36 +8236,36 @@
       <c r="D44" s="143" t="s">
         <v>160</v>
       </c>
-      <c r="E44" s="200"/>
-      <c r="F44" s="154"/>
+      <c r="E44" s="199"/>
+      <c r="F44" s="153"/>
     </row>
     <row r="45" spans="1:6" ht="18.75">
-      <c r="A45" s="225"/>
-      <c r="B45" s="212"/>
+      <c r="A45" s="214"/>
+      <c r="B45" s="211"/>
       <c r="C45" s="142" t="s">
         <v>179</v>
       </c>
       <c r="D45" s="143" t="s">
         <v>160</v>
       </c>
-      <c r="E45" s="200"/>
-      <c r="F45" s="154"/>
+      <c r="E45" s="199"/>
+      <c r="F45" s="153"/>
     </row>
     <row r="46" spans="1:6" ht="18.75">
-      <c r="A46" s="225"/>
-      <c r="B46" s="212"/>
+      <c r="A46" s="214"/>
+      <c r="B46" s="211"/>
       <c r="C46" s="142" t="s">
         <v>180</v>
       </c>
       <c r="D46" s="143" t="s">
         <v>160</v>
       </c>
-      <c r="E46" s="200"/>
-      <c r="F46" s="154"/>
+      <c r="E46" s="199"/>
+      <c r="F46" s="153"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" customHeight="1"/>
     <row r="48" spans="1:6" ht="32.25" customHeight="1">
-      <c r="A48" s="214" t="s">
+      <c r="A48" s="218" t="s">
         <v>153</v>
       </c>
       <c r="B48" s="69" t="s">
@@ -8277,7 +8281,7 @@
       <c r="F48" s="91"/>
     </row>
     <row r="49" spans="1:6" ht="38.25" customHeight="1">
-      <c r="A49" s="215"/>
+      <c r="A49" s="219"/>
       <c r="B49" s="70" t="s">
         <v>167</v>
       </c>
@@ -8293,7 +8297,7 @@
       <c r="F49" s="92"/>
     </row>
     <row r="50" spans="1:6" ht="38.25" customHeight="1">
-      <c r="A50" s="215"/>
+      <c r="A50" s="219"/>
       <c r="B50" s="130" t="s">
         <v>241</v>
       </c>
@@ -8309,8 +8313,8 @@
       <c r="F50" s="92"/>
     </row>
     <row r="51" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A51" s="215"/>
-      <c r="B51" s="211" t="s">
+      <c r="A51" s="219"/>
+      <c r="B51" s="210" t="s">
         <v>233</v>
       </c>
       <c r="C51" s="104" t="s">
@@ -8323,8 +8327,8 @@
       <c r="F51" s="92"/>
     </row>
     <row r="52" spans="1:6" ht="26.25" customHeight="1">
-      <c r="A52" s="215"/>
-      <c r="B52" s="212"/>
+      <c r="A52" s="219"/>
+      <c r="B52" s="211"/>
       <c r="C52" s="64" t="s">
         <v>231</v>
       </c>
@@ -8335,7 +8339,7 @@
       <c r="F52" s="92"/>
     </row>
     <row r="53" spans="1:6" ht="18.75">
-      <c r="A53" s="215"/>
+      <c r="A53" s="219"/>
       <c r="B53" s="78" t="s">
         <v>139</v>
       </c>
@@ -8349,7 +8353,7 @@
       <c r="F53" s="91"/>
     </row>
     <row r="54" spans="1:6" ht="18.75">
-      <c r="A54" s="215"/>
+      <c r="A54" s="219"/>
       <c r="B54" s="79" t="s">
         <v>66</v>
       </c>
@@ -8363,7 +8367,7 @@
       <c r="F54" s="91"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="215"/>
+      <c r="A55" s="219"/>
       <c r="B55" s="79" t="s">
         <v>169</v>
       </c>
@@ -8377,7 +8381,7 @@
       <c r="F55" s="91"/>
     </row>
     <row r="56" spans="1:6" ht="27">
-      <c r="A56" s="215"/>
+      <c r="A56" s="219"/>
       <c r="B56" s="107" t="s">
         <v>202</v>
       </c>
@@ -8391,15 +8395,15 @@
       <c r="F56" s="91"/>
     </row>
     <row r="57" spans="1:6" ht="27">
-      <c r="A57" s="216"/>
+      <c r="A57" s="220"/>
       <c r="B57" s="129" t="s">
         <v>239</v>
       </c>
       <c r="C57" s="145" t="s">
+        <v>283</v>
+      </c>
+      <c r="D57" s="174" t="s">
         <v>284</v>
-      </c>
-      <c r="D57" s="175" t="s">
-        <v>285</v>
       </c>
       <c r="E57" s="117"/>
       <c r="F57" s="91"/>
@@ -8437,7 +8441,7 @@
       <c r="F60" s="91"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="223" t="s">
+      <c r="A61" s="216" t="s">
         <v>181</v>
       </c>
       <c r="B61" s="64" t="s">
@@ -8453,7 +8457,7 @@
       <c r="F61" s="91"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="224"/>
+      <c r="A62" s="217"/>
       <c r="B62" s="73" t="s">
         <v>17</v>
       </c>
@@ -8467,7 +8471,7 @@
       <c r="F62" s="91"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="224"/>
+      <c r="A63" s="217"/>
       <c r="B63" s="73" t="s">
         <v>171</v>
       </c>
@@ -8481,7 +8485,7 @@
       <c r="F63" s="91"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="224"/>
+      <c r="A64" s="217"/>
       <c r="B64" s="73" t="s">
         <v>17</v>
       </c>
@@ -8495,7 +8499,7 @@
       <c r="F64" s="91"/>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="224"/>
+      <c r="A65" s="217"/>
       <c r="B65" s="64" t="s">
         <v>18</v>
       </c>
@@ -8509,7 +8513,7 @@
       <c r="F65" s="91"/>
     </row>
     <row r="66" spans="1:6" ht="18.75">
-      <c r="A66" s="224"/>
+      <c r="A66" s="217"/>
       <c r="B66" s="59" t="s">
         <v>154</v>
       </c>
@@ -8523,7 +8527,7 @@
       <c r="F66" s="91"/>
     </row>
     <row r="67" spans="1:6" ht="18.75">
-      <c r="A67" s="224"/>
+      <c r="A67" s="217"/>
       <c r="B67" s="64"/>
       <c r="C67" s="73" t="s">
         <v>174</v>
@@ -8535,49 +8539,49 @@
       <c r="F67" s="91"/>
     </row>
     <row r="68" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A68" s="224"/>
+      <c r="A68" s="217"/>
       <c r="B68" s="73" t="s">
         <v>174</v>
       </c>
       <c r="C68" s="74" t="s">
         <v>175</v>
       </c>
-      <c r="D68" s="195" t="s">
-        <v>327</v>
+      <c r="D68" s="194" t="s">
+        <v>325</v>
       </c>
       <c r="E68" s="76"/>
-      <c r="F68" s="221" t="s">
-        <v>325</v>
+      <c r="F68" s="212" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="14.25">
-      <c r="A69" s="224"/>
+      <c r="A69" s="217"/>
       <c r="B69" s="73" t="s">
         <v>175</v>
       </c>
       <c r="C69" s="74" t="s">
-        <v>289</v>
-      </c>
-      <c r="D69" s="174" t="s">
-        <v>286</v>
+        <v>288</v>
+      </c>
+      <c r="D69" s="173" t="s">
+        <v>285</v>
       </c>
       <c r="E69" s="76"/>
-      <c r="F69" s="222"/>
+      <c r="F69" s="213"/>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="224"/>
+      <c r="A70" s="217"/>
       <c r="B70" s="64"/>
       <c r="C70" s="79" t="s">
         <v>176</v>
       </c>
-      <c r="D70" s="174" t="s">
-        <v>288</v>
+      <c r="D70" s="173" t="s">
+        <v>287</v>
       </c>
       <c r="E70" s="76"/>
       <c r="F70" s="91"/>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="224"/>
+      <c r="A71" s="217"/>
       <c r="B71" s="64"/>
       <c r="C71" s="79" t="s">
         <v>177</v>
@@ -8613,14 +8617,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15.25" style="88" customWidth="1"/>
-    <col min="2" max="2" width="48.125" style="153" customWidth="1"/>
+    <col min="2" max="2" width="48.125" style="152" customWidth="1"/>
     <col min="3" max="3" width="53.375" style="81" customWidth="1"/>
     <col min="4" max="4" width="38.625" style="81" customWidth="1"/>
     <col min="5" max="5" width="61.25" style="81" bestFit="1" customWidth="1"/>
@@ -8643,16 +8647,16 @@
       <c r="A2" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="155" t="s">
+      <c r="B2" s="154" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="93" t="s">
         <v>263</v>
       </c>
-      <c r="D2" s="155" t="s">
+      <c r="D2" s="154" t="s">
         <v>271</v>
       </c>
-      <c r="E2" s="155" t="s">
+      <c r="E2" s="154" t="s">
         <v>268</v>
       </c>
     </row>
@@ -8660,13 +8664,13 @@
       <c r="A3" s="97" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="159" t="s">
+      <c r="B3" s="158" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="156" t="s">
-        <v>344</v>
-      </c>
-      <c r="D3" s="156" t="s">
+      <c r="C3" s="155" t="s">
+        <v>340</v>
+      </c>
+      <c r="D3" s="155" t="s">
         <v>272</v>
       </c>
       <c r="E3" s="95"/>
@@ -8675,7 +8679,7 @@
       <c r="A4" s="208" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="151"/>
+      <c r="B4" s="150"/>
       <c r="C4" s="95" t="s">
         <v>73</v>
       </c>
@@ -8688,14 +8692,14 @@
     </row>
     <row r="5" spans="1:7" s="88" customFormat="1">
       <c r="A5" s="208"/>
-      <c r="B5" s="151"/>
-      <c r="C5" s="156" t="s">
+      <c r="B5" s="150"/>
+      <c r="C5" s="155" t="s">
         <v>275</v>
       </c>
       <c r="D5" s="130" t="s">
         <v>129</v>
       </c>
-      <c r="E5" s="154" t="s">
+      <c r="E5" s="153" t="s">
         <v>276</v>
       </c>
       <c r="F5" s="77"/>
@@ -8703,7 +8707,7 @@
     </row>
     <row r="6" spans="1:7" s="88" customFormat="1">
       <c r="A6" s="208"/>
-      <c r="B6" s="151"/>
+      <c r="B6" s="150"/>
       <c r="C6" s="95" t="s">
         <v>65</v>
       </c>
@@ -8716,8 +8720,8 @@
     </row>
     <row r="7" spans="1:7" s="88" customFormat="1">
       <c r="A7" s="208"/>
-      <c r="B7" s="151"/>
-      <c r="C7" s="156" t="s">
+      <c r="B7" s="150"/>
+      <c r="C7" s="155" t="s">
         <v>270</v>
       </c>
       <c r="D7" s="130" t="s">
@@ -8745,9 +8749,9 @@
     </row>
     <row r="10" spans="1:7" s="88" customFormat="1">
       <c r="A10" s="209" t="s">
-        <v>293</v>
-      </c>
-      <c r="B10" s="159" t="s">
+        <v>292</v>
+      </c>
+      <c r="B10" s="158" t="s">
         <v>77</v>
       </c>
       <c r="C10" s="61" t="s">
@@ -8762,10 +8766,10 @@
     </row>
     <row r="11" spans="1:7" s="88" customFormat="1" ht="27">
       <c r="A11" s="209"/>
-      <c r="B11" s="160" t="s">
+      <c r="B11" s="159" t="s">
         <v>199</v>
       </c>
-      <c r="C11" s="151" t="s">
+      <c r="C11" s="150" t="s">
         <v>277</v>
       </c>
       <c r="D11" s="128" t="s">
@@ -8777,40 +8781,40 @@
     </row>
     <row r="12" spans="1:7" s="88" customFormat="1">
       <c r="A12" s="209"/>
-      <c r="B12" s="159" t="s">
+      <c r="B12" s="158" t="s">
         <v>78</v>
       </c>
       <c r="C12" s="142" t="s">
-        <v>329</v>
-      </c>
-      <c r="D12" s="177" t="s">
+        <v>327</v>
+      </c>
+      <c r="D12" s="176" t="s">
+        <v>289</v>
+      </c>
+      <c r="E12" s="170" t="s">
         <v>290</v>
-      </c>
-      <c r="E12" s="171" t="s">
-        <v>291</v>
       </c>
       <c r="F12" s="60"/>
       <c r="G12" s="77"/>
     </row>
     <row r="13" spans="1:7" s="88" customFormat="1">
       <c r="A13" s="209"/>
-      <c r="B13" s="161" t="s">
+      <c r="B13" s="160" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="125" t="s">
         <v>211</v>
       </c>
-      <c r="D13" s="176" t="s">
+      <c r="D13" s="175" t="s">
         <v>221</v>
       </c>
-      <c r="E13" s="158"/>
+      <c r="E13" s="157"/>
       <c r="F13" s="77"/>
       <c r="G13" s="77"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="209"/>
-      <c r="B14" s="161"/>
-      <c r="C14" s="165" t="s">
+      <c r="B14" s="160"/>
+      <c r="C14" s="164" t="s">
         <v>274</v>
       </c>
       <c r="D14" s="130" t="s">
@@ -8820,7 +8824,7 @@
     </row>
     <row r="15" spans="1:7" s="88" customFormat="1">
       <c r="A15" s="209"/>
-      <c r="B15" s="161"/>
+      <c r="B15" s="160"/>
       <c r="C15" s="125" t="s">
         <v>132</v>
       </c>
@@ -8833,7 +8837,7 @@
     </row>
     <row r="16" spans="1:7" s="81" customFormat="1">
       <c r="A16" s="209"/>
-      <c r="B16" s="161" t="s">
+      <c r="B16" s="160" t="s">
         <v>26</v>
       </c>
       <c r="C16" s="62" t="s">
@@ -8848,7 +8852,7 @@
     </row>
     <row r="17" spans="1:7" s="87" customFormat="1">
       <c r="A17" s="209"/>
-      <c r="B17" s="161"/>
+      <c r="B17" s="160"/>
       <c r="C17" s="129"/>
       <c r="D17" s="91"/>
       <c r="E17" s="91"/>
@@ -8859,7 +8863,7 @@
       <c r="A18" s="208" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="159"/>
+      <c r="B18" s="158"/>
       <c r="C18" s="98" t="s">
         <v>194</v>
       </c>
@@ -8871,7 +8875,7 @@
     </row>
     <row r="19" spans="1:7" s="81" customFormat="1">
       <c r="A19" s="208"/>
-      <c r="B19" s="162" t="s">
+      <c r="B19" s="161" t="s">
         <v>194</v>
       </c>
       <c r="C19" s="98" t="s">
@@ -8884,7 +8888,7 @@
     </row>
     <row r="20" spans="1:7" s="86" customFormat="1">
       <c r="A20" s="208"/>
-      <c r="B20" s="167" t="s">
+      <c r="B20" s="166" t="s">
         <v>194</v>
       </c>
       <c r="C20" s="98" t="s">
@@ -8898,7 +8902,7 @@
     </row>
     <row r="21" spans="1:7" s="85" customFormat="1">
       <c r="A21" s="208"/>
-      <c r="B21" s="159"/>
+      <c r="B21" s="158"/>
       <c r="C21" s="98" t="s">
         <v>49</v>
       </c>
@@ -8910,7 +8914,7 @@
     </row>
     <row r="22" spans="1:7" s="81" customFormat="1">
       <c r="A22" s="208"/>
-      <c r="B22" s="159" t="s">
+      <c r="B22" s="158" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="95" t="s">
@@ -8923,7 +8927,7 @@
     </row>
     <row r="23" spans="1:7" s="81" customFormat="1">
       <c r="A23" s="208"/>
-      <c r="B23" s="159"/>
+      <c r="B23" s="158"/>
       <c r="C23" s="98" t="s">
         <v>51</v>
       </c>
@@ -8935,7 +8939,7 @@
     </row>
     <row r="24" spans="1:7" s="88" customFormat="1">
       <c r="A24" s="208"/>
-      <c r="B24" s="163"/>
+      <c r="B24" s="162"/>
       <c r="C24" s="99" t="s">
         <v>52</v>
       </c>
@@ -8947,44 +8951,44 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="120"/>
-      <c r="B25" s="152"/>
+      <c r="B25" s="151"/>
       <c r="C25" s="66"/>
       <c r="D25" s="131"/>
       <c r="E25" s="130"/>
       <c r="F25" s="81"/>
     </row>
     <row r="26" spans="1:7" ht="27">
-      <c r="A26" s="199"/>
-      <c r="B26" s="197" t="s">
-        <v>331</v>
+      <c r="A26" s="198"/>
+      <c r="B26" s="196" t="s">
+        <v>329</v>
       </c>
       <c r="C26" s="145" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D26" s="144">
         <v>3003059</v>
       </c>
-      <c r="E26" s="196"/>
-      <c r="F26" s="153"/>
+      <c r="E26" s="195"/>
+      <c r="F26" s="152"/>
     </row>
     <row r="27" spans="1:7" s="81" customFormat="1">
-      <c r="A27" s="225" t="s">
-        <v>294</v>
-      </c>
-      <c r="B27" s="159" t="s">
+      <c r="A27" s="214" t="s">
+        <v>293</v>
+      </c>
+      <c r="B27" s="158" t="s">
         <v>218</v>
       </c>
-      <c r="C27" s="156" t="s">
+      <c r="C27" s="155" t="s">
+        <v>303</v>
+      </c>
+      <c r="D27" s="155" t="s">
         <v>304</v>
       </c>
-      <c r="D27" s="156" t="s">
-        <v>305</v>
-      </c>
       <c r="E27" s="132"/>
     </row>
     <row r="28" spans="1:7" s="81" customFormat="1" ht="14.25">
-      <c r="A28" s="225"/>
-      <c r="B28" s="159" t="s">
+      <c r="A28" s="214"/>
+      <c r="B28" s="158" t="s">
         <v>20</v>
       </c>
       <c r="C28" s="140" t="s">
@@ -8997,8 +9001,8 @@
       <c r="F28" s="88"/>
     </row>
     <row r="29" spans="1:7" s="88" customFormat="1">
-      <c r="A29" s="225"/>
-      <c r="B29" s="159" t="s">
+      <c r="A29" s="214"/>
+      <c r="B29" s="158" t="s">
         <v>219</v>
       </c>
       <c r="C29" s="95" t="s">
@@ -9011,9 +9015,9 @@
       <c r="F29" s="77"/>
     </row>
     <row r="30" spans="1:7" ht="27">
-      <c r="A30" s="225"/>
-      <c r="B30" s="182" t="s">
-        <v>306</v>
+      <c r="A30" s="214"/>
+      <c r="B30" s="181" t="s">
+        <v>305</v>
       </c>
       <c r="C30" s="101" t="s">
         <v>46</v>
@@ -9025,52 +9029,52 @@
       <c r="F30" s="81"/>
     </row>
     <row r="31" spans="1:7" s="90" customFormat="1" ht="18.75">
-      <c r="A31" s="225"/>
+      <c r="A31" s="214"/>
       <c r="B31" s="137" t="s">
         <v>264</v>
       </c>
       <c r="C31" s="124" t="s">
         <v>265</v>
       </c>
-      <c r="D31" s="168">
+      <c r="D31" s="167">
         <v>3003227</v>
       </c>
-      <c r="E31" s="172" t="s">
+      <c r="E31" s="171" t="s">
         <v>278</v>
       </c>
       <c r="F31" s="81"/>
     </row>
     <row r="32" spans="1:7" s="81" customFormat="1" ht="18.75">
-      <c r="A32" s="225"/>
+      <c r="A32" s="214"/>
       <c r="B32" s="138" t="s">
         <v>214</v>
       </c>
       <c r="C32" s="140" t="s">
         <v>265</v>
       </c>
-      <c r="D32" s="168">
+      <c r="D32" s="167">
         <v>3003224</v>
       </c>
-      <c r="E32" s="173" t="s">
+      <c r="E32" s="172" t="s">
         <v>278</v>
       </c>
       <c r="F32" s="88"/>
     </row>
-    <row r="33" spans="1:6" s="153" customFormat="1">
-      <c r="A33" s="225"/>
+    <row r="33" spans="1:6" s="152" customFormat="1">
+      <c r="A33" s="214"/>
       <c r="B33" s="138"/>
-      <c r="C33" s="157" t="s">
-        <v>296</v>
+      <c r="C33" s="156" t="s">
+        <v>295</v>
       </c>
       <c r="D33" s="128" t="s">
         <v>192</v>
       </c>
-      <c r="E33" s="173"/>
+      <c r="E33" s="172"/>
       <c r="F33" s="88"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="225"/>
-      <c r="B34" s="151"/>
+      <c r="A34" s="214"/>
+      <c r="B34" s="150"/>
       <c r="C34" s="67" t="s">
         <v>112</v>
       </c>
@@ -9078,48 +9082,48 @@
       <c r="E34" s="130"/>
     </row>
     <row r="35" spans="1:6" ht="40.5">
-      <c r="A35" s="225"/>
+      <c r="A35" s="214"/>
       <c r="B35" s="146" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C35" s="123" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D35" s="130" t="s">
         <v>141</v>
       </c>
-      <c r="E35" s="210" t="s">
+      <c r="E35" s="215" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="27">
-      <c r="A36" s="225"/>
-      <c r="B36" s="182" t="s">
-        <v>299</v>
+      <c r="A36" s="214"/>
+      <c r="B36" s="181" t="s">
+        <v>298</v>
       </c>
       <c r="C36" s="123" t="s">
         <v>91</v>
       </c>
-      <c r="D36" s="180" t="s">
-        <v>300</v>
-      </c>
-      <c r="E36" s="211"/>
+      <c r="D36" s="179" t="s">
+        <v>299</v>
+      </c>
+      <c r="E36" s="210"/>
     </row>
     <row r="37" spans="1:6" ht="54">
-      <c r="A37" s="225"/>
-      <c r="B37" s="152" t="s">
+      <c r="A37" s="214"/>
+      <c r="B37" s="151" t="s">
         <v>267</v>
       </c>
       <c r="C37" s="123" t="s">
         <v>163</v>
       </c>
-      <c r="D37" s="180" t="s">
+      <c r="D37" s="179" t="s">
         <v>142</v>
       </c>
-      <c r="E37" s="211"/>
+      <c r="E37" s="210"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="225"/>
+      <c r="A38" s="214"/>
       <c r="B38" s="149"/>
       <c r="C38" s="123" t="s">
         <v>205</v>
@@ -9127,10 +9131,10 @@
       <c r="D38" s="130" t="s">
         <v>143</v>
       </c>
-      <c r="E38" s="211"/>
+      <c r="E38" s="210"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="225"/>
+      <c r="A39" s="214"/>
       <c r="B39" s="149"/>
       <c r="C39" s="123" t="s">
         <v>164</v>
@@ -9138,11 +9142,11 @@
       <c r="D39" s="130" t="s">
         <v>165</v>
       </c>
-      <c r="E39" s="211"/>
+      <c r="E39" s="210"/>
     </row>
     <row r="40" spans="1:6" ht="27">
-      <c r="A40" s="225"/>
-      <c r="B40" s="166" t="s">
+      <c r="A40" s="214"/>
+      <c r="B40" s="165" t="s">
         <v>230</v>
       </c>
       <c r="C40" s="123" t="s">
@@ -9151,21 +9155,21 @@
       <c r="D40" s="130" t="s">
         <v>187</v>
       </c>
-      <c r="E40" s="211"/>
+      <c r="E40" s="210"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="225"/>
+      <c r="A41" s="214"/>
       <c r="B41" s="149"/>
       <c r="C41" s="123" t="s">
-        <v>332</v>
-      </c>
-      <c r="D41" s="198" t="s">
+        <v>113</v>
+      </c>
+      <c r="D41" s="197" t="s">
         <v>186</v>
       </c>
-      <c r="E41" s="211"/>
+      <c r="E41" s="210"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="225"/>
+      <c r="A42" s="214"/>
       <c r="B42" s="149" t="s">
         <v>145</v>
       </c>
@@ -9175,10 +9179,10 @@
       <c r="D42" s="130" t="s">
         <v>144</v>
       </c>
-      <c r="E42" s="211"/>
+      <c r="E42" s="210"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="225"/>
+      <c r="A43" s="214"/>
       <c r="B43" s="149" t="s">
         <v>146</v>
       </c>
@@ -9188,51 +9192,51 @@
       <c r="D43" s="130" t="s">
         <v>166</v>
       </c>
-      <c r="E43" s="211"/>
+      <c r="E43" s="210"/>
     </row>
     <row r="44" spans="1:6" ht="14.25">
-      <c r="A44" s="225"/>
-      <c r="B44" s="213" t="s">
-        <v>336</v>
+      <c r="A44" s="214"/>
+      <c r="B44" s="221" t="s">
+        <v>333</v>
       </c>
       <c r="C44" s="144" t="s">
-        <v>334</v>
-      </c>
-      <c r="D44" s="169">
+        <v>331</v>
+      </c>
+      <c r="D44" s="168">
         <v>3003223</v>
       </c>
-      <c r="E44" s="172" t="s">
+      <c r="E44" s="171" t="s">
         <v>278</v>
       </c>
-      <c r="F44" s="154"/>
+      <c r="F44" s="153"/>
     </row>
     <row r="45" spans="1:6" ht="14.25">
-      <c r="A45" s="225"/>
-      <c r="B45" s="212"/>
+      <c r="A45" s="214"/>
+      <c r="B45" s="211"/>
       <c r="C45" s="142" t="s">
-        <v>341</v>
-      </c>
-      <c r="D45" s="169" t="s">
-        <v>335</v>
-      </c>
-      <c r="E45" s="172" t="s">
+        <v>337</v>
+      </c>
+      <c r="D45" s="168" t="s">
+        <v>332</v>
+      </c>
+      <c r="E45" s="171" t="s">
         <v>278</v>
       </c>
-      <c r="F45" s="154"/>
+      <c r="F45" s="153"/>
     </row>
     <row r="46" spans="1:6" ht="14.25">
-      <c r="A46" s="225"/>
-      <c r="B46" s="212"/>
+      <c r="A46" s="214"/>
+      <c r="B46" s="211"/>
       <c r="C46" s="142" t="s">
-        <v>333</v>
-      </c>
-      <c r="D46" s="169" t="s">
-        <v>281</v>
-      </c>
-      <c r="E46" s="172" t="s">
+        <v>330</v>
+      </c>
+      <c r="D46" s="168" t="s">
+        <v>344</v>
+      </c>
+      <c r="E46" s="171" t="s">
         <v>278</v>
       </c>
-      <c r="F46" s="154"/>
+      <c r="F46" s="153"/>
     </row>
     <row r="47" spans="1:6" ht="18.75" customHeight="1">
       <c r="A47" s="136"/>
@@ -9241,16 +9245,16 @@
       <c r="D47" s="130"/>
       <c r="E47" s="130"/>
     </row>
-    <row r="48" spans="1:6" ht="14.25">
+    <row r="48" spans="1:6" ht="23.25" customHeight="1">
       <c r="A48" s="208" t="s">
         <v>248</v>
       </c>
-      <c r="B48" s="164"/>
-      <c r="C48" s="156" t="s">
+      <c r="B48" s="163"/>
+      <c r="C48" s="155" t="s">
         <v>262</v>
       </c>
       <c r="D48" s="135" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E48" s="145" t="s">
         <v>269</v>
@@ -9266,7 +9270,7 @@
         <v>125</v>
       </c>
       <c r="D49" s="147" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E49" s="149"/>
       <c r="F49" s="91"/>
@@ -9277,10 +9281,10 @@
         <v>246</v>
       </c>
       <c r="C50" s="142" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D50" s="111" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E50" s="144" t="s">
         <v>279</v>
@@ -9305,70 +9309,70 @@
     </row>
     <row r="52" spans="1:6" ht="18.75">
       <c r="A52" s="208"/>
-      <c r="B52" s="211" t="s">
+      <c r="B52" s="210" t="s">
         <v>247</v>
       </c>
-      <c r="C52" s="158" t="s">
-        <v>337</v>
+      <c r="C52" s="157" t="s">
+        <v>334</v>
       </c>
       <c r="D52" s="63">
         <v>3003222</v>
       </c>
-      <c r="E52" s="172" t="s">
+      <c r="E52" s="171" t="s">
         <v>278</v>
       </c>
       <c r="F52" s="92"/>
     </row>
     <row r="53" spans="1:6" ht="18.75">
       <c r="A53" s="208"/>
-      <c r="B53" s="212"/>
+      <c r="B53" s="211"/>
       <c r="C53" s="144" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D53" s="63">
         <v>3003226</v>
       </c>
-      <c r="E53" s="172" t="s">
+      <c r="E53" s="171" t="s">
         <v>278</v>
       </c>
       <c r="F53" s="92"/>
     </row>
     <row r="54" spans="1:6" ht="18.75">
       <c r="A54" s="208"/>
-      <c r="B54" s="150" t="s">
-        <v>139</v>
+      <c r="B54" s="200" t="s">
+        <v>341</v>
       </c>
       <c r="C54" s="142" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="D54" s="143">
         <v>700020015</v>
       </c>
-      <c r="E54" s="172" t="s">
+      <c r="E54" s="171" t="s">
         <v>278</v>
       </c>
       <c r="F54" s="91"/>
     </row>
     <row r="55" spans="1:6" ht="18.75">
       <c r="A55" s="208"/>
-      <c r="B55" s="151" t="s">
+      <c r="B55" s="150" t="s">
         <v>66</v>
       </c>
       <c r="C55" s="144" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D55" s="63">
         <v>3003221</v>
       </c>
-      <c r="E55" s="172" t="s">
+      <c r="E55" s="171" t="s">
         <v>278</v>
       </c>
       <c r="F55" s="91"/>
     </row>
     <row r="56" spans="1:6" ht="20.25" customHeight="1">
       <c r="A56" s="208"/>
-      <c r="B56" s="181" t="s">
-        <v>309</v>
+      <c r="B56" s="180" t="s">
+        <v>308</v>
       </c>
       <c r="C56" s="59" t="s">
         <v>61</v>
@@ -9381,8 +9385,8 @@
     </row>
     <row r="57" spans="1:6" ht="26.25" customHeight="1">
       <c r="A57" s="208"/>
-      <c r="B57" s="181" t="s">
-        <v>308</v>
+      <c r="B57" s="180" t="s">
+        <v>307</v>
       </c>
       <c r="C57" s="61" t="s">
         <v>249</v>
@@ -9395,7 +9399,7 @@
     </row>
     <row r="58" spans="1:6" ht="17.25" customHeight="1">
       <c r="A58" s="208"/>
-      <c r="B58" s="161" t="s">
+      <c r="B58" s="160" t="s">
         <v>249</v>
       </c>
       <c r="C58" s="133" t="s">
@@ -9409,7 +9413,7 @@
     </row>
     <row r="59" spans="1:6" ht="22.5" customHeight="1">
       <c r="A59" s="208"/>
-      <c r="B59" s="152" t="s">
+      <c r="B59" s="151" t="s">
         <v>251</v>
       </c>
       <c r="C59" s="66" t="s">
@@ -9423,7 +9427,7 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="132"/>
-      <c r="B60" s="152"/>
+      <c r="B60" s="151"/>
       <c r="C60" s="66"/>
       <c r="D60" s="131"/>
       <c r="E60" s="130"/>
@@ -9436,8 +9440,8 @@
       <c r="B61" s="149" t="s">
         <v>121</v>
       </c>
-      <c r="C61" s="200" t="s">
-        <v>342</v>
+      <c r="C61" s="199" t="s">
+        <v>338</v>
       </c>
       <c r="D61" s="130" t="s">
         <v>120</v>
@@ -9461,9 +9465,9 @@
         <v>148</v>
       </c>
       <c r="C63" s="148" t="s">
-        <v>322</v>
-      </c>
-      <c r="D63" s="196" t="s">
+        <v>320</v>
+      </c>
+      <c r="D63" s="195" t="s">
         <v>147</v>
       </c>
       <c r="E63" s="130"/>
@@ -9477,8 +9481,8 @@
       <c r="C64" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="D64" s="184" t="s">
-        <v>321</v>
+      <c r="D64" s="183" t="s">
+        <v>319</v>
       </c>
       <c r="E64" s="130"/>
       <c r="F64" s="91"/>
@@ -9491,8 +9495,8 @@
       <c r="C65" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="D65" s="183" t="s">
-        <v>323</v>
+      <c r="D65" s="182" t="s">
+        <v>321</v>
       </c>
       <c r="E65" s="130"/>
       <c r="F65" s="91"/>
@@ -9502,10 +9506,10 @@
       <c r="B66" s="148" t="s">
         <v>17</v>
       </c>
-      <c r="C66" s="184" t="s">
-        <v>320</v>
-      </c>
-      <c r="D66" s="184" t="s">
+      <c r="C66" s="183" t="s">
+        <v>318</v>
+      </c>
+      <c r="D66" s="183" t="s">
         <v>151</v>
       </c>
       <c r="E66" s="130"/>
@@ -9533,7 +9537,7 @@
       <c r="C68" s="130" t="s">
         <v>173</v>
       </c>
-      <c r="D68" s="169">
+      <c r="D68" s="168">
         <v>3003219</v>
       </c>
       <c r="E68" s="130"/>
@@ -9542,11 +9546,11 @@
     <row r="69" spans="1:6" ht="14.25">
       <c r="A69" s="227"/>
       <c r="B69" s="144"/>
-      <c r="C69" s="73" t="s">
-        <v>174</v>
-      </c>
-      <c r="D69" s="169" t="s">
-        <v>324</v>
+      <c r="C69" s="148" t="s">
+        <v>342</v>
+      </c>
+      <c r="D69" s="168" t="s">
+        <v>322</v>
       </c>
       <c r="E69" s="130"/>
       <c r="F69" s="91"/>
@@ -9559,11 +9563,11 @@
       <c r="C70" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="D70" s="170">
+      <c r="D70" s="169">
         <v>3003228</v>
       </c>
       <c r="E70" s="130"/>
-      <c r="F70" s="210" t="s">
+      <c r="F70" s="215" t="s">
         <v>260</v>
       </c>
     </row>
@@ -9575,21 +9579,21 @@
       <c r="C71" s="74" t="s">
         <v>259</v>
       </c>
-      <c r="D71" s="170">
+      <c r="D71" s="169">
         <v>3003229</v>
       </c>
       <c r="E71" s="130"/>
-      <c r="F71" s="210"/>
+      <c r="F71" s="215"/>
     </row>
     <row r="72" spans="1:6" ht="14.25">
       <c r="A72" s="227"/>
       <c r="B72" s="144" t="s">
-        <v>328</v>
-      </c>
-      <c r="C72" s="185" t="s">
         <v>326</v>
       </c>
-      <c r="D72" s="170">
+      <c r="C72" s="184" t="s">
+        <v>324</v>
+      </c>
+      <c r="D72" s="169">
         <v>3003230</v>
       </c>
       <c r="E72" s="130"/>
@@ -9603,144 +9607,144 @@
       <c r="C73" s="128" t="s">
         <v>177</v>
       </c>
-      <c r="D73" s="170">
+      <c r="D73" s="169">
         <v>3003231</v>
       </c>
       <c r="E73" s="130"/>
       <c r="F73" s="91"/>
     </row>
-    <row r="74" spans="1:6" s="179" customFormat="1" ht="21" customHeight="1">
+    <row r="74" spans="1:6" s="178" customFormat="1" ht="21" customHeight="1">
       <c r="A74" s="227"/>
       <c r="B74" s="85" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C74" s="85" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D74" s="85">
         <v>4001002</v>
       </c>
-      <c r="E74" s="178"/>
+      <c r="E74" s="177"/>
     </row>
     <row r="75" spans="1:6" ht="21.75" customHeight="1"/>
     <row r="78" spans="1:6">
-      <c r="C78" s="191"/>
-      <c r="D78" s="191"/>
+      <c r="C78" s="190"/>
+      <c r="D78" s="190"/>
     </row>
     <row r="79" spans="1:6" ht="40.5" customHeight="1">
-      <c r="A79" s="219" t="s">
+      <c r="A79" s="224" t="s">
+        <v>312</v>
+      </c>
+      <c r="B79" s="188" t="s">
+        <v>311</v>
+      </c>
+      <c r="C79" s="186" t="s">
         <v>313</v>
       </c>
-      <c r="B79" s="189" t="s">
-        <v>312</v>
-      </c>
-      <c r="C79" s="187" t="s">
+      <c r="D79" s="186">
+        <v>4001003</v>
+      </c>
+      <c r="E79" s="193"/>
+    </row>
+    <row r="80" spans="1:6" ht="27" customHeight="1">
+      <c r="A80" s="225"/>
+      <c r="B80" s="186" t="s">
+        <v>345</v>
+      </c>
+      <c r="C80" s="186" t="s">
         <v>314</v>
       </c>
-      <c r="D79" s="187">
-        <v>4001003</v>
-      </c>
-      <c r="E79" s="194"/>
-    </row>
-    <row r="80" spans="1:6" ht="27" customHeight="1">
-      <c r="A80" s="220"/>
-      <c r="B80" s="187" t="s">
+      <c r="D80" s="186">
+        <v>700020029</v>
+      </c>
+      <c r="E80" s="191"/>
+    </row>
+    <row r="81" spans="1:5" ht="42.75" customHeight="1">
+      <c r="A81" s="225"/>
+      <c r="B81" s="187" t="s">
         <v>315</v>
       </c>
-      <c r="C80" s="187" t="s">
+      <c r="C81" s="186" t="s">
         <v>316</v>
       </c>
-      <c r="D80" s="187">
-        <v>700020029</v>
-      </c>
-      <c r="E80" s="192"/>
-    </row>
-    <row r="81" spans="1:5" ht="42.75" customHeight="1">
-      <c r="A81" s="220"/>
-      <c r="B81" s="188" t="s">
+      <c r="D81" s="186"/>
+      <c r="E81" s="192"/>
+    </row>
+    <row r="82" spans="1:5" ht="26.25" customHeight="1">
+      <c r="A82" s="225"/>
+      <c r="B82" s="186"/>
+      <c r="C82" s="186" t="s">
         <v>317</v>
       </c>
-      <c r="C81" s="187" t="s">
-        <v>318</v>
-      </c>
-      <c r="D81" s="187"/>
-      <c r="E81" s="193"/>
-    </row>
-    <row r="82" spans="1:5" ht="26.25" customHeight="1">
-      <c r="A82" s="220"/>
-      <c r="B82" s="187"/>
-      <c r="C82" s="187" t="s">
-        <v>319</v>
-      </c>
-      <c r="D82" s="187"/>
-      <c r="E82" s="192"/>
+      <c r="D82" s="186"/>
+      <c r="E82" s="191"/>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="190"/>
-      <c r="B83" s="217"/>
-      <c r="C83" s="217"/>
-      <c r="D83" s="217"/>
+      <c r="A83" s="189"/>
+      <c r="B83" s="222"/>
+      <c r="C83" s="222"/>
+      <c r="D83" s="222"/>
     </row>
     <row r="84" spans="1:5">
-      <c r="B84" s="218"/>
-      <c r="C84" s="218"/>
-      <c r="D84" s="218"/>
+      <c r="B84" s="223"/>
+      <c r="C84" s="223"/>
+      <c r="D84" s="223"/>
     </row>
     <row r="85" spans="1:5">
-      <c r="B85" s="218"/>
-      <c r="C85" s="218"/>
-      <c r="D85" s="218"/>
+      <c r="B85" s="223"/>
+      <c r="C85" s="223"/>
+      <c r="D85" s="223"/>
     </row>
     <row r="86" spans="1:5">
-      <c r="B86" s="218"/>
-      <c r="C86" s="218"/>
-      <c r="D86" s="218"/>
+      <c r="B86" s="223"/>
+      <c r="C86" s="223"/>
+      <c r="D86" s="223"/>
     </row>
     <row r="87" spans="1:5">
-      <c r="B87" s="218"/>
-      <c r="C87" s="218"/>
-      <c r="D87" s="218"/>
-      <c r="E87" s="153"/>
+      <c r="B87" s="223"/>
+      <c r="C87" s="223"/>
+      <c r="D87" s="223"/>
+      <c r="E87" s="152"/>
     </row>
     <row r="88" spans="1:5">
-      <c r="B88" s="218"/>
-      <c r="C88" s="218"/>
-      <c r="D88" s="218"/>
+      <c r="B88" s="223"/>
+      <c r="C88" s="223"/>
+      <c r="D88" s="223"/>
     </row>
     <row r="89" spans="1:5">
-      <c r="B89" s="218"/>
-      <c r="C89" s="218"/>
-      <c r="D89" s="218"/>
+      <c r="B89" s="223"/>
+      <c r="C89" s="223"/>
+      <c r="D89" s="223"/>
     </row>
     <row r="90" spans="1:5">
-      <c r="B90" s="218"/>
-      <c r="C90" s="218"/>
-      <c r="D90" s="218"/>
+      <c r="B90" s="223"/>
+      <c r="C90" s="223"/>
+      <c r="D90" s="223"/>
     </row>
     <row r="91" spans="1:5">
-      <c r="B91" s="218"/>
-      <c r="C91" s="218"/>
-      <c r="D91" s="218"/>
+      <c r="B91" s="223"/>
+      <c r="C91" s="223"/>
+      <c r="D91" s="223"/>
     </row>
     <row r="92" spans="1:5">
-      <c r="B92" s="218"/>
-      <c r="C92" s="218"/>
-      <c r="D92" s="218"/>
+      <c r="B92" s="223"/>
+      <c r="C92" s="223"/>
+      <c r="D92" s="223"/>
     </row>
     <row r="93" spans="1:5">
-      <c r="B93" s="218"/>
-      <c r="C93" s="218"/>
-      <c r="D93" s="218"/>
+      <c r="B93" s="223"/>
+      <c r="C93" s="223"/>
+      <c r="D93" s="223"/>
     </row>
     <row r="94" spans="1:5" ht="57.75" customHeight="1">
-      <c r="B94" s="218"/>
-      <c r="C94" s="218"/>
-      <c r="D94" s="218"/>
+      <c r="B94" s="223"/>
+      <c r="C94" s="223"/>
+      <c r="D94" s="223"/>
     </row>
     <row r="95" spans="1:5">
-      <c r="B95" s="186"/>
-      <c r="C95" s="186"/>
-      <c r="D95" s="153"/>
+      <c r="B95" s="185"/>
+      <c r="C95" s="185"/>
+      <c r="D95" s="152"/>
     </row>
   </sheetData>
   <mergeCells count="13">

--- a/风险管控月出账流程/风险管控出账流程v2.xlsx
+++ b/风险管控月出账流程/风险管控出账流程v2.xlsx
@@ -1917,7 +1917,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A10" authorId="1">
+    <comment ref="A9" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1945,7 +1945,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C11" authorId="0">
+    <comment ref="C10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1969,7 +1969,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C12" authorId="0">
+    <comment ref="C11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2005,7 +2005,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="1">
+    <comment ref="B12" authorId="1">
       <text>
         <r>
           <rPr>
@@ -2031,7 +2031,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C13" authorId="1">
+    <comment ref="C12" authorId="1">
       <text>
         <r>
           <rPr>
@@ -2053,11 +2053,11 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-etl调度是建表报错  导致后面流程会报错</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C18" authorId="1">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C17" authorId="1">
       <text>
         <r>
           <rPr>
@@ -2086,7 +2086,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C19" authorId="1">
+    <comment ref="C18" authorId="1">
       <text>
         <r>
           <rPr>
@@ -2115,7 +2115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C20" authorId="1">
+    <comment ref="C19" authorId="1">
       <text>
         <r>
           <rPr>
@@ -2142,7 +2142,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C21" authorId="1">
+    <comment ref="C20" authorId="1">
       <text>
         <r>
           <rPr>
@@ -2169,7 +2169,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C23" authorId="1">
+    <comment ref="C22" authorId="1">
       <text>
         <r>
           <rPr>
@@ -2196,7 +2196,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C24" authorId="1">
+    <comment ref="C23" authorId="1">
       <text>
         <r>
           <rPr>
@@ -2223,7 +2223,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C25" authorId="1">
+    <comment ref="C24" authorId="1">
       <text>
         <r>
           <rPr>
@@ -2252,7 +2252,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C27" authorId="1">
+    <comment ref="C26" authorId="1">
       <text>
         <r>
           <rPr>
@@ -2268,7 +2268,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C30" authorId="1">
+    <comment ref="C29" authorId="1">
       <text>
         <r>
           <rPr>
@@ -2294,7 +2294,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C31" authorId="0">
+    <comment ref="C30" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2318,7 +2318,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C32" authorId="0">
+    <comment ref="C31" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2342,7 +2342,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C33" authorId="0">
+    <comment ref="C32" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2368,7 +2368,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C35" authorId="0">
+    <comment ref="C34" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2392,7 +2392,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E35" authorId="1">
+    <comment ref="E34" authorId="1">
       <text>
         <r>
           <rPr>
@@ -2427,7 +2427,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C36" authorId="0">
+    <comment ref="C35" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2451,7 +2451,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C44" authorId="0">
+    <comment ref="C43" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2476,7 +2476,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C45" authorId="1">
+    <comment ref="C44" authorId="1">
       <text>
         <r>
           <rPr>
@@ -2503,7 +2503,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C46" authorId="0">
+    <comment ref="C45" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2556,7 +2556,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C49" authorId="0">
+    <comment ref="C48" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2628,7 +2628,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C50" authorId="0">
+    <comment ref="C49" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2661,7 +2661,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C52" authorId="0">
+    <comment ref="C51" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2715,7 +2715,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C53" authorId="0">
+    <comment ref="C52" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2769,7 +2769,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C54" authorId="0">
+    <comment ref="C53" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2793,7 +2793,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C55" authorId="0">
+    <comment ref="C54" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2817,7 +2817,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C59" authorId="1">
+    <comment ref="C58" authorId="1">
       <text>
         <r>
           <rPr>
@@ -2846,7 +2846,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C63" authorId="1">
+    <comment ref="C62" authorId="1">
       <text>
         <r>
           <rPr>
@@ -2873,7 +2873,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C64" authorId="1">
+    <comment ref="C63" authorId="1">
       <text>
         <r>
           <rPr>
@@ -2900,7 +2900,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C65" authorId="1">
+    <comment ref="C64" authorId="1">
       <text>
         <r>
           <rPr>
@@ -2931,7 +2931,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C66" authorId="1">
+    <comment ref="C65" authorId="1">
       <text>
         <r>
           <rPr>
@@ -2958,7 +2958,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C67" authorId="1">
+    <comment ref="C66" authorId="1">
       <text>
         <r>
           <rPr>
@@ -2985,7 +2985,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C70" authorId="1">
+    <comment ref="C69" authorId="1">
       <text>
         <r>
           <rPr>
@@ -3014,7 +3014,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C72" authorId="1">
+    <comment ref="C71" authorId="1">
       <text>
         <r>
           <rPr>
@@ -3040,7 +3040,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C73" authorId="1">
+    <comment ref="C72" authorId="1">
       <text>
         <r>
           <rPr>
@@ -3069,7 +3069,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B80" authorId="0">
+    <comment ref="B79" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3100,7 +3100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="377">
   <si>
     <t>4号/5号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -4628,10 +4628,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>省政企省商客应收账款清单</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">省政企省商客分账龄欠费 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4711,26 +4707,6 @@
   <si>
     <t xml:space="preserve"> 省政企用户清单PU_WT.WT_SERV_SHZ_ALL</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">省政企清单  ( </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>报表)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无效用户推送(月处理)</t>
   </si>
   <si>
     <t>PU_INTF.I_ACCT_ITEM_M ,PU_WT.F_1_SERV_D_JF,
@@ -4748,10 +4724,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>分摊后账单抽取</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>规则号(rule_id)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4764,19 +4736,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>库内欠费月统计基础指标(新版)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">用户支局关系月表 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>只看上月账期数据</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">省政企用户清单 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -4869,10 +4833,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>etl:3003196</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>跑0871会报表空间 错误，需在经分上跑出数据在抽到风险管控上;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4906,25 +4866,12 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>4G机卡匹配率（确认月数4G产品实例中间层入库情况）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SP用户另库金额</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>IPD_IN.I_IN_B_ACCT_ITEM_AGGR_DEL@Dl_Odl_89,
 PU_WT.F_1_SERV_D_JF,
 dsg.A_OWE_SPECIAL_SERV@Dl_Odl_89</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>DSG.ACCT_ITEM_OWE_{Month_No}@DL_ODL_89 ,
-PU_WT.F_1_SERV_D_JF</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>etl：3003190</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4941,16 +4888,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">CRM重入网 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>etl:3010006</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IPD_IN.I_IN_PPM_INPUT_ADJUST_LIS@DL_ODS_JF,
- 月欠费宽表</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -5054,23 +4992,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>月欠费宽表(新版) (7号日欠费依赖该数据)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>月报处理（每月7号下午五点自动调）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>当月养卡+次月养卡+（日流程7号）按天用户发展质量结构</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>销账后_分账龄欠费（报表）（经分）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>201802分摊前后收入、欠费、欠费占收比</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -5206,10 +5132,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>黑名单渠道  （自动调 每月11号  早上8点）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>【FXGK】月欠费回收滚动视图_调度流（自动调 每月1号 13:00）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -5254,6 +5176,242 @@
   </si>
   <si>
     <t>ctinter.INTF_DATA_M （财报推送的数据）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑名单渠道+ （自动调 每月11号  早上8点）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>etl:3003188</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分摊后账单抽取</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>etl:3003196</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户划小关系对应   13：00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>欠费区域排名前1000片段表(新版)    16;30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>etl:5001057</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>etl:7001100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>库内欠费月统计基础指标(新版)   17:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>库内欠费月统计业务指标(新版)  17:20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当月养卡    9;00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>etl:5001034</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当月养卡基础指标  12;00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当月养卡业务指标 12:05</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>次月养卡     12:07</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>连续两个月养卡宽表   13;25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>etl:3001086</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>连续两个月养卡基础指标 13:26</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当月养卡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>连续两个月养卡业务指标  14;00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当天日欠费回收清单 流程跑完</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+（PU_WT.WT_BIL_OWE_LIST_D_NEW）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>计提坏账抽取    18:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>月欠费宽表(新版) (7号日欠费依赖该数据) 14:14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRM重入网   8，16:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP用户另库金额   7,12:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟预存抵扣增值业务清单 (正常情况下没数据) 7,12:05</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>省际语音漫游高额清单  7,12:20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户sp费用减免情况  7,12:10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增值用户稽核数据  9,14;00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增值业务次月欠费情况 12:30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增值业务第四月欠费（4个月前的数据）8，14:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增值业务欠费情况  8,17;00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>护士站国际语音整改稽核数据   9,14;00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPD_IN.I_IN_PPM_INPUT_ADJUST_LIST @ DL_ODS_JF
+ 月欠费宽表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSG.ACCT_ITEM_OWE_{Month_No} @ DL_ODL_89 ,
+PU_WT.F_1_SERV_D_JF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>月报处理（每月7号下午五点自动调）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>调账用户欠费情况  7,  13:30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>etl:3001099</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>etl：3003212</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>省政企用户清单      14：12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">省政企清单  ( </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>报表) 8,12:00</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户划小关系对应+省政企用户清单PU_WT.WT_SERV_SHZ_ALL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">省商客清单（月处理-报表）  ( </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>报表) 8,12:00</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分摊前后收入、欠费、欠费占收比 8,12:05</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4G机卡匹配率（确认月数4G产品实例中间层入库情况）7,11:30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无效用户推送(月处理) 7,17:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>省政企省商客应收账款清单  7，13:28</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5606,7 +5764,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -5764,6 +5922,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -5773,7 +5940,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="228">
+  <cellXfs count="232">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6305,11 +6472,8 @@
     <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -6317,132 +6481,150 @@
     <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="19" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="19" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="19" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6452,18 +6634,52 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -6474,13 +6690,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>588552</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1533525</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>704850</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6809,7 +7025,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6819,8 +7035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6869,7 +7085,7 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="201" t="s">
+      <c r="A4" s="204" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="5"/>
@@ -6881,7 +7097,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="201"/>
+      <c r="A5" s="204"/>
       <c r="B5" s="58"/>
       <c r="C5" t="s">
         <v>116</v>
@@ -6891,7 +7107,7 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="201"/>
+      <c r="A6" s="204"/>
       <c r="B6" s="5"/>
       <c r="C6" t="s">
         <v>65</v>
@@ -6901,7 +7117,7 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="201"/>
+      <c r="A7" s="204"/>
       <c r="B7" s="5"/>
       <c r="C7" t="s">
         <v>190</v>
@@ -6911,17 +7127,17 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="201"/>
+      <c r="A8" s="204"/>
       <c r="B8" s="19"/>
       <c r="C8" s="31" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="D8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="26.45" customHeight="1">
-      <c r="A9" s="201" t="s">
+      <c r="A9" s="204" t="s">
         <v>182</v>
       </c>
       <c r="B9" s="14" t="s">
@@ -6935,7 +7151,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="27">
-      <c r="A10" s="201"/>
+      <c r="A10" s="204"/>
       <c r="B10" s="43" t="s">
         <v>96</v>
       </c>
@@ -6947,7 +7163,7 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="201"/>
+      <c r="A11" s="204"/>
       <c r="B11" t="s">
         <v>78</v>
       </c>
@@ -6957,12 +7173,12 @@
       <c r="D11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="205" t="s">
+      <c r="E11" s="208" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="201"/>
+      <c r="A12" s="204"/>
       <c r="B12" s="49" t="s">
         <v>21</v>
       </c>
@@ -6972,10 +7188,10 @@
       <c r="D12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="205"/>
+      <c r="E12" s="208"/>
     </row>
     <row r="13" spans="1:5" ht="18.75">
-      <c r="A13" s="201"/>
+      <c r="A13" s="204"/>
       <c r="B13" s="49" t="s">
         <v>44</v>
       </c>
@@ -6985,10 +7201,10 @@
       <c r="D13" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="205"/>
+      <c r="E13" s="208"/>
     </row>
     <row r="14" spans="1:5" s="8" customFormat="1">
-      <c r="A14" s="201"/>
+      <c r="A14" s="204"/>
       <c r="B14" s="49" t="s">
         <v>44</v>
       </c>
@@ -7001,7 +7217,7 @@
       <c r="E14" s="21"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="201"/>
+      <c r="A15" s="204"/>
       <c r="B15" s="1" t="s">
         <v>26</v>
       </c>
@@ -7013,7 +7229,7 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="201"/>
+      <c r="A16" s="204"/>
       <c r="B16" s="1" t="s">
         <v>43</v>
       </c>
@@ -7025,7 +7241,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" s="8" customFormat="1" ht="14.25">
-      <c r="A17" s="201"/>
+      <c r="A17" s="204"/>
       <c r="B17" s="26" t="s">
         <v>63</v>
       </c>
@@ -7040,7 +7256,7 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="201" t="s">
+      <c r="A18" s="204" t="s">
         <v>47</v>
       </c>
       <c r="B18" s="22"/>
@@ -7052,7 +7268,7 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="201"/>
+      <c r="A19" s="204"/>
       <c r="B19" s="3" t="s">
         <v>58</v>
       </c>
@@ -7064,7 +7280,7 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="201"/>
+      <c r="A20" s="204"/>
       <c r="B20" s="22" t="s">
         <v>28</v>
       </c>
@@ -7076,7 +7292,7 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="201"/>
+      <c r="A21" s="204"/>
       <c r="B21" s="22"/>
       <c r="C21" s="3" t="s">
         <v>53</v>
@@ -7086,7 +7302,7 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="201"/>
+      <c r="A22" s="204"/>
       <c r="B22" s="22"/>
       <c r="C22" s="3" t="s">
         <v>49</v>
@@ -7096,7 +7312,7 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="201"/>
+      <c r="A23" s="204"/>
       <c r="B23" s="23" t="s">
         <v>28</v>
       </c>
@@ -7108,7 +7324,7 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="201"/>
+      <c r="A24" s="204"/>
       <c r="B24" s="22"/>
       <c r="C24" s="3" t="s">
         <v>51</v>
@@ -7118,7 +7334,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" s="8" customFormat="1">
-      <c r="A25" s="201"/>
+      <c r="A25" s="204"/>
       <c r="B25" s="36"/>
       <c r="C25" s="37" t="s">
         <v>52</v>
@@ -7128,7 +7344,7 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="201" t="s">
+      <c r="A26" s="204" t="s">
         <v>4</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -7142,7 +7358,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="18.75">
-      <c r="A27" s="201"/>
+      <c r="A27" s="204"/>
       <c r="B27" s="13" t="s">
         <v>20</v>
       </c>
@@ -7157,7 +7373,7 @@
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="201"/>
+      <c r="A28" s="204"/>
       <c r="B28" s="25" t="s">
         <v>55</v>
       </c>
@@ -7169,7 +7385,7 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="201"/>
+      <c r="A29" s="204"/>
       <c r="B29" s="44" t="s">
         <v>56</v>
       </c>
@@ -7179,10 +7395,10 @@
       <c r="D29" t="s">
         <v>2</v>
       </c>
-      <c r="E29" s="201"/>
+      <c r="E29" s="204"/>
     </row>
     <row r="30" spans="1:6" ht="18.75">
-      <c r="A30" s="201"/>
+      <c r="A30" s="204"/>
       <c r="B30" t="s">
         <v>15</v>
       </c>
@@ -7192,10 +7408,10 @@
       <c r="D30" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E30" s="201"/>
+      <c r="E30" s="204"/>
     </row>
     <row r="31" spans="1:6" ht="18.75">
-      <c r="A31" s="201"/>
+      <c r="A31" s="204"/>
       <c r="B31" t="s">
         <v>14</v>
       </c>
@@ -7205,10 +7421,10 @@
       <c r="D31" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="201"/>
+      <c r="E31" s="204"/>
     </row>
     <row r="32" spans="1:6" ht="27">
-      <c r="A32" s="201"/>
+      <c r="A32" s="204"/>
       <c r="B32" s="51" t="s">
         <v>123</v>
       </c>
@@ -7218,10 +7434,10 @@
       <c r="D32" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="E32" s="201"/>
+      <c r="E32" s="204"/>
     </row>
     <row r="33" spans="1:5" s="55" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A33" s="201"/>
+      <c r="A33" s="204"/>
       <c r="B33" s="55" t="s">
         <v>57</v>
       </c>
@@ -7231,10 +7447,10 @@
       <c r="D33" s="57" t="s">
         <v>126</v>
       </c>
-      <c r="E33" s="201"/>
+      <c r="E33" s="204"/>
     </row>
     <row r="34" spans="1:5" ht="44.45" customHeight="1">
-      <c r="A34" s="201"/>
+      <c r="A34" s="204"/>
       <c r="B34" t="s">
         <v>57</v>
       </c>
@@ -7244,10 +7460,10 @@
       <c r="D34" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="E34" s="201"/>
+      <c r="E34" s="204"/>
     </row>
     <row r="35" spans="1:5" s="55" customFormat="1" ht="18.75">
-      <c r="A35" s="201"/>
+      <c r="A35" s="204"/>
       <c r="B35" s="54" t="s">
         <v>64</v>
       </c>
@@ -7257,10 +7473,10 @@
       <c r="D35" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="E35" s="201"/>
+      <c r="E35" s="204"/>
     </row>
     <row r="36" spans="1:5" ht="33" customHeight="1">
-      <c r="A36" s="201"/>
+      <c r="A36" s="204"/>
       <c r="B36" s="28" t="s">
         <v>62</v>
       </c>
@@ -7270,10 +7486,10 @@
       <c r="D36" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E36" s="201"/>
+      <c r="E36" s="204"/>
     </row>
     <row r="37" spans="1:5" ht="18.75">
-      <c r="A37" s="201"/>
+      <c r="A37" s="204"/>
       <c r="B37" s="12"/>
       <c r="C37" s="39" t="s">
         <v>107</v>
@@ -7281,10 +7497,10 @@
       <c r="D37" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E37" s="201"/>
+      <c r="E37" s="204"/>
     </row>
     <row r="38" spans="1:5" ht="18.75">
-      <c r="A38" s="201"/>
+      <c r="A38" s="204"/>
       <c r="B38" s="12"/>
       <c r="C38" s="39" t="s">
         <v>110</v>
@@ -7292,10 +7508,10 @@
       <c r="D38" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E38" s="201"/>
+      <c r="E38" s="204"/>
     </row>
     <row r="39" spans="1:5" ht="18.75">
-      <c r="A39" s="201"/>
+      <c r="A39" s="204"/>
       <c r="B39" s="12"/>
       <c r="C39" s="39" t="s">
         <v>111</v>
@@ -7303,12 +7519,12 @@
       <c r="D39" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E39" s="201"/>
+      <c r="E39" s="204"/>
     </row>
     <row r="40" spans="1:5" ht="18.75">
-      <c r="A40" s="201"/>
-      <c r="B40" s="206" t="s">
-        <v>310</v>
+      <c r="A40" s="204"/>
+      <c r="B40" s="209" t="s">
+        <v>298</v>
       </c>
       <c r="C40" s="39" t="s">
         <v>109</v>
@@ -7316,40 +7532,40 @@
       <c r="D40" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E40" s="201"/>
+      <c r="E40" s="204"/>
     </row>
     <row r="41" spans="1:5" ht="18.75">
-      <c r="A41" s="201"/>
-      <c r="B41" s="206"/>
+      <c r="A41" s="204"/>
+      <c r="B41" s="209"/>
       <c r="C41" s="49" t="s">
         <v>108</v>
       </c>
       <c r="D41" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E41" s="201"/>
+      <c r="E41" s="204"/>
     </row>
     <row r="42" spans="1:5" ht="18.75">
-      <c r="A42" s="201"/>
-      <c r="B42" s="206"/>
+      <c r="A42" s="204"/>
+      <c r="B42" s="209"/>
       <c r="C42" s="53" t="s">
         <v>117</v>
       </c>
       <c r="D42" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E42" s="201"/>
+      <c r="E42" s="204"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="201"/>
+      <c r="A43" s="204"/>
       <c r="B43" s="12"/>
       <c r="C43" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="E43" s="201"/>
+      <c r="E43" s="204"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="201"/>
+      <c r="A44" s="204"/>
       <c r="B44" s="12" t="s">
         <v>54</v>
       </c>
@@ -7359,7 +7575,7 @@
       <c r="E44" s="24"/>
     </row>
     <row r="45" spans="1:5" ht="40.5">
-      <c r="A45" s="201"/>
+      <c r="A45" s="204"/>
       <c r="B45" s="45" t="s">
         <v>98</v>
       </c>
@@ -7369,12 +7585,12 @@
       <c r="D45" t="s">
         <v>2</v>
       </c>
-      <c r="E45" s="202" t="s">
+      <c r="E45" s="205" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="27">
-      <c r="A46" s="201"/>
+      <c r="A46" s="204"/>
       <c r="B46" s="46" t="s">
         <v>99</v>
       </c>
@@ -7384,10 +7600,10 @@
       <c r="D46" t="s">
         <v>2</v>
       </c>
-      <c r="E46" s="203"/>
+      <c r="E46" s="206"/>
     </row>
     <row r="47" spans="1:5" ht="54">
-      <c r="A47" s="201"/>
+      <c r="A47" s="204"/>
       <c r="B47" s="43" t="s">
         <v>97</v>
       </c>
@@ -7397,10 +7613,10 @@
       <c r="D47" t="s">
         <v>2</v>
       </c>
-      <c r="E47" s="203"/>
+      <c r="E47" s="206"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="201"/>
+      <c r="A48" s="204"/>
       <c r="B48" s="20"/>
       <c r="C48" s="40" t="s">
         <v>89</v>
@@ -7408,10 +7624,10 @@
       <c r="D48" t="s">
         <v>2</v>
       </c>
-      <c r="E48" s="203"/>
+      <c r="E48" s="206"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="201"/>
+      <c r="A49" s="204"/>
       <c r="B49" s="23"/>
       <c r="C49" s="40" t="s">
         <v>5</v>
@@ -7419,10 +7635,10 @@
       <c r="D49" t="s">
         <v>2</v>
       </c>
-      <c r="E49" s="203"/>
+      <c r="E49" s="206"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="201"/>
+      <c r="A50" s="204"/>
       <c r="B50" s="42"/>
       <c r="C50" s="40" t="s">
         <v>100</v>
@@ -7430,10 +7646,10 @@
       <c r="D50" t="s">
         <v>2</v>
       </c>
-      <c r="E50" s="203"/>
+      <c r="E50" s="206"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="201"/>
+      <c r="A51" s="204"/>
       <c r="B51" s="42" t="s">
         <v>45</v>
       </c>
@@ -7443,10 +7659,10 @@
       <c r="D51" t="s">
         <v>2</v>
       </c>
-      <c r="E51" s="203"/>
+      <c r="E51" s="206"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="201"/>
+      <c r="A52" s="204"/>
       <c r="B52" s="42"/>
       <c r="C52" s="40" t="s">
         <v>101</v>
@@ -7454,10 +7670,10 @@
       <c r="D52" t="s">
         <v>2</v>
       </c>
-      <c r="E52" s="203"/>
+      <c r="E52" s="206"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="201"/>
+      <c r="A53" s="204"/>
       <c r="B53" s="23"/>
       <c r="C53" s="40" t="s">
         <v>102</v>
@@ -7465,10 +7681,10 @@
       <c r="D53" t="s">
         <v>2</v>
       </c>
-      <c r="E53" s="203"/>
+      <c r="E53" s="206"/>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="201"/>
+      <c r="A54" s="204"/>
       <c r="B54" s="23" t="s">
         <v>42</v>
       </c>
@@ -7481,7 +7697,7 @@
       <c r="E54" s="18"/>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="204" t="s">
+      <c r="A55" s="207" t="s">
         <v>6</v>
       </c>
       <c r="B55" s="6"/>
@@ -7493,7 +7709,7 @@
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="204"/>
+      <c r="A56" s="207"/>
       <c r="B56" s="8" t="s">
         <v>17</v>
       </c>
@@ -7505,7 +7721,7 @@
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="204"/>
+      <c r="A57" s="207"/>
       <c r="B57" s="8" t="s">
         <v>7</v>
       </c>
@@ -7517,7 +7733,7 @@
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="204"/>
+      <c r="A58" s="207"/>
       <c r="B58" s="8" t="s">
         <v>17</v>
       </c>
@@ -7529,7 +7745,7 @@
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="204"/>
+      <c r="A59" s="207"/>
       <c r="B59" s="6" t="s">
         <v>18</v>
       </c>
@@ -7541,7 +7757,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" ht="18.75">
-      <c r="A60" s="204"/>
+      <c r="A60" s="207"/>
       <c r="B60" s="11" t="s">
         <v>19</v>
       </c>
@@ -7553,7 +7769,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" ht="18.75">
-      <c r="A61" s="204"/>
+      <c r="A61" s="207"/>
       <c r="B61" s="6"/>
       <c r="C61" s="8" t="s">
         <v>24</v>
@@ -7563,7 +7779,7 @@
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="204"/>
+      <c r="A62" s="207"/>
       <c r="B62" s="8" t="s">
         <v>24</v>
       </c>
@@ -7571,11 +7787,11 @@
         <v>25</v>
       </c>
       <c r="D62" s="141" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="63" spans="1:5" s="4" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A63" s="204"/>
+      <c r="A63" s="207"/>
       <c r="B63" s="8" t="s">
         <v>25</v>
       </c>
@@ -7587,7 +7803,7 @@
       </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="204"/>
+      <c r="A64" s="207"/>
       <c r="B64" s="6"/>
       <c r="C64" s="10" t="s">
         <v>10</v>
@@ -7597,7 +7813,7 @@
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="204"/>
+      <c r="A65" s="207"/>
       <c r="B65" s="6"/>
       <c r="C65" s="10" t="s">
         <v>9</v>
@@ -7650,7 +7866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -7666,13 +7882,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="88" customFormat="1" ht="44.25" customHeight="1">
-      <c r="A1" s="207" t="s">
+      <c r="A1" s="222" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="207"/>
-      <c r="C1" s="207"/>
-      <c r="D1" s="207"/>
-      <c r="E1" s="207"/>
+      <c r="B1" s="222"/>
+      <c r="C1" s="222"/>
+      <c r="D1" s="222"/>
+      <c r="E1" s="222"/>
       <c r="F1" s="77"/>
       <c r="G1" s="77"/>
     </row>
@@ -7707,7 +7923,7 @@
       <c r="E3" s="95"/>
     </row>
     <row r="4" spans="1:7" s="88" customFormat="1">
-      <c r="A4" s="208" t="s">
+      <c r="A4" s="223" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="79"/>
@@ -7722,7 +7938,7 @@
       <c r="G4" s="77"/>
     </row>
     <row r="5" spans="1:7" s="88" customFormat="1">
-      <c r="A5" s="208"/>
+      <c r="A5" s="223"/>
       <c r="B5" s="79"/>
       <c r="C5" s="95" t="s">
         <v>116</v>
@@ -7735,7 +7951,7 @@
       <c r="G5" s="77"/>
     </row>
     <row r="6" spans="1:7" s="88" customFormat="1">
-      <c r="A6" s="208"/>
+      <c r="A6" s="223"/>
       <c r="B6" s="79"/>
       <c r="C6" s="155" t="s">
         <v>65</v>
@@ -7748,7 +7964,7 @@
       <c r="G6" s="77"/>
     </row>
     <row r="7" spans="1:7" s="88" customFormat="1">
-      <c r="A7" s="208"/>
+      <c r="A7" s="223"/>
       <c r="B7" s="79"/>
       <c r="C7" s="95" t="s">
         <v>189</v>
@@ -7761,7 +7977,7 @@
       <c r="G7" s="77"/>
     </row>
     <row r="8" spans="1:7" s="88" customFormat="1">
-      <c r="A8" s="208"/>
+      <c r="A8" s="223"/>
       <c r="B8" s="59"/>
       <c r="C8" s="96" t="s">
         <v>203</v>
@@ -7783,7 +7999,7 @@
       <c r="G9" s="77"/>
     </row>
     <row r="10" spans="1:7" s="88" customFormat="1">
-      <c r="A10" s="209" t="s">
+      <c r="A10" s="224" t="s">
         <v>197</v>
       </c>
       <c r="B10" s="105" t="s">
@@ -7800,7 +8016,7 @@
       <c r="G10" s="77"/>
     </row>
     <row r="11" spans="1:7" s="88" customFormat="1" ht="27">
-      <c r="A11" s="209"/>
+      <c r="A11" s="224"/>
       <c r="B11" s="106" t="s">
         <v>199</v>
       </c>
@@ -7815,7 +8031,7 @@
       <c r="G11" s="77"/>
     </row>
     <row r="12" spans="1:7" s="88" customFormat="1">
-      <c r="A12" s="209"/>
+      <c r="A12" s="224"/>
       <c r="B12" s="105" t="s">
         <v>78</v>
       </c>
@@ -7830,7 +8046,7 @@
       <c r="G12" s="77"/>
     </row>
     <row r="13" spans="1:7" s="88" customFormat="1">
-      <c r="A13" s="209"/>
+      <c r="A13" s="224"/>
       <c r="B13" s="107" t="s">
         <v>21</v>
       </c>
@@ -7845,7 +8061,7 @@
       <c r="G13" s="77"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="209"/>
+      <c r="A14" s="224"/>
       <c r="B14" s="107"/>
       <c r="C14" s="126" t="s">
         <v>212</v>
@@ -7856,7 +8072,7 @@
       <c r="E14" s="91"/>
     </row>
     <row r="15" spans="1:7" s="88" customFormat="1">
-      <c r="A15" s="209"/>
+      <c r="A15" s="224"/>
       <c r="B15" s="107"/>
       <c r="C15" s="125" t="s">
         <v>132</v>
@@ -7869,7 +8085,7 @@
       <c r="G15" s="77"/>
     </row>
     <row r="16" spans="1:7" s="81" customFormat="1" ht="15" customHeight="1">
-      <c r="A16" s="209"/>
+      <c r="A16" s="224"/>
       <c r="B16" s="107" t="s">
         <v>26</v>
       </c>
@@ -7884,7 +8100,7 @@
       <c r="G16" s="88"/>
     </row>
     <row r="17" spans="1:7" s="87" customFormat="1">
-      <c r="A17" s="209"/>
+      <c r="A17" s="224"/>
       <c r="B17" s="107"/>
       <c r="C17" s="115"/>
       <c r="D17" s="91"/>
@@ -7893,7 +8109,7 @@
       <c r="G17" s="81"/>
     </row>
     <row r="18" spans="1:7" s="87" customFormat="1">
-      <c r="A18" s="208" t="s">
+      <c r="A18" s="223" t="s">
         <v>47</v>
       </c>
       <c r="B18" s="105"/>
@@ -7907,7 +8123,7 @@
       <c r="F18" s="81"/>
     </row>
     <row r="19" spans="1:7" s="81" customFormat="1">
-      <c r="A19" s="208"/>
+      <c r="A19" s="223"/>
       <c r="B19" s="108" t="s">
         <v>194</v>
       </c>
@@ -7920,7 +8136,7 @@
       <c r="E19" s="75"/>
     </row>
     <row r="20" spans="1:7" s="87" customFormat="1">
-      <c r="A20" s="208"/>
+      <c r="A20" s="223"/>
       <c r="B20" s="105" t="s">
         <v>28</v>
       </c>
@@ -7934,7 +8150,7 @@
       <c r="F20" s="81"/>
     </row>
     <row r="21" spans="1:7" s="86" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A21" s="208"/>
+      <c r="A21" s="223"/>
       <c r="B21" s="105" t="s">
         <v>201</v>
       </c>
@@ -7948,7 +8164,7 @@
       <c r="F21" s="84"/>
     </row>
     <row r="22" spans="1:7" s="85" customFormat="1">
-      <c r="A22" s="208"/>
+      <c r="A22" s="223"/>
       <c r="B22" s="105"/>
       <c r="C22" s="98" t="s">
         <v>49</v>
@@ -7960,7 +8176,7 @@
       <c r="F22" s="89"/>
     </row>
     <row r="23" spans="1:7" s="81" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A23" s="208"/>
+      <c r="A23" s="223"/>
       <c r="B23" s="105" t="s">
         <v>28</v>
       </c>
@@ -7973,7 +8189,7 @@
       <c r="E23" s="75"/>
     </row>
     <row r="24" spans="1:7" s="81" customFormat="1">
-      <c r="A24" s="208"/>
+      <c r="A24" s="223"/>
       <c r="B24" s="105"/>
       <c r="C24" s="98" t="s">
         <v>51</v>
@@ -7985,7 +8201,7 @@
       <c r="F24" s="88"/>
     </row>
     <row r="25" spans="1:7" s="88" customFormat="1">
-      <c r="A25" s="208"/>
+      <c r="A25" s="223"/>
       <c r="B25" s="109"/>
       <c r="C25" s="99" t="s">
         <v>52</v>
@@ -8005,7 +8221,7 @@
       <c r="F26" s="81"/>
     </row>
     <row r="27" spans="1:7" s="81" customFormat="1">
-      <c r="A27" s="214">
+      <c r="A27" s="212">
         <v>43289</v>
       </c>
       <c r="B27" s="105" t="s">
@@ -8020,7 +8236,7 @@
       <c r="E27" s="75"/>
     </row>
     <row r="28" spans="1:7" s="81" customFormat="1" ht="18.75">
-      <c r="A28" s="214"/>
+      <c r="A28" s="212"/>
       <c r="B28" s="105" t="s">
         <v>20</v>
       </c>
@@ -8034,7 +8250,7 @@
       <c r="F28" s="88"/>
     </row>
     <row r="29" spans="1:7" s="88" customFormat="1">
-      <c r="A29" s="214"/>
+      <c r="A29" s="212"/>
       <c r="B29" s="105" t="s">
         <v>219</v>
       </c>
@@ -8048,7 +8264,7 @@
       <c r="F29" s="77"/>
     </row>
     <row r="30" spans="1:7" ht="18.75">
-      <c r="A30" s="214"/>
+      <c r="A30" s="212"/>
       <c r="B30" t="s">
         <v>220</v>
       </c>
@@ -8062,7 +8278,7 @@
       <c r="F30" s="81"/>
     </row>
     <row r="31" spans="1:7" s="90" customFormat="1" ht="18.75">
-      <c r="A31" s="214"/>
+      <c r="A31" s="212"/>
       <c r="B31" s="105" t="s">
         <v>224</v>
       </c>
@@ -8076,7 +8292,7 @@
       <c r="F31" s="81"/>
     </row>
     <row r="32" spans="1:7" s="81" customFormat="1" ht="18.75">
-      <c r="A32" s="214"/>
+      <c r="A32" s="212"/>
       <c r="B32" s="105" t="s">
         <v>214</v>
       </c>
@@ -8090,7 +8306,7 @@
       <c r="F32" s="88"/>
     </row>
     <row r="33" spans="1:6" ht="27">
-      <c r="A33" s="214"/>
+      <c r="A33" s="212"/>
       <c r="B33" s="110"/>
       <c r="C33" s="95" t="s">
         <v>232</v>
@@ -8102,7 +8318,7 @@
       <c r="F33" s="60"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="214"/>
+      <c r="A34" s="212"/>
       <c r="B34" s="79"/>
       <c r="C34" s="67" t="s">
         <v>112</v>
@@ -8111,7 +8327,7 @@
       <c r="E34" s="76"/>
     </row>
     <row r="35" spans="1:6" ht="40.5">
-      <c r="A35" s="214"/>
+      <c r="A35" s="212"/>
       <c r="B35" s="68" t="s">
         <v>140</v>
       </c>
@@ -8121,12 +8337,12 @@
       <c r="D35" s="76" t="s">
         <v>141</v>
       </c>
-      <c r="E35" s="215" t="s">
+      <c r="E35" s="213" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A36" s="214"/>
+      <c r="A36" s="212"/>
       <c r="B36" t="s">
         <v>222</v>
       </c>
@@ -8136,10 +8352,10 @@
       <c r="D36" s="119" t="s">
         <v>223</v>
       </c>
-      <c r="E36" s="210"/>
+      <c r="E36" s="214"/>
     </row>
     <row r="37" spans="1:6" ht="54">
-      <c r="A37" s="214"/>
+      <c r="A37" s="212"/>
       <c r="B37" s="121" t="s">
         <v>226</v>
       </c>
@@ -8149,34 +8365,34 @@
       <c r="D37" s="122" t="s">
         <v>142</v>
       </c>
-      <c r="E37" s="210"/>
+      <c r="E37" s="214"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="214"/>
-      <c r="B38" s="179" t="s">
-        <v>301</v>
+      <c r="A38" s="212"/>
+      <c r="B38" s="175" t="s">
+        <v>291</v>
       </c>
       <c r="C38" s="123" t="s">
         <v>205</v>
       </c>
-      <c r="D38" s="179" t="s">
-        <v>300</v>
-      </c>
-      <c r="E38" s="210"/>
+      <c r="D38" s="175" t="s">
+        <v>290</v>
+      </c>
+      <c r="E38" s="214"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="214"/>
+      <c r="A39" s="212"/>
       <c r="B39" s="76"/>
       <c r="C39" s="123" t="s">
         <v>164</v>
       </c>
-      <c r="D39" s="179" t="s">
-        <v>302</v>
-      </c>
-      <c r="E39" s="210"/>
+      <c r="D39" s="175" t="s">
+        <v>292</v>
+      </c>
+      <c r="E39" s="214"/>
     </row>
     <row r="40" spans="1:6" ht="27">
-      <c r="A40" s="214"/>
+      <c r="A40" s="212"/>
       <c r="B40" s="17" t="s">
         <v>230</v>
       </c>
@@ -8186,10 +8402,10 @@
       <c r="D40" s="122" t="s">
         <v>187</v>
       </c>
-      <c r="E40" s="210"/>
+      <c r="E40" s="214"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="214"/>
+      <c r="A41" s="212"/>
       <c r="B41" s="76"/>
       <c r="C41" s="123" t="s">
         <v>113</v>
@@ -8197,10 +8413,10 @@
       <c r="D41" s="122" t="s">
         <v>186</v>
       </c>
-      <c r="E41" s="210"/>
+      <c r="E41" s="214"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="214"/>
+      <c r="A42" s="212"/>
       <c r="B42" s="76" t="s">
         <v>145</v>
       </c>
@@ -8210,10 +8426,10 @@
       <c r="D42" s="76" t="s">
         <v>144</v>
       </c>
-      <c r="E42" s="210"/>
+      <c r="E42" s="214"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="214"/>
+      <c r="A43" s="212"/>
       <c r="B43" s="76" t="s">
         <v>146</v>
       </c>
@@ -8223,12 +8439,12 @@
       <c r="D43" s="76" t="s">
         <v>166</v>
       </c>
-      <c r="E43" s="210"/>
+      <c r="E43" s="214"/>
     </row>
     <row r="44" spans="1:6" ht="18.75">
-      <c r="A44" s="214"/>
-      <c r="B44" s="221" t="s">
-        <v>333</v>
+      <c r="A44" s="212"/>
+      <c r="B44" s="220" t="s">
+        <v>318</v>
       </c>
       <c r="C44" s="144" t="s">
         <v>178</v>
@@ -8236,36 +8452,36 @@
       <c r="D44" s="143" t="s">
         <v>160</v>
       </c>
-      <c r="E44" s="199"/>
+      <c r="E44" s="193"/>
       <c r="F44" s="153"/>
     </row>
     <row r="45" spans="1:6" ht="18.75">
-      <c r="A45" s="214"/>
-      <c r="B45" s="211"/>
+      <c r="A45" s="212"/>
+      <c r="B45" s="221"/>
       <c r="C45" s="142" t="s">
         <v>179</v>
       </c>
       <c r="D45" s="143" t="s">
         <v>160</v>
       </c>
-      <c r="E45" s="199"/>
+      <c r="E45" s="193"/>
       <c r="F45" s="153"/>
     </row>
     <row r="46" spans="1:6" ht="18.75">
-      <c r="A46" s="214"/>
-      <c r="B46" s="211"/>
+      <c r="A46" s="212"/>
+      <c r="B46" s="221"/>
       <c r="C46" s="142" t="s">
         <v>180</v>
       </c>
       <c r="D46" s="143" t="s">
         <v>160</v>
       </c>
-      <c r="E46" s="199"/>
+      <c r="E46" s="193"/>
       <c r="F46" s="153"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" customHeight="1"/>
     <row r="48" spans="1:6" ht="32.25" customHeight="1">
-      <c r="A48" s="218" t="s">
+      <c r="A48" s="217" t="s">
         <v>153</v>
       </c>
       <c r="B48" s="69" t="s">
@@ -8281,7 +8497,7 @@
       <c r="F48" s="91"/>
     </row>
     <row r="49" spans="1:6" ht="38.25" customHeight="1">
-      <c r="A49" s="219"/>
+      <c r="A49" s="218"/>
       <c r="B49" s="70" t="s">
         <v>167</v>
       </c>
@@ -8297,7 +8513,7 @@
       <c r="F49" s="92"/>
     </row>
     <row r="50" spans="1:6" ht="38.25" customHeight="1">
-      <c r="A50" s="219"/>
+      <c r="A50" s="218"/>
       <c r="B50" s="130" t="s">
         <v>241</v>
       </c>
@@ -8313,8 +8529,8 @@
       <c r="F50" s="92"/>
     </row>
     <row r="51" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A51" s="219"/>
-      <c r="B51" s="210" t="s">
+      <c r="A51" s="218"/>
+      <c r="B51" s="214" t="s">
         <v>233</v>
       </c>
       <c r="C51" s="104" t="s">
@@ -8327,8 +8543,8 @@
       <c r="F51" s="92"/>
     </row>
     <row r="52" spans="1:6" ht="26.25" customHeight="1">
-      <c r="A52" s="219"/>
-      <c r="B52" s="211"/>
+      <c r="A52" s="218"/>
+      <c r="B52" s="221"/>
       <c r="C52" s="64" t="s">
         <v>231</v>
       </c>
@@ -8339,7 +8555,7 @@
       <c r="F52" s="92"/>
     </row>
     <row r="53" spans="1:6" ht="18.75">
-      <c r="A53" s="219"/>
+      <c r="A53" s="218"/>
       <c r="B53" s="78" t="s">
         <v>139</v>
       </c>
@@ -8353,7 +8569,7 @@
       <c r="F53" s="91"/>
     </row>
     <row r="54" spans="1:6" ht="18.75">
-      <c r="A54" s="219"/>
+      <c r="A54" s="218"/>
       <c r="B54" s="79" t="s">
         <v>66</v>
       </c>
@@ -8367,7 +8583,7 @@
       <c r="F54" s="91"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="219"/>
+      <c r="A55" s="218"/>
       <c r="B55" s="79" t="s">
         <v>169</v>
       </c>
@@ -8381,7 +8597,7 @@
       <c r="F55" s="91"/>
     </row>
     <row r="56" spans="1:6" ht="27">
-      <c r="A56" s="219"/>
+      <c r="A56" s="218"/>
       <c r="B56" s="107" t="s">
         <v>202</v>
       </c>
@@ -8395,15 +8611,15 @@
       <c r="F56" s="91"/>
     </row>
     <row r="57" spans="1:6" ht="27">
-      <c r="A57" s="220"/>
+      <c r="A57" s="219"/>
       <c r="B57" s="129" t="s">
         <v>239</v>
       </c>
       <c r="C57" s="145" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D57" s="174" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E57" s="117"/>
       <c r="F57" s="91"/>
@@ -8441,7 +8657,7 @@
       <c r="F60" s="91"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="216" t="s">
+      <c r="A61" s="215" t="s">
         <v>181</v>
       </c>
       <c r="B61" s="64" t="s">
@@ -8457,7 +8673,7 @@
       <c r="F61" s="91"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="217"/>
+      <c r="A62" s="216"/>
       <c r="B62" s="73" t="s">
         <v>17</v>
       </c>
@@ -8471,7 +8687,7 @@
       <c r="F62" s="91"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="217"/>
+      <c r="A63" s="216"/>
       <c r="B63" s="73" t="s">
         <v>171</v>
       </c>
@@ -8485,7 +8701,7 @@
       <c r="F63" s="91"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="217"/>
+      <c r="A64" s="216"/>
       <c r="B64" s="73" t="s">
         <v>17</v>
       </c>
@@ -8499,7 +8715,7 @@
       <c r="F64" s="91"/>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="217"/>
+      <c r="A65" s="216"/>
       <c r="B65" s="64" t="s">
         <v>18</v>
       </c>
@@ -8513,7 +8729,7 @@
       <c r="F65" s="91"/>
     </row>
     <row r="66" spans="1:6" ht="18.75">
-      <c r="A66" s="217"/>
+      <c r="A66" s="216"/>
       <c r="B66" s="59" t="s">
         <v>154</v>
       </c>
@@ -8527,7 +8743,7 @@
       <c r="F66" s="91"/>
     </row>
     <row r="67" spans="1:6" ht="18.75">
-      <c r="A67" s="217"/>
+      <c r="A67" s="216"/>
       <c r="B67" s="64"/>
       <c r="C67" s="73" t="s">
         <v>174</v>
@@ -8539,49 +8755,49 @@
       <c r="F67" s="91"/>
     </row>
     <row r="68" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A68" s="217"/>
+      <c r="A68" s="216"/>
       <c r="B68" s="73" t="s">
         <v>174</v>
       </c>
       <c r="C68" s="74" t="s">
         <v>175</v>
       </c>
-      <c r="D68" s="194" t="s">
-        <v>325</v>
+      <c r="D68" s="189" t="s">
+        <v>313</v>
       </c>
       <c r="E68" s="76"/>
-      <c r="F68" s="212" t="s">
-        <v>323</v>
+      <c r="F68" s="210" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="14.25">
-      <c r="A69" s="217"/>
+      <c r="A69" s="216"/>
       <c r="B69" s="73" t="s">
         <v>175</v>
       </c>
       <c r="C69" s="74" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D69" s="173" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E69" s="76"/>
-      <c r="F69" s="213"/>
+      <c r="F69" s="211"/>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="217"/>
+      <c r="A70" s="216"/>
       <c r="B70" s="64"/>
       <c r="C70" s="79" t="s">
         <v>176</v>
       </c>
       <c r="D70" s="173" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E70" s="76"/>
       <c r="F70" s="91"/>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="217"/>
+      <c r="A71" s="216"/>
       <c r="B71" s="64"/>
       <c r="C71" s="79" t="s">
         <v>177</v>
@@ -8594,17 +8810,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="A10:A17"/>
+    <mergeCell ref="B51:B52"/>
     <mergeCell ref="F68:F69"/>
     <mergeCell ref="A27:A46"/>
     <mergeCell ref="E35:E43"/>
     <mergeCell ref="A61:A71"/>
     <mergeCell ref="A48:A57"/>
     <mergeCell ref="B44:B46"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="A10:A17"/>
-    <mergeCell ref="B51:B52"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8615,10 +8831,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G95"/>
+  <dimension ref="A1:G94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8633,13 +8849,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="88" customFormat="1" ht="20.25">
-      <c r="A1" s="207" t="s">
+      <c r="A1" s="222" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="207"/>
-      <c r="C1" s="207"/>
-      <c r="D1" s="207"/>
-      <c r="E1" s="207"/>
+      <c r="B1" s="222"/>
+      <c r="C1" s="222"/>
+      <c r="D1" s="222"/>
+      <c r="E1" s="222"/>
       <c r="F1" s="77"/>
       <c r="G1" s="77"/>
     </row>
@@ -8651,13 +8867,13 @@
         <v>11</v>
       </c>
       <c r="C2" s="93" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D2" s="154" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E2" s="154" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="83" customFormat="1">
@@ -8668,46 +8884,52 @@
         <v>70</v>
       </c>
       <c r="C3" s="155" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="D3" s="155" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E3" s="95"/>
     </row>
     <row r="4" spans="1:7" s="88" customFormat="1">
-      <c r="A4" s="208" t="s">
+      <c r="A4" s="223" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="150"/>
+      <c r="B4" s="195">
+        <v>0.58333333333333337</v>
+      </c>
       <c r="C4" s="95" t="s">
         <v>73</v>
       </c>
       <c r="D4" s="149" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E4" s="91"/>
       <c r="F4" s="77"/>
       <c r="G4" s="77"/>
     </row>
     <row r="5" spans="1:7" s="88" customFormat="1">
-      <c r="A5" s="208"/>
-      <c r="B5" s="150"/>
+      <c r="A5" s="223"/>
+      <c r="B5" s="195">
+        <v>0.58472222222222225</v>
+      </c>
       <c r="C5" s="155" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D5" s="130" t="s">
         <v>129</v>
       </c>
       <c r="E5" s="153" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="F5" s="77"/>
       <c r="G5" s="77"/>
     </row>
     <row r="6" spans="1:7" s="88" customFormat="1">
-      <c r="A6" s="208"/>
-      <c r="B6" s="150"/>
+      <c r="A6" s="223"/>
+      <c r="B6" s="195">
+        <v>0.60763888888888895</v>
+      </c>
       <c r="C6" s="95" t="s">
         <v>65</v>
       </c>
@@ -8719,12 +8941,14 @@
       <c r="G6" s="77"/>
     </row>
     <row r="7" spans="1:7" s="88" customFormat="1">
-      <c r="A7" s="208"/>
-      <c r="B7" s="150"/>
+      <c r="A7" s="223"/>
+      <c r="B7" s="195">
+        <v>0.63541666666666663</v>
+      </c>
       <c r="C7" s="155" t="s">
-        <v>270</v>
-      </c>
-      <c r="D7" s="130" t="s">
+        <v>332</v>
+      </c>
+      <c r="D7" s="196" t="s">
         <v>156</v>
       </c>
       <c r="E7" s="91"/>
@@ -8732,1044 +8956,1041 @@
       <c r="G7" s="77"/>
     </row>
     <row r="8" spans="1:7" s="88" customFormat="1">
-      <c r="A8" s="208"/>
+      <c r="A8" s="132"/>
       <c r="B8" s="142"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="128"/>
       <c r="E8" s="92"/>
       <c r="F8" s="60"/>
       <c r="G8" s="77"/>
     </row>
     <row r="9" spans="1:7" s="88" customFormat="1">
-      <c r="A9" s="132"/>
-      <c r="B9" s="142"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="128"/>
+      <c r="A9" s="224" t="s">
+        <v>285</v>
+      </c>
+      <c r="B9" s="158" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="61" t="s">
+        <v>334</v>
+      </c>
+      <c r="D9" s="197" t="s">
+        <v>158</v>
+      </c>
       <c r="E9" s="92"/>
       <c r="F9" s="60"/>
       <c r="G9" s="77"/>
     </row>
-    <row r="10" spans="1:7" s="88" customFormat="1">
-      <c r="A10" s="209" t="s">
-        <v>292</v>
-      </c>
-      <c r="B10" s="158" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="61" t="s">
-        <v>157</v>
-      </c>
-      <c r="D10" s="128" t="s">
-        <v>158</v>
+    <row r="10" spans="1:7" s="88" customFormat="1" ht="27">
+      <c r="A10" s="224"/>
+      <c r="B10" s="159" t="s">
+        <v>199</v>
+      </c>
+      <c r="C10" s="203" t="s">
+        <v>369</v>
+      </c>
+      <c r="D10" s="203" t="s">
+        <v>367</v>
       </c>
       <c r="E10" s="92"/>
       <c r="F10" s="60"/>
       <c r="G10" s="77"/>
     </row>
-    <row r="11" spans="1:7" s="88" customFormat="1" ht="27">
-      <c r="A11" s="209"/>
-      <c r="B11" s="159" t="s">
-        <v>199</v>
-      </c>
-      <c r="C11" s="150" t="s">
-        <v>277</v>
-      </c>
-      <c r="D11" s="128" t="s">
-        <v>127</v>
-      </c>
-      <c r="E11" s="92"/>
+    <row r="11" spans="1:7" s="88" customFormat="1">
+      <c r="A11" s="224"/>
+      <c r="B11" s="158" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="142" t="s">
+        <v>352</v>
+      </c>
+      <c r="D11" s="202" t="s">
+        <v>333</v>
+      </c>
+      <c r="E11" s="170" t="s">
+        <v>283</v>
+      </c>
       <c r="F11" s="60"/>
       <c r="G11" s="77"/>
     </row>
     <row r="12" spans="1:7" s="88" customFormat="1">
-      <c r="A12" s="209"/>
-      <c r="B12" s="158" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" s="142" t="s">
+      <c r="A12" s="224"/>
+      <c r="B12" s="160" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="125" t="s">
+        <v>335</v>
+      </c>
+      <c r="D12" s="196" t="s">
+        <v>331</v>
+      </c>
+      <c r="E12" s="157"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="77"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="224"/>
+      <c r="B13" s="160"/>
+      <c r="C13" s="164" t="s">
+        <v>338</v>
+      </c>
+      <c r="D13" s="196" t="s">
+        <v>336</v>
+      </c>
+      <c r="E13" s="91"/>
+    </row>
+    <row r="14" spans="1:7" s="88" customFormat="1">
+      <c r="A14" s="224"/>
+      <c r="B14" s="160"/>
+      <c r="C14" s="125" t="s">
+        <v>339</v>
+      </c>
+      <c r="D14" s="196" t="s">
+        <v>337</v>
+      </c>
+      <c r="E14" s="130"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+    </row>
+    <row r="15" spans="1:7" s="81" customFormat="1">
+      <c r="A15" s="224"/>
+      <c r="B15" s="160" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="62" t="s">
+        <v>351</v>
+      </c>
+      <c r="D15" s="66" t="s">
+        <v>255</v>
+      </c>
+      <c r="E15" s="91"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="88"/>
+    </row>
+    <row r="16" spans="1:7" s="87" customFormat="1">
+      <c r="A16" s="224"/>
+      <c r="B16" s="160"/>
+      <c r="C16" s="129"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="81"/>
+    </row>
+    <row r="17" spans="1:6" s="87" customFormat="1">
+      <c r="A17" s="223" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="158"/>
+      <c r="C17" s="98" t="s">
+        <v>340</v>
+      </c>
+      <c r="D17" s="155" t="s">
+        <v>238</v>
+      </c>
+      <c r="E17" s="132"/>
+      <c r="F17" s="81"/>
+    </row>
+    <row r="18" spans="1:6" s="81" customFormat="1">
+      <c r="A18" s="223"/>
+      <c r="B18" s="161" t="s">
+        <v>348</v>
+      </c>
+      <c r="C18" s="98" t="s">
+        <v>344</v>
+      </c>
+      <c r="D18" s="155" t="s">
+        <v>346</v>
+      </c>
+      <c r="E18" s="132"/>
+    </row>
+    <row r="19" spans="1:6" s="86" customFormat="1">
+      <c r="A19" s="223"/>
+      <c r="B19" s="166" t="s">
+        <v>194</v>
+      </c>
+      <c r="C19" s="98" t="s">
+        <v>342</v>
+      </c>
+      <c r="D19" s="155" t="s">
+        <v>341</v>
+      </c>
+      <c r="E19" s="132"/>
+      <c r="F19" s="84"/>
+    </row>
+    <row r="20" spans="1:6" s="85" customFormat="1">
+      <c r="A20" s="223"/>
+      <c r="B20" s="158"/>
+      <c r="C20" s="98" t="s">
+        <v>343</v>
+      </c>
+      <c r="D20" s="155" t="s">
+        <v>208</v>
+      </c>
+      <c r="E20" s="132"/>
+      <c r="F20" s="89"/>
+    </row>
+    <row r="21" spans="1:6" s="81" customFormat="1">
+      <c r="A21" s="223"/>
+      <c r="B21" s="158" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="155" t="s">
+        <v>345</v>
+      </c>
+      <c r="D21" s="155" t="s">
+        <v>237</v>
+      </c>
+      <c r="E21" s="132"/>
+    </row>
+    <row r="22" spans="1:6" s="81" customFormat="1">
+      <c r="A22" s="223"/>
+      <c r="B22" s="158"/>
+      <c r="C22" s="98" t="s">
+        <v>347</v>
+      </c>
+      <c r="D22" s="155" t="s">
+        <v>210</v>
+      </c>
+      <c r="E22" s="91"/>
+      <c r="F22" s="88"/>
+    </row>
+    <row r="23" spans="1:6" s="88" customFormat="1">
+      <c r="A23" s="223"/>
+      <c r="B23" s="162"/>
+      <c r="C23" s="99" t="s">
+        <v>349</v>
+      </c>
+      <c r="D23" s="155" t="s">
+        <v>209</v>
+      </c>
+      <c r="E23" s="91"/>
+      <c r="F23" s="77"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="120"/>
+      <c r="B24" s="151"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="131"/>
+      <c r="E24" s="130"/>
+      <c r="F24" s="81"/>
+    </row>
+    <row r="25" spans="1:6" ht="27">
+      <c r="A25" s="192"/>
+      <c r="B25" s="191" t="s">
+        <v>315</v>
+      </c>
+      <c r="C25" s="145" t="s">
+        <v>365</v>
+      </c>
+      <c r="D25" s="144">
+        <v>3003059</v>
+      </c>
+      <c r="E25" s="190"/>
+      <c r="F25" s="152"/>
+    </row>
+    <row r="26" spans="1:6" s="81" customFormat="1">
+      <c r="A26" s="212" t="s">
+        <v>286</v>
+      </c>
+      <c r="B26" s="158" t="s">
+        <v>218</v>
+      </c>
+      <c r="C26" s="155" t="s">
+        <v>353</v>
+      </c>
+      <c r="D26" s="155" t="s">
+        <v>293</v>
+      </c>
+      <c r="E26" s="132"/>
+    </row>
+    <row r="27" spans="1:6" s="81" customFormat="1" ht="14.25">
+      <c r="A27" s="212"/>
+      <c r="B27" s="158" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="140" t="s">
+        <v>375</v>
+      </c>
+      <c r="D27" s="139">
+        <v>3003217</v>
+      </c>
+      <c r="E27" s="132"/>
+      <c r="F27" s="88"/>
+    </row>
+    <row r="28" spans="1:6" s="88" customFormat="1">
+      <c r="A28" s="212"/>
+      <c r="B28" s="158" t="s">
+        <v>219</v>
+      </c>
+      <c r="C28" s="155" t="s">
+        <v>376</v>
+      </c>
+      <c r="D28" s="155" t="s">
+        <v>368</v>
+      </c>
+      <c r="E28" s="91"/>
+      <c r="F28" s="77"/>
+    </row>
+    <row r="29" spans="1:6" ht="27">
+      <c r="A29" s="212"/>
+      <c r="B29" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="C29" s="101" t="s">
+        <v>366</v>
+      </c>
+      <c r="D29" s="155" t="s">
+        <v>217</v>
+      </c>
+      <c r="E29" s="63"/>
+      <c r="F29" s="81"/>
+    </row>
+    <row r="30" spans="1:6" s="90" customFormat="1" ht="18.75">
+      <c r="A30" s="212"/>
+      <c r="B30" s="137" t="s">
+        <v>263</v>
+      </c>
+      <c r="C30" s="140" t="s">
+        <v>370</v>
+      </c>
+      <c r="D30" s="167">
+        <v>3003227</v>
+      </c>
+      <c r="E30" s="171" t="s">
+        <v>272</v>
+      </c>
+      <c r="F30" s="81"/>
+    </row>
+    <row r="31" spans="1:6" s="81" customFormat="1" ht="18.75">
+      <c r="A31" s="212"/>
+      <c r="B31" s="138" t="s">
+        <v>371</v>
+      </c>
+      <c r="C31" s="140" t="s">
+        <v>372</v>
+      </c>
+      <c r="D31" s="167">
+        <v>3003224</v>
+      </c>
+      <c r="E31" s="172" t="s">
+        <v>272</v>
+      </c>
+      <c r="F31" s="88"/>
+    </row>
+    <row r="32" spans="1:6" s="152" customFormat="1">
+      <c r="A32" s="212"/>
+      <c r="B32" s="138"/>
+      <c r="C32" s="156" t="s">
+        <v>374</v>
+      </c>
+      <c r="D32" s="128" t="s">
+        <v>192</v>
+      </c>
+      <c r="E32" s="172"/>
+      <c r="F32" s="88"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="212"/>
+      <c r="B33" s="150"/>
+      <c r="C33" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="D33" s="130"/>
+      <c r="E33" s="130"/>
+    </row>
+    <row r="34" spans="1:6" ht="40.5">
+      <c r="A34" s="212"/>
+      <c r="B34" s="146" t="s">
+        <v>288</v>
+      </c>
+      <c r="C34" s="231" t="s">
+        <v>354</v>
+      </c>
+      <c r="D34" s="130" t="s">
+        <v>141</v>
+      </c>
+      <c r="E34" s="213" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="27">
+      <c r="A35" s="212"/>
+      <c r="B35" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="C35" s="231" t="s">
+        <v>355</v>
+      </c>
+      <c r="D35" s="175" t="s">
+        <v>289</v>
+      </c>
+      <c r="E35" s="214"/>
+    </row>
+    <row r="36" spans="1:6" ht="54">
+      <c r="A36" s="212"/>
+      <c r="B36" s="151" t="s">
+        <v>264</v>
+      </c>
+      <c r="C36" s="231" t="s">
+        <v>359</v>
+      </c>
+      <c r="D36" s="175" t="s">
+        <v>142</v>
+      </c>
+      <c r="E36" s="214"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="212"/>
+      <c r="B37" s="149"/>
+      <c r="C37" s="231" t="s">
+        <v>356</v>
+      </c>
+      <c r="D37" s="130" t="s">
+        <v>143</v>
+      </c>
+      <c r="E37" s="214"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="212"/>
+      <c r="B38" s="149"/>
+      <c r="C38" s="231" t="s">
+        <v>357</v>
+      </c>
+      <c r="D38" s="130" t="s">
+        <v>165</v>
+      </c>
+      <c r="E38" s="214"/>
+    </row>
+    <row r="39" spans="1:6" ht="27">
+      <c r="A39" s="212"/>
+      <c r="B39" s="165" t="s">
+        <v>230</v>
+      </c>
+      <c r="C39" s="123" t="s">
+        <v>358</v>
+      </c>
+      <c r="D39" s="130" t="s">
+        <v>187</v>
+      </c>
+      <c r="E39" s="214"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="212"/>
+      <c r="B40" s="149"/>
+      <c r="C40" s="123" t="s">
+        <v>360</v>
+      </c>
+      <c r="D40" s="201" t="s">
+        <v>186</v>
+      </c>
+      <c r="E40" s="214"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="212"/>
+      <c r="B41" s="149" t="s">
+        <v>145</v>
+      </c>
+      <c r="C41" s="123" t="s">
+        <v>361</v>
+      </c>
+      <c r="D41" s="130" t="s">
+        <v>144</v>
+      </c>
+      <c r="E41" s="214"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="212"/>
+      <c r="B42" s="149" t="s">
+        <v>146</v>
+      </c>
+      <c r="C42" s="123" t="s">
+        <v>362</v>
+      </c>
+      <c r="D42" s="130" t="s">
+        <v>166</v>
+      </c>
+      <c r="E42" s="214"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.25">
+      <c r="A43" s="212"/>
+      <c r="B43" s="220" t="s">
+        <v>350</v>
+      </c>
+      <c r="C43" s="144" t="s">
+        <v>373</v>
+      </c>
+      <c r="D43" s="168">
+        <v>3003223</v>
+      </c>
+      <c r="E43" s="171" t="s">
+        <v>272</v>
+      </c>
+      <c r="F43" s="153"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25">
+      <c r="A44" s="212"/>
+      <c r="B44" s="221"/>
+      <c r="C44" s="142" t="s">
+        <v>322</v>
+      </c>
+      <c r="D44" s="168" t="s">
+        <v>317</v>
+      </c>
+      <c r="E44" s="171" t="s">
+        <v>272</v>
+      </c>
+      <c r="F44" s="153"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.25">
+      <c r="A45" s="212"/>
+      <c r="B45" s="221"/>
+      <c r="C45" s="142" t="s">
+        <v>316</v>
+      </c>
+      <c r="D45" s="168" t="s">
+        <v>328</v>
+      </c>
+      <c r="E45" s="171" t="s">
+        <v>272</v>
+      </c>
+      <c r="F45" s="153"/>
+    </row>
+    <row r="46" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A46" s="136"/>
+      <c r="B46" s="149"/>
+      <c r="C46" s="123"/>
+      <c r="D46" s="130"/>
+      <c r="E46" s="130"/>
+    </row>
+    <row r="47" spans="1:6" ht="23.25" customHeight="1">
+      <c r="A47" s="223" t="s">
+        <v>247</v>
+      </c>
+      <c r="B47" s="163"/>
+      <c r="C47" s="155" t="s">
+        <v>261</v>
+      </c>
+      <c r="D47" s="135" t="s">
+        <v>276</v>
+      </c>
+      <c r="E47" s="145" t="s">
+        <v>266</v>
+      </c>
+      <c r="F47" s="60"/>
+    </row>
+    <row r="48" spans="1:6" ht="33.75" customHeight="1">
+      <c r="A48" s="223"/>
+      <c r="B48" s="147" t="s">
+        <v>136</v>
+      </c>
+      <c r="C48" s="147" t="s">
+        <v>125</v>
+      </c>
+      <c r="D48" s="147" t="s">
+        <v>294</v>
+      </c>
+      <c r="E48" s="149"/>
+      <c r="F48" s="91"/>
+    </row>
+    <row r="49" spans="1:6" ht="21" customHeight="1">
+      <c r="A49" s="223"/>
+      <c r="B49" s="149" t="s">
+        <v>245</v>
+      </c>
+      <c r="C49" s="142" t="s">
+        <v>297</v>
+      </c>
+      <c r="D49" s="111" t="s">
+        <v>275</v>
+      </c>
+      <c r="E49" s="144" t="s">
+        <v>273</v>
+      </c>
+      <c r="F49" s="92"/>
+    </row>
+    <row r="50" spans="1:6" ht="21" customHeight="1">
+      <c r="A50" s="223"/>
+      <c r="B50" s="149" t="s">
+        <v>244</v>
+      </c>
+      <c r="C50" s="59" t="s">
+        <v>246</v>
+      </c>
+      <c r="D50" s="111" t="s">
+        <v>254</v>
+      </c>
+      <c r="E50" s="149" t="s">
+        <v>274</v>
+      </c>
+      <c r="F50" s="92"/>
+    </row>
+    <row r="51" spans="1:6" ht="18.75">
+      <c r="A51" s="223"/>
+      <c r="B51" s="214" t="s">
+        <v>246</v>
+      </c>
+      <c r="C51" s="157" t="s">
+        <v>319</v>
+      </c>
+      <c r="D51" s="63">
+        <v>3003222</v>
+      </c>
+      <c r="E51" s="171" t="s">
+        <v>272</v>
+      </c>
+      <c r="F51" s="92"/>
+    </row>
+    <row r="52" spans="1:6" ht="18.75">
+      <c r="A52" s="223"/>
+      <c r="B52" s="221"/>
+      <c r="C52" s="144" t="s">
+        <v>320</v>
+      </c>
+      <c r="D52" s="63">
+        <v>3003226</v>
+      </c>
+      <c r="E52" s="171" t="s">
+        <v>272</v>
+      </c>
+      <c r="F52" s="92"/>
+    </row>
+    <row r="53" spans="1:6" ht="18.75">
+      <c r="A53" s="223"/>
+      <c r="B53" s="194" t="s">
+        <v>325</v>
+      </c>
+      <c r="C53" s="142" t="s">
         <v>327</v>
       </c>
-      <c r="D12" s="176" t="s">
-        <v>289</v>
-      </c>
-      <c r="E12" s="170" t="s">
-        <v>290</v>
-      </c>
-      <c r="F12" s="60"/>
-      <c r="G12" s="77"/>
-    </row>
-    <row r="13" spans="1:7" s="88" customFormat="1">
-      <c r="A13" s="209"/>
-      <c r="B13" s="160" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="125" t="s">
-        <v>211</v>
-      </c>
-      <c r="D13" s="175" t="s">
-        <v>221</v>
-      </c>
-      <c r="E13" s="157"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="209"/>
-      <c r="B14" s="160"/>
-      <c r="C14" s="164" t="s">
-        <v>274</v>
-      </c>
-      <c r="D14" s="130" t="s">
-        <v>128</v>
-      </c>
-      <c r="E14" s="91"/>
-    </row>
-    <row r="15" spans="1:7" s="88" customFormat="1">
-      <c r="A15" s="209"/>
-      <c r="B15" s="160"/>
-      <c r="C15" s="125" t="s">
-        <v>132</v>
-      </c>
-      <c r="D15" s="130" t="s">
-        <v>133</v>
-      </c>
-      <c r="E15" s="130"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-    </row>
-    <row r="16" spans="1:7" s="81" customFormat="1">
-      <c r="A16" s="209"/>
-      <c r="B16" s="160" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="62" t="s">
-        <v>228</v>
-      </c>
-      <c r="D16" s="66" t="s">
-        <v>256</v>
-      </c>
-      <c r="E16" s="91"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="88"/>
-    </row>
-    <row r="17" spans="1:7" s="87" customFormat="1">
-      <c r="A17" s="209"/>
-      <c r="B17" s="160"/>
-      <c r="C17" s="129"/>
-      <c r="D17" s="91"/>
-      <c r="E17" s="91"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="81"/>
-    </row>
-    <row r="18" spans="1:7" s="87" customFormat="1">
-      <c r="A18" s="208" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="158"/>
-      <c r="C18" s="98" t="s">
-        <v>194</v>
-      </c>
-      <c r="D18" s="95" t="s">
-        <v>238</v>
-      </c>
-      <c r="E18" s="132"/>
-      <c r="F18" s="81"/>
-    </row>
-    <row r="19" spans="1:7" s="81" customFormat="1">
-      <c r="A19" s="208"/>
-      <c r="B19" s="161" t="s">
-        <v>194</v>
-      </c>
-      <c r="C19" s="98" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="95" t="s">
-        <v>198</v>
-      </c>
-      <c r="E19" s="132"/>
-    </row>
-    <row r="20" spans="1:7" s="86" customFormat="1">
-      <c r="A20" s="208"/>
-      <c r="B20" s="166" t="s">
-        <v>194</v>
-      </c>
-      <c r="C20" s="98" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="95" t="s">
-        <v>207</v>
-      </c>
-      <c r="E20" s="132"/>
-      <c r="F20" s="84"/>
-    </row>
-    <row r="21" spans="1:7" s="85" customFormat="1">
-      <c r="A21" s="208"/>
-      <c r="B21" s="158"/>
-      <c r="C21" s="98" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="95" t="s">
-        <v>208</v>
-      </c>
-      <c r="E21" s="132"/>
-      <c r="F21" s="89"/>
-    </row>
-    <row r="22" spans="1:7" s="81" customFormat="1">
-      <c r="A22" s="208"/>
-      <c r="B22" s="158" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="95" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="95" t="s">
-        <v>237</v>
-      </c>
-      <c r="E22" s="132"/>
-    </row>
-    <row r="23" spans="1:7" s="81" customFormat="1">
-      <c r="A23" s="208"/>
-      <c r="B23" s="158"/>
-      <c r="C23" s="98" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="95" t="s">
-        <v>210</v>
-      </c>
-      <c r="E23" s="91"/>
-      <c r="F23" s="88"/>
-    </row>
-    <row r="24" spans="1:7" s="88" customFormat="1">
-      <c r="A24" s="208"/>
-      <c r="B24" s="162"/>
-      <c r="C24" s="99" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" s="95" t="s">
-        <v>209</v>
-      </c>
-      <c r="E24" s="91"/>
-      <c r="F24" s="77"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="120"/>
-      <c r="B25" s="151"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="131"/>
-      <c r="E25" s="130"/>
-      <c r="F25" s="81"/>
-    </row>
-    <row r="26" spans="1:7" ht="27">
-      <c r="A26" s="198"/>
-      <c r="B26" s="196" t="s">
-        <v>329</v>
-      </c>
-      <c r="C26" s="145" t="s">
-        <v>328</v>
-      </c>
-      <c r="D26" s="144">
-        <v>3003059</v>
-      </c>
-      <c r="E26" s="195"/>
-      <c r="F26" s="152"/>
-    </row>
-    <row r="27" spans="1:7" s="81" customFormat="1">
-      <c r="A27" s="214" t="s">
-        <v>293</v>
-      </c>
-      <c r="B27" s="158" t="s">
-        <v>218</v>
-      </c>
-      <c r="C27" s="155" t="s">
-        <v>303</v>
-      </c>
-      <c r="D27" s="155" t="s">
-        <v>304</v>
-      </c>
-      <c r="E27" s="132"/>
-    </row>
-    <row r="28" spans="1:7" s="81" customFormat="1" ht="14.25">
-      <c r="A28" s="214"/>
-      <c r="B28" s="158" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="140" t="s">
-        <v>266</v>
-      </c>
-      <c r="D28" s="139">
-        <v>3003217</v>
-      </c>
-      <c r="E28" s="132"/>
-      <c r="F28" s="88"/>
-    </row>
-    <row r="29" spans="1:7" s="88" customFormat="1">
-      <c r="A29" s="214"/>
-      <c r="B29" s="158" t="s">
-        <v>219</v>
-      </c>
-      <c r="C29" s="95" t="s">
-        <v>244</v>
-      </c>
-      <c r="D29" s="95" t="s">
-        <v>216</v>
-      </c>
-      <c r="E29" s="91"/>
-      <c r="F29" s="77"/>
-    </row>
-    <row r="30" spans="1:7" ht="27">
-      <c r="A30" s="214"/>
-      <c r="B30" s="181" t="s">
-        <v>305</v>
-      </c>
-      <c r="C30" s="101" t="s">
-        <v>46</v>
-      </c>
-      <c r="D30" s="95" t="s">
-        <v>217</v>
-      </c>
-      <c r="E30" s="63"/>
-      <c r="F30" s="81"/>
-    </row>
-    <row r="31" spans="1:7" s="90" customFormat="1" ht="18.75">
-      <c r="A31" s="214"/>
-      <c r="B31" s="137" t="s">
-        <v>264</v>
-      </c>
-      <c r="C31" s="124" t="s">
-        <v>265</v>
-      </c>
-      <c r="D31" s="167">
-        <v>3003227</v>
-      </c>
-      <c r="E31" s="171" t="s">
-        <v>278</v>
-      </c>
-      <c r="F31" s="81"/>
-    </row>
-    <row r="32" spans="1:7" s="81" customFormat="1" ht="18.75">
-      <c r="A32" s="214"/>
-      <c r="B32" s="138" t="s">
-        <v>214</v>
-      </c>
-      <c r="C32" s="140" t="s">
-        <v>265</v>
-      </c>
-      <c r="D32" s="167">
-        <v>3003224</v>
-      </c>
-      <c r="E32" s="172" t="s">
-        <v>278</v>
-      </c>
-      <c r="F32" s="88"/>
-    </row>
-    <row r="33" spans="1:6" s="152" customFormat="1">
-      <c r="A33" s="214"/>
-      <c r="B33" s="138"/>
-      <c r="C33" s="156" t="s">
+      <c r="D53" s="143">
+        <v>700020015</v>
+      </c>
+      <c r="E53" s="171" t="s">
+        <v>272</v>
+      </c>
+      <c r="F53" s="91"/>
+    </row>
+    <row r="54" spans="1:6" ht="18.75">
+      <c r="A54" s="223"/>
+      <c r="B54" s="150" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54" s="144" t="s">
+        <v>321</v>
+      </c>
+      <c r="D54" s="63">
+        <v>3003221</v>
+      </c>
+      <c r="E54" s="171" t="s">
+        <v>272</v>
+      </c>
+      <c r="F54" s="91"/>
+    </row>
+    <row r="55" spans="1:6" ht="20.25" customHeight="1">
+      <c r="A55" s="223"/>
+      <c r="B55" s="176" t="s">
+        <v>296</v>
+      </c>
+      <c r="C55" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="D55" s="134" t="s">
+        <v>251</v>
+      </c>
+      <c r="E55" s="130"/>
+      <c r="F55" s="91"/>
+    </row>
+    <row r="56" spans="1:6" ht="26.25" customHeight="1">
+      <c r="A56" s="223"/>
+      <c r="B56" s="176" t="s">
         <v>295</v>
       </c>
-      <c r="D33" s="128" t="s">
-        <v>192</v>
-      </c>
-      <c r="E33" s="172"/>
-      <c r="F33" s="88"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="214"/>
-      <c r="B34" s="150"/>
-      <c r="C34" s="67" t="s">
-        <v>112</v>
-      </c>
-      <c r="D34" s="130"/>
-      <c r="E34" s="130"/>
-    </row>
-    <row r="35" spans="1:6" ht="40.5">
-      <c r="A35" s="214"/>
-      <c r="B35" s="146" t="s">
-        <v>297</v>
-      </c>
-      <c r="C35" s="123" t="s">
-        <v>296</v>
-      </c>
-      <c r="D35" s="130" t="s">
-        <v>141</v>
-      </c>
-      <c r="E35" s="215" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="27">
-      <c r="A36" s="214"/>
-      <c r="B36" s="181" t="s">
-        <v>298</v>
-      </c>
-      <c r="C36" s="123" t="s">
-        <v>91</v>
-      </c>
-      <c r="D36" s="179" t="s">
-        <v>299</v>
-      </c>
-      <c r="E36" s="210"/>
-    </row>
-    <row r="37" spans="1:6" ht="54">
-      <c r="A37" s="214"/>
-      <c r="B37" s="151" t="s">
-        <v>267</v>
-      </c>
-      <c r="C37" s="123" t="s">
-        <v>163</v>
-      </c>
-      <c r="D37" s="179" t="s">
-        <v>142</v>
-      </c>
-      <c r="E37" s="210"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="214"/>
-      <c r="B38" s="149"/>
-      <c r="C38" s="123" t="s">
-        <v>205</v>
-      </c>
-      <c r="D38" s="130" t="s">
-        <v>143</v>
-      </c>
-      <c r="E38" s="210"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="214"/>
-      <c r="B39" s="149"/>
-      <c r="C39" s="123" t="s">
-        <v>164</v>
-      </c>
-      <c r="D39" s="130" t="s">
-        <v>165</v>
-      </c>
-      <c r="E39" s="210"/>
-    </row>
-    <row r="40" spans="1:6" ht="27">
-      <c r="A40" s="214"/>
-      <c r="B40" s="165" t="s">
-        <v>230</v>
-      </c>
-      <c r="C40" s="123" t="s">
-        <v>100</v>
-      </c>
-      <c r="D40" s="130" t="s">
-        <v>187</v>
-      </c>
-      <c r="E40" s="210"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="214"/>
-      <c r="B41" s="149"/>
-      <c r="C41" s="123" t="s">
-        <v>113</v>
-      </c>
-      <c r="D41" s="197" t="s">
-        <v>186</v>
-      </c>
-      <c r="E41" s="210"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="214"/>
-      <c r="B42" s="149" t="s">
-        <v>145</v>
-      </c>
-      <c r="C42" s="123" t="s">
-        <v>101</v>
-      </c>
-      <c r="D42" s="130" t="s">
-        <v>144</v>
-      </c>
-      <c r="E42" s="210"/>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="214"/>
-      <c r="B43" s="149" t="s">
-        <v>146</v>
-      </c>
-      <c r="C43" s="123" t="s">
-        <v>102</v>
-      </c>
-      <c r="D43" s="130" t="s">
-        <v>166</v>
-      </c>
-      <c r="E43" s="210"/>
-    </row>
-    <row r="44" spans="1:6" ht="14.25">
-      <c r="A44" s="214"/>
-      <c r="B44" s="221" t="s">
-        <v>333</v>
-      </c>
-      <c r="C44" s="144" t="s">
-        <v>331</v>
-      </c>
-      <c r="D44" s="168">
-        <v>3003223</v>
-      </c>
-      <c r="E44" s="171" t="s">
-        <v>278</v>
-      </c>
-      <c r="F44" s="153"/>
-    </row>
-    <row r="45" spans="1:6" ht="14.25">
-      <c r="A45" s="214"/>
-      <c r="B45" s="211"/>
-      <c r="C45" s="142" t="s">
-        <v>337</v>
-      </c>
-      <c r="D45" s="168" t="s">
-        <v>332</v>
-      </c>
-      <c r="E45" s="171" t="s">
-        <v>278</v>
-      </c>
-      <c r="F45" s="153"/>
-    </row>
-    <row r="46" spans="1:6" ht="14.25">
-      <c r="A46" s="214"/>
-      <c r="B46" s="211"/>
-      <c r="C46" s="142" t="s">
-        <v>330</v>
-      </c>
-      <c r="D46" s="168" t="s">
-        <v>344</v>
-      </c>
-      <c r="E46" s="171" t="s">
-        <v>278</v>
-      </c>
-      <c r="F46" s="153"/>
-    </row>
-    <row r="47" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A47" s="136"/>
-      <c r="B47" s="149"/>
-      <c r="C47" s="123"/>
-      <c r="D47" s="130"/>
-      <c r="E47" s="130"/>
-    </row>
-    <row r="48" spans="1:6" ht="23.25" customHeight="1">
-      <c r="A48" s="208" t="s">
+      <c r="C56" s="61" t="s">
         <v>248</v>
-      </c>
-      <c r="B48" s="163"/>
-      <c r="C48" s="155" t="s">
-        <v>262</v>
-      </c>
-      <c r="D48" s="135" t="s">
-        <v>282</v>
-      </c>
-      <c r="E48" s="145" t="s">
-        <v>269</v>
-      </c>
-      <c r="F48" s="60"/>
-    </row>
-    <row r="49" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A49" s="208"/>
-      <c r="B49" s="147" t="s">
-        <v>136</v>
-      </c>
-      <c r="C49" s="147" t="s">
-        <v>125</v>
-      </c>
-      <c r="D49" s="147" t="s">
-        <v>306</v>
-      </c>
-      <c r="E49" s="149"/>
-      <c r="F49" s="91"/>
-    </row>
-    <row r="50" spans="1:6" ht="21" customHeight="1">
-      <c r="A50" s="208"/>
-      <c r="B50" s="149" t="s">
-        <v>246</v>
-      </c>
-      <c r="C50" s="142" t="s">
-        <v>309</v>
-      </c>
-      <c r="D50" s="111" t="s">
-        <v>281</v>
-      </c>
-      <c r="E50" s="144" t="s">
-        <v>279</v>
-      </c>
-      <c r="F50" s="92"/>
-    </row>
-    <row r="51" spans="1:6" ht="21" customHeight="1">
-      <c r="A51" s="208"/>
-      <c r="B51" s="149" t="s">
-        <v>245</v>
-      </c>
-      <c r="C51" s="59" t="s">
-        <v>247</v>
-      </c>
-      <c r="D51" s="111" t="s">
-        <v>255</v>
-      </c>
-      <c r="E51" s="149" t="s">
-        <v>280</v>
-      </c>
-      <c r="F51" s="92"/>
-    </row>
-    <row r="52" spans="1:6" ht="18.75">
-      <c r="A52" s="208"/>
-      <c r="B52" s="210" t="s">
-        <v>247</v>
-      </c>
-      <c r="C52" s="157" t="s">
-        <v>334</v>
-      </c>
-      <c r="D52" s="63">
-        <v>3003222</v>
-      </c>
-      <c r="E52" s="171" t="s">
-        <v>278</v>
-      </c>
-      <c r="F52" s="92"/>
-    </row>
-    <row r="53" spans="1:6" ht="18.75">
-      <c r="A53" s="208"/>
-      <c r="B53" s="211"/>
-      <c r="C53" s="144" t="s">
-        <v>335</v>
-      </c>
-      <c r="D53" s="63">
-        <v>3003226</v>
-      </c>
-      <c r="E53" s="171" t="s">
-        <v>278</v>
-      </c>
-      <c r="F53" s="92"/>
-    </row>
-    <row r="54" spans="1:6" ht="18.75">
-      <c r="A54" s="208"/>
-      <c r="B54" s="200" t="s">
-        <v>341</v>
-      </c>
-      <c r="C54" s="142" t="s">
-        <v>343</v>
-      </c>
-      <c r="D54" s="143">
-        <v>700020015</v>
-      </c>
-      <c r="E54" s="171" t="s">
-        <v>278</v>
-      </c>
-      <c r="F54" s="91"/>
-    </row>
-    <row r="55" spans="1:6" ht="18.75">
-      <c r="A55" s="208"/>
-      <c r="B55" s="150" t="s">
-        <v>66</v>
-      </c>
-      <c r="C55" s="144" t="s">
-        <v>336</v>
-      </c>
-      <c r="D55" s="63">
-        <v>3003221</v>
-      </c>
-      <c r="E55" s="171" t="s">
-        <v>278</v>
-      </c>
-      <c r="F55" s="91"/>
-    </row>
-    <row r="56" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A56" s="208"/>
-      <c r="B56" s="180" t="s">
-        <v>308</v>
-      </c>
-      <c r="C56" s="59" t="s">
-        <v>61</v>
       </c>
       <c r="D56" s="134" t="s">
         <v>252</v>
       </c>
-      <c r="E56" s="130"/>
+      <c r="E56" s="134"/>
       <c r="F56" s="91"/>
     </row>
-    <row r="57" spans="1:6" ht="26.25" customHeight="1">
-      <c r="A57" s="208"/>
-      <c r="B57" s="180" t="s">
-        <v>307</v>
-      </c>
-      <c r="C57" s="61" t="s">
+    <row r="57" spans="1:6" ht="17.25" customHeight="1">
+      <c r="A57" s="223"/>
+      <c r="B57" s="160" t="s">
+        <v>248</v>
+      </c>
+      <c r="C57" s="133" t="s">
         <v>249</v>
       </c>
-      <c r="D57" s="134" t="s">
+      <c r="D57" s="91" t="s">
         <v>253</v>
       </c>
-      <c r="E57" s="134"/>
+      <c r="E57" s="130"/>
       <c r="F57" s="91"/>
     </row>
-    <row r="58" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A58" s="208"/>
-      <c r="B58" s="160" t="s">
-        <v>249</v>
-      </c>
-      <c r="C58" s="133" t="s">
+    <row r="58" spans="1:6" ht="22.5" customHeight="1">
+      <c r="A58" s="223"/>
+      <c r="B58" s="151" t="s">
         <v>250</v>
       </c>
-      <c r="D58" s="91" t="s">
-        <v>254</v>
+      <c r="C58" s="66" t="s">
+        <v>256</v>
+      </c>
+      <c r="D58" s="64" t="s">
+        <v>257</v>
       </c>
       <c r="E58" s="130"/>
       <c r="F58" s="91"/>
     </row>
-    <row r="59" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A59" s="208"/>
-      <c r="B59" s="151" t="s">
-        <v>251</v>
-      </c>
-      <c r="C59" s="66" t="s">
-        <v>257</v>
-      </c>
-      <c r="D59" s="64" t="s">
-        <v>258</v>
-      </c>
+    <row r="59" spans="1:6">
+      <c r="A59" s="132"/>
+      <c r="B59" s="151"/>
+      <c r="C59" s="66"/>
+      <c r="D59" s="131"/>
       <c r="E59" s="130"/>
       <c r="F59" s="91"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="132"/>
-      <c r="B60" s="151"/>
-      <c r="C60" s="66"/>
-      <c r="D60" s="131"/>
+      <c r="A60" s="132" t="s">
+        <v>69</v>
+      </c>
+      <c r="B60" s="149" t="s">
+        <v>121</v>
+      </c>
+      <c r="C60" s="193" t="s">
+        <v>323</v>
+      </c>
+      <c r="D60" s="130" t="s">
+        <v>120</v>
+      </c>
       <c r="E60" s="130"/>
       <c r="F60" s="91"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="132" t="s">
-        <v>69</v>
-      </c>
-      <c r="B61" s="149" t="s">
-        <v>121</v>
-      </c>
-      <c r="C61" s="199" t="s">
-        <v>338</v>
-      </c>
-      <c r="D61" s="130" t="s">
-        <v>120</v>
-      </c>
+      <c r="A61" s="132"/>
+      <c r="B61" s="149"/>
+      <c r="C61" s="130"/>
+      <c r="D61" s="130"/>
       <c r="E61" s="130"/>
       <c r="F61" s="91"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="132"/>
-      <c r="B62" s="149"/>
-      <c r="C62" s="130"/>
-      <c r="D62" s="130"/>
+      <c r="A62" s="225" t="s">
+        <v>181</v>
+      </c>
+      <c r="B62" s="144" t="s">
+        <v>148</v>
+      </c>
+      <c r="C62" s="148" t="s">
+        <v>308</v>
+      </c>
+      <c r="D62" s="190" t="s">
+        <v>147</v>
+      </c>
       <c r="E62" s="130"/>
       <c r="F62" s="91"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="226" t="s">
-        <v>181</v>
-      </c>
-      <c r="B63" s="144" t="s">
-        <v>148</v>
-      </c>
-      <c r="C63" s="148" t="s">
-        <v>320</v>
-      </c>
-      <c r="D63" s="195" t="s">
-        <v>147</v>
+      <c r="A63" s="226"/>
+      <c r="B63" s="148" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="178" t="s">
+        <v>307</v>
       </c>
       <c r="E63" s="130"/>
       <c r="F63" s="91"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="227"/>
+      <c r="A64" s="226"/>
       <c r="B64" s="148" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C64" s="73" t="s">
-        <v>7</v>
-      </c>
-      <c r="D64" s="183" t="s">
-        <v>319</v>
+        <v>36</v>
+      </c>
+      <c r="D64" s="177" t="s">
+        <v>309</v>
       </c>
       <c r="E64" s="130"/>
       <c r="F64" s="91"/>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="227"/>
+      <c r="A65" s="226"/>
       <c r="B65" s="148" t="s">
-        <v>7</v>
-      </c>
-      <c r="C65" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="D65" s="182" t="s">
-        <v>321</v>
+        <v>17</v>
+      </c>
+      <c r="C65" s="178" t="s">
+        <v>306</v>
+      </c>
+      <c r="D65" s="178" t="s">
+        <v>151</v>
       </c>
       <c r="E65" s="130"/>
       <c r="F65" s="91"/>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="227"/>
-      <c r="B66" s="148" t="s">
-        <v>17</v>
-      </c>
-      <c r="C66" s="183" t="s">
-        <v>318</v>
-      </c>
-      <c r="D66" s="183" t="s">
-        <v>151</v>
+      <c r="A66" s="226"/>
+      <c r="B66" s="144" t="s">
+        <v>18</v>
+      </c>
+      <c r="C66" s="130" t="s">
+        <v>59</v>
+      </c>
+      <c r="D66" s="134" t="s">
+        <v>149</v>
       </c>
       <c r="E66" s="130"/>
       <c r="F66" s="91"/>
     </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="227"/>
-      <c r="B67" s="144" t="s">
-        <v>18</v>
+    <row r="67" spans="1:6" ht="14.25">
+      <c r="A67" s="226"/>
+      <c r="B67" s="142" t="s">
+        <v>154</v>
       </c>
       <c r="C67" s="130" t="s">
-        <v>59</v>
-      </c>
-      <c r="D67" s="134" t="s">
-        <v>149</v>
+        <v>173</v>
+      </c>
+      <c r="D67" s="168">
+        <v>3003219</v>
       </c>
       <c r="E67" s="130"/>
       <c r="F67" s="91"/>
     </row>
     <row r="68" spans="1:6" ht="14.25">
-      <c r="A68" s="227"/>
-      <c r="B68" s="142" t="s">
-        <v>154</v>
-      </c>
-      <c r="C68" s="130" t="s">
-        <v>173</v>
-      </c>
-      <c r="D68" s="168">
-        <v>3003219</v>
+      <c r="A68" s="226"/>
+      <c r="B68" s="144"/>
+      <c r="C68" s="148" t="s">
+        <v>326</v>
+      </c>
+      <c r="D68" s="168" t="s">
+        <v>310</v>
       </c>
       <c r="E68" s="130"/>
       <c r="F68" s="91"/>
     </row>
     <row r="69" spans="1:6" ht="14.25">
-      <c r="A69" s="227"/>
-      <c r="B69" s="144"/>
-      <c r="C69" s="148" t="s">
-        <v>342</v>
-      </c>
-      <c r="D69" s="168" t="s">
-        <v>322</v>
+      <c r="A69" s="226"/>
+      <c r="B69" s="148" t="s">
+        <v>174</v>
+      </c>
+      <c r="C69" s="74" t="s">
+        <v>25</v>
+      </c>
+      <c r="D69" s="169">
+        <v>3003228</v>
       </c>
       <c r="E69" s="130"/>
-      <c r="F69" s="91"/>
+      <c r="F69" s="213" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="70" spans="1:6" ht="14.25">
-      <c r="A70" s="227"/>
+      <c r="A70" s="226"/>
       <c r="B70" s="148" t="s">
-        <v>174</v>
+        <v>25</v>
       </c>
       <c r="C70" s="74" t="s">
-        <v>25</v>
+        <v>258</v>
       </c>
       <c r="D70" s="169">
-        <v>3003228</v>
+        <v>3003229</v>
       </c>
       <c r="E70" s="130"/>
-      <c r="F70" s="215" t="s">
+      <c r="F70" s="213"/>
+    </row>
+    <row r="71" spans="1:6" ht="14.25">
+      <c r="A71" s="226"/>
+      <c r="B71" s="144" t="s">
+        <v>314</v>
+      </c>
+      <c r="C71" s="179" t="s">
+        <v>312</v>
+      </c>
+      <c r="D71" s="169">
+        <v>3003230</v>
+      </c>
+      <c r="E71" s="130"/>
+      <c r="F71" s="91"/>
+    </row>
+    <row r="72" spans="1:6" ht="14.25">
+      <c r="A72" s="226"/>
+      <c r="B72" s="144" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" ht="14.25">
-      <c r="A71" s="227"/>
-      <c r="B71" s="148" t="s">
-        <v>25</v>
-      </c>
-      <c r="C71" s="74" t="s">
-        <v>259</v>
-      </c>
-      <c r="D71" s="169">
-        <v>3003229</v>
-      </c>
-      <c r="E71" s="130"/>
-      <c r="F71" s="215"/>
-    </row>
-    <row r="72" spans="1:6" ht="14.25">
-      <c r="A72" s="227"/>
-      <c r="B72" s="144" t="s">
-        <v>326</v>
-      </c>
-      <c r="C72" s="184" t="s">
-        <v>324</v>
+      <c r="C72" s="128" t="s">
+        <v>177</v>
       </c>
       <c r="D72" s="169">
-        <v>3003230</v>
+        <v>3003231</v>
       </c>
       <c r="E72" s="130"/>
       <c r="F72" s="91"/>
     </row>
-    <row r="73" spans="1:6" ht="14.25">
-      <c r="A73" s="227"/>
-      <c r="B73" s="144" t="s">
-        <v>261</v>
-      </c>
-      <c r="C73" s="128" t="s">
-        <v>177</v>
-      </c>
-      <c r="D73" s="169">
-        <v>3003231</v>
-      </c>
-      <c r="E73" s="130"/>
-      <c r="F73" s="91"/>
-    </row>
-    <row r="74" spans="1:6" s="178" customFormat="1" ht="21" customHeight="1">
-      <c r="A74" s="227"/>
-      <c r="B74" s="85" t="s">
-        <v>291</v>
-      </c>
-      <c r="C74" s="85" t="s">
-        <v>339</v>
-      </c>
-      <c r="D74" s="85">
+    <row r="73" spans="1:6" s="200" customFormat="1" ht="21" customHeight="1">
+      <c r="A73" s="226"/>
+      <c r="B73" s="198" t="s">
+        <v>284</v>
+      </c>
+      <c r="C73" s="198" t="s">
+        <v>330</v>
+      </c>
+      <c r="D73" s="198">
         <v>4001002</v>
       </c>
-      <c r="E74" s="177"/>
-    </row>
-    <row r="75" spans="1:6" ht="21.75" customHeight="1"/>
-    <row r="78" spans="1:6">
-      <c r="C78" s="190"/>
-      <c r="D78" s="190"/>
-    </row>
-    <row r="79" spans="1:6" ht="40.5" customHeight="1">
-      <c r="A79" s="224" t="s">
-        <v>312</v>
-      </c>
-      <c r="B79" s="188" t="s">
-        <v>311</v>
-      </c>
-      <c r="C79" s="186" t="s">
-        <v>313</v>
-      </c>
-      <c r="D79" s="186">
+      <c r="E73" s="199"/>
+    </row>
+    <row r="74" spans="1:6" ht="21.75" customHeight="1"/>
+    <row r="77" spans="1:6">
+      <c r="C77" s="185"/>
+      <c r="D77" s="185"/>
+    </row>
+    <row r="78" spans="1:6" ht="40.5" customHeight="1">
+      <c r="A78" s="229" t="s">
+        <v>300</v>
+      </c>
+      <c r="B78" s="183" t="s">
+        <v>299</v>
+      </c>
+      <c r="C78" s="181" t="s">
+        <v>301</v>
+      </c>
+      <c r="D78" s="181">
         <v>4001003</v>
       </c>
-      <c r="E79" s="193"/>
-    </row>
-    <row r="80" spans="1:6" ht="27" customHeight="1">
-      <c r="A80" s="225"/>
-      <c r="B80" s="186" t="s">
-        <v>345</v>
-      </c>
-      <c r="C80" s="186" t="s">
-        <v>314</v>
-      </c>
-      <c r="D80" s="186">
+      <c r="E78" s="188"/>
+    </row>
+    <row r="79" spans="1:6" ht="27" customHeight="1">
+      <c r="A79" s="230"/>
+      <c r="B79" s="181" t="s">
+        <v>329</v>
+      </c>
+      <c r="C79" s="181" t="s">
+        <v>302</v>
+      </c>
+      <c r="D79" s="181">
         <v>700020029</v>
       </c>
-      <c r="E80" s="191"/>
-    </row>
-    <row r="81" spans="1:5" ht="42.75" customHeight="1">
-      <c r="A81" s="225"/>
-      <c r="B81" s="187" t="s">
-        <v>315</v>
-      </c>
-      <c r="C81" s="186" t="s">
-        <v>316</v>
-      </c>
-      <c r="D81" s="186"/>
-      <c r="E81" s="192"/>
-    </row>
-    <row r="82" spans="1:5" ht="26.25" customHeight="1">
-      <c r="A82" s="225"/>
-      <c r="B82" s="186"/>
-      <c r="C82" s="186" t="s">
-        <v>317</v>
-      </c>
-      <c r="D82" s="186"/>
-      <c r="E82" s="191"/>
+      <c r="E79" s="186"/>
+    </row>
+    <row r="80" spans="1:6" ht="42.75" customHeight="1">
+      <c r="A80" s="230"/>
+      <c r="B80" s="182" t="s">
+        <v>303</v>
+      </c>
+      <c r="C80" s="181" t="s">
+        <v>304</v>
+      </c>
+      <c r="D80" s="181"/>
+      <c r="E80" s="187"/>
+    </row>
+    <row r="81" spans="1:5" ht="26.25" customHeight="1">
+      <c r="A81" s="230"/>
+      <c r="B81" s="181"/>
+      <c r="C81" s="181" t="s">
+        <v>305</v>
+      </c>
+      <c r="D81" s="181"/>
+      <c r="E81" s="186"/>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="184"/>
+      <c r="B82" s="227"/>
+      <c r="C82" s="227"/>
+      <c r="D82" s="227"/>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="189"/>
-      <c r="B83" s="222"/>
-      <c r="C83" s="222"/>
-      <c r="D83" s="222"/>
+      <c r="B83" s="228"/>
+      <c r="C83" s="228"/>
+      <c r="D83" s="228"/>
     </row>
     <row r="84" spans="1:5">
-      <c r="B84" s="223"/>
-      <c r="C84" s="223"/>
-      <c r="D84" s="223"/>
+      <c r="B84" s="228"/>
+      <c r="C84" s="228"/>
+      <c r="D84" s="228"/>
     </row>
     <row r="85" spans="1:5">
-      <c r="B85" s="223"/>
-      <c r="C85" s="223"/>
-      <c r="D85" s="223"/>
+      <c r="B85" s="228"/>
+      <c r="C85" s="228"/>
+      <c r="D85" s="228"/>
     </row>
     <row r="86" spans="1:5">
-      <c r="B86" s="223"/>
-      <c r="C86" s="223"/>
-      <c r="D86" s="223"/>
+      <c r="B86" s="228"/>
+      <c r="C86" s="228"/>
+      <c r="D86" s="228"/>
+      <c r="E86" s="152"/>
     </row>
     <row r="87" spans="1:5">
-      <c r="B87" s="223"/>
-      <c r="C87" s="223"/>
-      <c r="D87" s="223"/>
-      <c r="E87" s="152"/>
+      <c r="B87" s="228"/>
+      <c r="C87" s="228"/>
+      <c r="D87" s="228"/>
     </row>
     <row r="88" spans="1:5">
-      <c r="B88" s="223"/>
-      <c r="C88" s="223"/>
-      <c r="D88" s="223"/>
+      <c r="B88" s="228"/>
+      <c r="C88" s="228"/>
+      <c r="D88" s="228"/>
     </row>
     <row r="89" spans="1:5">
-      <c r="B89" s="223"/>
-      <c r="C89" s="223"/>
-      <c r="D89" s="223"/>
+      <c r="B89" s="228"/>
+      <c r="C89" s="228"/>
+      <c r="D89" s="228"/>
     </row>
     <row r="90" spans="1:5">
-      <c r="B90" s="223"/>
-      <c r="C90" s="223"/>
-      <c r="D90" s="223"/>
+      <c r="B90" s="228"/>
+      <c r="C90" s="228"/>
+      <c r="D90" s="228"/>
     </row>
     <row r="91" spans="1:5">
-      <c r="B91" s="223"/>
-      <c r="C91" s="223"/>
-      <c r="D91" s="223"/>
+      <c r="B91" s="228"/>
+      <c r="C91" s="228"/>
+      <c r="D91" s="228"/>
     </row>
     <row r="92" spans="1:5">
-      <c r="B92" s="223"/>
-      <c r="C92" s="223"/>
-      <c r="D92" s="223"/>
-    </row>
-    <row r="93" spans="1:5">
-      <c r="B93" s="223"/>
-      <c r="C93" s="223"/>
-      <c r="D93" s="223"/>
-    </row>
-    <row r="94" spans="1:5" ht="57.75" customHeight="1">
-      <c r="B94" s="223"/>
-      <c r="C94" s="223"/>
-      <c r="D94" s="223"/>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="B95" s="185"/>
-      <c r="C95" s="185"/>
-      <c r="D95" s="152"/>
+      <c r="B92" s="228"/>
+      <c r="C92" s="228"/>
+      <c r="D92" s="228"/>
+    </row>
+    <row r="93" spans="1:5" ht="57.75" customHeight="1">
+      <c r="B93" s="228"/>
+      <c r="C93" s="228"/>
+      <c r="D93" s="228"/>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="B94" s="180"/>
+      <c r="C94" s="180"/>
+      <c r="D94" s="152"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="A48:A59"/>
-    <mergeCell ref="E35:E43"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="A27:A46"/>
-    <mergeCell ref="A63:A74"/>
-    <mergeCell ref="B83:D94"/>
-    <mergeCell ref="A79:A82"/>
+    <mergeCell ref="B82:D93"/>
+    <mergeCell ref="A78:A81"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A10:A17"/>
-    <mergeCell ref="A18:A24"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="A17:A23"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="A47:A58"/>
+    <mergeCell ref="E34:E42"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="A26:A45"/>
+    <mergeCell ref="A62:A73"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B36" r:id="rId1"/>
-    <hyperlink ref="B30" r:id="rId2"/>
-  </hyperlinks>
+  <conditionalFormatting sqref="A25:E45">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>3003143</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="3001099">
+      <formula>NOT(ISERROR(SEARCH("3001099",A25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-  <drawing r:id="rId4"/>
-  <legacyDrawing r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>